--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.80161728110544</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-226.5463714207196</v>
+        <v>18.6760904871006</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-27.03137345884486</v>
+        <v>48.47801926362631</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.172544788575332</v>
+        <v>63.23060859342297</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-923.7407796125137</v>
+        <v>56.98331034444962</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-923.0668330393489</v>
+        <v>59.02617726908038</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-921.9869518201891</v>
+        <v>58.30202717001414</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-188.9336231943907</v>
+        <v>61.01734204064415</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-23.57744679652094</v>
+        <v>61.18533864257047</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2.738561944547101</v>
+        <v>65.05853475627984</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-845.4156396649161</v>
+        <v>60.77033791432428</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-822.1516176675756</v>
+        <v>61.75692967658009</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-841.9465015314321</v>
+        <v>61.41992722718596</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-154.572085605344</v>
+        <v>63.07871660287965</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-20.13103639603035</v>
+        <v>63.41133357830343</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>4.189311936171071</v>
+        <v>66.31628035659723</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-764.6241382329283</v>
+        <v>62.46462964458426</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-679.4621311657406</v>
+        <v>63.24195945638795</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-759.5741556956583</v>
+        <v>63.01195319490576</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-123.2902925372116</v>
+        <v>64.31690309294288</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.01877940693619</v>
+        <v>64.70563447792638</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>5.545517812008822</v>
+        <v>66.8635988246762</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-680.705662957209</v>
+        <v>63.26825937204099</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-435.3223655286937</v>
+        <v>63.83920844392961</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-674.4660483312335</v>
+        <v>63.71601760388319</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-94.884252178594</v>
+        <v>64.76152655729932</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.35840196505153</v>
+        <v>65.18829268671922</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>6.838696660651146</v>
+        <v>67.16665251737926</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-592.8041254555772</v>
+        <v>63.64004406258135</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-150.6823284929581</v>
+        <v>64.19127571152913</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-583.8622580542414</v>
+        <v>64.0816766081124</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-69.13654236430894</v>
+        <v>65.09263639063619</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-11.69976397034255</v>
+        <v>65.5229267671935</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>8.070103591502923</v>
+        <v>67.44566426358341</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-500.6131809790087</v>
+        <v>63.98830830730471</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-116.3282101177606</v>
+        <v>64.51358857583284</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-480.581162323038</v>
+        <v>64.41696517604113</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-46.52201753465135</v>
+        <v>65.39775797194562</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-9.545165147331307</v>
+        <v>65.83083295870625</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>9.240827050434314</v>
+        <v>67.70582368031401</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-401.5482859546045</v>
+        <v>64.29439869351717</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-86.16106150782407</v>
+        <v>64.8131669433206</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-360.0318713453182</v>
+        <v>64.72182788847735</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-28.05531863558227</v>
+        <v>65.69060740433237</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-7.390683299355669</v>
+        <v>66.12529355445075</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>10.34707160293245</v>
+        <v>67.94753604489622</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-291.2603615169905</v>
+        <v>64.58915882792709</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-60.14754192486768</v>
+        <v>65.08751912959758</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-215.6748094931398</v>
+        <v>65.00715488201514</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-14.12669927376195</v>
+        <v>65.95191973197468</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-5.41134253530689</v>
+        <v>66.38930106516433</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>11.39469222345875</v>
+        <v>68.16973658063201</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-168.2979711897369</v>
+        <v>64.85036617218613</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-39.38119840644283</v>
+        <v>65.33265726598907</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-40.23615958799696</v>
+        <v>65.25875872486385</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-11.75355750308227</v>
+        <v>66.18434795446878</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.59983273671733</v>
+        <v>66.62447576234788</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>12.37651937849019</v>
+        <v>68.35997749904415</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-31.01673544886172</v>
+        <v>65.07872572895904</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-20.23000572851837</v>
+        <v>65.55449828335736</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-19.64436625566811</v>
+        <v>65.48275604058077</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-8.952736883315337</v>
+        <v>66.39075255571147</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-2.153817449891714</v>
+        <v>66.83433159336673</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>13.30098084924045</v>
+        <v>68.53912776321636</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.029262484265779</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-936.0249134416409</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-226.1160238380852</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-26.25807304288993</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1.223814216972494</v>
+        <v>62.68224152928625</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-923.6286260956016</v>
+        <v>51.91480718369814</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-837.804574555465</v>
+        <v>58.29216756789206</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-921.8988454061231</v>
+        <v>56.81595589802598</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-188.4076969068234</v>
+        <v>60.48840599516331</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-22.77502213109425</v>
+        <v>60.65406042587405</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>2.792237043832642</v>
+        <v>64.7751961218403</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-845.2943690365551</v>
+        <v>60.46894592987228</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-822.0819023898092</v>
+        <v>61.4389034101429</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-841.8523593729509</v>
+        <v>61.11896851339531</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-153.908724869841</v>
+        <v>62.83704885255541</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-19.29759059815209</v>
+        <v>63.12321061874591</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>4.245586967927297</v>
+        <v>66.12829478576107</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-764.4924433271248</v>
+        <v>62.2430156913691</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-679.3883642829335</v>
+        <v>63.02710873413816</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-759.4732552368425</v>
+        <v>62.80311440750758</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-122.4161796948271</v>
+        <v>64.17838932788318</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-16.67706044005967</v>
+        <v>64.54966855889298</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>5.604609739350739</v>
+        <v>66.80328274072818</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-680.5619579890479</v>
+        <v>63.18902411817853</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-435.2516271997536</v>
+        <v>63.77510400825148</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-674.3575397406946</v>
+        <v>63.64440611915325</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-93.65521092937085</v>
+        <v>64.70964023555142</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.0596723004258</v>
+        <v>65.13317790484832</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>6.900848678065984</v>
+        <v>67.1102007044516</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-592.6464646245721</v>
+        <v>63.56683509712779</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-150.6110692127692</v>
+        <v>64.13143923505208</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-583.752683989969</v>
+        <v>64.0151769734855</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-67.71612574513038</v>
+        <v>65.04377192978737</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-11.64724874693331</v>
+        <v>65.47114716401927</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8.135589349754341</v>
+        <v>67.39268080433588</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-500.4391459514525</v>
+        <v>63.92039809894963</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-116.2527455275723</v>
+        <v>64.45756635227167</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-480.4628273038721</v>
+        <v>64.35499649450337</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-45.25245500577103</v>
+        <v>65.35163289492139</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-9.485320355369973</v>
+        <v>65.78206506127447</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>9.298560051997207</v>
+        <v>67.65596723655696</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-401.3719002900632</v>
+        <v>64.23117708545523</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-86.08874092763728</v>
+        <v>64.76057006823116</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-359.9035411241369</v>
+        <v>64.6638977108486</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-26.72876537949276</v>
+        <v>65.64697488293251</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-7.336162103979412</v>
+        <v>66.07925618934263</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>10.40480381019112</v>
+        <v>67.90051054648183</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-291.064095602628</v>
+        <v>64.53010975058623</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-60.0709089919778</v>
+        <v>65.03801206180221</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-215.5349916062027</v>
+        <v>64.95284260536091</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-13.59553089092041</v>
+        <v>65.91056300184211</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-5.338201647992337</v>
+        <v>66.34574850022167</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>11.44865110727975</v>
+        <v>68.12528378562057</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-168.0777800321973</v>
+        <v>64.7950497672834</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-39.29980660989348</v>
+        <v>65.28594876463602</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-40.14172316619251</v>
+        <v>65.20770264871031</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-11.26871603301229</v>
+        <v>66.14507576386328</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-3.522295987192297</v>
+        <v>66.58319216068134</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>12.43291908801672</v>
+        <v>68.33111172081286</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-30.7362179422009</v>
+        <v>65.04372675120993</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-20.10348473681893</v>
+        <v>65.51033415851975</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-19.45985270219527</v>
+        <v>65.43980573831088</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-8.8819548973149</v>
+        <v>66.35339542923028</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-2.077028392444119</v>
+        <v>66.79512649277815</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>13.36020804028572</v>
+        <v>68.51417831474744</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-26.57200503864967</v>
+        <v>65.26241287075614</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-17.41125134725646</v>
+        <v>65.7149961726867</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-16.68291572367401</v>
+        <v>65.65512643154351</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-7.171471097697943</v>
+        <v>66.53412288753783</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.7938122212261076</v>
+        <v>66.97951746730236</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>14.23242313714284</v>
+        <v>68.67385859700768</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-23.15446238534866</v>
+        <v>65.45234015469624</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-14.81330192097736</v>
+        <v>65.89902455102296</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-14.31586766514222</v>
+        <v>65.84535278393233</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-5.468761052608086</v>
+        <v>66.70583611552658</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4030683074453766</v>
+        <v>67.15497817930385</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>15.05064920189245</v>
+        <v>68.81916191863534</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.5413131587109931</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-927.6497221191237</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="274">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-225.8048820087735</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-25.76968658380207</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>1.270913897102139</v>
+        <v>61.64187166199785</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-923.5311609808601</v>
+        <v>-199.7613282086455</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-826.9164683897955</v>
+        <v>56.17369679766011</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-921.8207253478455</v>
+        <v>-196.9299374564369</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-188.0429383137965</v>
+        <v>59.98781732860483</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-22.27329073602262</v>
+        <v>59.97767540061958</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>2.841420684843123</v>
+        <v>64.5455483074586</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-845.1897331173651</v>
+        <v>60.03348979549374</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-686.4720521675574</v>
+        <v>61.17342599711328</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-841.7693221964648</v>
+        <v>60.79549321838433</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-153.4728744667644</v>
+        <v>62.51314743913484</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-18.78189146736284</v>
+        <v>62.80776610043038</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>4.297012957383189</v>
+        <v>65.95368637309005</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-764.3797112938051</v>
+        <v>61.92204085414057</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-440.504534096481</v>
+        <v>62.8174687341841</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-759.3847622400773</v>
+        <v>62.55216571773369</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-121.8825401555016</v>
+        <v>63.99864532782264</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-16.14672904838161</v>
+        <v>64.34240342904025</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>5.658453850962858</v>
+        <v>66.73363900323091</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-680.4400281339058</v>
+        <v>63.09470283989216</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-156.1059464523111</v>
+        <v>63.70061968290476</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-674.262965760517</v>
+        <v>63.56018012776099</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-92.98043644011081</v>
+        <v>64.65058443071153</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-13.5139987096321</v>
+        <v>65.07009712409253</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>6.957306605600294</v>
+        <v>67.04544208271165</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-592.5140130750208</v>
+        <v>63.48408758689366</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-124.0761112614434</v>
+        <v>64.0624046923753</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-583.6572634183802</v>
+        <v>63.93760600765282</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-66.82379526568884</v>
+        <v>64.98844949156901</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-11.38602995252277</v>
+        <v>65.41222376699582</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>8.194879707554557</v>
+        <v>67.33226138088924</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-500.2945654868839</v>
+        <v>63.84244669663386</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-92.15469524094301</v>
+        <v>64.39334751933652</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-480.3604909615553</v>
+        <v>64.283247387727</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-44.16224068728986</v>
+        <v>65.29966618885884</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-9.258932146711384</v>
+        <v>65.72686137725199</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>9.360927947221285</v>
+        <v>67.6004305389458</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-401.2255970368304</v>
+        <v>64.17863187281394</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-69.34048318241908</v>
+        <v>64.70063161985348</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-359.7934106027471</v>
+        <v>64.59727645646834</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-25.39247029075268</v>
+        <v>65.5980376955992</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-7.273780132995096</v>
+        <v>66.02739647751733</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>10.46261292224777</v>
+        <v>67.85282516838726</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-290.9033989788115</v>
+        <v>64.47380669114726</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-46.5782403412415</v>
+        <v>64.98189848026782</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-215.4160238108762</v>
+        <v>64.89076581610587</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-13.22793743300851</v>
+        <v>65.86437187203421</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-5.272464977788335</v>
+        <v>66.29690811592207</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>11.50434756607968</v>
+        <v>68.08740416928306</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-167.9001610123959</v>
+        <v>64.75866272105684</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-36.07350476834675</v>
+        <v>65.23364569089645</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-40.05844735177986</v>
+        <v>65.16518561718887</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-10.82904319958386</v>
+        <v>66.10138303614261</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-3.452892646762537</v>
+        <v>66.53708895220244</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>12.4859423541554</v>
+        <v>68.30303282029558</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-30.51768305352396</v>
+        <v>65.01085015215752</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-19.99475765480995</v>
+        <v>65.47172029567326</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-19.30762703002868</v>
+        <v>65.4087530023325</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-8.818196244060296</v>
+        <v>66.31198363936169</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-2.003604208112751</v>
+        <v>66.75151390544936</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>13.41416797448865</v>
+        <v>68.48720308581515</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-26.37135237796918</v>
+        <v>65.23096669749721</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-17.30145519888599</v>
+        <v>65.68705166536023</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-16.54061643144906</v>
+        <v>65.62537606260494</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-7.107274523843716</v>
+        <v>66.50545239163938</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-0.7280016464317043</v>
+        <v>66.9539440991598</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>14.28900641924255</v>
+        <v>68.64791657043186</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-22.96786417434604</v>
+        <v>65.4222235799558</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-14.70241905729928</v>
+        <v>65.87217503822832</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-14.18245994896875</v>
+        <v>65.81681620205015</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-5.404121520130976</v>
+        <v>66.67967733012847</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>0.4677156574577049</v>
+        <v>67.13035112520113</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>15.11007558210887</v>
+        <v>68.79418876867908</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-20.02179186430835</v>
+        <v>65.59566395337595</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-12.68085249782923</v>
+        <v>66.03533187409067</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-12.10732111094507</v>
+        <v>65.98502622811428</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-4.052389039291407</v>
+        <v>66.84534129398415</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>1.688560153449727</v>
+        <v>67.29544013471694</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>15.87684719644447</v>
+        <v>68.92965653221547</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-17.45616773318906</v>
+        <v>65.74907213703133</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-10.73445674120435</v>
+        <v>66.18155347791139</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-10.2453215266902</v>
+        <v>66.13481600039283</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-2.700871002531025</v>
+        <v>66.98621321484362</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>2.933384160609436</v>
+        <v>67.43751568685992</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>16.58888892388331</v>
+        <v>69.04890805204049</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0.1974103835933835</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="380">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-925.9683319299731</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-938.7923325710282</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-225.5664454634463</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-25.42554049286268</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>1.314380028517429</v>
+        <v>60.72579104075692</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-923.4454347764815</v>
+        <v>-455.497171197695</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-825.1236681507795</v>
+        <v>-197.4319457159648</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-921.7508373266065</v>
+        <v>-203.792024684066</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-187.7709165946574</v>
+        <v>58.95447636579161</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-21.92175358397197</v>
+        <v>58.19237590042474</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>2.886706237137826</v>
+        <v>64.24557589642609</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-845.0982465496519</v>
+        <v>59.21838784154269</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-683.1180996031873</v>
+        <v>60.81201421728262</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-841.6953654930855</v>
+        <v>60.26271353804614</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-153.1585411765578</v>
+        <v>62.23829574309162</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-18.42269384023648</v>
+        <v>62.55272675926641</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>4.344248533207298</v>
+        <v>65.71824775603567</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-764.2817885979368</v>
+        <v>61.65391368242703</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-438.4465447534436</v>
+        <v>62.54210794040005</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-759.3063259553724</v>
+        <v>62.25487325284721</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-121.5136139339878</v>
+        <v>63.78035222992007</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-15.77958752629317</v>
+        <v>64.12949450855125</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>5.707783569125501</v>
+        <v>66.65198564840659</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-680.3348770187267</v>
+        <v>62.97980758690899</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-153.8887148497627</v>
+        <v>63.6126133740514</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-674.1795784250637</v>
+        <v>63.45914032126205</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-92.53896434819215</v>
+        <v>64.58253974564872</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-13.13861491277915</v>
+        <v>64.99692578585741</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>7.008889954782804</v>
+        <v>66.99758733741511</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-592.4006975305227</v>
+        <v>63.43713365457193</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-120.3526044107886</v>
+        <v>63.98154504604405</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-583.573190216052</v>
+        <v>63.87111585946361</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-66.2822508370617</v>
+        <v>64.92510854218206</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-11.00208950623194</v>
+        <v>65.3443467544093</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>8.248893720605336</v>
+        <v>67.29321135029178</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-500.1719704052431</v>
+        <v>63.79805906209055</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-89.54602384722654</v>
+        <v>64.32434811815232</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-480.2708454328957</v>
+        <v>64.22732945579976</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-43.4757183923121</v>
+        <v>65.24051062252437</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-8.866103557242997</v>
+        <v>65.6636692316022</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>9.417569763700429</v>
+        <v>67.56545776279593</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-401.1016949816403</v>
+        <v>64.13658489995477</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-64.46538678133403</v>
+        <v>64.63931451465933</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-359.6975483703714</v>
+        <v>64.55409755985686</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-24.48127216579394</v>
+        <v>65.54262579561741</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-7.049087685012121</v>
+        <v>65.96837369196987</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>10.52049428391348</v>
+        <v>67.8194356517111</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-290.7686814674152</v>
+        <v>64.43390158350809</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-43.43884596325233</v>
+        <v>64.93220051865273</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-215.3131910479686</v>
+        <v>64.85124228418826</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-12.95418185517667</v>
+        <v>65.81232457376629</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-5.212962066601777</v>
+        <v>66.2416152903387</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>11.5571972732971</v>
+        <v>68.05548192194853</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-167.7529556357625</v>
+        <v>64.72072355067418</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-29.19311779755754</v>
+        <v>65.2004354755689</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-39.98429395248416</v>
+        <v>65.12955145235775</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-10.51250091172985</v>
+        <v>66.0523729416487</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-3.390293463092454</v>
+        <v>66.49020131568625</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>12.5370257487804</v>
+        <v>68.27247341274983</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-30.34122205106195</v>
+        <v>64.97472058391608</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-19.90000996917358</v>
+        <v>65.43996442917027</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-19.17925250047787</v>
+        <v>65.37475155178811</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-8.745552540780372</v>
+        <v>66.2764136524945</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-1.937630477641975</v>
+        <v>66.72071428518693</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>13.46359777291532</v>
+        <v>68.45791220833827</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-26.2075211388782</v>
+        <v>65.19650726941046</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-17.20585831924252</v>
+        <v>65.6566469853053</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-16.41975612359744</v>
+        <v>65.59288630847274</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-7.049077642995092</v>
+        <v>66.47880900793217</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.6645482491643349</v>
+        <v>66.92625744144456</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>14.34069759217274</v>
+        <v>68.61980880597774</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-22.78653624896631</v>
+        <v>65.38930943118261</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-14.60596021394193</v>
+        <v>65.84302834662222</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-14.06028516022938</v>
+        <v>65.7857293257774</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-5.345548663969675</v>
+        <v>66.65404631403948</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>0.5316034772737052</v>
+        <v>67.1037428883822</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>15.16420602813185</v>
+        <v>68.76718654285762</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-19.86101085513568</v>
+        <v>65.56418291537349</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-12.5890985873068</v>
+        <v>66.00735873284643</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-11.99414217518355</v>
+        <v>65.95524407324916</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-3.993436140673078</v>
+        <v>66.82066010648995</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>1.752865585037061</v>
+        <v>67.26984206847645</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>15.93361504944038</v>
+        <v>68.90368921096331</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-17.30030283344832</v>
+        <v>65.71892312117147</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-10.63623457131845</v>
+        <v>66.15467717771574</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-10.14311177757368</v>
+        <v>66.10624976571411</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-2.641533932427135</v>
+        <v>66.96242459610258</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>2.999809764666129</v>
+        <v>67.41286543978066</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>16.64851561266648</v>
+        <v>69.03143824151435</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-15.05797886116186</v>
+        <v>65.86500258261582</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-8.971159043847456</v>
+        <v>66.28644843119426</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-8.458243773729858</v>
+        <v>66.24544256069004</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-1.370886505503358</v>
+        <v>67.08044291497399</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>4.215544494668673</v>
+        <v>67.53474751360378</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>17.30991950157503</v>
+        <v>69.12045048437408</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-13.09590539620012</v>
+        <v>65.96377106490465</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-7.433985568225287</v>
+        <v>66.37764444909236</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-6.966419941899066</v>
+        <v>66.34060363995222</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-0.08210263721232053</v>
+        <v>67.16406617903938</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>5.409027558553792</v>
+        <v>67.62052889120068</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>17.91976841351799</v>
+        <v>69.18702927791797</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>0.06172913871672836</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="488">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-925.144937298788</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-926.6513869118066</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-225.3761970553009</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-25.16624937618032</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>1.551304931850815</v>
+        <v>59.84355550046426</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-923.3692656951398</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-824.2678549618817</v>
+        <v>-453.6987966479919</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-848.9411925758842</v>
+        <v>-456.0524405553726</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-187.5580020767831</v>
+        <v>53.39094847286944</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-21.65787237076006</v>
+        <v>54.659358178475</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>3.03939848662782</v>
+        <v>63.86253969230802</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-845.0173675193596</v>
+        <v>58.55231958399249</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-681.9214758725732</v>
+        <v>60.18774592969554</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-769.7801702577012</v>
+        <v>59.53667897727472</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-152.9180618028379</v>
+        <v>61.95609819067057</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-18.15408513475846</v>
+        <v>62.20922156910506</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>4.387833521890319</v>
+        <v>65.47883512188974</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-764.1956930937299</v>
+        <v>61.39751448082795</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-437.5190378462267</v>
+        <v>62.26334564585338</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-689.7492251541045</v>
+        <v>61.98962879998355</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-121.2390446088424</v>
+        <v>63.55685081717349</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-15.50610809006863</v>
+        <v>63.86556350060513</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>5.753196395870352</v>
+        <v>66.55441996460095</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-680.2429787814386</v>
+        <v>62.83557562328237</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-152.92146327206</v>
+        <v>63.50642675649947</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-601.4809228542481</v>
+        <v>63.33482746496911</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-92.22138448618666</v>
+        <v>64.50296698650291</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-12.86011534034563</v>
+        <v>64.91065079679557</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>7.056262081221796</v>
+        <v>66.954765545445</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-592.302313659437</v>
+        <v>63.38415449156026</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-118.9536081910578</v>
+        <v>63.93543596752373</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-506.9845071746711</v>
+        <v>63.82210840268448</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-65.90907669707141</v>
+        <v>64.8516038505401</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-10.71841387858067</v>
+        <v>65.27241490815121</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>8.298370240640004</v>
+        <v>67.25259648116752</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-500.0662998492303</v>
+        <v>63.74820650013111</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-88.49006235321905</v>
+        <v>64.28179758925857</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-396.2417744463959</v>
+        <v>64.18107451066359</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-43.02850209892983</v>
+        <v>65.17233956494378</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-8.577089071083492</v>
+        <v>65.60247081530413</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>9.4693112769947</v>
+        <v>67.52686648771937</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-400.9950051717987</v>
+        <v>64.08956292280683</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-62.89651029352711</v>
+        <v>64.59894804719374</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-227.436881713686</v>
+        <v>64.51034667020126</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-23.93162443364048</v>
+        <v>65.47917271374384</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-6.75456425584228</v>
+        <v>65.90620008103043</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>10.57467909407901</v>
+        <v>67.78270528334029</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-290.6536217411955</v>
+        <v>64.38945199444446</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-42.27947144604467</v>
+        <v>64.89383739384097</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-47.40708838385063</v>
+        <v>64.80977730843668</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-12.74011669993001</v>
+        <v>65.75875438400334</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-4.93241668723307</v>
+        <v>66.19683737471961</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>11.6095597276206</v>
+        <v>68.02046751859299</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-167.6283702742361</v>
+        <v>64.67861997663685</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-27.41576490242875</v>
+        <v>65.1639152449991</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-36.36850747207171</v>
+        <v>65.09017996664249</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-10.27061093081197</v>
+        <v>66.01682584970278</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-3.333454703906551</v>
+        <v>66.45733462031707</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>12.58691570862683</v>
+        <v>68.23904536421834</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-30.19486365722929</v>
+        <v>64.93476360232837</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-19.81648183877415</v>
+        <v>65.40514408151306</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-19.06908764893856</v>
+        <v>65.33730307752987</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-8.469222077928501</v>
+        <v>66.24626244355123</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-1.877926827133161</v>
+        <v>66.68927730777618</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>13.51115175107052</v>
+        <v>68.42595421151663</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-26.07047224239496</v>
+        <v>65.15852041732317</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-17.12164238444173</v>
+        <v>65.62339858260378</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-16.31544109801704</v>
+        <v>65.55720919513294</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-6.948397406737186</v>
+        <v>66.44989859194476</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-0.606982780091863</v>
+        <v>66.89614942358658</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>14.38816326168523</v>
+        <v>68.589216157884</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-22.63662546536549</v>
+        <v>65.35313591391592</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-14.52104697796097</v>
+        <v>65.81123704084673</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-13.9479164473761</v>
+        <v>65.75168815838828</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-5.292149266015996</v>
+        <v>66.62629384317772</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>0.5895381310099127</v>
+        <v>67.07487274252126</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>15.21378312578072</v>
+        <v>68.73786469395225</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-19.72078127211569</v>
+        <v>65.52968287419415</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-12.50800192018472</v>
+        <v>65.97692109245314</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-11.88781619707352</v>
+        <v>65.9227175033888</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-3.939711103270416</v>
+        <v>66.79399027745019</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>1.813578406980036</v>
+        <v>67.24212721609555</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>15.98546493860161</v>
+        <v>68.88035276756577</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-17.16875455018699</v>
+        <v>65.69439134413859</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-10.5498974992004</v>
+        <v>66.12549976851724</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-10.04333454316479</v>
+        <v>66.07902983676139</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-2.58747993137752</v>
+        <v>66.93676878900382</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>3.061109117745721</v>
+        <v>67.3862308157791</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>16.70281747069985</v>
+        <v>69.0128657091736</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-14.92997415730761</v>
+        <v>65.84410002910489</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-8.888744206550923</v>
+        <v>66.26735901472406</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-8.362495066888416</v>
+        <v>66.22540777373447</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-1.316500168891714</v>
+        <v>67.06313436964857</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>4.274610729613774</v>
+        <v>67.5169347589344</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>17.36687293141009</v>
+        <v>69.10703030928971</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-12.96138809224973</v>
+        <v>65.94902200141743</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-7.350345065843024</v>
+        <v>66.36392489296396</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-6.863714797628965</v>
+        <v>66.32634336420283</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-0.02738054452193189</v>
+        <v>67.15138968630015</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>5.471151627551245</v>
+        <v>67.60755373423383</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>17.97959653909345</v>
+        <v>69.17675286457828</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-11.44660092250364</v>
+        <v>66.02514132349253</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-6.001669616604523</v>
+        <v>66.43509453806469</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-5.700786751406463</v>
+        <v>66.40011775872763</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>1.122118543602302</v>
+        <v>67.21750207753465</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>6.602922741709084</v>
+        <v>67.67511865773992</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>18.54461849942178</v>
+        <v>69.23105546872345</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-10.45541649348224</v>
+        <v>66.08360817605383</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-5.041017861264857</v>
+        <v>66.49034773278352</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-4.769336791039779</v>
+        <v>66.45706932406374</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>2.281702918117091</v>
+        <v>67.26941068003256</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>7.714921384910023</v>
+        <v>67.727994381944</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>19.06322579270805</v>
+        <v>69.27489496915065</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-858.9663957030602</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-823.7422373825056</v>
+        <v>-459.5770793547113</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-845.4635559289463</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-187.3854853691639</v>
+        <v>36.90063264607532</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>-21.45038518956733</v>
+        <v>50.82725506996942</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>3.249935425672547</v>
+        <v>63.50726757660114</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-784.9882645834359</v>
+        <v>57.85719456048714</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-681.2585709398338</v>
+        <v>59.54274237594086</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-764.2404552538612</v>
+        <v>58.82631961399024</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-152.7264135906942</v>
+        <v>61.51475756367146</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>-17.94344104550548</v>
+        <v>61.62906883990912</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>4.564519062275433</v>
+        <v>65.27131584968726</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-706.2607860054844</v>
+        <v>61.032642846413</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-436.9624530764777</v>
+        <v>62.00897552008961</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-681.2422341630113</v>
+        <v>61.6953554589515</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-121.0244400688435</v>
+        <v>63.27434535541439</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-15.29222606561208</v>
+        <v>63.59630877459597</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>5.881501073228857</v>
+        <v>66.43499654273303</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-680.1617646564674</v>
+        <v>62.64693538990012</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-152.348227416556</v>
+        <v>63.37479298368753</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-591.590034864756</v>
+        <v>63.17667208624577</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-91.97883288066221</v>
+        <v>64.40819409620892</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>-12.64291140611007</v>
+        <v>64.80682750488843</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>7.099966469973529</v>
+        <v>66.90680881254644</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-592.2158461947492</v>
+        <v>63.32374041630027</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-118.2194724750427</v>
+        <v>63.88491370010139</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-495.9140202593796</v>
+        <v>63.76661004513477</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-65.63191964338975</v>
+        <v>64.79911045793186</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>-10.49780097299066</v>
+        <v>65.22804360965723</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>8.343910939269847</v>
+        <v>67.20729635784117</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-499.9739868437936</v>
+        <v>63.69166694574658</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-87.88090134923561</v>
+        <v>64.23416836580131</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-381.4713340144239</v>
+        <v>64.12894933499406</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>-42.70761920829694</v>
+        <v>65.12817759250248</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>-8.352976897816164</v>
+        <v>65.56043876771521</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>9.516820613397405</v>
+        <v>67.48398634397937</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-400.901879155623</v>
+        <v>64.03650053075459</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-62.10739484513709</v>
+        <v>64.55394580680664</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-224.1876880209126</v>
+        <v>64.46126613151871</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-23.55411989413851</v>
+        <v>65.43143508014262</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>-6.526859127326583</v>
+        <v>65.86630865279518</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>10.62430314575062</v>
+        <v>67.74203699211017</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-290.5538614896961</v>
+        <v>64.33952423589061</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-41.63043665286451</v>
+        <v>64.85122912848918</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-43.79305611918063</v>
+        <v>64.76345599996601</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-12.56679063367228</v>
+        <v>65.72257789532826</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>-4.701021358774966</v>
+        <v>66.15891077879769</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>11.65850510600085</v>
+        <v>67.98182718694996</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-167.521148262476</v>
+        <v>64.63152979007263</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-26.56436034925236</v>
+        <v>65.12349589932633</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-30.57626892329673</v>
+        <v>65.04636859795326</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-10.07799777066396</v>
+        <v>65.98232306275101</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>-3.271580263053374</v>
+        <v>66.42121664265926</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>12.63346868634153</v>
+        <v>68.20226982108511</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-30.07091981498886</v>
+        <v>64.89025191442053</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-19.7421205457409</v>
+        <v>65.36673238293596</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-18.97319817948395</v>
+        <v>65.29578280143858</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>-8.253451581219695</v>
+        <v>66.21330813008107</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>-1.823559125348167</v>
+        <v>66.65482859092147</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>13.55628600243617</v>
+        <v>68.39089809828235</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-25.95362308755553</v>
+        <v>65.11636011495017</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-17.04671477750243</v>
+        <v>65.58683360752606</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-16.22421108847319</v>
+        <v>65.51778698737257</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-6.70441479100421</v>
+        <v>66.41838026335451</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>-0.5544475844297363</v>
+        <v>66.8632451973601</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>14.43194942730509</v>
+        <v>68.55795694718762</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-22.5099953312833</v>
+        <v>65.31312694584925</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-14.44554582888756</v>
+        <v>65.77637536815074</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-13.8502810809001</v>
+        <v>65.71419302662605</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-5.243204006634148</v>
+        <v>66.5961101308726</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>0.642390210172087</v>
+        <v>67.04340091736913</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>15.2594114129677</v>
+        <v>68.71607220515644</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-19.6014990889149</v>
+        <v>65.50083577858081</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-12.43564728571756</v>
+        <v>65.9436344291144</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-11.79498026288697</v>
+        <v>65.89148356552799</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-3.890484296284377</v>
+        <v>66.76504955801656</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>1.868963252581822</v>
+        <v>67.21198677248867</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>16.03306827049565</v>
+        <v>68.85990163051657</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-17.04155393526</v>
+        <v>65.67118535673153</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-10.47322705861056</v>
+        <v>66.10319082541855</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-9.943899611877114</v>
+        <v>66.05685422375259</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-2.537968866425861</v>
+        <v>66.90898801162102</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>3.116840081049734</v>
+        <v>67.35802909935714</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>16.75254260080388</v>
+        <v>68.99306933983058</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-14.80817324691869</v>
+        <v>65.82170044537141</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-8.815300793127426</v>
+        <v>66.24698716855265</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>-8.277017286024568</v>
+        <v>66.20398041522193</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>-1.266702098933477</v>
+        <v>67.04474036776283</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>4.328432838526033</v>
+        <v>67.49798218598754</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>17.41888235092479</v>
+        <v>69.09290557994623</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-12.84648227404028</v>
+        <v>65.93344595866331</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-7.272474822434574</v>
+        <v>66.34947391838557</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>-6.77377361407094</v>
+        <v>66.31130209078816</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>0.0227073148042381</v>
+        <v>67.13807354530256</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>5.527585743239529</v>
+        <v>67.59391317706735</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>18.03407071599705</v>
+        <v>69.16602808434914</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-11.32219129577847</v>
+        <v>66.01351228668882</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-5.927109828530966</v>
+        <v>66.42416425831762</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>-5.60459384396913</v>
+        <v>66.38881896836715</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>1.170605615840991</v>
+        <v>67.2072924100323</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>6.657408151239325</v>
+        <v>67.66470131545839</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>18.60175851973378</v>
+        <v>69.22255611242521</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-10.32966734586249</v>
+        <v>66.07450121816451</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-4.961916176796527</v>
+        <v>66.48170923063168</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>-4.67174234122492</v>
+        <v>66.44818287668902</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>2.332378861831883</v>
+        <v>67.26126294258177</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>7.77207356925275</v>
+        <v>67.71970439237559</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>19.08509549789748</v>
+        <v>69.26794531250223</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-9.407836210399815</v>
+        <v>66.12295527768329</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-4.195925192141511</v>
+        <v>66.52780194022436</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>-3.810133114308614</v>
+        <v>66.49552676416771</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>2.925529798936351</v>
+        <v>67.3048699866509</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>8.37034303511178</v>
+        <v>67.76403319655657</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>19.45068344090611</v>
+        <v>69.30543088994374</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-8.528203917004717</v>
+        <v>66.16265305503042</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-3.582676788342631</v>
+        <v>66.56579793679647</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>-3.074021744855251</v>
+        <v>66.53442664136952</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>3.369815453930388</v>
+        <v>67.34105538878707</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>8.856010692184718</v>
+        <v>67.80074640748701</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>19.68009751497376</v>
+        <v>69.33706894727111</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-694.5324903897772</v>
+        <v>60.70223977125745</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-436.5812605848111</v>
+        <v>61.68252761240069</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-677.9333093314618</v>
+        <v>61.36115594137601</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>-120.8507349297864</v>
+        <v>63.03825041170096</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>-15.11902874930181</v>
+        <v>63.36393090852481</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>6.056951056421845</v>
+        <v>66.28410889689415</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-609.8034015202411</v>
+        <v>62.42722551215272</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-151.9582538080377</v>
+        <v>63.20559766568624</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-587.4482451232248</v>
+        <v>62.96587628287369</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-91.78576758570253</v>
+        <v>64.29267073083541</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>-12.46738239203621</v>
+        <v>64.67856684662306</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>7.256806538533728</v>
+        <v>66.85260136500399</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-524.4328021550519</v>
+        <v>63.25397211031939</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-117.749398682398</v>
+        <v>63.82754720956877</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-485.4607576726564</v>
+        <v>63.70304856905796</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-65.41560256139852</v>
+        <v>64.75201565874535</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>-10.31988739102768</v>
+        <v>65.1782108730402</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>8.459130103281526</v>
+        <v>67.15633484731647</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-428.9765170813719</v>
+        <v>63.62679799379814</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-87.47231462391753</v>
+        <v>64.18036247254274</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-367.9764964443768</v>
+        <v>64.06959703068544</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>-42.46296537027931</v>
+        <v>65.0836617053962</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>-8.172624181604732</v>
+        <v>65.51343477485713</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>9.56064494849641</v>
+        <v>67.43595912452061</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-330.3442251366609</v>
+        <v>63.97598283567479</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-61.61173355646677</v>
+        <v>64.50334664984963</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-223.0089553613338</v>
+        <v>64.40567783701933</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-23.27433409673733</v>
+        <v>65.38927094190105</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>-6.34401094354978</v>
+        <v>65.8218754378135</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>10.66997231763479</v>
+        <v>67.69667277501996</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-215.7624315182374</v>
+        <v>64.28289191147401</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-41.03408730347818</v>
+        <v>64.80353021972547</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-42.55429236051938</v>
+        <v>64.71124982162458</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-12.42273065958102</v>
+        <v>65.68256541217362</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>-4.515619532791017</v>
+        <v>66.11682216354194</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>11.70615231618309</v>
+        <v>67.93888855873776</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-98.32858728516176</v>
+        <v>64.57838395070517</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-25.82480857546465</v>
+        <v>65.07843026673491</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-28.63078991485138</v>
+        <v>64.99721479545256</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>-9.919922502115408</v>
+        <v>65.944285198305</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>-3.064504555982775</v>
+        <v>66.38127337013398</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>12.67824735533107</v>
+        <v>68.16154799048493</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-29.96419744538867</v>
+        <v>64.84024876993787</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-19.5165976644556</v>
+        <v>65.3240662503805</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-18.88874545348698</v>
+        <v>65.24939497071463</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-8.078927741559571</v>
+        <v>66.17708759714183</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>-1.773777144002852</v>
+        <v>66.61685433965211</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>13.5986323889846</v>
+        <v>68.35220860601159</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-25.85245403857403</v>
+        <v>65.0692015538214</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-16.97948475245732</v>
+        <v>65.54636126805136</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-16.14354099438087</v>
+        <v>65.47391500011916</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-6.510372587059017</v>
+        <v>66.38383677804315</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>-0.5062502989432471</v>
+        <v>66.8270832941908</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>14.47250816131923</v>
+        <v>68.53446475807021</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-22.4011834949369</v>
+        <v>65.28588604765767</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-14.37783731316546</v>
+        <v>65.7379149931792</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-13.76441744376914</v>
+        <v>65.67739555511781</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>-5.11342338908743</v>
+        <v>66.56311811952783</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>0.6908618936159788</v>
+        <v>67.00891160847489</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>15.30158871454512</v>
+        <v>68.69340287032529</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-19.49841983706885</v>
+        <v>65.4748697656547</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-12.37056909712175</v>
+        <v>65.91922080785284</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-11.71300360255217</v>
+        <v>65.86675662844173</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-3.809994118537576</v>
+        <v>66.73349623115983</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>1.919622632130011</v>
+        <v>67.1790449439001</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>16.07697475718497</v>
+        <v>68.83800820227989</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-16.9305834950222</v>
+        <v>65.64618969556938</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-10.40454434996142</v>
+        <v>66.08061560844649</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-9.85658531276545</v>
+        <v>66.03302258167663</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>-2.492398082368252</v>
+        <v>66.88563564508479</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>3.167797670696761</v>
+        <v>67.33713120102639</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>16.79829977381901</v>
+        <v>68.97190853739049</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-14.70312286957015</v>
+        <v>65.79761615775668</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-8.749310975747827</v>
+        <v>66.22518255680311</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>-8.193698385868297</v>
+        <v>66.18099130575928</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-1.220881432861222</v>
+        <v>67.02514249751087</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>4.377743542239775</v>
+        <v>67.47776280806015</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>17.46662401208627</v>
+        <v>69.07801240885439</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-12.74684334778857</v>
+        <v>65.9169626495154</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-7.202794323432876</v>
+        <v>66.33422413752592</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-6.694154288508248</v>
+        <v>66.29540582515338</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>0.06878015549398758</v>
+        <v>67.12406208686065</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>5.579148608020796</v>
+        <v>67.5795483309649</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>18.08394461691069</v>
+        <v>69.15482135494706</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-11.21510611284405</v>
+        <v>66.00133054118045</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-5.860186889323624</v>
+        <v>66.41273630275943</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>-5.519895650991606</v>
+        <v>66.376993777642</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>1.216556913846583</v>
+        <v>67.19663928863325</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>6.707291748238021</v>
+        <v>67.65382515928457</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>18.65392828958447</v>
+        <v>69.21373141858196</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-10.22153997423464</v>
+        <v>66.06502869397652</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-4.891213481614557</v>
+        <v>66.47273634945394</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>-4.581401036369341</v>
+        <v>66.43894568648258</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>2.378963048310808</v>
+        <v>67.25281225727257</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>7.824253790724429</v>
+        <v>67.71110247624131</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>19.10592679834173</v>
+        <v>69.26076397330603</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-9.291144975121734</v>
+        <v>66.11531798075549</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-4.124701984274697</v>
+        <v>66.52051567847421</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>-3.719007633409858</v>
+        <v>66.48805428633423</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>2.972373217200029</v>
+        <v>67.29795514927915</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>8.422836571417468</v>
+        <v>67.75701030489078</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>19.47158238500582</v>
+        <v>69.29943939839029</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-8.497665581790461</v>
+        <v>66.15632643400446</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-3.558213822791371</v>
+        <v>66.55972897296368</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>-3.046556871938916</v>
+        <v>66.52822070360027</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>3.38944658553656</v>
+        <v>67.33526164647292</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>8.87691191076666</v>
+        <v>67.79487231776258</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>19.69196016521827</v>
+        <v>69.33197153076863</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-8.198028834460581</v>
+        <v>66.1905971917752</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-3.307475191643022</v>
+        <v>66.59266362179356</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>-2.771239952011925</v>
+        <v>66.56186613652189</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>3.598684275997372</v>
+        <v>67.36676470007784</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>9.097309508777</v>
+        <v>67.8267937832463</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>19.82826568336063</v>
+        <v>69.35983155437208</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-8.029109156276945</v>
+        <v>66.21979379208132</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-3.158056499451884</v>
+        <v>66.62083411878254</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>-2.611786616419334</v>
+        <v>66.59058335224479</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>3.729960956397266</v>
+        <v>67.3938280781326</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>9.233623864634158</v>
+        <v>67.85418157176431</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>19.9231847339565</v>
+        <v>69.38404038654218</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-514.5141936263832</v>
+        <v>63.17215629712163</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-117.4155126400045</v>
+        <v>63.76163707958161</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-483.3457833557543</v>
+        <v>63.62926112981761</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>-65.24069526335359</v>
+        <v>64.69886417568875</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>-10.17246674342043</v>
+        <v>65.12169577376754</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>8.608270350483721</v>
+        <v>67.09842510916666</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-417.8644868098756</v>
+        <v>63.55133065102738</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-87.17392718580084</v>
+        <v>64.11891801699714</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-363.5540792459063</v>
+        <v>64.0011766522932</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-42.2684654131065</v>
+        <v>65.03365346271472</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>-8.023423674406574</v>
+        <v>65.46039438193476</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>9.678413306082467</v>
+        <v>67.38166520342877</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-318.3035809610953</v>
+        <v>63.9060827690777</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-61.26354948290513</v>
+        <v>64.44588511413708</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-220.5389166415746</v>
+        <v>64.34200357616433</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-23.05628152970445</v>
+        <v>65.34210775697615</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>-6.192994428424669</v>
+        <v>65.77196755448763</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>10.75101762835443</v>
+        <v>67.64563325640427</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-201.4488912197029</v>
+        <v>64.21790627625256</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-40.62045753843201</v>
+        <v>64.74963891909812</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-41.87599371848248</v>
+        <v>64.6517969185992</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>-12.30053097623228</v>
+        <v>65.63798727163177</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>-4.362749823910004</v>
+        <v>66.06975000478435</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>11.75009714741421</v>
+        <v>67.89079067979266</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-82.17902957295641</v>
+        <v>64.51776233905143</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-23.5945903311106</v>
+        <v>65.02775402490808</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-27.32338388133763</v>
+        <v>64.94153632067922</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>-9.787161138403313</v>
+        <v>65.90206419554038</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>-2.896109779550823</v>
+        <v>66.33677809446482</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>12.72090223341333</v>
+        <v>68.11611952827563</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-29.87104547640457</v>
+        <v>64.78669608666333</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-19.08239297765355</v>
+        <v>65.27629748613271</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-18.81362301513167</v>
+        <v>65.19710757956584</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-7.933988651996188</v>
+        <v>66.13702300700014</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>-1.613328779371153</v>
+        <v>66.57470902967749</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>13.64005922332076</v>
+        <v>68.32587707401802</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-25.7637452798304</v>
+        <v>65.03762033000105</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-16.58479696986906</v>
+        <v>65.50123209421683</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-16.07153916301723</v>
+        <v>65.43403008614088</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-6.351270559273359</v>
+        <v>66.34575102481833</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>-0.4227606289062759</v>
+        <v>66.7870880649352</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>14.51252649227187</v>
+        <v>68.50914499309219</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-22.30636844154565</v>
+        <v>65.25656580080336</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-14.31666702304717</v>
+        <v>65.70978602515791</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-13.68813552744043</v>
+        <v>65.64958744851023</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-4.937687896594094</v>
+        <v>66.52685345284837</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>0.7444959132885176</v>
+        <v>66.9747402988032</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>15.340729200681</v>
+        <v>68.66901401835109</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-19.40817889885567</v>
+        <v>65.44673458332967</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-12.31162418706796</v>
+        <v>65.89401418074418</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-11.63992187403623</v>
+        <v>65.84003473683174</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-3.631869353147261</v>
+        <v>66.6989977632939</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>1.96619242329369</v>
+        <v>67.1503742037911</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>16.11763938224712</v>
+        <v>68.81449457484659</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-16.83405524210648</v>
+        <v>65.61916182651771</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-10.34255224987041</v>
+        <v>66.0563330552617</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-9.779113767082434</v>
+        <v>66.00731797190825</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-2.369525249946599</v>
+        <v>66.86397685506984</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>3.21462655986632</v>
+        <v>67.31473684136587</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>16.84059011073484</v>
+        <v>68.94921900168964</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-14.61130510447116</v>
+        <v>65.77162481114104</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-8.689593705881403</v>
+        <v>66.20176895426582</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>-8.119509480873935</v>
+        <v>66.15624101862412</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>-1.178535421315668</v>
+        <v>67.00420343585252</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>4.423139803941742</v>
+        <v>67.45612890619439</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>17.51065137203875</v>
+        <v>69.06227849232636</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-12.65466287887199</v>
+        <v>65.89948043265272</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-7.139961838831491</v>
+        <v>66.3180991373072</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>-6.623022481780375</v>
+        <v>66.27857037076294</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>0.1113472242482412</v>
+        <v>67.10929261384391</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>5.626502961071226</v>
+        <v>67.56439274257411</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>18.12983128381769</v>
+        <v>69.14309546378958</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-11.12166502938827</v>
+        <v>65.98855087009007</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-5.799680237901743</v>
+        <v>66.40077172068671</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>-5.444571315142992</v>
+        <v>66.36460000033455</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>1.259346970247147</v>
+        <v>67.18550965268003</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>6.753186853654243</v>
+        <v>67.64245548963363</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>18.70180895143213</v>
+        <v>69.2045600876678</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-10.12726919409517</v>
+        <v>66.05516547294667</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-4.827521444630983</v>
+        <v>66.46340694528962</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>-4.501455285616285</v>
+        <v>66.42933405651935</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>2.42197804648454</v>
+        <v>67.2440393728033</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>7.872143511248222</v>
+        <v>67.70216856829292</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>19.12579935068191</v>
+        <v>69.25333778590947</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-9.190100121184372</v>
+        <v>66.10740905788688</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-4.06057279103795</v>
+        <v>66.51297850802425</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>-3.638422687673612</v>
+        <v>66.48031999401171</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>3.015615135338193</v>
+        <v>67.29081058209565</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>8.470997771478816</v>
+        <v>67.7497516013629</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>19.49151746661716</v>
+        <v>69.29326744809291</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-8.468921044853282</v>
+        <v>66.14980203601948</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-3.534998659876651</v>
+        <v>66.55347560483311</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>-3.020600161393266</v>
+        <v>66.52182330025624</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>3.408207957189472</v>
+        <v>67.32929735725506</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>8.89684909470996</v>
+        <v>67.7888236815467</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>19.70344315811839</v>
+        <v>69.32673661789221</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-8.183379248021801</v>
+        <v>66.18509573316183</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-3.294736478200184</v>
+        <v>66.58736690268796</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>-2.757524396063762</v>
+        <v>66.55646042005782</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>3.609692028990991</v>
+        <v>67.36168807077922</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>9.108793339969266</v>
+        <v>67.8216527507798</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>19.83594452241629</v>
+        <v>69.35531843741504</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-8.019892199504653</v>
+        <v>66.21507334709707</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-3.149748882909568</v>
+        <v>66.61627278043112</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>-2.603007350848023</v>
+        <v>66.58593719006377</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>3.737394780686413</v>
+        <v>67.38943886376163</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>9.241303132351479</v>
+        <v>67.84974187189643</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>19.92877768488078</v>
+        <v>69.3800972005853</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-7.910659802530589</v>
+        <v>66.24094806531573</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-3.050148001789023</v>
+        <v>66.64130670863099</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>-2.49838849658415</v>
+        <v>66.61141957946762</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>3.827565755342333</v>
+        <v>67.41356125525421</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>9.334140939896141</v>
+        <v>67.8741318380419</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>19.99846107960842</v>
+        <v>69.40184778558844</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-7.83107772417249</v>
+        <v>66.26357778809913</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-2.976319099602467</v>
+        <v>66.66326245861049</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>-2.421541352212511</v>
+        <v>66.63373520552921</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>3.89559403169042</v>
+        <v>67.43478272987291</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>9.40382721027407</v>
+        <v>67.89556924517144</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>20.05325146206281</v>
+        <v>69.4211406440286</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-304.8755056549118</v>
+        <v>63.83426974678877</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-61.00174710382415</v>
+        <v>64.37985515845203</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-218.3404579723909</v>
+        <v>64.26807146386886</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>-22.88015812177353</v>
+        <v>65.28887259270203</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>-6.065530467434776</v>
+        <v>65.71535975212902</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>10.8798294365045</v>
+        <v>67.59394490613552</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-187.5361127114101</v>
+        <v>64.1708736432395</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-40.31909502603499</v>
+        <v>64.68808787772593</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-41.43279401181179</v>
+        <v>64.58614932590245</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>-12.19516911252268</v>
+        <v>65.58790344016225</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>-4.233890827116186</v>
+        <v>66.0166262222635</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>11.8340804953467</v>
+        <v>67.84662586473324</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-66.60332809567399</v>
+        <v>64.46643262666895</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-22.3322670398467</v>
+        <v>64.97019718110145</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-25.04104639198974</v>
+        <v>64.88172035229245</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>-9.673606829512762</v>
+        <v>65.85483245913025</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>-2.755681683331671</v>
+        <v>66.28679487527172</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>12.76046416858347</v>
+        <v>68.08147072941819</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-29.78881204750006</v>
+        <v>64.75164213117327</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-18.76901274090786</v>
+        <v>65.22747884944035</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-18.48570337665224</v>
+        <v>65.15858054093992</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>-7.811121280087409</v>
+        <v>66.09238246772213</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>-1.459488227510831</v>
+        <v>66.52756854001976</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>13.6785366584522</v>
+        <v>68.29734676975316</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-25.68513257842468</v>
+        <v>65.00415567254218</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-16.2171161604691</v>
+        <v>65.46581703481354</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-16.00675670965353</v>
+        <v>65.40244296434558</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>-6.217742282019049</v>
+        <v>66.30347302954337</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>-0.2670084503106241</v>
+        <v>66.74418094787346</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>14.54996809487677</v>
+        <v>68.48174769875405</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-22.22278571635416</v>
+        <v>65.22457384045117</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-14.13678984114951</v>
+        <v>65.68139372928029</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-13.61977632179741</v>
+        <v>65.61933973375299</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>-4.791860703607112</v>
+        <v>66.50047966179342</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>0.9162816605425317</v>
+        <v>66.94878096877169</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>15.37718063412216</v>
+        <v>68.64267666244643</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-19.32831501098971</v>
+        <v>65.41611035695355</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-12.257905992502</v>
+        <v>65.86674589353454</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-11.57423472064845</v>
+        <v>65.81103435120649</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>-3.474674850504602</v>
+        <v>66.67488961830045</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>2.087970983128036</v>
+        <v>67.12538481444258</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>16.15544240570948</v>
+        <v>68.78915051884373</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-16.74908589296685</v>
+        <v>65.58981055642818</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-10.28623058571334</v>
+        <v>66.03011650636041</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-9.709764632535407</v>
+        <v>65.97948146408331</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>-2.207340676022046</v>
+        <v>66.84072740492896</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>3.257855762763248</v>
+        <v>67.2906584490392</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>16.87983038255918</v>
+        <v>68.92480732961056</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-14.53015646739381</v>
+        <v>65.74346066833174</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-8.635214353098947</v>
+        <v>66.17653821686125</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>-8.052896363925646</v>
+        <v>66.12949255160646</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>-0.9922756101007867</v>
+        <v>66.98176287926698</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>4.46511354609665</v>
+        <v>67.43290746388543</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>17.55142234981673</v>
+        <v>69.04562162915195</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-12.56826811541083</v>
+        <v>65.88089416099008</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-7.082924500009643</v>
+        <v>66.30101186335584</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>-6.558970026315447</v>
+        <v>66.2606994463264</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>0.1523099162979499</v>
+        <v>67.09369421768342</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>5.670191810445862</v>
+        <v>67.5483710968924</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>18.17223516197826</v>
+        <v>69.13080904732517</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-11.03919680556748</v>
+        <v>65.97512270223571</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-5.744626048033368</v>
+        <v>66.38822715539678</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>-5.377010264499658</v>
+        <v>66.35159056007029</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>1.299028126794097</v>
+        <v>67.17386688464693</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>6.795598129813323</v>
+        <v>67.63055381814827</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>18.74595774039671</v>
+        <v>69.1950188153548</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-10.04412769734416</v>
+        <v>66.04488393745363</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-4.769753139929085</v>
+        <v>66.45369676519825</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>-4.430053054058491</v>
+        <v>66.41932198612385</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>2.461857523573244</v>
+        <v>67.23492328045643</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>7.916300212667171</v>
+        <v>67.69288074847677</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>19.14478451122189</v>
+        <v>69.24565251285705</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-9.101491119942999</v>
+        <v>66.09921201668723</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-4.002433125668258</v>
+        <v>66.50517568974486</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>-3.56649130666082</v>
+        <v>66.47230823243814</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>3.055694590788551</v>
+        <v>67.28342327628164</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>8.515391540310448</v>
+        <v>67.7422435868443</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>19.51056056749536</v>
+        <v>69.28690579448853</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-8.441801303329479</v>
+        <v>66.1430693370191</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-3.512928704107992</v>
+        <v>66.54702830067686</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>-2.996018452773566</v>
+        <v>66.51522437924622</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>3.426161953182401</v>
+        <v>67.32315398636101</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>8.915894143474711</v>
+        <v>67.78259167967499</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>19.71456632216986</v>
+        <v>69.32135791404451</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-8.169267169632342</v>
+        <v>66.17943795484604</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-3.282424739063569</v>
+        <v>66.58192352566076</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>-2.744291086976236</v>
+        <v>66.55090293342137</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>3.620364185673032</v>
+        <v>67.35647488670101</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>9.119917298988259</v>
+        <v>67.81637223768303</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>19.84343821864778</v>
+        <v>69.35069327137677</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-8.010925583839153</v>
+        <v>66.21023206729214</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-3.141652131696241</v>
+        <v>66.6115973737635</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>-2.594459095075405</v>
+        <v>66.58117337198463</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>3.744653127480167</v>
+        <v>67.38494272089694</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>9.248797240157158</v>
+        <v>67.8451931688987</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>19.93426105160586</v>
+        <v>69.37606470052121</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-7.90432693956306</v>
+        <v>66.23674418623658</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-3.044310741273288</v>
+        <v>66.63723426423567</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>-2.492291874849418</v>
+        <v>66.60727699510426</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>3.832908589558447</v>
+        <v>67.40963162700547</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>9.339624551166377</v>
+        <v>67.87016025218587</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>20.00269590084133</v>
+        <v>69.39829136816559</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-7.826301542822979</v>
+        <v>66.25988276170403</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-2.971856142584258</v>
+        <v>66.65967366469283</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>-2.416913587954732</v>
+        <v>66.63008966365737</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>3.899737182689718</v>
+        <v>67.43130989262215</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>9.40806219048384</v>
+        <v>67.89206228399438</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>20.05664882157474</v>
+        <v>69.41797348414708</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-7.766009599562929</v>
+        <v>66.28030746153406</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-2.915220266610322</v>
+        <v>66.67952936556294</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>-2.358350111238098</v>
+        <v>66.65024942267198</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>3.9526071369991</v>
+        <v>67.45054352529601</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>9.462016986864676</v>
+        <v>67.91147908753069</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>20.10059882423179</v>
+        <v>69.43556222413622</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-7.717613474463625</v>
+        <v>66.29851042807961</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-2.869375065913228</v>
+        <v>66.69726193501889</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>-2.311155502497499</v>
+        <v>66.66823356239072</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>3.995786420358929</v>
+        <v>67.4677599489581</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>9.505968321484271</v>
+        <v>67.92884769798118</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>20.13729818540048</v>
+        <v>69.45140416461972</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-51.38090715437891</v>
+        <v>64.42571356605288</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-21.64549575239699</v>
+        <v>64.92510363122234</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-22.83383290758654</v>
+        <v>64.84358834557372</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>-9.533429804388582</v>
+        <v>65.80151339370009</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>-2.636247963878186</v>
+        <v>66.2300941159489</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>12.84681755135328</v>
+        <v>68.0489887685851</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-28.85155782885841</v>
+        <v>64.7129551822533</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-18.52914280776653</v>
+        <v>65.19367053320809</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-18.03672160088952</v>
+        <v>65.12227325040706</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>-7.705238235087362</v>
+        <v>66.04245542002964</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>-1.329899623841642</v>
+        <v>66.48409668849429</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>13.71472094324571</v>
+        <v>68.26626713392976</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-25.5761372477408</v>
+        <v>64.96733720379613</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-15.94330722101178</v>
+        <v>65.43350633808264</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-15.71050891960716</v>
+        <v>65.36781931966085</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>-6.101521925864564</v>
+        <v>66.2708017851326</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>-0.1359856570436221</v>
+        <v>66.71486888407576</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>14.58490817008189</v>
+        <v>68.4519722848884</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-22.14837945068013</v>
+        <v>65.18947809646951</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-13.82017953044992</v>
+        <v>65.65047322947504</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-13.55805697955296</v>
+        <v>65.58627347932331</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>-4.668319535030555</v>
+        <v>66.47342287707768</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>1.059209365108328</v>
+        <v>66.92065342563885</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>15.41123746141897</v>
+        <v>68.61411671626274</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-19.25698058562189</v>
+        <v>65.38260702290718</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-11.95228051195091</v>
+        <v>65.83711865706668</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-11.51477374941612</v>
+        <v>65.77941210365293</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>-3.340372239989903</v>
+        <v>66.64887118152399</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>2.24472481094772</v>
+        <v>67.09836409002038</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>16.19070443653421</v>
+        <v>68.76172551953104</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-16.67353861566043</v>
+        <v>65.55778271628807</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-10.23476446998333</v>
+        <v>66.00169480729726</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-9.647211089286222</v>
+        <v>65.94920107227782</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>-2.071515443997266</v>
+        <v>66.81568254697594</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>3.422763038904714</v>
+        <v>67.26467379619012</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>16.91637042880129</v>
+        <v>68.8984440329682</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-14.45775886598262</v>
+        <v>65.71280308373908</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-8.585422312656307</v>
+        <v>66.14924244188731</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>-7.992651676256007</v>
+        <v>66.10046170510094</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>-0.8310863584188649</v>
+        <v>66.95763235046249</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>4.551980546770346</v>
+        <v>67.40789430974372</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>17.58931953537862</v>
+        <v>69.02794790761604</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-12.49155034897322</v>
+        <v>65.8610825098434</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-7.03084296522301</v>
+        <v>66.282862635599</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>-6.500895529682303</v>
+        <v>66.24168236014889</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>0.3155662793167845</v>
+        <v>67.0771863418054</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>5.710664881608855</v>
+        <v>67.5313976376368</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>18.21157564429038</v>
+        <v>69.11791597608324</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-10.96570934149368</v>
+        <v>65.96098926836922</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-5.694251724531663</v>
+        <v>66.37505418196193</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>-5.315964485533709</v>
+        <v>66.33791273649736</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>1.392271943796071</v>
+        <v>67.16167030251171</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>6.834945140775035</v>
+        <v>67.61807731866318</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>18.78683553538177</v>
+        <v>69.18508204318525</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-9.968964305843398</v>
+        <v>66.03415365711582</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-4.717043818881455</v>
+        <v>66.44357918178083</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>-4.365773589860653</v>
+        <v>66.40888087467917</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>2.498964790952032</v>
+        <v>67.22544100229938</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>7.957184967133239</v>
+        <v>67.68321501550359</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>19.16294641583948</v>
+        <v>69.23769273003191</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-9.022959977857012</v>
+        <v>66.09070892791084</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-3.94940516464228</v>
+        <v>66.4970912431601</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>-3.50176792762307</v>
+        <v>66.46400200423631</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>3.092979169720211</v>
+        <v>67.27577916779042</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>8.556484761619</v>
+        <v>67.73447165496083</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>19.52877628154217</v>
+        <v>69.28034451611735</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-8.416158837626979</v>
+        <v>66.13611701187612</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-3.491912794137893</v>
+        <v>66.54037682442785</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>-2.972694484934198</v>
+        <v>66.5084131337762</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>3.443364867931282</v>
+        <v>67.31682238883924</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>8.934111666393292</v>
+        <v>67.7761668562657</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>19.72534806568646</v>
+        <v>69.31582871366251</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-8.155660513826138</v>
+        <v>66.17361631093274</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-3.270516642998091</v>
+        <v>66.57632659544957</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>-2.731512411272598</v>
+        <v>66.54518643924283</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>3.630717458994832</v>
+        <v>67.35111891405862</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>9.130699797218961</v>
+        <v>67.81094582063771</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>19.85075409433294</v>
+        <v>69.3459513416848</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-8.002198178189982</v>
+        <v>66.20526470784311</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-3.133757473778716</v>
+        <v>66.60680306381603</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>-2.58613189265491</v>
+        <v>66.57628684695872</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>3.751742793546522</v>
+        <v>67.38033523622164</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>9.256113511267664</v>
+        <v>67.84053092810406</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>19.939638366537</v>
+        <v>69.37193946298025</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-7.898128683641969</v>
+        <v>66.2324408546101</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-3.038591103076477</v>
+        <v>66.63306753436657</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>-2.486321651723254</v>
+        <v>66.60303738185031</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>3.838149835053298</v>
+        <v>67.40561319971583</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>9.34500210281062</v>
+        <v>67.86609826936021</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>20.00686160160577</v>
+        <v>69.39465984883378</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-7.821609731830975</v>
+        <v>66.25610765550009</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-2.967468586339777</v>
+        <v>66.65600861777332</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>-2.412365894419516</v>
+        <v>66.62636583404546</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>3.903813675776957</v>
+        <v>67.42776489197827</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>9.412228045923923</v>
+        <v>67.88848196546012</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>20.0599982160099</v>
+        <v>69.41474449723378</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-7.762299510294584</v>
+        <v>66.27696071283319</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-2.91171754733318</v>
+        <v>66.67627282920732</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>-2.354737837268401</v>
+        <v>66.64694466156634</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>3.955894361024265</v>
+        <v>67.44738577833154</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>9.465366488834661</v>
+        <v>67.90829223375695</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>20.10336758435199</v>
+        <v>69.43266653559182</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-7.714584838350504</v>
+        <v>66.29551673960138</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-2.866495171285028</v>
+        <v>66.69434328296265</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>-2.308196805923518</v>
+        <v>66.66527476797572</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>3.998509829749559</v>
+        <v>67.46492374799128</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>9.508737159901491</v>
+        <v>67.92598717332096</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>20.13963662588662</v>
+        <v>69.44878813595035</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-7.675121213242763</v>
+        <v>66.31216867109433</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-2.828856589063301</v>
+        <v>66.71058922324583</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>-2.269590212416545</v>
+        <v>66.681737960259</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>4.034218517879262</v>
+        <v>67.48072303648711</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>9.545007168124947</v>
+        <v>67.94191828695995</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>20.17055280322084</v>
+        <v>69.46339187437501</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-7.64177548459811</v>
+        <v>66.32722135127442</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-2.796894482031958</v>
+        <v>66.72529835980895</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>-2.236892794433425</v>
+        <v>66.69663104594731</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>4.064704824414532</v>
+        <v>67.49505315946453</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>9.575924086074739</v>
+        <v>67.9563603890274</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>20.19731526262217</v>
+        <v>69.47670189633094</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-1000</v>
+        <v>56.02156960646667</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>18.6760904871006</v>
+        <v>17.02371390484283</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>48.47801926362631</v>
+        <v>46.92011202952389</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>63.23060859342297</v>
+        <v>61.65700286123134</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>56.98331034444962</v>
+        <v>54.7981670990697</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>59.02617726908038</v>
+        <v>57.24409933267854</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>58.30202717001414</v>
+        <v>56.3815125264521</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>61.01734204064415</v>
+        <v>59.11763387748766</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>61.18533864257047</v>
+        <v>59.3441559214877</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>65.05853475627984</v>
+        <v>63.25005906107958</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>60.77033791432428</v>
+        <v>58.64593812330622</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>61.75692967658009</v>
+        <v>59.70001932865038</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>61.41992722718596</v>
+        <v>59.29620424449512</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>63.07871660287965</v>
+        <v>60.99963988742666</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>63.41133357830343</v>
+        <v>61.36908012234104</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>66.31628035659723</v>
+        <v>64.35057184896546</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>62.46462964458426</v>
+        <v>60.22553094627565</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>63.24195945638795</v>
+        <v>61.08515591955374</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>63.01195319490576</v>
+        <v>60.81674632879989</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>64.31690309294288</v>
+        <v>62.12328530064362</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>64.70563447792638</v>
+        <v>62.56231025122192</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>66.8635988246762</v>
+        <v>64.78874822670161</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>63.26825937204099</v>
+        <v>60.99775575433951</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>63.83920844392961</v>
+        <v>61.64049284697754</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>63.71601760388319</v>
+        <v>61.47545559329535</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>64.76152655729932</v>
+        <v>62.53255884484891</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>65.18829268671922</v>
+        <v>63.0077871066748</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>67.16665251737926</v>
+        <v>65.00525558905699</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>63.64004406258135</v>
+        <v>61.29565915127139</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>64.19127571152913</v>
+        <v>61.88949241978825</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>64.0816766081124</v>
+        <v>61.74902493032467</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>65.09263639063619</v>
+        <v>62.76759897898182</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>65.5229267671935</v>
+        <v>63.24475142237873</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>67.44566426358341</v>
+        <v>65.22198324748091</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>63.98830830730471</v>
+        <v>61.55729464783172</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>64.51358857583284</v>
+        <v>62.14030885723577</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>64.41696517604113</v>
+        <v>62.00536253046601</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>65.39775797194562</v>
+        <v>62.98987539146442</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>65.83083295870625</v>
+        <v>63.47060259542396</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>67.70582368031401</v>
+        <v>65.42518068988873</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>64.29439869351717</v>
+        <v>61.80030599590183</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>64.8131669433206</v>
+        <v>62.37212705895777</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>64.72182788847735</v>
+        <v>62.24343630106198</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>65.69060740433237</v>
+        <v>63.21087838422043</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>66.12529355445075</v>
+        <v>63.6956185022631</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>67.94753604489622</v>
+        <v>65.61891712369032</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>64.58915882792709</v>
+        <v>62.02440509464608</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>65.08751912959758</v>
+        <v>62.59594439023454</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>65.00715488201514</v>
+        <v>62.46546661858741</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>65.95191973197468</v>
+        <v>63.43092455956227</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>66.38930106516433</v>
+        <v>63.91915503678454</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>68.16973658063201</v>
+        <v>65.79889180180649</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>64.85036617218613</v>
+        <v>62.24165098161217</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>65.33265726598907</v>
+        <v>62.7999797377276</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>65.25875872486385</v>
+        <v>62.67560486017887</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>66.18434795446878</v>
+        <v>63.6282195408528</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>66.62447576234788</v>
+        <v>64.11865262507735</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>68.35997749904415</v>
+        <v>65.96119537218706</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>65.07872572895904</v>
+        <v>62.43732683329939</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>65.55449828335736</v>
+        <v>62.98772236038222</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>65.48275604058077</v>
+        <v>62.86708414851344</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>66.39075255571147</v>
+        <v>63.8099783208832</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>66.83433159336673</v>
+        <v>64.30110312509115</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>68.53912776321636</v>
+        <v>66.11321553430781</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-1000</v>
+        <v>57.58704559449633</v>
       </c>
     </row>
     <row r="164">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-1000</v>
+        <v>35.25740651539073</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-1000</v>
+        <v>48.79266985967318</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>62.68224152928625</v>
+        <v>61.83479580913373</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>51.91480718369814</v>
+        <v>55.69164806125821</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>58.29216756789206</v>
+        <v>57.53773568549296</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>56.81595589802598</v>
+        <v>56.85649871310431</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>60.48840599516331</v>
+        <v>59.50805903377086</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>60.65406042587405</v>
+        <v>59.66928652362886</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>64.7751961218403</v>
+        <v>63.37450737018381</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>60.46894592987228</v>
+        <v>58.81637676677446</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>61.4389034101429</v>
+        <v>59.88535031654845</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>61.11896851339531</v>
+        <v>59.50663681528425</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>62.83704885255541</v>
+        <v>61.16130413691263</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>63.12321061874591</v>
+        <v>61.51797467724757</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>66.12829478576107</v>
+        <v>64.42186814792269</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>62.2430156913691</v>
+        <v>60.37083734808031</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>63.02710873413816</v>
+        <v>61.18141618391252</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>62.80311440750758</v>
+        <v>60.93694227588518</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>64.17838932788318</v>
+        <v>62.18878226938963</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>64.54966855889298</v>
+        <v>62.6350940484089</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>66.80328274072818</v>
+        <v>64.81931892310671</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>63.18902411817853</v>
+        <v>61.04226445133015</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>63.77510400825148</v>
+        <v>61.67648192676594</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>63.64440611915325</v>
+        <v>61.51567084986155</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>64.70964023555142</v>
+        <v>62.56167330234431</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>65.13317790484832</v>
+        <v>63.03871760166144</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>67.1102007044516</v>
+        <v>65.03017453123694</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>63.56683509712779</v>
+        <v>61.31863388214025</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>64.13143923505208</v>
+        <v>61.91989852741238</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>64.0151769734855</v>
+        <v>61.77053138703989</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>65.04377192978737</v>
+        <v>62.79777733698934</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>65.47114716401927</v>
+        <v>63.27686019911409</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>67.39268080433588</v>
+        <v>65.24030369327615</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>63.92039809894963</v>
+        <v>61.58098309003099</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>64.45756635227167</v>
+        <v>62.16084395150024</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>64.35499649450337</v>
+        <v>62.02750759073253</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>65.35163289492139</v>
+        <v>63.02118407444806</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>65.78206506127447</v>
+        <v>63.49557896318235</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>67.65596723655696</v>
+        <v>65.44398875270352</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>64.23117708545523</v>
+        <v>61.82474588805003</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>64.76057006823116</v>
+        <v>62.39325296447286</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>64.6638977108486</v>
+        <v>62.26625221081783</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>65.64697488293251</v>
+        <v>63.23515513064472</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>66.07925618934263</v>
+        <v>63.71458623822448</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>67.90051054648183</v>
+        <v>65.63823482695669</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>64.53010975058623</v>
+        <v>62.04963702978058</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>65.03801206180221</v>
+        <v>62.61768999427002</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>64.95284260536091</v>
+        <v>62.48898795057249</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>65.91056300184211</v>
+        <v>63.44955751727435</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>66.34574850022167</v>
+        <v>63.93863971120736</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>68.12528378562057</v>
+        <v>65.81874258728769</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>64.7950497672834</v>
+        <v>62.26771869094233</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>65.28594876463602</v>
+        <v>62.82237594460982</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>65.20770264871031</v>
+        <v>62.69986873437412</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>66.14507576386328</v>
+        <v>63.64735418454551</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>66.58319216068134</v>
+        <v>64.13867815544207</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>68.33111172081286</v>
+        <v>65.9816042196303</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>65.04372675120993</v>
+        <v>62.4642775052192</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>65.51033415851975</v>
+        <v>63.01080227628289</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>65.43980573831088</v>
+        <v>62.89213047865744</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>66.35339542923028</v>
+        <v>63.82963757703632</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>66.79512649277815</v>
+        <v>64.321695007491</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>68.51417831474744</v>
+        <v>66.13064999718759</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>65.26241287075614</v>
+        <v>62.64776703396716</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>65.7149961726867</v>
+        <v>63.17879384477216</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>65.65512643154351</v>
+        <v>63.06465753171373</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>66.53412288753783</v>
+        <v>63.9947065548281</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>66.97951746730236</v>
+        <v>64.48862546281723</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>68.67385859700768</v>
+        <v>66.27913147759173</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>65.45234015469624</v>
+        <v>62.82154132404277</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>65.89902455102296</v>
+        <v>63.34402832301816</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>65.84535278393233</v>
+        <v>63.24061913428576</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>66.70583611552658</v>
+        <v>64.13840782169723</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>67.15497817930385</v>
+        <v>64.63826878116075</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>68.81916191863534</v>
+        <v>66.4135556167803</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-1000</v>
+        <v>58.30828696711904</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-1000</v>
+        <v>-456.6419036492717</v>
       </c>
     </row>
     <row r="274">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-1000</v>
+        <v>37.14476128379366</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-1000</v>
+        <v>51.63926615186104</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>61.64187166199785</v>
+        <v>62.03350411837552</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-199.7613282086455</v>
+        <v>56.19818858426795</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>56.17369679766011</v>
+        <v>57.92631094824562</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-196.9299374564369</v>
+        <v>57.17712239722521</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>59.98781732860483</v>
+        <v>59.78329923085095</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>59.97767540061958</v>
+        <v>60.0383910148647</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>64.5455483074586</v>
+        <v>63.52557612147849</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>60.03348979549374</v>
+        <v>59.03832656576476</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>61.17342599711328</v>
+        <v>60.03384892076562</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>60.79549321838433</v>
+        <v>59.70806924389692</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>62.51314743913484</v>
+        <v>61.34117602001547</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>62.80776610043038</v>
+        <v>61.68812929595693</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>65.95368637309005</v>
+        <v>64.48503433932125</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>61.92204085414057</v>
+        <v>60.49410026570081</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>62.8174687341841</v>
+        <v>61.26454422316395</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>62.55216571773369</v>
+        <v>61.03846332468829</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>63.99864532782264</v>
+        <v>62.24718405248412</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>64.34240342904025</v>
+        <v>62.69947414893032</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>66.73363900323091</v>
+        <v>64.84782258558016</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>63.09470283989216</v>
+        <v>61.08296831218046</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>63.70061968290476</v>
+        <v>61.70977542364842</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>63.56018012776099</v>
+        <v>61.55265804976526</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>64.65058443071153</v>
+        <v>62.58887876738266</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>65.07009712409253</v>
+        <v>63.06754128748729</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>67.04544208271165</v>
+        <v>65.05970471172573</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>63.48408758689366</v>
+        <v>61.34031186850311</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>64.0624046923753</v>
+        <v>61.95452628114077</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>63.93760600765282</v>
+        <v>61.80194423834712</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>64.98844949156901</v>
+        <v>62.8259317067449</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>65.41222376699582</v>
+        <v>63.3067299206112</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>67.33226138088924</v>
+        <v>65.25780114638508</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>63.84244669663386</v>
+        <v>61.60330827721668</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>64.39334751933652</v>
+        <v>62.18029991540749</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>64.283247387727</v>
+        <v>62.04843161922156</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>65.29966618885884</v>
+        <v>63.05034383270608</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>65.72686137725199</v>
+        <v>63.5265595692515</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>67.6004305389458</v>
+        <v>65.46186233647425</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>64.17863187281394</v>
+        <v>61.84775113765784</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>64.70063161985348</v>
+        <v>62.41324844435932</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>64.59727645646834</v>
+        <v>62.28778600368051</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>65.5980376955992</v>
+        <v>63.26538158388981</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>66.02739647751733</v>
+        <v>63.74462840516177</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>67.85282516838726</v>
+        <v>65.65657619573072</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>64.47380669114726</v>
+        <v>62.07335758808564</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>64.98189848026782</v>
+        <v>62.63825039700379</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>64.89076581610587</v>
+        <v>62.51116171394854</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>65.86437187203421</v>
+        <v>63.46727021416963</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>66.29690811592207</v>
+        <v>63.95713418586588</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>68.08740416928306</v>
+        <v>65.83757250989626</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>64.75866272105684</v>
+        <v>62.29219241612655</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>65.23364569089645</v>
+        <v>62.84352838443451</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>65.16518561718887</v>
+        <v>62.72271481186086</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>66.10138303614261</v>
+        <v>63.66552760878341</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>66.53708895220244</v>
+        <v>64.15766806152628</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>68.30303282029558</v>
+        <v>66.00094477930374</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>65.01085015215752</v>
+        <v>62.4895451216422</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>65.47172029567326</v>
+        <v>63.03257572524166</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>65.4087530023325</v>
+        <v>62.91568354981222</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>66.31198363936169</v>
+        <v>63.84829205623804</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>66.75151390544936</v>
+        <v>64.34120286869754</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>68.48720308581515</v>
+        <v>66.15052470048653</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>65.23096669749721</v>
+        <v>62.6633565743548</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>65.68705166536023</v>
+        <v>63.20121929965482</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>65.62537606260494</v>
+        <v>63.08761260804334</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>66.50545239163938</v>
+        <v>64.01386369490362</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>66.9539440991598</v>
+        <v>64.50867526312044</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>68.64791657043186</v>
+        <v>66.29218269388693</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>65.4222235799558</v>
+        <v>62.83750261487582</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>65.87217503822832</v>
+        <v>63.35831305131455</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>65.81681620205015</v>
+        <v>63.25577096910909</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>66.67967733012847</v>
+        <v>64.15786448291885</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>67.13035112520113</v>
+        <v>64.65417149292782</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>68.79418876867908</v>
+        <v>66.42688266483087</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>65.59566395337595</v>
+        <v>62.99965608006852</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>66.03533187409067</v>
+        <v>63.51235515259204</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>65.98502622811428</v>
+        <v>63.41425460781706</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>66.84534129398415</v>
+        <v>64.29834351231752</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>67.29544013471694</v>
+        <v>64.8003677545577</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>68.92965653221547</v>
+        <v>66.5477096426285</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>65.74907213703133</v>
+        <v>63.14113759370275</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>66.18155347791139</v>
+        <v>63.64624523779384</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>66.13481600039283</v>
+        <v>63.55167224962529</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>66.98621321484362</v>
+        <v>64.4321067386883</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>67.43751568685992</v>
+        <v>64.92996822650585</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>69.04890805204049</v>
+        <v>66.65895154209099</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-1000</v>
+        <v>58.87359740074224</v>
       </c>
     </row>
     <row r="380">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-1000</v>
+        <v>-454.7811774178689</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-1000</v>
+        <v>-458.0770299414323</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-1000</v>
+        <v>55.46748130016983</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-1000</v>
+        <v>53.24458724103931</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>60.72579104075692</v>
+        <v>62.26454833720256</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-455.497171197695</v>
+        <v>56.56168139609845</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-197.4319457159648</v>
+        <v>58.3221313818994</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-203.792024684066</v>
+        <v>57.61434560452555</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>58.95447636579161</v>
+        <v>59.99073490343716</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>58.19237590042474</v>
+        <v>60.30163997243148</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>64.24557589642609</v>
+        <v>63.69322479645281</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>59.21838784154269</v>
+        <v>59.24708576769312</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>60.81201421728262</v>
+        <v>60.19668291719637</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>60.26271353804614</v>
+        <v>59.86758059133177</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>62.23829574309162</v>
+        <v>61.48589072863759</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>62.55272675926641</v>
+        <v>61.86205691124911</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>65.71824775603567</v>
+        <v>64.5415067169619</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>61.65391368242703</v>
+        <v>60.59793004214131</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>62.54210794040005</v>
+        <v>61.33727781909808</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>62.25487325284721</v>
+        <v>61.12569306398446</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>63.78035222992007</v>
+        <v>62.29968561006653</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>64.12949450855125</v>
+        <v>62.7569524549153</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>66.65198564840659</v>
+        <v>64.87448212134188</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>62.97980758690899</v>
+        <v>61.12038026599936</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>63.6126133740514</v>
+        <v>61.74069386308474</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>63.45914032126205</v>
+        <v>61.58682715814324</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>64.58253974564872</v>
+        <v>62.61437513377609</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>64.99692578585741</v>
+        <v>63.09448696620601</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>66.99758733741511</v>
+        <v>65.08728126729147</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>63.43713365457193</v>
+        <v>61.37556240645392</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>63.98154504604405</v>
+        <v>61.98662222717712</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>63.87111585946361</v>
+        <v>61.83750742242726</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>64.92510854218206</v>
+        <v>62.85227866197418</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>65.3443467544093</v>
+        <v>63.33460927532295</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>67.29321135029178</v>
+        <v>65.28634853570749</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>63.79805906209055</v>
+        <v>61.62439614268595</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>64.32434811815232</v>
+        <v>62.21327718888324</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>64.22732945579976</v>
+        <v>62.06958500431831</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>65.24051062252437</v>
+        <v>63.0775897539048</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>65.6636692316022</v>
+        <v>63.55542780378994</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>67.56545776279593</v>
+        <v>65.4788763461009</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>64.13658489995477</v>
+        <v>61.86945682470923</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>64.63931451465933</v>
+        <v>62.43221084422253</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>64.55409755985686</v>
+        <v>62.30815342866566</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>65.54262579561741</v>
+        <v>63.29357879047685</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>65.96837369196987</v>
+        <v>63.774545404325</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>67.8194356517111</v>
+        <v>65.67402079422409</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>64.43390158350809</v>
+        <v>62.09571186877035</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>64.93220051865273</v>
+        <v>62.65772949075169</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>64.85124228418826</v>
+        <v>62.53211185527334</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>65.81232457376629</v>
+        <v>63.48660552462444</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>66.2416152903387</v>
+        <v>63.9747195850076</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>68.05548192194853</v>
+        <v>65.85546617262075</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>64.72072355067418</v>
+        <v>62.3152282521085</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>65.2004354755689</v>
+        <v>62.86354807355935</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>65.12955145235775</v>
+        <v>62.74427599883715</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>66.0523729416487</v>
+        <v>63.68281768646171</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>66.49020131568625</v>
+        <v>64.17570863492593</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>68.27247341274983</v>
+        <v>66.01930711091612</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>64.97472058391608</v>
+        <v>62.51329786869871</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>65.43996442917027</v>
+        <v>63.05316148847899</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>65.37475155178811</v>
+        <v>62.93788607836456</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>66.2764136524945</v>
+        <v>63.86602453162254</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>66.72071428518693</v>
+        <v>64.35971859879419</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>68.45791220833827</v>
+        <v>66.16937652527045</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>65.19650726941046</v>
+        <v>62.68336153905123</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>65.6566469853053</v>
+        <v>63.22239832938764</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>65.59288630847274</v>
+        <v>63.11048891980901</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>66.47880900793217</v>
+        <v>64.03205776289298</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>66.92625744144456</v>
+        <v>64.52768738255418</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>68.61980880597774</v>
+        <v>66.30472106450385</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>65.38930943118261</v>
+        <v>62.85274999483087</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>65.84302834662222</v>
+        <v>63.37298752717789</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>65.7857293257774</v>
+        <v>63.27026737573193</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>66.65404631403948</v>
+        <v>64.17654052507592</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>67.1037428883822</v>
+        <v>64.67370258694656</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>68.76718654285762</v>
+        <v>66.43967891968505</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>65.56418291537349</v>
+        <v>63.01526160621876</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>66.00735873284643</v>
+        <v>63.5263438020184</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>65.95524407324916</v>
+        <v>63.42908003179301</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>66.82066010648995</v>
+        <v>64.31079264054</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>67.26984206847645</v>
+        <v>64.81324790645601</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>68.90368921096331</v>
+        <v>66.5607727451996</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>65.71892312117147</v>
+        <v>63.15711551094299</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>66.15467717771574</v>
+        <v>63.66054378388829</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>66.10624976571411</v>
+        <v>63.56683932888377</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>66.96242459610258</v>
+        <v>64.44481067835879</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>67.41286543978066</v>
+        <v>64.94311816901751</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>69.03143824151435</v>
+        <v>66.67229089820337</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>65.86500258261582</v>
+        <v>63.28292202438615</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>66.28644843119426</v>
+        <v>63.78225072307053</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>66.24544256069004</v>
+        <v>63.68933592020211</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>67.08044291497399</v>
+        <v>64.56745733500212</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>67.53474751360378</v>
+        <v>65.06985050813289</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>69.12045048437408</v>
+        <v>66.77224126844736</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>65.96377106490465</v>
+        <v>63.40260151946408</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>66.37764444909236</v>
+        <v>63.89064572692124</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>66.34060363995222</v>
+        <v>63.80359412565015</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>67.16406617903938</v>
+        <v>64.66492878748942</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>67.62052889120068</v>
+        <v>65.17039859365998</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>69.18702927791797</v>
+        <v>66.84641449463366</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-1000</v>
+        <v>59.5389421065976</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-1000</v>
+        <v>-460.4316526579998</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-1000</v>
+        <v>-199.7647154008705</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-1000</v>
+        <v>-455.0929563747449</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-1000</v>
+        <v>57.08412680655998</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-1000</v>
+        <v>56.26021194604786</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>59.84355550046426</v>
+        <v>62.45656275925546</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-1000</v>
+        <v>57.03693931924632</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-453.6987966479919</v>
+        <v>58.69048090093143</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-456.0524405553726</v>
+        <v>58.0220025673858</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>53.39094847286944</v>
+        <v>60.15429747749687</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>54.659358178475</v>
+        <v>60.50155392355718</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>63.86253969230802</v>
+        <v>63.82937151903383</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>58.55231958399249</v>
+        <v>59.41153761185043</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>60.18774592969554</v>
+        <v>60.38149673985947</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>59.53667897727472</v>
+        <v>60.01802595637739</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>61.95609819067057</v>
+        <v>61.60558634433218</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>62.20922156910506</v>
+        <v>62.00262166732057</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>65.47883512188974</v>
+        <v>64.59238972380564</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>61.39751448082795</v>
+        <v>60.6869490154055</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>62.26334564585338</v>
+        <v>61.40161700489415</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>61.98962879998355</v>
+        <v>61.20169777668405</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>63.55685081717349</v>
+        <v>62.34721788709382</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>63.86556350060513</v>
+        <v>62.80868008929401</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>66.55441996460095</v>
+        <v>64.89948817356887</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>62.83557562328237</v>
+        <v>61.15492137802656</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>63.50642675649947</v>
+        <v>61.76950683071051</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>63.33482746496911</v>
+        <v>61.61851876517171</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>64.50296698650291</v>
+        <v>62.63833416777641</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>64.91065079679557</v>
+        <v>63.11975009828257</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>66.954765545445</v>
+        <v>65.11311052360557</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>63.38415449156026</v>
+        <v>61.41152333597805</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>63.93543596752373</v>
+        <v>62.0164805743389</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>63.82210840268448</v>
+        <v>61.87042667464591</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>64.8516038505401</v>
+        <v>62.87700366207584</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>65.27241490815121</v>
+        <v>63.36070992381863</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>67.25259648116752</v>
+        <v>65.31304718278784</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>63.74820650013111</v>
+        <v>61.64919232798015</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>64.28179758925857</v>
+        <v>62.24424570683006</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>64.18107451066359</v>
+        <v>62.10381327797505</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>65.17233956494378</v>
+        <v>63.10312242738801</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>65.60247081530413</v>
+        <v>63.58241329643977</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>67.52686648771937</v>
+        <v>65.50335620160793</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>64.08956292280683</v>
+        <v>61.88998086852452</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>64.59894804719374</v>
+        <v>62.46378304385058</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>64.51034667020126</v>
+        <v>62.32745611428037</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>65.47917271374384</v>
+        <v>63.31996409523565</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>65.90620008103043</v>
+        <v>63.80246690028434</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>67.78270528334029</v>
+        <v>65.69063939536997</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>64.38945199444446</v>
+        <v>62.11682618892352</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>64.89383739384097</v>
+        <v>62.676218849363</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>64.80977730843668</v>
+        <v>62.55194692618043</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>65.75875438400334</v>
+        <v>63.51389200236732</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>66.19683737471961</v>
+        <v>63.99829858925013</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>68.02046751859299</v>
+        <v>65.87249867705341</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>64.67861997663685</v>
+        <v>62.33696169890028</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>65.1639152449991</v>
+        <v>62.88253263314626</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>65.09017996664249</v>
+        <v>62.76466838864547</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>66.01682584970278</v>
+        <v>63.69929373497419</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>66.45733462031707</v>
+        <v>64.19287642535475</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>68.23904536421834</v>
+        <v>66.03677099125062</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>64.93476360232837</v>
+        <v>62.53568130613492</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>65.40514408151306</v>
+        <v>63.07266375793777</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>65.33730307752987</v>
+        <v>62.95886238689056</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>66.24626244355123</v>
+        <v>63.88290853412127</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>66.68927730777618</v>
+        <v>64.37732353997738</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>68.42595421151663</v>
+        <v>66.18729030457443</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>65.15852041732317</v>
+        <v>62.70642802925262</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>65.62339858260378</v>
+        <v>63.24244227664725</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>65.55720919513294</v>
+        <v>63.13207755903733</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>66.44989859194476</v>
+        <v>64.04936683846708</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>66.89614942358658</v>
+        <v>64.54574834868524</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>68.589216157884</v>
+        <v>66.31955060058776</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>65.35313591391592</v>
+        <v>62.86733514399567</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>65.81123704084673</v>
+        <v>63.39359870310298</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>65.75168815838828</v>
+        <v>63.2873390347303</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>66.62629384317772</v>
+        <v>64.19429281578913</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>67.07487274252126</v>
+        <v>64.69223961323083</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>68.73786469395225</v>
+        <v>66.45197870523701</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>65.52968287419415</v>
+        <v>63.03017916230363</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>65.97692109245314</v>
+        <v>63.53975764440827</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>65.9227175033888</v>
+        <v>63.4432730623362</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>66.79399027745019</v>
+        <v>64.32564927752861</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>67.24212721609555</v>
+        <v>64.82562622298747</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>68.88035276756577</v>
+        <v>66.57332223361793</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>65.69439134413859</v>
+        <v>63.17237829595116</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>66.12549976851724</v>
+        <v>63.6742464436364</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>66.07902983676139</v>
+        <v>63.58134989638948</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>66.93676878900382</v>
+        <v>64.4570240273857</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>67.3862308157791</v>
+        <v>64.95574886948627</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>69.0128657091736</v>
+        <v>66.68509865471584</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>65.84410002910489</v>
+        <v>63.29854356363988</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>66.26735901472406</v>
+        <v>63.79625271608491</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>66.22540777373447</v>
+        <v>63.70417604499332</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>67.06313436964857</v>
+        <v>64.57991744940733</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>67.5169347589344</v>
+        <v>65.08274228769156</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>69.10703030928971</v>
+        <v>66.7815006863427</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>65.94902200141743</v>
+        <v>63.41344425937528</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>66.36392489296396</v>
+        <v>63.90059032706856</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>66.32634336420283</v>
+        <v>63.81400781570457</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>67.15138968630015</v>
+        <v>64.67398486395955</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>67.60755373423383</v>
+        <v>65.17970688918128</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>69.17675286457828</v>
+        <v>66.85350724745228</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>66.02514132349253</v>
+        <v>63.49649626973659</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>66.43509453806469</v>
+        <v>63.97741018749549</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>66.40011775872763</v>
+        <v>63.894093335514</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>67.21750207753465</v>
+        <v>64.74455281527339</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>67.67511865773992</v>
+        <v>65.25205854892624</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>69.23105546872345</v>
+        <v>66.90992974650385</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>66.08360817605383</v>
+        <v>63.56013035610441</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>66.49034773278352</v>
+        <v>64.03700873785401</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>66.45706932406374</v>
+        <v>63.95581706131544</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>67.26941068003256</v>
+        <v>64.80001564139434</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>67.727994381944</v>
+        <v>65.30871053551498</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>69.27489496915065</v>
+        <v>66.95568391386962</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-1000</v>
+        <v>57.48620672872339</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-459.5770793547113</v>
+        <v>58.95330090023441</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-1000</v>
+        <v>58.4433916851977</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>36.90063264607532</v>
+        <v>60.31431355573771</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>50.82725506996942</v>
+        <v>60.66003590503351</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>63.50726757660114</v>
+        <v>63.94278809329076</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>57.85719456048714</v>
+        <v>59.55780154163344</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>59.54274237594086</v>
+        <v>60.55520967498803</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>58.82631961399024</v>
+        <v>60.2007295484226</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>61.51475756367146</v>
+        <v>61.74602132614542</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>61.62906883990912</v>
+        <v>62.12930827797324</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>65.27131584968726</v>
+        <v>64.63854844164432</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>61.032642846413</v>
+        <v>60.76437356485143</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>62.00897552008961</v>
+        <v>61.4590614437897</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>61.6953554589515</v>
+        <v>61.2686952810107</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>63.27434535541439</v>
+        <v>62.39051836829316</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>63.59630877459597</v>
+        <v>62.85555615692485</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>66.43499654273303</v>
+        <v>64.9230048875674</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>62.64693538990012</v>
+        <v>61.18694097510697</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>63.37479298368753</v>
+        <v>61.79644292972137</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>63.17667208624577</v>
+        <v>61.6480184851706</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>64.40819409620892</v>
+        <v>62.66090440042905</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>64.80682750488843</v>
+        <v>63.14349880009529</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>66.90680881254644</v>
+        <v>65.13736953427407</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>63.32374041630027</v>
+        <v>61.44479210810826</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>63.88491370010139</v>
+        <v>62.04434978971866</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>63.76661004513477</v>
+        <v>61.90101415724627</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>64.79911045793186</v>
+        <v>62.9002665731125</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>65.22804360965723</v>
+        <v>63.38521329838798</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>67.20729635784117</v>
+        <v>65.3380883851883</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>63.69166694574658</v>
+        <v>61.6837936836165</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>64.23416836580131</v>
+        <v>62.27310319554342</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>64.12894933499406</v>
+        <v>62.13555706961802</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>65.12817759250248</v>
+        <v>63.12711419161927</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>65.56043876771521</v>
+        <v>63.60771218340838</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>67.48398634397937</v>
+        <v>65.52922255901319</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>64.03650053075459</v>
+        <v>61.90942673271126</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>64.55394580680664</v>
+        <v>62.49368863865551</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>64.46126613151871</v>
+        <v>62.35385225848966</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>65.43143508014262</v>
+        <v>63.34472358914073</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>65.86630865279518</v>
+        <v>63.82860530227284</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>67.74203699211017</v>
+        <v>65.70649519155846</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>64.33952423589061</v>
+        <v>62.13681109804394</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>64.85122912848918</v>
+        <v>62.69431193500352</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>64.76345599996601</v>
+        <v>62.57076245771135</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>65.72257789532826</v>
+        <v>63.53946106920458</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>66.15891077879769</v>
+        <v>64.02532399398956</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>67.98182718694996</v>
+        <v>65.88873695272584</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>64.63152979007263</v>
+        <v>62.35751102847854</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>65.12349589932633</v>
+        <v>62.90056829805078</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>65.04636859795326</v>
+        <v>62.78399390104578</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>65.98232306275101</v>
+        <v>63.71853306442663</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>66.42121664265926</v>
+        <v>64.20923961055452</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>68.20226982108511</v>
+        <v>66.05340737608535</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>64.89025191442053</v>
+        <v>62.55682213633696</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>65.36673238293596</v>
+        <v>63.09117436218374</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>65.29578280143858</v>
+        <v>62.97872134405073</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>66.21330813008107</v>
+        <v>63.89900963829684</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>66.65482859092147</v>
+        <v>64.39408999389292</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>68.39089809828235</v>
+        <v>66.20434133734778</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>65.11636011495017</v>
+        <v>62.72818929501303</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>65.58683360752606</v>
+        <v>63.26144903915615</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>65.51778698737257</v>
+        <v>63.15249496471611</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>66.41838026335451</v>
+        <v>64.06586041704102</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>66.8632451973601</v>
+        <v>64.5629349134939</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>68.55795694718762</v>
+        <v>66.33703379831375</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>65.31312694584925</v>
+        <v>62.88744049301424</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>65.77637536815074</v>
+        <v>63.41312419427035</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>65.71419302662605</v>
+        <v>63.30834156498157</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>66.5961101308726</v>
+        <v>64.21119507805275</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>67.04340091736913</v>
+        <v>64.7098641326796</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>68.71607220515644</v>
+        <v>66.46381331626</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>65.50083577858081</v>
+        <v>63.04445785541407</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>65.9436344291144</v>
+        <v>63.5526349968906</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>65.89148356552799</v>
+        <v>63.45687741664502</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>66.76504955801656</v>
+        <v>64.34297738581779</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>67.21198677248867</v>
+        <v>64.8375344674271</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>68.85990163051657</v>
+        <v>66.58539090616652</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>65.67118535673153</v>
+        <v>63.18697775083215</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>66.10319082541855</v>
+        <v>63.68739348832381</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>66.05685422375259</v>
+        <v>63.59524998745199</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>66.90898801162102</v>
+        <v>64.46877756947619</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>67.35802909935714</v>
+        <v>64.9678936239025</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>68.99306933983058</v>
+        <v>66.69740920759952</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>65.82170044537141</v>
+        <v>63.31347597318006</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>66.24698716855265</v>
+        <v>63.80967900047318</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>66.20398041522193</v>
+        <v>63.71838274575983</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>67.04474036776283</v>
+        <v>64.59190236932281</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>67.49798218598754</v>
+        <v>65.09513148641646</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>69.09290557994623</v>
+        <v>66.79046872411477</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>65.93344595866331</v>
+        <v>63.42390902979243</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>66.34947391838557</v>
+        <v>63.91020715068665</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>66.31130209078816</v>
+        <v>63.82406786040323</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>67.13807354530256</v>
+        <v>64.68276003855119</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>67.59391317706735</v>
+        <v>65.188721263663</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>69.16602808434914</v>
+        <v>66.8604123409374</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>66.01351228668882</v>
+        <v>63.50434873673684</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>66.42416425831762</v>
+        <v>63.98473094668677</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>66.38881896836715</v>
+        <v>63.90169360759784</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>67.2072924100323</v>
+        <v>64.75133280227388</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>67.66470131545839</v>
+        <v>65.25899359313409</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>69.22255611242521</v>
+        <v>66.91545716150881</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>66.07450121816451</v>
+        <v>63.56630154877026</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>66.48170923063168</v>
+        <v>64.04282104844647</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>66.44818287668902</v>
+        <v>63.96181879253583</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>67.26126294258177</v>
+        <v>64.80545653891666</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>67.71970439237559</v>
+        <v>65.31425860946764</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>69.26794531250223</v>
+        <v>66.96023776281801</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>66.12295527768329</v>
+        <v>63.61591230108764</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>66.52780194022436</v>
+        <v>64.08974671721009</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>66.49552676416771</v>
+        <v>64.01016400326833</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>67.3048699866509</v>
+        <v>64.8495832974062</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>67.76403319655657</v>
+        <v>65.35919516910684</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>69.30543088994374</v>
+        <v>66.99759282026713</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>66.16265305503042</v>
+        <v>63.65680051614979</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>66.56579793679647</v>
+        <v>64.12867965665026</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>66.53442664136952</v>
+        <v>64.05013335836942</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>67.34105538878707</v>
+        <v>64.88645453192072</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>67.80074640748701</v>
+        <v>65.39666543131891</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>69.33706894727111</v>
+        <v>67.02937099076485</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>60.70223977125745</v>
+        <v>60.83252011105551</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>61.68252761240069</v>
+        <v>61.51076066898501</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>61.36115594137601</v>
+        <v>61.32833473224481</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>63.03825041170096</v>
+        <v>62.43017987715405</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>63.36393090852481</v>
+        <v>62.89829451717586</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>66.28410889689415</v>
+        <v>64.94517446545903</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>62.42722551215272</v>
+        <v>61.21673163201044</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>63.20559766568624</v>
+        <v>61.82169745819008</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>62.96587628287369</v>
+        <v>61.67556786373791</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>64.29267073083541</v>
+        <v>62.68221501852428</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>64.67856684662306</v>
+        <v>63.16587857346755</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>66.85260136500399</v>
+        <v>65.16021121262386</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>63.25397211031939</v>
+        <v>61.47568869186609</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>63.82754720956877</v>
+        <v>62.07044135398071</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>63.70304856905796</v>
+        <v>61.92953275658834</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>64.75201565874535</v>
+        <v>62.92220603679802</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>65.1782108730402</v>
+        <v>63.40827593626789</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>67.15633484731647</v>
+        <v>65.36163682796548</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>63.62679799379814</v>
+        <v>61.7158663692333</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>64.18036247254274</v>
+        <v>62.30007908488174</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>64.06959703068544</v>
+        <v>62.16510309457585</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>65.0836617053962</v>
+        <v>63.14971405224509</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>65.51343477485713</v>
+        <v>63.63149313768637</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>67.43595912452061</v>
+        <v>65.55351498616477</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>63.97598283567479</v>
+        <v>61.93696364805146</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>64.50334664984963</v>
+        <v>62.52159996972517</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>64.40567783701933</v>
+        <v>62.38448892873156</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>65.38927094190105</v>
+        <v>63.36801765996525</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>65.8218754378135</v>
+        <v>63.85314265656204</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>67.69667277501996</v>
+        <v>65.73153891076726</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>64.28289191147401</v>
+        <v>62.15576382155735</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>64.80353021972547</v>
+        <v>62.72321405959775</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>64.71124982162458</v>
+        <v>62.59183023634193</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>65.68256541217362</v>
+        <v>63.5634856382658</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>66.11682216354194</v>
+        <v>64.05065872028216</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>67.93888855873776</v>
+        <v>65.90424086597358</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>64.57838395070517</v>
+        <v>62.37698000248795</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>65.07843026673491</v>
+        <v>62.9177315693471</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>64.99721479545256</v>
+        <v>62.80234243215396</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>65.944285198305</v>
+        <v>63.7433271324251</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>66.38127337013398</v>
+        <v>64.231026416552</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>68.16154799048493</v>
+        <v>66.06927961585627</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>64.84024876993787</v>
+        <v>62.57683123335794</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>65.3240662503805</v>
+        <v>63.10877459082327</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>65.24939497071463</v>
+        <v>62.99755874985201</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>66.17708759714183</v>
+        <v>63.91438653607867</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>66.61685433965211</v>
+        <v>64.41008247379335</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>68.35220860601159</v>
+        <v>66.22059672329304</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>65.0692015538214</v>
+        <v>62.74876396232315</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>65.54636126805136</v>
+        <v>63.27950508754113</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>65.47391500011916</v>
+        <v>63.17184334893266</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>66.38383677804315</v>
+        <v>64.08160058628602</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>66.8270832941908</v>
+        <v>64.57931542898662</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>68.53446475807021</v>
+        <v>66.35368799858011</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>65.28588604765767</v>
+        <v>62.90860788879252</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>65.7379149931792</v>
+        <v>63.43165608487413</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>65.67739555511781</v>
+        <v>63.32822445637994</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>66.56311811952783</v>
+        <v>64.22731305218112</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>67.00891160847489</v>
+        <v>64.72664863488046</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>68.69340287032529</v>
+        <v>66.47521135366294</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>65.4748697656547</v>
+        <v>63.05814202136392</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>65.91922080785284</v>
+        <v>63.56501069341688</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>65.86675662844173</v>
+        <v>63.46993269461901</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>66.73349623115983</v>
+        <v>64.35948852556369</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>67.1790449439001</v>
+        <v>64.85455894966145</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>68.83800820227989</v>
+        <v>66.59700870188875</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>65.64618969556938</v>
+        <v>63.20096057209917</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>66.08061560844649</v>
+        <v>63.70002147915189</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>66.03302258167663</v>
+        <v>63.60858124128102</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>66.88563564508479</v>
+        <v>64.48022364820159</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>67.33713120102639</v>
+        <v>64.97958281382191</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>68.97190853739049</v>
+        <v>66.70925391562811</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>65.79761615775668</v>
+        <v>63.32776847435628</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>66.22518255680311</v>
+        <v>63.82256797640265</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>66.18099130575928</v>
+        <v>63.73199983808664</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>67.02514249751087</v>
+        <v>64.60344155095407</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>67.47776280806015</v>
+        <v>65.10704993281821</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>69.07801240885439</v>
+        <v>66.79916035017581</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>65.9169626495154</v>
+        <v>63.43401729197721</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>66.33422413752592</v>
+        <v>63.91951381696219</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>66.29540582515338</v>
+        <v>63.83379383314325</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>67.12406208686065</v>
+        <v>64.69126853901768</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>67.5795483309649</v>
+        <v>65.19745686667368</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>69.15482135494706</v>
+        <v>66.8671379068785</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>66.00133054118045</v>
+        <v>63.51197920488963</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>66.41273630275943</v>
+        <v>63.99185397784614</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>66.376993777642</v>
+        <v>63.90908352956997</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>67.19663928863325</v>
+        <v>64.75793860433322</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>67.65382515928457</v>
+        <v>65.26574782141361</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>69.21373141858196</v>
+        <v>66.92086031080824</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>66.06502869397652</v>
+        <v>63.57232364176973</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>66.47273634945394</v>
+        <v>64.04849832226928</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>66.43894568648258</v>
+        <v>63.96767813252325</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>67.25281225727257</v>
+        <v>64.81077637182683</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>67.71110247624131</v>
+        <v>65.31968164850356</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>69.26076397330603</v>
+        <v>66.96470143404767</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>66.11531798075549</v>
+        <v>63.62082113413477</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>66.52051567847421</v>
+        <v>64.09440877349425</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>66.48805428633423</v>
+        <v>64.01495673717204</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>67.29795514927915</v>
+        <v>64.85398627556614</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>67.75701030489078</v>
+        <v>65.3636733017107</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>69.29943939839029</v>
+        <v>67.00136088169667</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>66.15632643400446</v>
+        <v>63.66090130866534</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>66.55972897296368</v>
+        <v>64.13259671488765</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>66.52822070360027</v>
+        <v>64.05414792974672</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>67.33526164647292</v>
+        <v>64.89017677489508</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>67.79487231776258</v>
+        <v>65.40044439356627</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>69.33197153076863</v>
+        <v>67.03260705123496</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>66.1905971917752</v>
+        <v>63.69474749519971</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>66.59266362179356</v>
+        <v>64.16500964733584</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>66.56186613652189</v>
+        <v>64.08732228476062</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>67.36676470007784</v>
+        <v>64.92106332909398</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>67.8267937832463</v>
+        <v>65.43177606318304</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>69.35983155437208</v>
+        <v>67.05965319347243</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>66.21979379208132</v>
+        <v>63.72382443806668</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>66.62083411878254</v>
+        <v>64.19297027699896</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>66.59058335224479</v>
+        <v>64.11587691746995</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>67.3938280781326</v>
+        <v>64.94782655615373</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>67.85418157176431</v>
+        <v>65.45888939609017</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>69.38404038654218</v>
+        <v>67.08336309461896</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>63.17215629712163</v>
+        <v>61.50448222749808</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>63.76163707958161</v>
+        <v>62.09493655185609</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>63.62926112981761</v>
+        <v>61.9562056530678</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>64.69886417568875</v>
+        <v>62.94294296119315</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>65.12169577376754</v>
+        <v>63.43003370614237</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>67.09842510916666</v>
+        <v>65.38383516197948</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>63.55133065102738</v>
+        <v>61.74570409526719</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>64.11891801699714</v>
+        <v>62.32536934793778</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>64.0011766522932</v>
+        <v>62.19269378582978</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>65.03365346271472</v>
+        <v>63.17105159265299</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>65.46039438193476</v>
+        <v>63.65390212327927</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>67.38166520342877</v>
+        <v>65.57638688908563</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>63.9060827690777</v>
+        <v>61.96791025129118</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>64.44588511413708</v>
+        <v>62.54772926556871</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>64.34200357616433</v>
+        <v>62.41305129314598</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>65.34210775697615</v>
+        <v>63.38998538375609</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>65.77196755448763</v>
+        <v>63.87623600816161</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>67.64563325640427</v>
+        <v>65.75511915374442</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>64.21790627625256</v>
+        <v>62.18315115415176</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>64.74963891909812</v>
+        <v>62.75022983734051</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>64.6517969185992</v>
+        <v>62.62142268754722</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>65.63798727163177</v>
+        <v>63.58611519175097</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>66.06975000478435</v>
+        <v>64.07447200010351</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>67.89079067979266</v>
+        <v>65.91906415027984</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>64.51776233905143</v>
+        <v>62.39546008368221</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>65.02775402490808</v>
+        <v>62.93635444487214</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>64.94153632067922</v>
+        <v>62.8197936187741</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>65.90206419554038</v>
+        <v>63.76665243267112</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>66.33677809446482</v>
+        <v>64.25559782917973</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>68.11611952827563</v>
+        <v>66.08444447263129</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>64.78669608666333</v>
+        <v>62.5958060977425</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>65.27629748613271</v>
+        <v>63.12553670030575</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>65.19710757956584</v>
+        <v>63.0154592858414</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>66.13702300700014</v>
+        <v>63.92989057769113</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>66.57470902967749</v>
+        <v>64.42535875104763</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>68.32587707401802</v>
+        <v>66.23611647617159</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>65.03762033000105</v>
+        <v>62.76825609196989</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>65.50123209421683</v>
+        <v>63.29668712497755</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>65.43403008614088</v>
+        <v>63.19021285653085</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>66.34575102481833</v>
+        <v>64.09664301138045</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>66.7870880649352</v>
+        <v>64.59495099338231</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>68.50914499309219</v>
+        <v>66.36957671037733</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>65.25656580080336</v>
+        <v>62.9286412225501</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>65.70978602515791</v>
+        <v>63.44927588304138</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>65.64958744851023</v>
+        <v>63.34708377887243</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>66.52685345284837</v>
+        <v>64.24270557381935</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>66.9747402988032</v>
+        <v>64.74265779539444</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>68.66901401835109</v>
+        <v>66.48911752639178</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>65.44673458332967</v>
+        <v>63.0712718046404</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>65.89401418074418</v>
+        <v>63.58165451259064</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>65.84003473683174</v>
+        <v>63.48282138570247</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>66.6989977632939</v>
+        <v>64.37524493893781</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>67.1503742037911</v>
+        <v>64.8709568260622</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>68.81449457484659</v>
+        <v>66.60820301328299</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>65.61916182651771</v>
+        <v>63.21436897995118</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>66.0563330552617</v>
+        <v>63.71216369543579</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>66.00731797190825</v>
+        <v>63.62138142641135</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>66.86397685506984</v>
+        <v>64.4963585217649</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>67.31473684136587</v>
+        <v>64.99605865959553</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>68.94921900168964</v>
+        <v>66.72066143671373</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>65.77162481114104</v>
+        <v>63.34146550316348</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>66.20176895426582</v>
+        <v>63.83495455128244</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>66.15624101862412</v>
+        <v>63.74506700850466</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>67.00420343585252</v>
+        <v>64.61456195600496</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>67.45612890619439</v>
+        <v>65.11852670307269</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>69.06227849232636</v>
+        <v>66.8075894780816</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>65.89948043265272</v>
+        <v>63.44378883903288</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>66.3180991373072</v>
+        <v>63.92852664703332</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>66.27857037076294</v>
+        <v>63.84320382346829</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>67.10929261384391</v>
+        <v>64.6995236042354</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>67.56439274257411</v>
+        <v>65.20592777665129</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>69.14309546378958</v>
+        <v>66.87369159214275</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>65.98855087009007</v>
+        <v>63.51939794113637</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>66.40077172068671</v>
+        <v>63.99878802445469</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>66.36460000033455</v>
+        <v>63.91627262875271</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>67.18550965268003</v>
+        <v>64.76437755426919</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>67.64245548963363</v>
+        <v>65.2723289569096</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>69.2045600876678</v>
+        <v>66.92614378186306</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>66.05516547294667</v>
+        <v>63.57820254388614</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>66.46340694528962</v>
+        <v>64.05404570844438</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>66.42933405651935</v>
+        <v>63.97340062405915</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>67.2440393728033</v>
+        <v>64.81597956419017</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>67.70216856829292</v>
+        <v>65.32498427959182</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>69.25333778590947</v>
+        <v>66.96907786504448</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>66.10740905788688</v>
+        <v>63.62562785810286</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>66.51297850802425</v>
+        <v>64.0989770769618</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>66.48031999401171</v>
+        <v>64.01965132823074</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>67.29081058209565</v>
+        <v>64.85830396892513</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>67.7497516013629</v>
+        <v>65.36806372558971</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>69.29326744809291</v>
+        <v>67.00506304862238</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>66.14980203601948</v>
+        <v>63.664926290265</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>66.55347560483311</v>
+        <v>64.13644350577894</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>66.52182330025624</v>
+        <v>64.05808931228651</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>67.32929735725506</v>
+        <v>64.8938344457293</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>67.7888236815467</v>
+        <v>65.40415714514762</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>69.32673661789221</v>
+        <v>67.03579190917603</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>66.18509573316183</v>
+        <v>63.69818183164961</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>66.58736690268796</v>
+        <v>64.16830669515214</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>66.55646042005782</v>
+        <v>64.09069233931658</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>67.36168807077922</v>
+        <v>64.92421352982875</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>67.8216527507798</v>
+        <v>65.43496915555598</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>69.35531843741504</v>
+        <v>67.06243091775025</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>66.21507334709707</v>
+        <v>63.72679967133367</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>66.61627278043112</v>
+        <v>64.19583709470741</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>66.58593719006377</v>
+        <v>64.11880147060643</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>67.38943886376163</v>
+        <v>64.95057666607499</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>67.84974187189643</v>
+        <v>65.46167367502126</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>69.3800972005853</v>
+        <v>67.08581359608877</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>66.24094806531573</v>
+        <v>63.7517663430345</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>66.64130670863099</v>
+        <v>64.21993530480511</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>66.61141957946762</v>
+        <v>64.14336247486199</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>67.41356125525421</v>
+        <v>64.97373722358505</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>67.8741318380419</v>
+        <v>65.48510905289692</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>69.40184778558844</v>
+        <v>67.10655351723973</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>66.26357778809913</v>
+        <v>63.77379755194685</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>66.66326245861049</v>
+        <v>64.24125990945359</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>66.63373520552921</v>
+        <v>64.16506403343226</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>67.43478272987291</v>
+        <v>64.99429517614786</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>67.89556924517144</v>
+        <v>65.50589211461107</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>69.4211406440286</v>
+        <v>67.12511371055008</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>63.83426974678877</v>
+        <v>61.99674825794439</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>64.37985515845203</v>
+        <v>62.57225842425642</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>64.26807146386886</v>
+        <v>62.43976333363914</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>65.28887259270203</v>
+        <v>63.41074803277317</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>65.71535975212902</v>
+        <v>63.89802164894206</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>67.59394490613552</v>
+        <v>65.77734630610819</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>64.1708736432395</v>
+        <v>62.21303607341808</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>64.68808787772593</v>
+        <v>62.77555591934864</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>64.58614932590245</v>
+        <v>62.64905479486155</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>65.58790344016225</v>
+        <v>63.60747971121224</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>66.0166262222635</v>
+        <v>64.09691026153138</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>67.84662586473324</v>
+        <v>65.93902078268839</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>64.46643262666895</v>
+        <v>62.41303224891125</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>64.97019718110145</v>
+        <v>62.96252156333977</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>64.88172035229245</v>
+        <v>62.83963975717341</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>65.85483245913025</v>
+        <v>63.78864847729637</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>66.28679487527172</v>
+        <v>64.27872196274025</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>68.08147072941819</v>
+        <v>66.09895297566739</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>64.75164213117327</v>
+        <v>62.61383286150909</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>65.22747884944035</v>
+        <v>63.14152516484904</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>65.15858054093992</v>
+        <v>63.03249812100913</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>66.09238246772213</v>
+        <v>63.95254988912097</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>66.52756854001976</v>
+        <v>64.44438814705016</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>68.29734676975316</v>
+        <v>66.25095445775571</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>65.00415567254218</v>
+        <v>62.78675740102585</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>65.46581703481354</v>
+        <v>63.31306346142527</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>65.40244296434558</v>
+        <v>63.20768333713584</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>66.30347302954337</v>
+        <v>64.11103776469193</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>66.74418094787346</v>
+        <v>64.60989641176391</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>68.48174769875405</v>
+        <v>66.3847568334386</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>65.22457384045117</v>
+        <v>62.94763827095262</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>65.68139372928029</v>
+        <v>63.46605603301211</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>65.61933973375299</v>
+        <v>63.36500444432754</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>66.50047966179342</v>
+        <v>64.25742547920279</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>66.94878096877169</v>
+        <v>64.75794952641289</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>68.64267666244643</v>
+        <v>66.50465314589262</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>65.41611035695355</v>
+        <v>63.08779304950775</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>65.86674589353454</v>
+        <v>63.59885535039295</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>65.81103435120649</v>
+        <v>63.50121190979307</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>66.67488961830045</v>
+        <v>64.39030242537099</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>67.12538481444258</v>
+        <v>64.88660845498725</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>68.78915051884373</v>
+        <v>66.61899895819136</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>65.58981055642818</v>
+        <v>63.22724125527907</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>66.03011650636041</v>
+        <v>63.72385050390888</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>65.97948146408331</v>
+        <v>63.63368489135711</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>66.84072740492896</v>
+        <v>64.5117666937375</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>67.2906584490392</v>
+        <v>65.01208452974282</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>68.92480732961056</v>
+        <v>66.73165801981271</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>65.74346066833174</v>
+        <v>63.35460729225586</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>66.17653821686125</v>
+        <v>63.84687053788696</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>66.12949255160646</v>
+        <v>63.75762030167221</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>66.98176287926698</v>
+        <v>64.62528831687089</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>67.43290746388543</v>
+        <v>65.12958841965659</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>69.04562162915195</v>
+        <v>66.81576906022401</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>65.88089416099008</v>
+        <v>63.45324195899644</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>66.30101186335584</v>
+        <v>63.9372607844105</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>66.2606994463264</v>
+        <v>63.85231457863556</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>67.09369421768342</v>
+        <v>64.70753757085193</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>67.5483710968924</v>
+        <v>65.21414709634769</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>69.13080904732517</v>
+        <v>66.88008059523192</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>65.97512270223571</v>
+        <v>63.5266145597317</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>66.38822715539678</v>
+        <v>64.00554129810645</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>66.35159056007029</v>
+        <v>63.92326983908553</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>67.17386688464693</v>
+        <v>64.7706565598771</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>67.63055381814827</v>
+        <v>65.27874426869198</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>69.1950188153548</v>
+        <v>66.93131192848777</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>66.04488393745363</v>
+        <v>63.58394384118608</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>66.45369676519825</v>
+        <v>64.05946808534128</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>66.41932198612385</v>
+        <v>63.97899151248832</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>67.23492328045643</v>
+        <v>64.82107031699472</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>67.69288074847677</v>
+        <v>65.33017089348384</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>69.24565251285705</v>
+        <v>66.97336986105482</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>66.09921201668723</v>
+        <v>63.63033596456737</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>66.50517568974486</v>
+        <v>64.10345472831</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>66.47230823243814</v>
+        <v>64.02425108087994</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>67.28342327628164</v>
+        <v>64.86253909565062</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>67.7422435868443</v>
+        <v>65.37236926696652</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>69.28690579448853</v>
+        <v>67.00870121948768</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>66.1430693370191</v>
+        <v>63.66887776837241</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>66.54702830067686</v>
+        <v>64.14022210536234</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>66.51522437924622</v>
+        <v>64.0619597031167</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>67.32315398636101</v>
+        <v>64.89742939004607</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>67.78259167967499</v>
+        <v>65.40780559719681</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>69.32135791404451</v>
+        <v>67.03892690075224</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>66.17943795484604</v>
+        <v>63.70155966092707</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>66.58192352566076</v>
+        <v>64.171550930793</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>66.55090293342137</v>
+        <v>64.09400762905946</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>67.35647488670101</v>
+        <v>64.92731476066908</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>67.81637223768303</v>
+        <v>65.43811216762275</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>69.35069327137677</v>
+        <v>67.06516889540022</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>66.21023206729214</v>
+        <v>63.72973036180178</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>66.6115973737635</v>
+        <v>64.19866202903567</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>66.58117337198463</v>
+        <v>64.1216827321693</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>67.38494272089694</v>
+        <v>64.95328768264821</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>67.8451931688987</v>
+        <v>65.46441805163157</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>69.37606470052121</v>
+        <v>67.08823181321083</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>66.23674418623658</v>
+        <v>63.75434052054136</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>66.63723426423567</v>
+        <v>64.22242407273261</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>66.60727699510426</v>
+        <v>64.14589678648638</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>67.40963162700547</v>
+        <v>64.97613350613523</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>67.87016025218587</v>
+        <v>65.4875324717823</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>69.39829136816559</v>
+        <v>67.10870970568115</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>66.25988276170403</v>
+        <v>63.77608206095494</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>66.65967366469283</v>
+        <v>64.24347426976624</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>66.63008966365737</v>
+        <v>64.167315836911</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>67.43130989262215</v>
+        <v>64.99643323632104</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>67.89206228399438</v>
+        <v>65.50805259919326</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>69.41797348414708</v>
+        <v>67.12705199487947</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>66.28030746153406</v>
+        <v>63.79547219957389</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>66.67952936556294</v>
+        <v>64.26229206581957</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>66.65024942267198</v>
+        <v>64.18643927536189</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>67.45054352529601</v>
+        <v>65.01462717668031</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>67.91147908753069</v>
+        <v>65.52643003339553</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>69.43556222413622</v>
+        <v>67.14360580888729</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>66.29851042807961</v>
+        <v>63.81290635558924</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>66.69726193501889</v>
+        <v>64.27924605424292</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>66.66823356239072</v>
+        <v>64.20364988558711</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>67.4677599489581</v>
+        <v>65.03105591000921</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>67.92884769798118</v>
+        <v>65.543013463623</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>69.45140416461972</v>
+        <v>67.15864409398054</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>64.42571356605288</v>
+        <v>62.43657981403897</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>64.92510363122234</v>
+        <v>62.98708476139725</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>64.84358834557372</v>
+        <v>62.86639103753278</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>65.80151339370009</v>
+        <v>63.80943690417209</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>66.2300941159489</v>
+        <v>64.30053553398746</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>68.0489887685851</v>
+        <v>66.11285114498133</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>64.7129551822533</v>
+        <v>62.63098793757333</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>65.19367053320809</v>
+        <v>63.15679772195261</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>65.12227325040706</v>
+        <v>63.04874224300272</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>66.04245542002964</v>
+        <v>63.97394144454385</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>66.48409668849429</v>
+        <v>64.46685574812147</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>68.26626713392976</v>
+        <v>66.26515916560369</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>64.96733720379613</v>
+        <v>62.80434908378056</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>65.43350633808264</v>
+        <v>63.32869515870529</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>65.36781931966085</v>
+        <v>63.22432580917653</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>66.2708017851326</v>
+        <v>64.1248300281114</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>66.71486888407576</v>
+        <v>64.62420100567502</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>68.4519722848884</v>
+        <v>66.39927951706491</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>65.18947809646951</v>
+        <v>62.96568540142811</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>65.65047322947504</v>
+        <v>63.48206117118632</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>65.58627347932331</v>
+        <v>63.38206181932042</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>66.47342287707768</v>
+        <v>64.27152036945638</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>66.92065342563885</v>
+        <v>64.77257585975575</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>68.61411671626274</v>
+        <v>66.51950584905967</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>65.38260702290718</v>
+        <v>63.10631562710088</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>65.83711865706668</v>
+        <v>63.61524904036418</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>65.77941210365293</v>
+        <v>63.51870171996466</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>66.64887118152399</v>
+        <v>64.40471117438679</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>67.09836409002038</v>
+        <v>64.90156877310936</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>68.76172551953104</v>
+        <v>66.63012499252541</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>65.55778271628807</v>
+        <v>63.23961219997563</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>66.00169480729726</v>
+        <v>63.73590468906445</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>65.94920107227782</v>
+        <v>63.6455229527533</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>66.81568254697594</v>
+        <v>64.52650112589457</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>67.26467379619012</v>
+        <v>65.02739174060052</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>68.8984440329682</v>
+        <v>66.74226775917529</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>65.71280308373908</v>
+        <v>63.36723036871782</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>66.14924244188731</v>
+        <v>63.85834499838356</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>66.10046170510094</v>
+        <v>63.76969253909402</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>66.95763235046249</v>
+        <v>64.63564336816837</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>67.40789430974372</v>
+        <v>65.1402595113112</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>69.02794790761604</v>
+        <v>66.82371117154915</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>65.8610825098434</v>
+        <v>63.46239357885623</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>66.282862635599</v>
+        <v>63.94573030201872</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>66.24168236014889</v>
+        <v>63.8611416290177</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>67.0771863418054</v>
+        <v>64.71532195083191</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>67.5313976376368</v>
+        <v>65.22212703808003</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>69.11791597608324</v>
+        <v>66.88631169952659</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>65.96098926836922</v>
+        <v>63.53363807463989</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>66.37505418196193</v>
+        <v>64.01212151939878</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>66.33791273649736</v>
+        <v>63.93008354781121</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>67.16167030251171</v>
+        <v>64.77678213508769</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>67.61807731866318</v>
+        <v>65.2850006055136</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>69.18508204318525</v>
+        <v>66.93636888593107</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>66.03415365711582</v>
+        <v>63.58955281933294</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>66.44357918178083</v>
+        <v>64.06477007861069</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>66.40888087467917</v>
+        <v>63.9844557659306</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>67.22544100229938</v>
+        <v>64.82605262240808</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>67.68321501550359</v>
+        <v>65.33524565999562</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>69.23769273003191</v>
+        <v>66.97758010264248</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>66.09070892791084</v>
+        <v>63.63494878020789</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>66.4970912431601</v>
+        <v>64.10784468654002</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>66.46400200423631</v>
+        <v>64.02875914586109</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>67.27577916779042</v>
+        <v>64.86669425415057</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>67.73447165496083</v>
+        <v>65.37659262618894</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>69.28034451611735</v>
+        <v>67.01227721703522</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>66.13611701187612</v>
+        <v>63.67275795327117</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>66.54037682442785</v>
+        <v>64.14393450480785</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>66.5084131337762</v>
+        <v>64.06576120811941</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>67.31682238883924</v>
+        <v>64.90096338044944</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>67.7761668562657</v>
+        <v>65.41139158449946</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>69.31582871366251</v>
+        <v>67.04201331381655</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>66.17361631093274</v>
+        <v>63.70488251580328</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>66.57632659544957</v>
+        <v>64.17474374927875</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>66.54518643924283</v>
+        <v>64.09726962135186</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>67.35111891405862</v>
+        <v>64.93036827733606</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>67.81094582063771</v>
+        <v>65.44120639493809</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>69.3459513416848</v>
+        <v>67.06786806536387</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>66.20526470784311</v>
+        <v>63.73261760992373</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>66.60680306381603</v>
+        <v>64.2014460899906</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>66.57628684695872</v>
+        <v>64.1245217597864</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>67.38033523622164</v>
+        <v>64.95596052338102</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>67.84053092810406</v>
+        <v>65.46712346999134</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>69.37193946298025</v>
+        <v>67.09061844870368</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>66.2324408546101</v>
+        <v>63.75687966546658</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>66.63306753436657</v>
+        <v>64.22487971548117</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>66.60303738185031</v>
+        <v>64.14839696108568</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>67.40561319971583</v>
+        <v>64.97849868099901</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>67.86609826936021</v>
+        <v>65.48992419622776</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>69.39465984883378</v>
+        <v>67.11083978644193</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>66.25610765550009</v>
+        <v>63.77833783307438</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>66.65600861777332</v>
+        <v>64.24566134286948</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>66.62636583404546</v>
+        <v>64.1695395830826</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>67.42776489197827</v>
+        <v>64.9985455521655</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>67.88848196546012</v>
+        <v>65.51018688969027</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>69.41474449723378</v>
+        <v>67.12896840393674</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>66.27696071283319</v>
+        <v>63.79749364753017</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>66.67627282920732</v>
+        <v>64.26425618894817</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>66.64694466156634</v>
+        <v>64.18843402543682</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>67.44738577833154</v>
+        <v>65.0165286833687</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>67.90829223375695</v>
+        <v>65.52834997178668</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>69.43266653559182</v>
+        <v>67.14534202461772</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>66.29551673960138</v>
+        <v>63.81473141385415</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>66.69434328296265</v>
+        <v>64.28102269029411</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>66.66527476797572</v>
+        <v>64.20545241103639</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>67.46492374799128</v>
+        <v>65.03277947953312</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>67.92598717332096</v>
+        <v>65.54475267282929</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>69.44878813595035</v>
+        <v>67.16022668521741</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>66.31216867109433</v>
+        <v>63.83035123765994</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>66.71058922324583</v>
+        <v>64.29624208018289</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>66.681737960259</v>
+        <v>64.22088597236885</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>67.48072303648711</v>
+        <v>65.04755932599936</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>67.94191828695995</v>
+        <v>65.55966213774657</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>69.46339187437501</v>
+        <v>67.1738351837303</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>66.32722135127442</v>
+        <v>63.84459134954307</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>66.72529835980895</v>
+        <v>64.31013853176924</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>66.69663104594731</v>
+        <v>64.23496634002382</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>67.49505315946453</v>
+        <v>65.0610775287137</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>67.9563603890274</v>
+        <v>65.57329199579171</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>69.47670189633094</v>
+        <v>67.18634003817336</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PolicyFunction" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueWFunction" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>56.02156960646667</v>
+        <v>-2.758105834077659</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>17.02371390484283</v>
+        <v>-281.9691652836926</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>46.92011202952389</v>
+        <v>-28.6037925590696</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>61.65700286123134</v>
+        <v>-0.296075330010941</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>54.7981670990697</v>
+        <v>-923.7258568195663</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>57.24409933267854</v>
+        <v>-923.0576316444458</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>56.3815125264521</v>
+        <v>-922.0859799945544</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>59.11763387748766</v>
+        <v>-253.5196061295804</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>59.3441559214877</v>
+        <v>-25.93989486685105</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>63.25005906107958</v>
+        <v>1.139892992879969</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>58.64593812330622</v>
+        <v>-845.4889423914872</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>59.70001932865038</v>
+        <v>-844.0995707673944</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>59.29620424449512</v>
+        <v>-842.2272614590374</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>60.99963988742666</v>
+        <v>-228.4614164316297</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>61.36908012234104</v>
+        <v>-23.2971163484476</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>64.35057184896546</v>
+        <v>2.538356001879341</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>60.22553094627565</v>
+        <v>-765.0078468390304</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>61.08515591955374</v>
+        <v>-762.8210259315609</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>60.81674632879989</v>
+        <v>-760.1464314472289</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>62.12328530064362</v>
+        <v>-206.4146109298498</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>62.56231025122192</v>
+        <v>-20.68721306659291</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>64.78874822670161</v>
+        <v>3.908893468945041</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>60.99775575433951</v>
+        <v>-681.9177635614838</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>61.64049284697754</v>
+        <v>-678.8217360623479</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>61.47545559329535</v>
+        <v>-675.4778457993795</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>62.53255884484891</v>
+        <v>-186.8642366952352</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>63.0077871066748</v>
+        <v>-18.12707063425639</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>65.00525558905699</v>
+        <v>5.261481086518574</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>61.29565915127139</v>
+        <v>-595.7286550868906</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>61.88949241978825</v>
+        <v>-591.5552944038942</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>61.74902493032467</v>
+        <v>-587.7189965968826</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>62.76759897898182</v>
+        <v>-168.0481131256466</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>63.24475142237873</v>
+        <v>-15.64193419386513</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>65.22198324748091</v>
+        <v>6.560309497977032</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>61.55729464783172</v>
+        <v>-505.7484388050947</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>62.14030885723577</v>
+        <v>-499.8439733152742</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>62.00536253046601</v>
+        <v>-496.0889670261492</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>62.98987539146442</v>
+        <v>-136.9481319789636</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>63.47060259542396</v>
+        <v>-13.27170564075147</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>65.42518068988873</v>
+        <v>7.762250872701895</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>61.80030599590183</v>
+        <v>-409.7429317796959</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>62.37212705895777</v>
+        <v>-400.1414955220177</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>62.24343630106198</v>
+        <v>-396.4530107607245</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>63.21087838422043</v>
+        <v>-103.1444621340959</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>63.6956185022631</v>
+        <v>-11.0843504049473</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>65.61891712369032</v>
+        <v>8.867126267881003</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>62.02440509464608</v>
+        <v>-305.2003578786413</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>62.59594439023454</v>
+        <v>-291.4214172515971</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>62.46546661858741</v>
+        <v>-287.8700256041775</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>63.43092455956227</v>
+        <v>-70.86477895159504</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>63.91915503678454</v>
+        <v>-9.209735853978135</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>65.79889180180649</v>
+        <v>9.871529937658519</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>62.24165098161217</v>
+        <v>-191.3387546313132</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>62.7999797377276</v>
+        <v>-172.5906140723153</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>62.67560486017887</v>
+        <v>-169.1918639419872</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>63.6282195408528</v>
+        <v>-45.31710664026812</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>64.11865262507735</v>
+        <v>-7.955669368508477</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>65.96119537218706</v>
+        <v>10.78847457798138</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>62.43732683329939</v>
+        <v>-63.03213305154578</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>62.98772236038222</v>
+        <v>-40.68060301724445</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>62.86708414851344</v>
+        <v>-37.0207785901894</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>63.8099783208832</v>
+        <v>-19.79961871428251</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>64.30110312509115</v>
+        <v>-7.164698664489155</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>66.11321553430781</v>
+        <v>11.62733827041817</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>57.58704559449633</v>
+        <v>-1.954269202572598</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-1000</v>
+        <v>-927.9019403338705</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>35.25740651539073</v>
+        <v>-281.419555216885</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>48.79266985967318</v>
+        <v>-27.69541197198398</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>61.83479580913373</v>
+        <v>-0.2201068631030559</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>55.69164806125821</v>
+        <v>-923.5588369639668</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>57.53773568549296</v>
+        <v>-854.4314603980765</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>56.85649871310431</v>
+        <v>-921.9538757387101</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>59.50805903377086</v>
+        <v>-252.7927761857971</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>59.66928652362886</v>
+        <v>-25.39568755520315</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>63.37450737018381</v>
+        <v>1.221278058568926</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>58.81637676677446</v>
+        <v>-845.300897267202</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>59.88535031654845</v>
+        <v>-843.9858492661127</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>59.50663681528425</v>
+        <v>-842.0811548310219</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>61.16130413691263</v>
+        <v>-227.4336788157218</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>61.51797467724757</v>
+        <v>-23.21365135067943</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>64.42186814792269</v>
+        <v>2.625833932674882</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>60.37083734808031</v>
+        <v>-764.7939499746067</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>61.18141618391252</v>
+        <v>-762.6964901940466</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>60.93694227588518</v>
+        <v>-759.983656497586</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>62.18878226938963</v>
+        <v>-202.4773405367914</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>62.6350940484089</v>
+        <v>-20.59738658021854</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>64.81931892310671</v>
+        <v>4.003265044545364</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>61.04226445133015</v>
+        <v>-681.6714758110173</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>61.67648192676594</v>
+        <v>-678.6845538185305</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>61.51567084986155</v>
+        <v>-675.2949659668634</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>62.56167330234431</v>
+        <v>-178.1305113286142</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>63.03871760166144</v>
+        <v>-18.03003063324077</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>65.03017453123694</v>
+        <v>5.36370273823217</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>61.31863388214025</v>
+        <v>-595.4408521476271</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>61.91989852741238</v>
+        <v>-591.4031664916927</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>61.77053138703989</v>
+        <v>-587.5114918518923</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>62.79777733698934</v>
+        <v>-154.161765297043</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>63.27686019911409</v>
+        <v>-15.53665969734806</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>65.24030369327615</v>
+        <v>6.671534533967511</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>61.58098309003099</v>
+        <v>-505.4059235696629</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>62.16084395150024</v>
+        <v>-499.6165019748852</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>62.02750759073253</v>
+        <v>-495.7422529238806</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>63.02118407444806</v>
+        <v>-120.6300778777976</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>63.49557896318235</v>
+        <v>-13.15696100522294</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>65.44398875270352</v>
+        <v>7.883884897977926</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>61.82474588805003</v>
+        <v>-408.9926804120842</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>62.39325296447286</v>
+        <v>-399.8779349946835</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>62.26625221081783</v>
+        <v>-396.0299673243988</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>63.23515513064472</v>
+        <v>-102.8166366600424</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>63.71458623822448</v>
+        <v>-10.95862351854722</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>65.63823482695669</v>
+        <v>9.000902968376353</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>62.04963702978058</v>
+        <v>-304.1301841826733</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>62.61768999427002</v>
+        <v>-291.1110553446449</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>62.48898795057249</v>
+        <v>-287.3375680452924</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>63.44955751727435</v>
+        <v>-70.4679249416847</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>63.93863971120736</v>
+        <v>-9.071153065184239</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>65.81874258728769</v>
+        <v>10.01961671779497</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>62.26771869094233</v>
+        <v>-189.6183821932742</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>62.82237594460982</v>
+        <v>-172.2176628859528</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>62.69986873437412</v>
+        <v>-168.4923447426676</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>63.64735418454551</v>
+        <v>-41.51887660493283</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>64.13867815544207</v>
+        <v>-7.801876022509295</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>65.9816042196303</v>
+        <v>10.95362304599857</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>62.4642775052192</v>
+        <v>-62.07692413961269</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>63.01080227628289</v>
+        <v>-40.38533969517336</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>62.89213047865744</v>
+        <v>-36.5249754324463</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>63.82963757703632</v>
+        <v>-19.65631733392433</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>64.321695007491</v>
+        <v>-7.015004791307403</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>66.13064999718759</v>
+        <v>11.7931502714818</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>62.64776703396716</v>
+        <v>-59.22121062565498</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>63.17879384477216</v>
+        <v>-37.26400329097232</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>63.06465753171373</v>
+        <v>-33.37963092468172</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>63.9947065548281</v>
+        <v>-18.54515776006969</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>64.48862546281723</v>
+        <v>-6.215502562257122</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>66.27913147759173</v>
+        <v>12.72972321896021</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>62.82154132404277</v>
+        <v>-55.14645628770834</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>63.34402832301816</v>
+        <v>-35.77313122223968</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>63.24061913428576</v>
+        <v>-31.11033998507867</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>64.13840782169723</v>
+        <v>-17.70998396753561</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>64.63826878116075</v>
+        <v>-5.247739155133519</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>66.4135556167803</v>
+        <v>13.78129341550527</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>58.30828696711904</v>
+        <v>-1.483354004193272</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-456.6419036492717</v>
+        <v>-925.5191571353433</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-1000</v>
+        <v>-929.222428821828</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>37.14476128379366</v>
+        <v>-281.0615910999275</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>51.63926615186104</v>
+        <v>-27.18341045723372</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>62.03350411837552</v>
+        <v>-0.1531463452639347</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>56.19818858426795</v>
+        <v>-923.4231594740984</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>57.92631094824562</v>
+        <v>-847.3473564237671</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>57.17712239722521</v>
+        <v>-921.8434656281061</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>59.78329923085095</v>
+        <v>-252.3539680586183</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>60.0383910148647</v>
+        <v>-24.72833654889561</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>63.52557612147849</v>
+        <v>1.292606211071481</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>59.03832656576476</v>
+        <v>-845.1505564354495</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>60.03384892076562</v>
+        <v>-767.6444185855398</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>59.70806924389692</v>
+        <v>-841.9604665662256</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>61.34117602001547</v>
+        <v>-226.5414623172462</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>61.68812929595693</v>
+        <v>-22.36563087966492</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>64.48503433932125</v>
+        <v>2.702026402049823</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>60.49410026570081</v>
+        <v>-764.626094773654</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>61.26454422316395</v>
+        <v>-689.6825447868039</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>61.03846332468829</v>
+        <v>-759.8509878465295</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>62.24718405248412</v>
+        <v>-200.4980631508776</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>62.69947414893032</v>
+        <v>-20.14654368921948</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>64.84782258558016</v>
+        <v>4.084901408114049</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>61.08296831218046</v>
+        <v>-681.4824120723847</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>61.70977542364842</v>
+        <v>-678.5703929306293</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>61.55265804976526</v>
+        <v>-675.1481914290077</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>62.58887876738266</v>
+        <v>-173.4510597838726</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>63.06754128748729</v>
+        <v>-17.94630352340885</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>65.05970471172573</v>
+        <v>5.451464159819533</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>61.34031186850311</v>
+        <v>-595.2256915868849</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>61.95452628114077</v>
+        <v>-591.2781193507376</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>61.80194423834712</v>
+        <v>-587.347916759898</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>62.8259317067449</v>
+        <v>-148.5202754501061</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>63.3067299206112</v>
+        <v>-15.44653689739944</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>65.25780114638508</v>
+        <v>6.766227882286463</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>61.60330827721668</v>
+        <v>-505.1580355030094</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>62.18029991540749</v>
+        <v>-499.4396629668627</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>62.04843161922156</v>
+        <v>-495.4919252897497</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>63.05034383270608</v>
+        <v>-117.2296451414029</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>63.5265595692515</v>
+        <v>-13.05958389337653</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>65.46186233647425</v>
+        <v>7.986474259650756</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>61.84775113765784</v>
+        <v>-408.5439304645112</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>62.41324844435932</v>
+        <v>-399.6778719542897</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>62.28778600368051</v>
+        <v>-395.7369142797534</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>63.26538158388981</v>
+        <v>-82.76633137050953</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>63.74462840516177</v>
+        <v>-10.85296278630323</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>65.65657619573072</v>
+        <v>9.112551395835263</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>62.07335758808564</v>
+        <v>-303.5595712938456</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>62.63825039700379</v>
+        <v>-290.8821831643224</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>62.51116171394854</v>
+        <v>-286.9880138738353</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>63.46727021416963</v>
+        <v>-55.3585919684454</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>63.95713418586588</v>
+        <v>-8.955962418819734</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>65.83757250989626</v>
+        <v>10.14174239152408</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>62.29219241612655</v>
+        <v>-188.8576875459158</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>62.84352838443451</v>
+        <v>-171.952309540542</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>62.72271481186086</v>
+        <v>-168.0653332382063</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>63.66552760878341</v>
+        <v>-40.4057547096995</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>64.15766806152628</v>
+        <v>-7.675629532666958</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>66.00094477930374</v>
+        <v>11.08797613437737</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>62.4895451216422</v>
+        <v>-61.54737186972183</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>63.03257572524166</v>
+        <v>-40.16560956678352</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>62.91568354981222</v>
+        <v>-36.19378270434828</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>63.84829205623804</v>
+        <v>-19.53767213597415</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>64.34120286869754</v>
+        <v>-6.875810587829128</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>66.15052470048653</v>
+        <v>11.9868570290051</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>62.6633565743548</v>
+        <v>-57.45736621345828</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>63.20121929965482</v>
+        <v>-36.8878417814862</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>63.08761260804334</v>
+        <v>-32.67083771151114</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>64.01386369490362</v>
+        <v>-18.3796085404637</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>64.50867526312044</v>
+        <v>-6.012803316405705</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>66.29218269388693</v>
+        <v>12.77946703644522</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>62.83750261487582</v>
+        <v>-55.06006866601493</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>63.35831305131455</v>
+        <v>-35.71033200057723</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>63.25577096910909</v>
+        <v>-31.03636273862445</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>64.15786448291885</v>
+        <v>-17.66338562783897</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>64.65417149292782</v>
+        <v>-5.15043676135048</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>66.42688266483087</v>
+        <v>13.84068053402034</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>62.99965608006852</v>
+        <v>-52.69212199436637</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>63.51235515259204</v>
+        <v>-34.64028679288507</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>63.41425460781706</v>
+        <v>-29.58112925194624</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>64.29834351231752</v>
+        <v>-16.86155152789255</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>64.8003677545577</v>
+        <v>-4.046489527059897</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>66.5477096426285</v>
+        <v>14.79115555910329</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>63.14113759370275</v>
+        <v>-50.77481045528953</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>63.64624523779384</v>
+        <v>-33.7358981645883</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>63.55167224962529</v>
+        <v>-28.47212845204059</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>64.4321067386883</v>
+        <v>-15.96170144641894</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>64.92996822650585</v>
+        <v>-2.991944548859009</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>66.65895154209099</v>
+        <v>15.73444226197733</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>58.87359740074224</v>
+        <v>-1.164944803134468</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-1000</v>
+        <v>-932.9067990297349</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-454.7811774178689</v>
+        <v>-924.615303287051</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-458.0770299414323</v>
+        <v>-924.8843108533015</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>55.46748130016983</v>
+        <v>-280.8047751423458</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>53.24458724103931</v>
+        <v>-26.84403658337739</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>62.26454833720256</v>
+        <v>0.1648440291671335</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>56.56168139609845</v>
+        <v>-923.3101072332122</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>58.3221313818994</v>
+        <v>-845.9821665283773</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>57.61434560452555</v>
+        <v>-846.2136677754103</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>59.99073490343716</v>
+        <v>-252.0524495674661</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>60.30163997243148</v>
+        <v>-24.31551201699758</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>63.69322479645281</v>
+        <v>1.431883510729325</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>59.24708576769312</v>
+        <v>-845.0267992545565</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>60.19668291719637</v>
+        <v>-765.1843480676704</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>59.86758059133177</v>
+        <v>-767.3899917108838</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>61.48589072863759</v>
+        <v>-225.9338885428967</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>61.86205691124911</v>
+        <v>-21.84815684535603</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>64.5415067169619</v>
+        <v>2.769168369054045</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>60.59793004214131</v>
+        <v>-764.4898271426166</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>61.33727781909808</v>
+        <v>-681.9784980077006</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>61.12569306398446</v>
+        <v>-759.7401595139582</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>62.29968561006653</v>
+        <v>-199.6766265160671</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>62.7569524549153</v>
+        <v>-19.47062954676199</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>64.87448212134188</v>
+        <v>4.156431192906483</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>61.12038026599936</v>
+        <v>-681.3313706560907</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>61.74069386308474</v>
+        <v>-596.334771751493</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>61.58682715814324</v>
+        <v>-675.027017886619</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>62.61437513377609</v>
+        <v>-172.2478528498076</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>63.09448696620601</v>
+        <v>-17.22768437239861</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>65.08728126729147</v>
+        <v>5.527881735374338</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>61.37556240645392</v>
+        <v>-595.0569940410579</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>61.98662222717712</v>
+        <v>-511.431423566172</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>61.83750742242726</v>
+        <v>-587.2146796778678</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>62.85227866197418</v>
+        <v>-143.2903039295938</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>63.33460927532295</v>
+        <v>-15.19433913356423</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>65.28634853570749</v>
+        <v>6.848116840568347</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>61.62439614268595</v>
+        <v>-504.9679439004716</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>62.21327718888324</v>
+        <v>-499.2970886694481</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>62.06958500431831</v>
+        <v>-495.3002702757728</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>63.0775897539048</v>
+        <v>-115.7087307649755</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>63.55542780378994</v>
+        <v>-12.97559329570799</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>65.4788763461009</v>
+        <v>8.074520707729501</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>61.86945682470923</v>
+        <v>-408.2371323972725</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>62.43221084422253</v>
+        <v>-399.5193210193373</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>62.30815342866566</v>
+        <v>-395.5185343080061</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>63.29357879047685</v>
+        <v>-81.05992450733689</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>63.774545404325</v>
+        <v>-10.76254203877082</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>65.67402079422409</v>
+        <v>9.207568351168286</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>62.09571186877035</v>
+        <v>-303.1914613993006</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>62.65772949075169</v>
+        <v>-290.7044250504618</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>62.53211185527334</v>
+        <v>-286.7360416977055</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>63.48660552462444</v>
+        <v>-51.81068525701033</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>63.9747195850076</v>
+        <v>-8.858246238021273</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>65.85546617262075</v>
+        <v>10.24470167511316</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>62.3152282521085</v>
+        <v>-188.404555342774</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>62.86354807355935</v>
+        <v>-171.7511166137262</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>62.74427599883715</v>
+        <v>-167.7701384232456</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>63.68281768646171</v>
+        <v>-23.49043101452598</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>64.17570863492593</v>
+        <v>-7.569580194806736</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>66.01930711091612</v>
+        <v>11.20005064918828</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>62.51329786869871</v>
+        <v>-61.199253472226</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>63.05316148847899</v>
+        <v>-39.99387645353379</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>62.93788607836456</v>
+        <v>-35.952522596698</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>63.86602453162254</v>
+        <v>-19.43733741505941</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>64.35971859879419</v>
+        <v>-6.760171030474186</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>66.16937652527045</v>
+        <v>12.14108069390018</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>62.68336153905123</v>
+        <v>-56.68598034194167</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>63.22239832938764</v>
+        <v>-36.62067513010363</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>63.11048891980901</v>
+        <v>-32.23979531312853</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>64.03205776289298</v>
+        <v>-18.24497156343756</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>64.52768738255418</v>
+        <v>-5.852467448593272</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>66.30472106450385</v>
+        <v>13.00771243476839</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>62.85274999483087</v>
+        <v>-54.98474296021042</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>63.37298752717789</v>
+        <v>-35.65416985455541</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>63.27026737573193</v>
+        <v>-30.97101835961612</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>64.17654052507592</v>
+        <v>-17.60572406997072</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>64.67370258694656</v>
+        <v>-4.906667262455819</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>66.43967891968505</v>
+        <v>13.89400110500376</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>63.01526160621876</v>
+        <v>-52.59651115385736</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>63.5263438020184</v>
+        <v>-34.57215884965849</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>63.42908003179301</v>
+        <v>-29.50009212658708</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>64.31079264054</v>
+        <v>-16.81175362879312</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>64.81324790645601</v>
+        <v>-3.992146759193519</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>66.5607727451996</v>
+        <v>14.85538498969424</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>63.15711551094299</v>
+        <v>-50.64782373504639</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>63.66054378388829</v>
+        <v>-33.65085356736468</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>63.56683932888377</v>
+        <v>-28.35813356132974</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>64.44481067835879</v>
+        <v>-15.89349874021509</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>64.94311816901751</v>
+        <v>-2.915925840498035</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>66.67229089820337</v>
+        <v>15.81388649890692</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>63.28292202438615</v>
+        <v>-48.80999259398457</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>63.78225072307053</v>
+        <v>-32.54035156630435</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>63.68933592020211</v>
+        <v>-27.27255901335869</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>64.56745733500212</v>
+        <v>-14.76619110082029</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>65.06985050813289</v>
+        <v>-1.772785689123252</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>66.77224126844736</v>
+        <v>16.59903641140728</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>63.40260151946408</v>
+        <v>-47.63383775022713</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>63.89064572692124</v>
+        <v>-31.61202123165805</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>63.80359412565015</v>
+        <v>-26.4408287211494</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>64.66492878748942</v>
+        <v>-13.76780461954151</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>65.17039859365998</v>
+        <v>-0.8084550211061884</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>66.84641449463366</v>
+        <v>17.3670954099204</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>59.5389421065976</v>
+        <v>-0.9312566058843198</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-460.4316526579998</v>
+        <v>-926.6025945209724</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-199.7647154008705</v>
+        <v>-924.1050252510819</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-455.0929563747449</v>
+        <v>-923.7133170417255</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>57.08412680655998</v>
+        <v>-280.6089823811739</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>56.26021194604786</v>
+        <v>-26.59798012373576</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>62.45656275925546</v>
+        <v>0.4363757037338626</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>57.03693931924632</v>
+        <v>-849.8175726078537</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>58.69048090093143</v>
+        <v>-845.3175059050567</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>58.0220025673858</v>
+        <v>-844.2576316927558</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>60.15429747749687</v>
+        <v>-251.8289149706655</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>60.50155392355718</v>
+        <v>-24.02800917233751</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>63.82937151903383</v>
+        <v>1.752754423776721</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>59.41153761185043</v>
+        <v>-774.5047597527983</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>60.38149673985947</v>
+        <v>-764.2661587325163</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>60.01802595637739</v>
+        <v>-762.8187884929768</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>61.60558634433218</v>
+        <v>-225.5483147135448</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>62.00262166732057</v>
+        <v>-21.50604314061708</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>64.59238972380564</v>
+        <v>3.023058376079393</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>60.6869490154055</v>
+        <v>-764.3763398265678</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>61.40161700489415</v>
+        <v>-680.5842234021981</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>61.20169777668405</v>
+        <v>-679.3576608758875</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>62.34721788709382</v>
+        <v>-199.1986004776095</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>62.80868008929401</v>
+        <v>-19.05399686446672</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>64.89948817356887</v>
+        <v>4.250774105712718</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>61.15492137802656</v>
+        <v>-681.2071074029782</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>61.76950683071051</v>
+        <v>-593.7928702809197</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>61.61851876517171</v>
+        <v>-595.0497347257493</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>62.63833416777641</v>
+        <v>-171.4556290106666</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>63.11975009828257</v>
+        <v>-16.70463881294945</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>65.11311052360557</v>
+        <v>5.595205972957716</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>61.41152333597805</v>
+        <v>-594.9201319722657</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>62.0164805743389</v>
+        <v>-502.9870969739575</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>61.87042667464591</v>
+        <v>-587.1034304735217</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>62.87700366207584</v>
+        <v>-140.7142341938755</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>63.36070992381863</v>
+        <v>-14.50967495128663</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>65.31304718278784</v>
+        <v>6.919849209975294</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>61.64919232798015</v>
+        <v>-504.8161964327062</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>62.24424570683006</v>
+        <v>-405.5474256141671</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>62.10381327797505</v>
+        <v>-495.1474505990016</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>63.10312242738801</v>
+        <v>-113.860314052171</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>63.58241329643977</v>
+        <v>-12.55677244820284</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>65.50335620160793</v>
+        <v>8.151164500810506</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>61.88998086852452</v>
+        <v>-408.0104054928734</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>62.46378304385058</v>
+        <v>-304.5938059657634</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>62.32745611428037</v>
+        <v>-395.3476964201135</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>63.31996409523565</v>
+        <v>-80.30270944507436</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>63.80246690028434</v>
+        <v>-10.68401801725539</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>65.69063939536997</v>
+        <v>9.289711210392198</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>62.11682618892352</v>
+        <v>-302.9288528282836</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>62.676218849363</v>
+        <v>-290.5612096176923</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>62.55194692618043</v>
+        <v>-286.5433351373463</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>63.51389200236732</v>
+        <v>-50.18778454353235</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>63.99829858925013</v>
+        <v>-8.7739907666049</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>65.87249867705341</v>
+        <v>10.33303469706394</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>62.33696169890028</v>
+        <v>-188.0954443269294</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>62.88253263314626</v>
+        <v>-171.5917999556606</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>62.76466838864547</v>
+        <v>-167.5504500966619</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>63.69929373497419</v>
+        <v>-21.74116713540879</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>64.19287642535475</v>
+        <v>-7.478859853027909</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>66.03677099125062</v>
+        <v>11.29539306051618</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>62.53568130613492</v>
+        <v>-60.94811212295597</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>63.07266375793777</v>
+        <v>-39.85487757196026</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>62.95886238689056</v>
+        <v>-35.76669996594838</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>63.88290853412127</v>
+        <v>-19.35104124712471</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>64.37732353997738</v>
+        <v>-6.662113806627616</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>66.18729030457443</v>
+        <v>12.26763663702163</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>62.70642802925262</v>
+        <v>-56.22839359012376</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>63.24244227664725</v>
+        <v>-36.41834161610054</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>63.13207755903733</v>
+        <v>-31.94243240831995</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>64.04936683846708</v>
+        <v>-18.13268731590938</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>64.54574834868524</v>
+        <v>-5.721535253662523</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>66.31955060058776</v>
+        <v>13.18724927220605</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>62.86733514399567</v>
+        <v>-54.63783300664934</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>63.39359870310298</v>
+        <v>-35.60355244757118</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>63.2873390347303</v>
+        <v>-30.91274866854171</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>64.19429281578913</v>
+        <v>-17.45114295843044</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>64.69223961323083</v>
+        <v>-4.719224665731939</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>66.45197870523701</v>
+        <v>13.94222229317304</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>63.03017916230363</v>
+        <v>-52.51390268240817</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>63.53975764440827</v>
+        <v>-34.51159571507364</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>63.4432730623362</v>
+        <v>-29.42904329352341</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>64.32564927752861</v>
+        <v>-16.76652229807728</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>64.82562622298747</v>
+        <v>-3.92500227604152</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>66.57332223361793</v>
+        <v>14.9127326862154</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>63.17237829595116</v>
+        <v>-50.54122129494925</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>63.6742464436364</v>
+        <v>-33.57659772564247</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>63.58134989638948</v>
+        <v>-28.2509370733638</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>64.4570240273857</v>
+        <v>-15.832874170334</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>64.95574886948627</v>
+        <v>-2.848924619197133</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>66.68509865471584</v>
+        <v>15.8836544368559</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>63.29854356363988</v>
+        <v>-48.66500117383759</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>63.79625271608491</v>
+        <v>-32.44632990822039</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>63.70417604499332</v>
+        <v>-27.15559333104033</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>64.57991744940733</v>
+        <v>-14.70187883886139</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>65.08274228769156</v>
+        <v>-1.701412309011284</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>66.7815006863427</v>
+        <v>16.68646263348527</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>63.41344425937528</v>
+        <v>-47.38311345084409</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>63.90059032706856</v>
+        <v>-31.45512067306374</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>63.81400781570457</v>
+        <v>-26.27819947684651</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>64.67398486395955</v>
+        <v>-13.67365498958914</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>65.17970688918128</v>
+        <v>-0.7186825792370261</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>66.85350724745228</v>
+        <v>17.48113649465953</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>63.49649626973659</v>
+        <v>-46.29704523877136</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>63.97741018749549</v>
+        <v>-30.38590468761222</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>63.894093335514</v>
+        <v>-25.31594256201267</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>64.74455281527339</v>
+        <v>-12.57820606251601</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>65.25205854892624</v>
+        <v>0.3089263148357726</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>66.90992974650385</v>
+        <v>18.11986062448883</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>63.56013035610441</v>
+        <v>-45.14557644465159</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>64.03700873785401</v>
+        <v>-29.64122652021517</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>63.95581706131544</v>
+        <v>-24.39089432839464</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>64.80001564139434</v>
+        <v>-11.71005533096312</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>65.30871053551498</v>
+        <v>1.081040792014092</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>66.95568391386962</v>
+        <v>18.81325076793488</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>57.48620672872339</v>
+        <v>-847.4744448399349</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>58.95330090023441</v>
+        <v>-844.9058826346192</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>58.4433916851977</v>
+        <v>-843.4413725492681</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>60.31431355573771</v>
+        <v>-251.6546668296219</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>60.66003590503351</v>
+        <v>-23.81303316142394</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>63.94278809329076</v>
+        <v>1.987908172685158</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>59.55780154163344</v>
+        <v>-767.7134322064917</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>60.55520967498803</v>
+        <v>-763.7504392045283</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>60.2007295484226</v>
+        <v>-761.6254676406961</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>61.74602132614542</v>
+        <v>-225.2758624745642</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>62.12930827797324</v>
+        <v>-21.25838888195161</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>64.63854844164432</v>
+        <v>3.296474685095299</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>60.76437356485143</v>
+        <v>-686.0989253564909</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>61.4590614437897</v>
+        <v>-679.9110580140457</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>61.2686952810107</v>
+        <v>-677.3471676780719</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>62.39051836829316</v>
+        <v>-198.2002540774011</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>62.85555615692485</v>
+        <v>-18.76441984265868</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>64.9230048875674</v>
+        <v>4.574138755897649</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>61.18694097510697</v>
+        <v>-605.5482557027276</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>61.79644292972137</v>
+        <v>-592.8599556445681</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>61.6480184851706</v>
+        <v>-590.2208237380535</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>62.66090440042905</v>
+        <v>-169.7794810438648</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>63.14349880009529</v>
+        <v>-16.35974803464957</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>65.13736953427407</v>
+        <v>5.78081517579559</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>61.44479210810826</v>
+        <v>-594.8062067801948</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>62.04434978971866</v>
+        <v>-501.5626577778454</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>61.90101415724627</v>
+        <v>-499.8132731241182</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>62.9002665731125</v>
+        <v>-139.2177279030226</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>63.38521329838798</v>
+        <v>-14.08917484075144</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>65.3380883851883</v>
+        <v>6.983364633396393</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>61.6837936836165</v>
+        <v>-504.6914236445704</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>62.27310319554342</v>
+        <v>-402.9187443270014</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>62.13555706961802</v>
+        <v>-404.4316125876273</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>63.12711419161927</v>
+        <v>-107.769948312218</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>63.60771218340838</v>
+        <v>-12.02805381121479</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>65.52922255901319</v>
+        <v>8.218671835605312</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>61.90942673271126</v>
+        <v>-407.8340555177788</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>62.49368863865551</v>
+        <v>-295.2468808847701</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>62.35385225848966</v>
+        <v>-395.2093268396187</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>63.34472358914073</v>
+        <v>-79.85103393539711</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>63.82860530227284</v>
+        <v>-10.31794495981946</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>65.70649519155846</v>
+        <v>9.361647123051029</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>62.13681109804394</v>
+        <v>-302.7293906258346</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>62.69431193500352</v>
+        <v>-177.9253997489841</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>62.57076245771135</v>
+        <v>-286.3897954557141</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>63.53946106920458</v>
+        <v>-48.93700299871698</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>64.02532399398956</v>
+        <v>-8.700364688671149</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>65.88873695272584</v>
+        <v>10.40990582671906</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>62.35751102847854</v>
+        <v>-187.8673242518108</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>62.90056829805078</v>
+        <v>-53.77324583014991</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>62.78399390104578</v>
+        <v>-167.3787446791234</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>63.71853306442663</v>
+        <v>-20.97334373485929</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>64.20923961055452</v>
+        <v>-7.400099108224213</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>66.05340737608535</v>
+        <v>11.37779113639407</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>62.55682213633696</v>
+        <v>-60.75593656888609</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>63.09117436218374</v>
+        <v>-39.73938138140076</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>62.97872134405073</v>
+        <v>-35.61789080408914</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>63.89900963829684</v>
+        <v>-19.27578831690462</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>64.39408999389292</v>
+        <v>-6.57759206531756</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>66.20434133734778</v>
+        <v>12.3739172717399</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>62.72818929501303</v>
+        <v>-55.9169402942519</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>63.26144903915615</v>
+        <v>-36.25825304086904</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>63.15249496471611</v>
+        <v>-31.72142257532395</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>64.06586041704102</v>
+        <v>-18.03718478337347</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>64.5629349134939</v>
+        <v>-5.611994731419262</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>66.33703379831375</v>
+        <v>13.33170335769277</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>62.88744049301424</v>
+        <v>-53.99751961431095</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>63.41312419427035</v>
+        <v>-35.37067686878354</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>63.30834156498157</v>
+        <v>-30.54907231831174</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>64.21119507805275</v>
+        <v>-17.32433010246303</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>64.7098641326796</v>
+        <v>-4.569298658290611</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>66.46381331626</v>
+        <v>14.12373532228642</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>63.04445785541407</v>
+        <v>-52.44159373649004</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>63.5526349968906</v>
+        <v>-34.45729365078191</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>63.45687741664502</v>
+        <v>-29.36608624156357</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>64.34297738581779</v>
+        <v>-16.61364398364103</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>64.8375344674271</v>
+        <v>-3.701826152900864</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>66.58539090616652</v>
+        <v>14.96434581755545</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>63.18697775083215</v>
+        <v>-50.45007485402073</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>63.68739348832381</v>
+        <v>-33.50237176434977</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>63.59524998745199</v>
+        <v>-28.15933339829123</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>64.46877756947619</v>
+        <v>-15.64816456862517</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>64.9678936239025</v>
+        <v>-2.789288383062849</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>66.69740920759952</v>
+        <v>15.94556326670956</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>63.31347597318006</v>
+        <v>-48.54512417021843</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>63.80967900047318</v>
+        <v>-32.36496838406813</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>63.71838274575983</v>
+        <v>-27.05652998088856</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>64.59190236932281</v>
+        <v>-14.64446257905315</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>65.09513148641646</v>
+        <v>-1.638190052468226</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>66.79046872411477</v>
+        <v>16.7626140319203</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>63.42390902979243</v>
+        <v>-47.15937889039268</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>63.91020715068665</v>
+        <v>-31.32664371670367</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>63.82406786040323</v>
+        <v>-26.12848466730028</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>64.68276003855119</v>
+        <v>-13.59219293290066</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>65.188721263663</v>
+        <v>-0.6327282426798042</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>66.8604123409374</v>
+        <v>17.57797828341454</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>63.50434873673684</v>
+        <v>-46.03825766305635</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>63.98473094668677</v>
+        <v>-30.24408267901866</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>63.90169360759784</v>
+        <v>-25.12551918886879</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>64.75133280227388</v>
+        <v>-12.49064128533883</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>65.25899359313409</v>
+        <v>0.4085552010183511</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>66.91545716150881</v>
+        <v>18.24882819487753</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>63.56630154877026</v>
+        <v>-45.08039728491464</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>64.04282104844647</v>
+        <v>-29.50375167249688</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>63.96181879253583</v>
+        <v>-24.34149327437115</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>64.80545653891666</v>
+        <v>-11.59579833331327</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>65.31425860946764</v>
+        <v>1.214526319749956</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>66.96023776281801</v>
+        <v>18.88264723539709</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>63.61591230108764</v>
+        <v>-43.90160695331971</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>64.08974671721009</v>
+        <v>-28.49160300383951</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>64.01016400326833</v>
+        <v>-23.28658476363652</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>64.8495832974062</v>
+        <v>-10.64532803302529</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>65.35919516910684</v>
+        <v>2.046675231666872</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>66.99759282026713</v>
+        <v>19.64931830931371</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>63.65680051614979</v>
+        <v>-42.75422542130144</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>64.12867965665026</v>
+        <v>-27.53964670613164</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>64.05013335836942</v>
+        <v>-22.23863179644249</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>64.88645453192072</v>
+        <v>-9.950862335681009</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>65.39666543131891</v>
+        <v>2.835123549924751</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>67.02937099076485</v>
+        <v>20.46180145026337</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>60.83252011105551</v>
+        <v>-683.680792569453</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>61.51076066898501</v>
+        <v>-679.495645213852</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>61.32833473224481</v>
+        <v>-676.5188568965581</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>62.43017987715405</v>
+        <v>-197.6364906026361</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>62.89829451717586</v>
+        <v>-18.54816944301574</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>64.94517446545903</v>
+        <v>4.81077348397619</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>61.21673163201044</v>
+        <v>-598.1891860325869</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>61.82169745819008</v>
+        <v>-592.3386964131328</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>61.67556786373791</v>
+        <v>-589.0044391391933</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>62.68221501852428</v>
+        <v>-169.0298817990216</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>63.16587857346755</v>
+        <v>-16.11047855509092</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>65.16021121262386</v>
+        <v>6.056138099863698</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>61.47568869186609</v>
+        <v>-509.689181837182</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>62.07044135398071</v>
+        <v>-500.8808025305069</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>61.92953275658834</v>
+        <v>-497.7456208113359</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>62.92220603679802</v>
+        <v>-138.1487445496855</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>63.40827593626789</v>
+        <v>-13.79749848486505</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>65.36163682796548</v>
+        <v>7.192913100802247</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>61.7158663692333</v>
+        <v>-420.0953935545784</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>62.30007908488174</v>
+        <v>-401.9706993100633</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>62.16510309457585</v>
+        <v>-399.3161425842315</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>63.14971405224509</v>
+        <v>-106.052261926798</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>63.63149313768637</v>
+        <v>-11.68034800064404</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>65.55351498616477</v>
+        <v>8.278724666277983</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>61.93696364805146</v>
+        <v>-407.6918226578004</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>62.52159996972517</v>
+        <v>-293.7911385540613</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>62.38448892873156</v>
+        <v>-292.1853680845364</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>63.36801765996525</v>
+        <v>-78.0901906466254</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>63.85314265656204</v>
+        <v>-9.893516835203821</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>65.73153891076726</v>
+        <v>9.425328684208061</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>62.15576382155735</v>
+        <v>-302.5712473043808</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>62.72321405959775</v>
+        <v>-175.2045344816853</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>62.59183023634193</v>
+        <v>-177.1807417313966</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>63.5634856382658</v>
+        <v>-47.98274392586416</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>64.05065872028216</v>
+        <v>-8.635305927120957</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>65.90424086597358</v>
+        <v>10.47759709061851</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>62.37698000248795</v>
+        <v>-187.6900594188485</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>62.9177315693471</v>
+        <v>-43.29580556605458</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>62.80234243215396</v>
+        <v>-167.2397652554466</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>63.7433271324251</v>
+        <v>-20.51723776143088</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>64.231026416552</v>
+        <v>-7.330881880839658</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>66.06927961585627</v>
+        <v>11.44993155730883</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>62.57683123335794</v>
+        <v>-60.60276035650297</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>63.10877459082327</v>
+        <v>-39.64143304990189</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>62.99755874985201</v>
+        <v>-35.49524171651571</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>63.91438653607867</v>
+        <v>-19.2094078909194</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>64.41008247379335</v>
+        <v>-6.503753395360356</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>66.22059672329304</v>
+        <v>12.4648158448099</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>62.74876396232315</v>
+        <v>-55.68741268197532</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>63.27950508754113</v>
+        <v>-36.12749721370284</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>63.17184334893266</v>
+        <v>-31.54884224679043</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>64.08160058628602</v>
+        <v>-17.95466119297502</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>64.57931542898662</v>
+        <v>-5.518590976572124</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>66.35368799858011</v>
+        <v>13.45118903035877</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>62.90860788879252</v>
+        <v>-53.59687376926033</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>63.43165608487413</v>
+        <v>-35.18355521618513</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>63.32822445637994</v>
+        <v>-30.28013016551312</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>64.22731305218112</v>
+        <v>-17.21785752070959</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>64.72664863488046</v>
+        <v>-4.445841355788109</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>66.47521135366294</v>
+        <v>14.29075227742035</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>63.05814202136392</v>
+        <v>-52.27663572608972</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>63.56501069341688</v>
+        <v>-34.40824324788009</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>63.46993269461901</v>
+        <v>-29.30979310598523</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>64.35948852556369</v>
+        <v>-16.46886946911265</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>64.85455894966145</v>
+        <v>-3.527814516370027</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>66.59700870188875</v>
+        <v>15.05589136301926</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>63.20096057209917</v>
+        <v>-50.36346959470714</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>63.70002147915189</v>
+        <v>-33.43542825048498</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>63.60858124128102</v>
+        <v>-28.07987537481981</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>64.48022364820159</v>
+        <v>-15.43491190589226</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>64.97958281382191</v>
+        <v>-2.558477637726066</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>66.70925391562811</v>
+        <v>16.00098570061597</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>63.32776847435628</v>
+        <v>-48.44385901518501</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>63.82256797640265</v>
+        <v>-32.29365912492843</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>63.73199983808664</v>
+        <v>-26.97122355526358</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>64.60344155095407</v>
+        <v>-14.59279193401867</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>65.10704993281821</v>
+        <v>-1.581676901965964</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>66.79916035017581</v>
+        <v>16.82972273554991</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>63.43401729197721</v>
+        <v>-46.98499886501688</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>63.91951381696219</v>
+        <v>-31.21892957040122</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>63.83379383314325</v>
+        <v>-25.99143095484321</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>64.69126853901768</v>
+        <v>-13.52080299630807</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>65.19745686667368</v>
+        <v>-0.5528789954283484</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>66.8671379068785</v>
+        <v>17.66155040234479</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>63.51197920488963</v>
+        <v>-45.84121335395994</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>63.99185397784614</v>
+        <v>-30.12651810802533</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>63.90908352956997</v>
+        <v>-24.97354401543689</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>64.75793860433322</v>
+        <v>-12.41437984409598</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>65.26574782141361</v>
+        <v>0.4943021361282949</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>66.92086031080824</v>
+        <v>18.35690781117137</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>63.57232364176973</v>
+        <v>-44.9209830603301</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>64.04849832226928</v>
+        <v>-29.29145172282118</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>63.96767813252325</v>
+        <v>-24.13944428329212</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>64.81077637182683</v>
+        <v>-11.48407121742603</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>65.31968164850356</v>
+        <v>1.332104354096715</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>66.96470143404767</v>
+        <v>19.03011313266774</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>63.62082113413477</v>
+        <v>-43.84175924716909</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>64.09440877349425</v>
+        <v>-28.41456803561644</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>64.01495673717204</v>
+        <v>-23.22651058455073</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>64.85398627556614</v>
+        <v>-10.51609532220022</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>65.3636733017107</v>
+        <v>2.199807301196847</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>67.00136088169667</v>
+        <v>19.69361331160651</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>63.66090130866534</v>
+        <v>-42.68097317578633</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>64.13259671488765</v>
+        <v>-27.48476061533607</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>64.05414792974672</v>
+        <v>-22.17492669246649</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>64.89017677489508</v>
+        <v>-9.825675556180487</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>65.40044439356627</v>
+        <v>2.880167493041684</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>67.03260705123496</v>
+        <v>20.51395103016855</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>63.69474749519971</v>
+        <v>-41.57991421052699</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>64.16500964733584</v>
+        <v>-26.56522867213585</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>64.08732228476062</v>
+        <v>-21.17600065166872</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>64.92106332909398</v>
+        <v>-9.05772153846339</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>65.43177606318304</v>
+        <v>3.702486390407596</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>67.05965319347243</v>
+        <v>20.8262400850445</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>63.72382443806668</v>
+        <v>-41.09976379419469</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>64.19297027699896</v>
+        <v>-26.18947098391435</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>64.11587691746995</v>
+        <v>-20.74930966570682</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>64.94782655615373</v>
+        <v>-8.761466297371014</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>65.45888939609017</v>
+        <v>4.019355475187744</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>67.08336309461896</v>
+        <v>21.00048596647702</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>61.50448222749808</v>
+        <v>-507.1916992548127</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>62.09493655185609</v>
+        <v>-500.4615413318373</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>61.9562056530678</v>
+        <v>-496.9049542283168</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>62.94294296119315</v>
+        <v>-137.5785428655231</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>63.43003370614237</v>
+        <v>-13.57996102257091</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>65.38383516197948</v>
+        <v>7.43104446455202</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>61.74570409526719</v>
+        <v>-412.0646877783753</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>62.32536934793778</v>
+        <v>-401.0854034929229</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>62.19269378582978</v>
+        <v>-398.0759222060803</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>63.17105159265299</v>
+        <v>-104.4831667482088</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>63.65390212327927</v>
+        <v>-11.42944561037656</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>65.57638688908563</v>
+        <v>8.494152485400459</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>61.96791025129118</v>
+        <v>-309.2247706661117</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>62.54772926556871</v>
+        <v>-292.6433228449887</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>62.41305129314598</v>
+        <v>-290.057654351599</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>63.38998538375609</v>
+        <v>-72.75417206746305</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>63.87623600816161</v>
+        <v>-9.599715557409095</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>65.75511915374442</v>
+        <v>9.482222613220642</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>62.18315115415176</v>
+        <v>-201.9903220173463</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>62.75022983734051</v>
+        <v>-174.2409379494021</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>62.62142268754722</v>
+        <v>-171.7445670433546</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>63.58611519175097</v>
+        <v>-47.28839309057484</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>64.07447200010351</v>
+        <v>-8.401301411044333</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>65.91906415027984</v>
+        <v>10.53780122081397</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>62.39546008368221</v>
+        <v>-187.5471879880857</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>62.93635444487214</v>
+        <v>-41.80755861685319</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>62.8197936187741</v>
+        <v>-40.07801603122621</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>63.76665243267112</v>
+        <v>-20.20656210211143</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>64.25559782917973</v>
+        <v>-7.269424482449068</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>66.08444447263129</v>
+        <v>11.51377998211536</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>62.5958060977425</v>
+        <v>-60.47695797627837</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>63.12553670030575</v>
+        <v>-39.55699631056991</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>63.0154592858414</v>
+        <v>-35.39188890537756</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>63.92989057769113</v>
+        <v>-19.15028318359914</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>64.42535875104763</v>
+        <v>-6.438521703878606</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>66.23611647617159</v>
+        <v>12.54371736259564</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>62.76825609196989</v>
+        <v>-55.50922503777815</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>63.29668712497755</v>
+        <v>-36.01808767080622</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>63.19021285653085</v>
+        <v>-31.40924848059791</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>64.09664301138045</v>
+        <v>-17.88242022869042</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>64.59495099338231</v>
+        <v>-5.437715163244857</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>66.36957671037733</v>
+        <v>13.55215878190779</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>62.9286412225501</v>
+        <v>-53.31605163837339</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>63.44927588304138</v>
+        <v>-35.03385029702902</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>63.34708377887243</v>
+        <v>-30.07668198827896</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>64.24270557381935</v>
+        <v>-17.12681108710419</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>64.74265779539444</v>
+        <v>-4.341881485921181</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>66.48911752639178</v>
+        <v>14.4264277170974</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>63.0712718046404</v>
+        <v>-51.73379482250856</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>63.58165451259064</v>
+        <v>-34.26527594527562</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>63.48282138570247</v>
+        <v>-29.17918083095646</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>64.37524493893781</v>
+        <v>-16.34915039894813</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>64.8709568260622</v>
+        <v>-3.387217205584613</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>66.60820301328299</v>
+        <v>15.25203950608556</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>63.21436897995118</v>
+        <v>-50.28249128051744</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>63.71216369543579</v>
+        <v>-33.37583953970122</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>63.62138142641135</v>
+        <v>-28.01009633539894</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>64.4963585217649</v>
+        <v>-15.26748659370591</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>64.99605865959553</v>
+        <v>-2.353143886635985</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>66.72066143671373</v>
+        <v>16.05098064485149</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>63.34146550316348</v>
+        <v>-48.35683979035921</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>63.83495455128244</v>
+        <v>-32.23048925261038</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>63.74506700850466</v>
+        <v>-26.8967589475738</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>64.61456195600496</v>
+        <v>-14.52981672855475</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>65.11852670307269</v>
+        <v>-1.530764447946663</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>66.8075894780816</v>
+        <v>16.88944747586637</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>63.44378883903288</v>
+        <v>-46.84414356050452</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>63.92852664703332</v>
+        <v>-31.12692780178707</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>63.84320382346829</v>
+        <v>-25.87736467210863</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>64.6995236042354</v>
+        <v>-13.45756721478658</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>65.20592777665129</v>
+        <v>-0.4827850383401855</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>66.87369159214275</v>
+        <v>17.73463044347955</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>63.51939794113637</v>
+        <v>-45.68471335611704</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>63.99878802445469</v>
+        <v>-30.02700104017086</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>63.91627262875271</v>
+        <v>-24.84860700319741</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>64.76437755426919</v>
+        <v>-12.34718202219398</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>65.2723289569096</v>
+        <v>0.5691177697494219</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>66.92614378186306</v>
+        <v>18.44919044376628</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>63.57820254388614</v>
+        <v>-44.68488695365461</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>64.05404570844438</v>
+        <v>-29.12137450069914</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>63.97340062405915</v>
+        <v>-23.96280163567571</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>64.81597956419017</v>
+        <v>-11.38441345217175</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>65.32498427959182</v>
+        <v>1.446886518507714</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>66.96907786504448</v>
+        <v>19.15178852203856</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>63.62562785810286</v>
+        <v>-43.78805400632245</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>64.0989770769618</v>
+        <v>-28.22279134662307</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>64.01965132823074</v>
+        <v>-23.10666360598555</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>64.85830396892513</v>
+        <v>-10.40781830436605</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>65.36806372558971</v>
+        <v>2.325577900614643</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>67.00506304862238</v>
+        <v>19.83004467255972</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>63.664926290265</v>
+        <v>-42.61621866321349</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>64.13644350577894</v>
+        <v>-27.43521757652299</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>64.05808931228651</v>
+        <v>-22.11801325464453</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>64.8938344457293</v>
+        <v>-9.677877991966426</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>65.40415714514762</v>
+        <v>2.99939787465414</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>67.03579190917603</v>
+        <v>20.56118074132387</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>63.69818183164961</v>
+        <v>-41.49972068244731</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>64.16830669515214</v>
+        <v>-26.50611122937122</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>64.09069233931658</v>
+        <v>-21.10683435261235</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>64.92421352982875</v>
+        <v>-9.013381968699756</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>65.43496915555598</v>
+        <v>3.750550098293335</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>67.06243091775025</v>
+        <v>20.85012896119176</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>63.72679967133367</v>
+        <v>-41.06707236072429</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>64.19583709470741</v>
+        <v>-26.16203256377667</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>64.11880147060643</v>
+        <v>-20.71922464200164</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>64.95057666607499</v>
+        <v>-8.738522923683011</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>65.46167367502126</v>
+        <v>4.043510645534861</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>67.08581359608877</v>
+        <v>21.01546342447287</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>63.7517663430345</v>
+        <v>-40.85223702820871</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>64.21993530480511</v>
+        <v>-25.97624336280756</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>64.14336247486199</v>
+        <v>-20.51862891486164</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>64.97373722358505</v>
+        <v>-8.578760826770665</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>65.48510905289692</v>
+        <v>4.210404806832599</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>67.10655351723973</v>
+        <v>21.1258949205334</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>63.77379755194685</v>
+        <v>-40.71805372099248</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>64.24125990945359</v>
+        <v>-25.85566645405012</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>64.16506403343226</v>
+        <v>-20.39100502779554</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>64.99429517614786</v>
+        <v>-8.471181373102867</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>65.50589211461107</v>
+        <v>4.321627604461394</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>67.12511371055008</v>
+        <v>21.20633491537311</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>61.99674825794439</v>
+        <v>-306.6432122423874</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>62.57225842425642</v>
+        <v>-291.8769300031143</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>62.43976333363914</v>
+        <v>-288.8331256018237</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>63.41074803277317</v>
+        <v>-71.49678661199822</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>63.89802164894206</v>
+        <v>-9.380878180914541</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>65.77734630610819</v>
+        <v>9.686752012200914</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>62.21303607341808</v>
+        <v>-193.1503039857098</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>62.77555591934864</v>
+        <v>-173.1713747475847</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>62.64905479486155</v>
+        <v>-170.4797012673586</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>63.60747971121224</v>
+        <v>-46.8636393356572</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>64.09691026153138</v>
+        <v>-8.1487481469677</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>65.93902078268839</v>
+        <v>10.59180390063364</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>62.41303224891125</v>
+        <v>-65.70292986876974</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>62.96252156333977</v>
+        <v>-41.10774511053104</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>62.83963975717341</v>
+        <v>-37.88711796447413</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>63.78864847729637</v>
+        <v>-19.97750142472307</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>64.27872196274025</v>
+        <v>-7.214377567774129</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>66.09895297566739</v>
+        <v>11.57081216425278</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>62.61383286150909</v>
+        <v>-60.37124076475518</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>63.14152516484904</v>
+        <v>-38.97138092415064</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>63.03249812100913</v>
+        <v>-35.30325120628247</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>63.95254988912097</v>
+        <v>-19.03577440124154</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>64.44438814705016</v>
+        <v>-6.380345110521048</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>66.25095445775571</v>
+        <v>12.61304806894013</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>62.78675740102585</v>
+        <v>-55.36571023648754</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>63.31306346142527</v>
+        <v>-35.92478432838863</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>63.20768333713584</v>
+        <v>-31.29331576536378</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>64.11103776469193</v>
+        <v>-17.81848979057964</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>64.60989641176391</v>
+        <v>-5.366795885336139</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>66.3847568334386</v>
+        <v>13.63894855946488</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>62.94763827095262</v>
+        <v>-53.10519905074366</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>63.46605603301211</v>
+        <v>-34.91055288938892</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>63.36500444432754</v>
+        <v>-29.91584006358836</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>64.25742547920279</v>
+        <v>-17.04779281572726</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>64.75794952641289</v>
+        <v>-4.252774159958331</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>66.50465314589262</v>
+        <v>14.53947844586885</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>63.08779304950775</v>
+        <v>-51.37913612432757</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>63.59885535039295</v>
+        <v>-34.09154779620355</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>63.50121190979307</v>
+        <v>-28.93439151341842</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>64.39030242537099</v>
+        <v>-16.23232791289292</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>64.88660845498725</v>
+        <v>-3.270548915234762</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>66.61899895819136</v>
+        <v>15.40792919599752</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>63.22724125527907</v>
+        <v>-50.0079162191021</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>63.72385050390888</v>
+        <v>-33.14954105641881</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>63.63368489135711</v>
+        <v>-27.9481784100801</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>64.5117666937375</v>
+        <v>-15.13152258338752</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>65.01208452974282</v>
+        <v>-2.191029881684154</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>66.73165801981271</v>
+        <v>16.09637979157469</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>63.35460729225586</v>
+        <v>-48.28101178451629</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>63.84687053788696</v>
+        <v>-32.17401955148651</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>63.75762030167221</v>
+        <v>-26.83101847887732</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>64.62528831687089</v>
+        <v>-14.33313432722307</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>65.12958841965659</v>
+        <v>-1.37914945058187</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>66.81576906022401</v>
+        <v>16.94305005284519</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>63.45324195899644</v>
+        <v>-46.72728633325173</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>63.9372607844105</v>
+        <v>-31.04715586720526</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>63.85231457863556</v>
+        <v>-25.78050370065168</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>64.70753757085193</v>
+        <v>-13.36502011012419</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>65.21414709634769</v>
+        <v>-0.4206091772488885</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>66.88008059523192</v>
+        <v>17.79924473609751</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>63.5266145597317</v>
+        <v>-45.55652341533328</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>64.00554129810645</v>
+        <v>-29.94134117138832</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>63.92326983908553</v>
+        <v>-24.74353757403134</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>64.7706565598771</v>
+        <v>-12.28738391264221</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>65.27874426869198</v>
+        <v>0.6351433112859759</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>66.93131192848777</v>
+        <v>18.52918372568628</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>63.58394384118608</v>
+        <v>-44.50241236254223</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>64.05946808534128</v>
+        <v>-28.98354020367438</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>63.97899151248832</v>
+        <v>-23.82036440941243</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>64.82107031699472</v>
+        <v>-11.29864403316504</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>65.33017089348384</v>
+        <v>1.544292169594173</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>66.97336986105482</v>
+        <v>19.25440901688716</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>63.63033596456737</v>
+        <v>-43.57320979877962</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>64.10345472831</v>
+        <v>-28.06988831004713</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>64.02425108087994</v>
+        <v>-22.8978558503325</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>64.86253909565062</v>
+        <v>-10.31538403468397</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>65.37236926696652</v>
+        <v>2.43127133668579</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>67.00870121948768</v>
+        <v>19.96843074494858</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>63.66887776837241</v>
+        <v>-42.55843651414933</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>64.14022210536234</v>
+        <v>-27.33317068587703</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>64.0619597031167</v>
+        <v>-22.06676457842789</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>64.89742939004607</v>
+        <v>-9.555962019397032</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>65.40780559719681</v>
+        <v>3.142873081565365</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>67.03892690075224</v>
+        <v>20.60421849440577</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>63.70155966092707</v>
+        <v>-41.42934977222265</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>64.171550930793</v>
+        <v>-26.45301604434376</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>64.09400762905946</v>
+        <v>-21.04541872456219</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>64.92731476066908</v>
+        <v>-8.972827150499789</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>65.43811216762275</v>
+        <v>3.794301497499699</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>67.06516889540022</v>
+        <v>20.87263444161178</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>63.72973036180178</v>
+        <v>-41.03668853022618</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>64.19866202903567</v>
+        <v>-26.13632872729414</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>64.1216827321693</v>
+        <v>-20.69115520213058</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>64.95328768264821</v>
+        <v>-8.716874559269145</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>65.46441805163157</v>
+        <v>4.066257127472567</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>67.08823181321083</v>
+        <v>21.02979721730829</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>63.75434052054136</v>
+        <v>-40.83444355799003</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>64.22242407273261</v>
+        <v>-25.960446199072</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>64.14589678648638</v>
+        <v>-20.5018026092326</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>64.97613350613523</v>
+        <v>-8.564834483152122</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>65.4875324717823</v>
+        <v>4.224851954093598</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>67.10870970568115</v>
+        <v>21.13603272999777</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>63.77608206095494</v>
+        <v>-40.70604929159993</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>64.24347426976624</v>
+        <v>-25.84472110362998</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>64.167315836911</v>
+        <v>-20.37950782847707</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>64.99643323632104</v>
+        <v>-8.461273441727499</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>65.50805259919326</v>
+        <v>4.331828967523371</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>67.12705199487947</v>
+        <v>21.21398785920467</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>63.79547219957389</v>
+        <v>-40.61530477862497</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>64.26229206581957</v>
+        <v>-25.76118944739641</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>64.18643927536189</v>
+        <v>-20.29220390910111</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>65.01462717668031</v>
+        <v>-8.38491839302716</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>65.52643003339553</v>
+        <v>4.410225462242204</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>67.14360580888729</v>
+        <v>21.27432861798464</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>63.81290635558924</v>
+        <v>-40.54680180387962</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>64.27924605424292</v>
+        <v>-25.69724742404906</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>64.20364988558711</v>
+        <v>-20.22586324320098</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>65.03105591000921</v>
+        <v>-8.325623527931828</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>65.543013463623</v>
+        <v>4.470853718240987</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>67.15864409398054</v>
+        <v>21.32282407236936</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>62.43657981403897</v>
+        <v>-63.03214199195451</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>62.98708476139725</v>
+        <v>-40.68060528640534</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>62.86639103753278</v>
+        <v>-37.02078266985429</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>63.80943690417209</v>
+        <v>-19.79961974836344</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>64.30053553398746</v>
+        <v>-7.16469897292196</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>66.11285114498133</v>
+        <v>11.62733791154199</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>62.63098793757333</v>
+        <v>-60.28077646340626</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>63.15679772195261</v>
+        <v>-37.85153338406084</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>63.04874224300272</v>
+        <v>-34.90056402801359</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>63.97394144454385</v>
+        <v>-18.75560631800307</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>64.46685574812147</v>
+        <v>-6.328037187491416</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>66.26515916560369</v>
+        <v>12.67459852630309</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>62.80434908378056</v>
+        <v>-55.24690932528082</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>63.32869515870529</v>
+        <v>-35.84398749202576</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>63.22432580917653</v>
+        <v>-31.19503595063853</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>64.1248300281114</v>
+        <v>-17.76138967322479</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>64.62420100567502</v>
+        <v>-5.303944743544847</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>66.39927951706491</v>
+        <v>13.71459415288865</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>62.96568540142811</v>
+        <v>-52.93937823414152</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>63.48206117118632</v>
+        <v>-34.80671306094337</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>63.38206181932042</v>
+        <v>-29.78454713145445</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>64.27152036945638</v>
+        <v>-16.97836801398407</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>64.77257585975575</v>
+        <v>-4.175289327074855</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>66.51950584905967</v>
+        <v>14.63556571580232</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>63.10631562710088</v>
+        <v>-51.12421934211213</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>63.61524904036418</v>
+        <v>-33.95114910303866</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>63.51870171996466</v>
+        <v>-28.74629185476106</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>64.40471117438679</v>
+        <v>-16.12833703913876</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>64.90156877310936</v>
+        <v>-3.171711020708991</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>66.63012499252541</v>
+        <v>15.53568153445792</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>63.23961219997563</v>
+        <v>-49.53995253830137</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>63.73590468906445</v>
+        <v>-32.94458100814352</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>63.6455229527533</v>
+        <v>-27.81221125136363</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>64.52650112589457</v>
+        <v>-15.01825906304527</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>65.02739174060052</v>
+        <v>-2.058831225382571</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>66.74226775917529</v>
+        <v>16.23072677569006</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>63.36723036871782</v>
+        <v>-48.21416508146012</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>63.85834499838356</v>
+        <v>-32.1231436089414</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>63.76969253909402</v>
+        <v>-26.77242171152368</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>64.63564336816837</v>
+        <v>-14.17274372765398</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>65.1402595113112</v>
+        <v>-1.189396436252188</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>66.82371117154915</v>
+        <v>16.99150966251125</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>63.46239357885623</v>
+        <v>-46.62830519222548</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>63.94573030201872</v>
+        <v>-30.97712412632998</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>63.8611416290177</v>
+        <v>-25.69691657975028</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>64.71532195083191</v>
+        <v>-13.12941347033691</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>65.22212703808003</v>
+        <v>-0.3531346756574383</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>66.88631169952659</v>
+        <v>17.85691090943432</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>63.53363807463989</v>
+        <v>-45.44902319402696</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>64.01212151939878</v>
+        <v>-29.86659489694313</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>63.93008354781121</v>
+        <v>-24.65357303909243</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>64.77678213508769</v>
+        <v>-12.23372007691769</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>65.2850006055136</v>
+        <v>0.6939753308577286</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>66.93636888593107</v>
+        <v>18.59939357016751</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>63.58955281933294</v>
+        <v>-44.35591859276875</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>64.06477007861069</v>
+        <v>-28.86889963758938</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>63.9844557659306</v>
+        <v>-23.70235017482106</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>64.82605262240808</v>
+        <v>-11.22381048998272</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>65.33524565999562</v>
+        <v>1.628305067119131</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>66.97758010264248</v>
+        <v>19.34247958990517</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>63.63494878020789</v>
+        <v>-43.3566647340817</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>64.10784468654002</v>
+        <v>-27.94428263411903</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>64.02875914586109</v>
+        <v>-22.7334056407782</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>64.86669425415057</v>
+        <v>-10.23527129100981</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>65.37659262618894</v>
+        <v>2.521717304139106</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>67.01227721703522</v>
+        <v>20.08347687687881</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>63.67275795327117</v>
+        <v>-42.50645907775549</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>64.14393450480785</v>
+        <v>-27.1553346407863</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>64.06576120811941</v>
+        <v>-21.92378931398744</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>64.90096338044944</v>
+        <v>-9.45316048448994</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>65.41139158449946</v>
+        <v>3.261645107940337</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>67.04201331381655</v>
+        <v>20.64364983068732</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>63.70488251580328</v>
+        <v>-41.36694719342574</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>64.17474374927875</v>
+        <v>-26.40498550650992</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>64.09726962135186</v>
+        <v>-20.99040657265435</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>64.93036827733606</v>
+        <v>-8.935547579152033</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>65.44120639493809</v>
+        <v>3.834349113982669</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>67.06786806536387</v>
+        <v>20.89388509045119</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>63.73261760992373</v>
+        <v>-41.00835300263861</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>64.2014460899906</v>
+        <v>-26.11218409384388</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>64.1245217597864</v>
+        <v>-20.66488589114967</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>64.95596052338102</v>
+        <v>-8.696403790410361</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>65.46712346999134</v>
+        <v>4.087726725106153</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>67.09061844870368</v>
+        <v>21.04353216550194</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>63.75687966546658</v>
+        <v>-40.81750412162683</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>64.22487971548117</v>
+        <v>-25.9453515675195</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>64.14839696108568</v>
+        <v>-20.4857555194889</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>64.97849868099901</v>
+        <v>-8.551479261468614</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>65.48992419622776</v>
+        <v>4.238692454173864</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>67.11083978644193</v>
+        <v>21.1458318917534</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>63.77833783307438</v>
+        <v>-40.69449220208353</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>64.24566134286948</v>
+        <v>-25.83415998270804</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>64.1695395830826</v>
+        <v>-20.36842727911271</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>64.9985455521655</v>
+        <v>-8.451691594550093</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>65.51018688969027</v>
+        <v>4.341688176969239</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>67.12896840393674</v>
+        <v>21.22142784517522</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>63.79749364753017</v>
+        <v>-40.60678072609691</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>64.26425618894817</v>
+        <v>-25.75327313656442</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>64.18843402543682</v>
+        <v>-20.28396860170568</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>65.0165286833687</v>
+        <v>-8.377616150932642</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>65.52834997178668</v>
+        <v>4.417703358431183</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>67.14534202461772</v>
+        <v>21.28022451979168</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>63.81473141385415</v>
+        <v>-40.54018267043365</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>64.28102269029411</v>
+        <v>-25.69103072219591</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>64.20545241103639</v>
+        <v>-20.21943436988461</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>65.03277947953312</v>
+        <v>-8.319821309790443</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>65.54475267282929</v>
+        <v>4.476775330966192</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>67.16022668521741</v>
+        <v>21.32764479401152</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>63.83035123765994</v>
+        <v>-40.48739315132124</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>64.29624208018289</v>
+        <v>-25.64121969067437</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>64.22088597236885</v>
+        <v>-20.16805019208228</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>65.04755932599936</v>
+        <v>-8.273102030491948</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>65.55966213774657</v>
+        <v>4.524387764193485</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>67.1738351837303</v>
+        <v>21.36693990573624</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>63.84459134954307</v>
+        <v>-40.44421731406595</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>64.31013853176924</v>
+        <v>-25.60018610800195</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>64.23496634002382</v>
+        <v>-20.12588192630325</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>65.0610775287137</v>
+        <v>-8.234319934198556</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>65.57329199579171</v>
+        <v>4.563823243432006</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>67.18634003817336</v>
+        <v>21.40019320816586</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.758105834077659</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-281.9691652836926</v>
+        <v>-334.6188448889586</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-28.6037925590696</v>
+        <v>-49.38599342363263</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.296075330010941</v>
+        <v>-8.86347708356546</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-923.7258568195663</v>
+        <v>-923.8061449903805</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-923.0576316444458</v>
+        <v>-923.1770573037704</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-922.0859799945544</v>
+        <v>-922.2937047758739</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-253.5196061295804</v>
+        <v>-312.6869617031966</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-25.93989486685105</v>
+        <v>-45.23383763544304</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1.139892992879969</v>
+        <v>-6.943506925067554</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-845.4889423914872</v>
+        <v>-845.6643683033482</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-844.0995707673944</v>
+        <v>-844.3521569851279</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-842.2272614590374</v>
+        <v>-842.6753032377269</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-228.4614164316297</v>
+        <v>-293.5348619580539</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-23.2971163484476</v>
+        <v>-41.07420071822716</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>2.538356001879341</v>
+        <v>-5.114517615758141</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-765.0078468390304</v>
+        <v>-765.2991093792501</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-762.8210259315609</v>
+        <v>-763.2253695477506</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-760.1464314472289</v>
+        <v>-760.8721924238291</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-206.4146109298498</v>
+        <v>-275.6280430839681</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-20.68721306659291</v>
+        <v>-36.91624953584</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.908893468945041</v>
+        <v>-3.439016011496891</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-681.9177635614838</v>
+        <v>-682.3552317829858</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-678.8217360623479</v>
+        <v>-679.4039891784449</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-675.4778457993795</v>
+        <v>-676.5105732468979</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-186.8642366952352</v>
+        <v>-249.8931509107691</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.12707063425639</v>
+        <v>-32.77409495222374</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>5.261481086518574</v>
+        <v>-1.926074450041007</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-595.7286550868906</v>
+        <v>-596.359093700372</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-591.5552944038942</v>
+        <v>-592.353845100904</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-587.7189965968826</v>
+        <v>-589.0660979946723</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-168.0481131256466</v>
+        <v>-214.5349219294692</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-15.64193419386513</v>
+        <v>-28.66983424809013</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>6.560309497977032</v>
+        <v>-0.5487309225695338</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-505.7484388050947</v>
+        <v>-506.6499155727188</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-499.8439733152742</v>
+        <v>-501.3102131034337</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-496.0889670261492</v>
+        <v>-497.8012146983776</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-136.9481319789636</v>
+        <v>-175.3610993189192</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-13.27170564075147</v>
+        <v>-24.63952013064313</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>7.762250872701895</v>
+        <v>0.7168542238225224</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-409.7429317796959</v>
+        <v>-412.2446866508874</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-400.1414955220177</v>
+        <v>-405.0972742344264</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-396.4530107607245</v>
+        <v>-401.6002563672599</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-103.1444621340959</v>
+        <v>-136.6161369557205</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-11.0843504049473</v>
+        <v>-20.7463562314495</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>8.867126267881003</v>
+        <v>1.895371961718645</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-305.2003578786413</v>
+        <v>-311.5111172669019</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-291.4214172515971</v>
+        <v>-298.9569941326451</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-287.8700256041775</v>
+        <v>-295.5677681661616</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-70.86477895159504</v>
+        <v>-99.94340287557746</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-9.209735853978135</v>
+        <v>-17.11458909608952</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>9.871529937658519</v>
+        <v>3.016533564016519</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-191.3387546313132</v>
+        <v>-199.2467895848943</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-172.5906140723153</v>
+        <v>-180.3734972762373</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-169.1918639419872</v>
+        <v>-176.9652995190992</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-45.31710664026812</v>
+        <v>-66.8960597262126</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-7.955669368508477</v>
+        <v>-14.0457250290902</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>10.78847457798138</v>
+        <v>4.125558150241067</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-63.03213305154578</v>
+        <v>-71.26741391251463</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-40.68060301724445</v>
+        <v>-47.20882601078518</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-37.0207785901894</v>
+        <v>-43.24147979027737</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-19.79961871428251</v>
+        <v>-24.75350465873521</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.164698664489155</v>
+        <v>-12.74896869384457</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.62733827041817</v>
+        <v>5.322534850552191</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.954269202572598</v>
+        <v>-12.83390322782406</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-927.9019403338705</v>
+        <v>-934.0295573160637</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-281.419555216885</v>
+        <v>-333.689094893033</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-27.69541197198398</v>
+        <v>-47.56972431382435</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.2201068631030559</v>
+        <v>-8.763045749187924</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-923.5588369639668</v>
+        <v>-923.6306844112908</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-854.4314603980765</v>
+        <v>-923.0629866964121</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-921.9538757387101</v>
+        <v>-922.1519689206744</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-252.7927761857971</v>
+        <v>-311.1261955771942</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-25.39568755520315</v>
+        <v>-44.04925182779758</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1.221278058568926</v>
+        <v>-6.834341195575527</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-845.300897267202</v>
+        <v>-845.4659982130913</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-843.9858492661127</v>
+        <v>-844.2272149363398</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-842.0811548310219</v>
+        <v>-842.5177530294857</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-227.4336788157218</v>
+        <v>-287.0041646337295</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-23.21365135067943</v>
+        <v>-40.98070347237842</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>2.625833932674882</v>
+        <v>-4.995272132697637</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-764.7939499746067</v>
+        <v>-765.0723554421795</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-762.6964901940466</v>
+        <v>-763.0877097309951</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-759.983656497586</v>
+        <v>-760.6956450508297</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-202.4773405367914</v>
+        <v>-266.4894139484398</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-20.59738658021854</v>
+        <v>-36.81502645362529</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>4.003265044545364</v>
+        <v>-3.308035887258395</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-681.6714758110173</v>
+        <v>-682.0925886444119</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-678.6845538185305</v>
+        <v>-679.2512935940108</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-675.2949659668634</v>
+        <v>-676.3108685399156</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-178.1305113286142</v>
+        <v>-233.6500363223743</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-18.03003063324077</v>
+        <v>-32.66401894921176</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>5.36370273823217</v>
+        <v>-1.781297132976423</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-595.4408521476271</v>
+        <v>-596.0499372660001</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-591.4031664916927</v>
+        <v>-592.1831566733209</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-587.5114918518923</v>
+        <v>-588.8376743981812</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-154.161765297043</v>
+        <v>-201.5624985348436</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-15.53665969734806</v>
+        <v>-28.54953352228252</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>6.671534533967511</v>
+        <v>-0.3875470893719644</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-505.4059235696629</v>
+        <v>-506.2786033315194</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-499.6165019748852</v>
+        <v>-501.1176892908468</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-495.7422529238806</v>
+        <v>-497.5364356590757</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-120.6300778777976</v>
+        <v>-175.0403317325046</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-13.15696100522294</v>
+        <v>-24.50730524207823</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>7.883884897977926</v>
+        <v>0.8978026653967341</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-408.9926804120842</v>
+        <v>-411.7870122104327</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-399.8779349946835</v>
+        <v>-404.8778133588673</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-396.0299673243988</v>
+        <v>-401.2882920054091</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-102.8166366600424</v>
+        <v>-135.9840290408934</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-10.95862351854722</v>
+        <v>-20.60011870273638</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>9.000902968376353</v>
+        <v>2.100493447909598</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-304.1301841826733</v>
+        <v>-310.4356252966149</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-291.1110553446449</v>
+        <v>-298.5967677861964</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-287.3375680452924</v>
+        <v>-294.9627741256697</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-70.4679249416847</v>
+        <v>-97.59946827994671</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-9.071153065184239</v>
+        <v>-16.95165736233889</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>10.01961671779497</v>
+        <v>3.251751914510518</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-189.6183821932742</v>
+        <v>-197.2972369020597</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-172.2176628859528</v>
+        <v>-179.9315040316112</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-168.4923447426676</v>
+        <v>-176.1481503381669</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-41.51887660493283</v>
+        <v>-60.81422620640952</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-7.801876022509295</v>
+        <v>-13.86265473844302</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>10.95362304599857</v>
+        <v>4.399057591909244</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-62.07692413961269</v>
+        <v>-70.1376459768029</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-40.38533969517336</v>
+        <v>-46.8539816471942</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-36.5249754324463</v>
+        <v>-42.64926894352325</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-19.65631733392433</v>
+        <v>-24.58020187804411</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-7.015004791307403</v>
+        <v>-12.54122872231026</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.7931502714818</v>
+        <v>5.379159972588022</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-59.22121062565498</v>
+        <v>-68.12265554169781</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-37.26400329097232</v>
+        <v>-45.47151502485322</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-33.37963092468172</v>
+        <v>-41.1524494614016</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-18.54515776006969</v>
+        <v>-23.8001222990135</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-6.215502562257122</v>
+        <v>-11.71280687676255</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>12.72972321896021</v>
+        <v>6.020374903980755</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-55.14645628770834</v>
+        <v>-64.78652954831594</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-35.77313122223968</v>
+        <v>-43.79855511646348</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-31.11033998507867</v>
+        <v>-38.79091796764936</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-17.70998396753561</v>
+        <v>-22.84577318221802</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-5.247739155133519</v>
+        <v>-10.74889758165968</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>13.78129341550527</v>
+        <v>6.652785784224774</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-1.483354004193272</v>
+        <v>-11.07268410440255</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-925.5191571353433</v>
+        <v>-926.4614203861045</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-929.222428821828</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-281.0615910999275</v>
+        <v>-333.1690220552912</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-27.18341045723372</v>
+        <v>-46.78572003272852</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>-0.1531463452639347</v>
+        <v>-8.676674454179938</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-923.4231594740984</v>
+        <v>-923.4890730698517</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-847.3473564237671</v>
+        <v>-849.2611241739839</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-921.8434656281061</v>
+        <v>-922.0344673548014</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-252.3539680586183</v>
+        <v>-309.6178507986536</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-24.72833654889561</v>
+        <v>-42.91677073150845</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>1.292606211071481</v>
+        <v>-6.741224824583168</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-845.1505564354495</v>
+        <v>-845.3085965574178</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-767.6444185855398</v>
+        <v>-774.7001774771564</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-841.9604665662256</v>
+        <v>-842.3888109085979</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-226.5414623172462</v>
+        <v>-284.1232867781434</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-22.36563087966492</v>
+        <v>-39.17305872669943</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>2.702026402049823</v>
+        <v>-4.894483781714533</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-764.626094773654</v>
+        <v>-764.8959877109344</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-689.6825447868039</v>
+        <v>-762.9731974814435</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-759.8509878465295</v>
+        <v>-760.5532743507716</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-200.4980631508776</v>
+        <v>-256.9801734405971</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-20.14654368921948</v>
+        <v>-35.6751824591652</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>4.084901408114049</v>
+        <v>-3.198459780326417</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-681.4824120723847</v>
+        <v>-681.8931046250141</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-678.5703929306293</v>
+        <v>-679.1258373508357</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-675.1481914290077</v>
+        <v>-676.1525606735215</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-173.4510597838726</v>
+        <v>-230.4014064855461</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-17.94630352340885</v>
+        <v>-32.57020489377648</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>5.451464159819533</v>
+        <v>-1.661576026832374</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-595.2256915868849</v>
+        <v>-595.8217898806562</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-591.2781193507376</v>
+        <v>-592.0448922333777</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-587.347916759898</v>
+        <v>-588.6602104540013</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-148.5202754501061</v>
+        <v>-191.3490491894612</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-15.44653689739944</v>
+        <v>-28.44794871018794</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>6.766227882286463</v>
+        <v>-0.2560105737939947</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-505.1580355030094</v>
+        <v>-506.0141778227136</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-499.4396629668627</v>
+        <v>-500.9642746791679</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-495.4919252897497</v>
+        <v>-497.3356044513008</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-117.2296451414029</v>
+        <v>-151.9012703058754</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-13.05958389337653</v>
+        <v>-24.39681312931222</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>7.986474259650756</v>
+        <v>1.043237764173761</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-408.5439304645112</v>
+        <v>-411.4755129196266</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-399.6778719542897</v>
+        <v>-404.7062586711595</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-395.7369142797534</v>
+        <v>-401.0584577345472</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-82.76633137050953</v>
+        <v>-121.7620650680014</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-10.85296278630323</v>
+        <v>-20.47933530042965</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>9.112551395835263</v>
+        <v>2.262464386179279</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-303.5595712938456</v>
+        <v>-309.8320432440098</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-290.8821831643224</v>
+        <v>-298.3386554646876</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-286.9880138738353</v>
+        <v>-294.5784035315036</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-55.3585919684454</v>
+        <v>-96.69876608667428</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-8.955962418819734</v>
+        <v>-16.81887728864515</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>10.14174239152408</v>
+        <v>3.433655471662056</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-188.8576875459158</v>
+        <v>-196.4824313779505</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-171.952309540542</v>
+        <v>-179.6282892016406</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-168.0653332382063</v>
+        <v>-175.6718490874694</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-40.4057547096995</v>
+        <v>-59.45539353337229</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-7.675629532666958</v>
+        <v>-13.71574829950671</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>11.08797613437737</v>
+        <v>4.605357188137425</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-61.54737186972183</v>
+        <v>-69.54679730371822</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-40.16560956678352</v>
+        <v>-46.5989580481068</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-36.19378270434828</v>
+        <v>-42.27089491279882</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-19.53767213597415</v>
+        <v>-24.44010134921011</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-6.875810587829128</v>
+        <v>-12.37749555727355</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>11.9868570290051</v>
+        <v>5.43016650306348</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-57.45736621345828</v>
+        <v>-67.20604107923417</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-36.8878417814862</v>
+        <v>-45.02525003196011</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-32.67083771151114</v>
+        <v>-40.47364779538226</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-18.3796085404637</v>
+        <v>-23.6013093997292</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-6.012803316405705</v>
+        <v>-11.60698175863838</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>12.77946703644522</v>
+        <v>6.080709114084784</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-55.06006866601493</v>
+        <v>-64.69878655547647</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-35.71033200057723</v>
+        <v>-43.73257301104721</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-31.03636273862445</v>
+        <v>-38.71447055977742</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-17.66338562783897</v>
+        <v>-22.79550766206779</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-5.15043676135048</v>
+        <v>-10.69463251578741</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>13.84068053402034</v>
+        <v>6.725684869895531</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-52.69212199436637</v>
+        <v>-62.05274929073132</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-34.64028679288507</v>
+        <v>-42.38371794941981</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-29.58112925194624</v>
+        <v>-37.00647422190202</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-16.86155152789255</v>
+        <v>-21.84719342487066</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-4.046489527059897</v>
+        <v>-9.643136882579075</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>14.79115555910329</v>
+        <v>7.200008255242994</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-50.77481045528953</v>
+        <v>-59.87042131880444</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-33.7358981645883</v>
+        <v>-41.17919212564523</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-28.47212845204059</v>
+        <v>-35.55579405572909</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-15.96170144641894</v>
+        <v>-20.99174545976029</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-2.991944548859009</v>
+        <v>-8.729453563822354</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>15.73444226197733</v>
+        <v>7.672615932139351</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-1.164944803134468</v>
+        <v>-10.30193806437177</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-932.9067990297349</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-924.615303287051</v>
+        <v>-925.0731991198461</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-924.8843108533015</v>
+        <v>-925.8348926971647</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-280.8047751423458</v>
+        <v>-332.8256114902132</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-26.84403658337739</v>
+        <v>-46.32291655036137</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>0.1648440291671335</v>
+        <v>-8.601361741995163</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-923.3101072332122</v>
+        <v>-923.3716625690118</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-845.9821665283773</v>
+        <v>-846.7364005726512</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-846.2136677754103</v>
+        <v>-848.4591940872168</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-252.0524495674661</v>
+        <v>-308.9124964216595</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-24.31551201699758</v>
+        <v>-42.32501681439023</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>1.431883510729325</v>
+        <v>-6.660575083284668</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-845.0267992545565</v>
+        <v>-845.1797607693923</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-765.1843480676704</v>
+        <v>-766.4193173300466</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-767.3899917108838</v>
+        <v>-842.2807502479984</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-225.9338885428967</v>
+        <v>-283.1338941023425</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-21.84815684535603</v>
+        <v>-38.37780094748532</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>2.769168369054045</v>
+        <v>-4.807834958821505</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-764.4898271426166</v>
+        <v>-764.7537424566345</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-681.9784980077006</v>
+        <v>-684.2728278627974</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-759.7401595139582</v>
+        <v>-760.435308726544</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-199.6766265160671</v>
+        <v>-255.4372593220412</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-19.47062954676199</v>
+        <v>-34.52162037831667</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>4.156431192906483</v>
+        <v>-3.105028752004892</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-681.3313706560907</v>
+        <v>-681.7349465053943</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-596.334771751493</v>
+        <v>-604.5709577778798</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-675.027017886619</v>
+        <v>-676.0230765537145</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-172.2478528498076</v>
+        <v>-224.7748593154444</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-17.22768437239861</v>
+        <v>-30.82854482189348</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>5.527881735374338</v>
+        <v>-1.56042853700441</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-595.0569940410579</v>
+        <v>-595.644507137864</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-511.431423566172</v>
+        <v>-591.9299354812657</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-587.2146796778678</v>
+        <v>-588.517200148621</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-143.2903039295938</v>
+        <v>-189.8678179132271</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-15.19433913356423</v>
+        <v>-27.44500074727133</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>6.848116840568347</v>
+        <v>-0.1460215090946476</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-504.9679439004716</v>
+        <v>-505.8135693852711</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-499.2970886694481</v>
+        <v>-500.8383007005412</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-495.3002702757728</v>
+        <v>-497.1765328241453</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-115.7087307649755</v>
+        <v>-149.1036865011284</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-12.97559329570799</v>
+        <v>-24.30268046956063</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>8.074520707729501</v>
+        <v>1.16343766736426</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-408.2371323972725</v>
+        <v>-411.2459577155482</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-399.5193210193373</v>
+        <v>-404.5673851626761</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-395.5185343080061</v>
+        <v>-400.8800692448837</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-81.05992450733689</v>
+        <v>-110.1649822040864</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-10.76254203877082</v>
+        <v>-20.37738659680354</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>9.207568351168286</v>
+        <v>2.394561248740599</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-303.1914613993006</v>
+        <v>-309.4483321898906</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-290.7044250504618</v>
+        <v>-298.142039504106</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-286.7360416977055</v>
+        <v>-294.3066244584986</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-51.81068525701033</v>
+        <v>-75.27970177456338</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-8.858246238021273</v>
+        <v>-16.70796643507871</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>10.24470167511316</v>
+        <v>3.579753355884731</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-188.404555342774</v>
+        <v>-196.0070749558197</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-171.7511166137262</v>
+        <v>-179.4037270601437</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-167.7701384232456</v>
+        <v>-175.3506510037864</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-23.49043101452598</v>
+        <v>-41.43944798358989</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-7.569580194806736</v>
+        <v>-13.59447898047753</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>11.20005064918828</v>
+        <v>4.768121669857347</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-61.199253472226</v>
+        <v>-69.16906567104883</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-39.99387645353379</v>
+        <v>-46.40430538952847</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-35.952522596698</v>
+        <v>-42.00248169778883</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-19.43733741505941</v>
+        <v>-24.32379706430583</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-6.760171030474186</v>
+        <v>-12.24414625475877</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>12.14108069390018</v>
+        <v>5.47642609945721</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-56.68598034194167</v>
+        <v>-66.37922039127356</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-36.62067513010363</v>
+        <v>-44.71976739643678</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-32.23979531312853</v>
+        <v>-39.99250170639868</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-18.24497156343756</v>
+        <v>-23.44360691225083</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-5.852467448593272</v>
+        <v>-11.42015159717919</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>13.00771243476839</v>
+        <v>6.134820294182592</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-54.98474296021042</v>
+        <v>-64.62238361234522</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-35.65416985455541</v>
+        <v>-43.67377682987969</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-30.97101835961612</v>
+        <v>-38.64712217402155</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-17.60572406997072</v>
+        <v>-22.67945819018798</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-4.906667262455819</v>
+        <v>-10.59814716070615</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>13.89400110500376</v>
+        <v>6.790151768207192</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-52.59651115385736</v>
+        <v>-61.95716237823319</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-34.57215884965849</v>
+        <v>-42.31292130004174</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-29.50009212658708</v>
+        <v>-36.9238338721945</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-16.81175362879312</v>
+        <v>-21.79389957532005</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-3.992146759193519</v>
+        <v>-9.585422129555923</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>14.85538498969424</v>
+        <v>7.278616413394908</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-50.64782373504639</v>
+        <v>-59.74601115276226</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-33.65085356736468</v>
+        <v>-41.09167074105601</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-28.35813356132974</v>
+        <v>-35.4510442243355</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-15.89349874021509</v>
+        <v>-20.91961354558805</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-2.915925840498035</v>
+        <v>-8.649884279788536</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>15.81388649890692</v>
+        <v>7.753252124983004</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-48.80999259398457</v>
+        <v>-57.60529364796504</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-32.54035156630435</v>
+        <v>-39.80721787994791</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-27.27255901335869</v>
+        <v>-33.98426957388501</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-14.76619110082029</v>
+        <v>-19.93326740700078</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>-1.772785689123252</v>
+        <v>-7.667694155401349</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>16.59903641140728</v>
+        <v>8.256478540183334</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-47.63383775022713</v>
+        <v>-56.01929099916364</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-31.61202123165805</v>
+        <v>-38.78608686600896</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-26.4408287211494</v>
+        <v>-32.87300441908179</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-13.76780461954151</v>
+        <v>-19.09758924987723</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.8084550211061884</v>
+        <v>-6.881597517129118</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>17.3670954099204</v>
+        <v>8.847483295695984</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-0.9312566058843198</v>
+        <v>-9.844617052633584</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-926.6025945209724</v>
+        <v>-927.1603956522702</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-924.1050252510819</v>
+        <v>-924.4017936033878</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-923.7133170417255</v>
+        <v>-924.1875983275816</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-280.6089823811739</v>
+        <v>-332.5772024225054</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-26.59798012373576</v>
+        <v>-46.00873144489495</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0.4363757037338626</v>
+        <v>-8.075548901763622</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-849.8175726078537</v>
+        <v>-851.2170184392648</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-845.3175059050567</v>
+        <v>-845.8065396405607</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-844.2576316927558</v>
+        <v>-845.1219317444043</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-251.8289149706655</v>
+        <v>-308.4829456984704</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-24.02800917233751</v>
+        <v>-41.94685819705524</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>1.752754423776721</v>
+        <v>-6.444099606411742</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-774.5047597527983</v>
+        <v>-845.0717792995608</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-764.2661587325163</v>
+        <v>-765.001157689135</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-762.8187884929768</v>
+        <v>-764.2962941504308</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-225.5483147135448</v>
+        <v>-282.5918407174809</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-21.50604314061708</v>
+        <v>-37.9103816494862</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>3.023058376079393</v>
+        <v>-4.732301462781707</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-764.3763398265678</v>
+        <v>-764.635868498181</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-680.5842234021981</v>
+        <v>-681.6623751573858</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-679.3576608758875</v>
+        <v>-682.2683565413737</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-199.1986004776095</v>
+        <v>-253.4296748976654</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-19.05399686446672</v>
+        <v>-33.92287910391742</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>4.250774105712718</v>
+        <v>-3.024131492181135</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-681.2071074029782</v>
+        <v>-681.6055694651957</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-593.7928702809197</v>
+        <v>-595.4251697790476</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-595.0497347257493</v>
+        <v>-675.9146124315836</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-171.4556290106666</v>
+        <v>-220.6402969333882</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-16.70463881294945</v>
+        <v>-30.02175772125042</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>5.595205972957716</v>
+        <v>-1.473500695640598</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-594.9201319722657</v>
+        <v>-595.5016232200503</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-502.9870969739575</v>
+        <v>-506.1042741525145</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-587.1034304735217</v>
+        <v>-588.3987673998558</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-140.7142341938755</v>
+        <v>-189.1699515444329</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-14.50967495128663</v>
+        <v>-26.26967950698831</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>6.919849209975294</v>
+        <v>-0.05227404579410827</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-504.8161964327062</v>
+        <v>-505.6546487126034</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-405.5474256141671</v>
+        <v>-418.2203187759131</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-495.1474505990016</v>
+        <v>-497.0465028926642</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-113.860314052171</v>
+        <v>-148.1275380791528</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-12.55677244820284</v>
+        <v>-22.78097733982332</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>8.151164500810506</v>
+        <v>1.264946435996668</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-408.0104054928734</v>
+        <v>-411.0677520059665</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-304.5938059657634</v>
+        <v>-404.4519810216043</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-395.3476964201135</v>
+        <v>-400.7364145235164</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-80.30270944507436</v>
+        <v>-108.6502529966626</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-10.68401801725539</v>
+        <v>-19.79412716368784</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>9.289711210392198</v>
+        <v>2.504965874330006</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-302.9288528282836</v>
+        <v>-309.1769224093085</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-290.5612096176923</v>
+        <v>-297.9858311451758</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-286.5433351373463</v>
+        <v>-294.1013996483034</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-50.18778454353235</v>
+        <v>-72.35157841607932</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-8.7739907666049</v>
+        <v>-16.61351336200245</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>10.33303469706394</v>
+        <v>3.700435259852187</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-188.0954443269294</v>
+        <v>-195.6863652004959</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-171.5917999556606</v>
+        <v>-179.2288015433994</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-167.5504500966619</v>
+        <v>-175.1153027619802</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-21.74116713540879</v>
+        <v>-27.97526123397816</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-7.478859853027909</v>
+        <v>-13.4921642055228</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>11.29539306051618</v>
+        <v>4.900782874582725</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-60.94811212295597</v>
+        <v>-68.90101413489137</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-39.85487757196026</v>
+        <v>-46.24943565009045</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-35.76669996594838</v>
+        <v>-41.7993653793176</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-19.35104124712471</v>
+        <v>-24.22523526650236</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-6.662113806627616</v>
+        <v>-12.13281400597118</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>12.26763663702163</v>
+        <v>5.518632137572322</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-56.22839359012376</v>
+        <v>-65.89903531126321</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-36.41834161610054</v>
+        <v>-44.49383428912434</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-31.94243240831995</v>
+        <v>-39.6688056177331</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-18.13268731590938</v>
+        <v>-23.31455581283574</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-5.721535253662523</v>
+        <v>-11.27064756063274</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>13.18724927220605</v>
+        <v>6.183709556321395</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-54.63783300664934</v>
+        <v>-63.9972494457841</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-35.60355244757118</v>
+        <v>-43.42600549638852</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-30.91274866854171</v>
+        <v>-38.40859263044815</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-17.45114295843044</v>
+        <v>-22.50012397891813</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-4.719224665731939</v>
+        <v>-10.38221253779955</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>13.94222229317304</v>
+        <v>6.847695997358899</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-52.51390268240817</v>
+        <v>-61.87457266053764</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-34.51159571507364</v>
+        <v>-42.25017043068306</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-29.42904329352341</v>
+        <v>-36.85149939950625</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-16.76652229807728</v>
+        <v>-21.74570098689124</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-3.92500227604152</v>
+        <v>-9.533501188078722</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>14.9127326862154</v>
+        <v>7.347710605096846</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-50.54122129494925</v>
+        <v>-59.6358960480819</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-33.57659772564247</v>
+        <v>-41.01544376249021</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-28.2509370733638</v>
+        <v>-35.36132645009186</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-15.832874170334</v>
+        <v>-20.85577206213887</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-2.848924619197133</v>
+        <v>-8.580015660708803</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>15.8836544368559</v>
+        <v>7.838356080368798</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-48.66500117383759</v>
+        <v>-57.46656019019895</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-32.44632990822039</v>
+        <v>-39.71188656670134</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-27.15559333104033</v>
+        <v>-33.86887992151467</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-14.70187883886139</v>
+        <v>-19.8653990626512</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>-1.701412309011284</v>
+        <v>-7.593129707773253</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>16.68646263348527</v>
+        <v>8.348348824207495</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-47.38311345084409</v>
+        <v>-55.82292525302699</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-31.45512067306374</v>
+        <v>-38.65287511869256</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-26.27819947684651</v>
+        <v>-32.71682007384993</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-13.67365498958914</v>
+        <v>-19.00005705842436</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>-0.7186825792370261</v>
+        <v>-6.771526001949861</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>17.48113649465953</v>
+        <v>8.88577616398587</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-46.29704523877136</v>
+        <v>-54.26303196438381</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-30.38590468761222</v>
+        <v>-37.58847046355773</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-25.31594256201267</v>
+        <v>-31.61643557964285</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-12.57820606251601</v>
+        <v>-18.09748785011852</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>0.3089263148357726</v>
+        <v>-5.93192361944706</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>18.11986062448883</v>
+        <v>9.485065442605075</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-45.14557644465159</v>
+        <v>-53.20980183482383</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-29.64122652021517</v>
+        <v>-36.85784231683935</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-24.39089432839464</v>
+        <v>-30.73766228399046</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-11.71005533096312</v>
+        <v>-17.43232637677953</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>1.081040792014092</v>
+        <v>-5.354149265365875</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>18.81325076793488</v>
+        <v>10.07904438066841</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-847.4744448399349</v>
+        <v>-847.9065786732302</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-844.9058826346192</v>
+        <v>-845.2864251771348</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-843.4413725492681</v>
+        <v>-844.0663509186752</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-251.6546668296219</v>
+        <v>-308.1863842528908</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>-23.81303316142394</v>
+        <v>-41.67856623884335</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1.987908172685158</v>
+        <v>-5.982254490316535</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-767.7134322064917</v>
+        <v>-768.4847599300883</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-763.7504392045283</v>
+        <v>-764.3211007559671</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-761.6254676406961</v>
+        <v>-762.6087011253258</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-225.2758624745642</v>
+        <v>-282.2375677389947</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>-21.25838888195161</v>
+        <v>-37.5937893908598</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>3.296474685095299</v>
+        <v>-4.44760052656147</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-686.0989253564909</v>
+        <v>-687.8154674909688</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-679.9110580140457</v>
+        <v>-680.7174682440709</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-677.3471676780719</v>
+        <v>-678.7886449425881</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-198.2002540774011</v>
+        <v>-251.6639230193304</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-18.76441984265868</v>
+        <v>-33.54143447742998</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>4.574138755897649</v>
+        <v>-2.953194989822379</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-605.5482557027276</v>
+        <v>-681.4971850276175</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-592.8599556445681</v>
+        <v>-593.9759455925755</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-590.2208237380535</v>
+        <v>-592.3224205966466</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-169.7794810438648</v>
+        <v>-216.8698257582358</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>-16.35974803464957</v>
+        <v>-29.54964480507076</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>5.78081517579559</v>
+        <v>-1.397745334207253</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-594.8062067801948</v>
+        <v>-595.3832827433693</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-501.5626577778454</v>
+        <v>-503.40278604812</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-499.8132731241182</v>
+        <v>-503.4789200484138</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-139.2177279030226</v>
+        <v>-182.0867410733576</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>-14.08917484075144</v>
+        <v>-25.66381087329206</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>6.983364633396393</v>
+        <v>0.02887200211884838</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-504.6914236445704</v>
+        <v>-505.5247266148489</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-402.9187443270014</v>
+        <v>-407.9978281288723</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-404.4316125876273</v>
+        <v>-496.9376327894849</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>-107.769948312218</v>
+        <v>-147.5902978532615</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>-12.02805381121479</v>
+        <v>-21.96237539742106</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>8.218671835605312</v>
+        <v>1.352154797657964</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-407.8340555177788</v>
+        <v>-410.9242246239181</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-295.2468808847701</v>
+        <v>-304.1043576807017</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-395.2093268396187</v>
+        <v>-400.6175115555596</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-79.85103393539711</v>
+        <v>-107.9431497241276</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>-10.31794495981946</v>
+        <v>-18.59633692524934</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>9.361647123051029</v>
+        <v>2.599031564363148</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-302.7293906258346</v>
+        <v>-308.971928567746</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-177.9253997489841</v>
+        <v>-195.2492270374811</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-286.3897954557141</v>
+        <v>-293.9393590690165</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-48.93700299871698</v>
+        <v>-69.12064971180864</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>-8.700364688671149</v>
+        <v>-15.91919344888627</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>10.40990582671906</v>
+        <v>3.802307465159775</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-187.8673242518108</v>
+        <v>-195.4513073008052</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-53.77324583014991</v>
+        <v>-179.0875644446733</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-167.3787446791234</v>
+        <v>-174.9333146683776</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-20.97334373485929</v>
+        <v>-26.42570818768391</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>-7.400099108224213</v>
+        <v>-13.40433058767562</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>11.37779113639407</v>
+        <v>5.011605687239985</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-60.75593656888609</v>
+        <v>-68.69812483578744</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-39.73938138140076</v>
+        <v>-46.1224154398269</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-35.61789080408914</v>
+        <v>-41.63874764517492</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>-19.27578831690462</v>
+        <v>-24.14031984898801</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>-6.57759206531756</v>
+        <v>-12.03803869613683</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>12.3739172717399</v>
+        <v>5.56105177152301</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-55.9169402942519</v>
+        <v>-65.57583392166552</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-36.25825304086904</v>
+        <v>-44.31800624303687</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-31.72142257532395</v>
+        <v>-39.43197434512719</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-18.03718478337347</v>
+        <v>-23.20641400375022</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>-5.611994731419262</v>
+        <v>-11.14749548163314</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>13.33170335769277</v>
+        <v>6.228166140649363</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-53.99751961431095</v>
+        <v>-63.35751401604844</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-35.37067686878354</v>
+        <v>-43.15938071962874</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-30.54907231831174</v>
+        <v>-38.00750146279558</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-17.32433010246303</v>
+        <v>-22.35581086251139</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>-4.569298658290611</v>
+        <v>-10.21299964900683</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>14.12373532228642</v>
+        <v>6.899473966286755</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-52.44159373649004</v>
+        <v>-61.80227873584639</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-34.45729365078191</v>
+        <v>-42.19404842341647</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-29.36608624156357</v>
+        <v>-36.78749270163981</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-16.61364398364103</v>
+        <v>-21.66890446837986</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>-3.701826152900864</v>
+        <v>-9.486465342756961</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>14.96434581755545</v>
+        <v>7.409067083912699</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-50.45007485402073</v>
+        <v>-59.53013951475137</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-33.50237176434977</v>
+        <v>-40.94159460165658</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-28.15933339829123</v>
+        <v>-35.27591943880153</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-15.64816456862517</v>
+        <v>-20.79874563173839</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>-2.789288383062849</v>
+        <v>-8.518024350949506</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>15.94556326670956</v>
+        <v>7.912659256597515</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-48.54512417021843</v>
+        <v>-57.35125888897884</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-32.36496838406813</v>
+        <v>-39.62949719413628</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>-27.05652998088856</v>
+        <v>-33.77101252845008</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>-14.64446257905315</v>
+        <v>-19.80504931696675</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>-1.638190052468226</v>
+        <v>-7.527308141324645</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>16.7626140319203</v>
+        <v>8.440896048115013</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-47.15937889039268</v>
+        <v>-55.62852250612999</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-31.32664371670367</v>
+        <v>-38.52742445777555</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>-26.12848466730028</v>
+        <v>-32.57182472061902</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-13.59219293290066</v>
+        <v>-18.91594530047513</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>-0.6327282426798042</v>
+        <v>-6.677715383841562</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>17.57797828341454</v>
+        <v>8.949417634995603</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-46.03825766305635</v>
+        <v>-54.0348997321</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-30.24408267901866</v>
+        <v>-37.4502125890929</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>-25.12551918886879</v>
+        <v>-31.43898159488152</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-12.49064128533883</v>
+        <v>-18.00693006864688</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>0.4085552010183511</v>
+        <v>-5.830342732654984</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>18.24882819487753</v>
+        <v>9.525266561349721</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-45.08039728491464</v>
+        <v>-53.01242583219679</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-29.50375167249688</v>
+        <v>-36.67900950908279</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>-24.34149327437115</v>
+        <v>-30.64162047037076</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-11.59579833331327</v>
+        <v>-17.29832351334562</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>1.214526319749956</v>
+        <v>-5.203700308520414</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>18.88264723539709</v>
+        <v>10.12538241086825</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-43.90160695331971</v>
+        <v>-51.65155812867963</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-28.49160300383951</v>
+        <v>-35.75990607609184</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>-23.28658476363652</v>
+        <v>-29.60163308763762</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>-10.64532803302529</v>
+        <v>-16.57380337110195</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>2.046675231666872</v>
+        <v>-4.484268107671057</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>19.64931830931371</v>
+        <v>10.72575564828907</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-42.75422542130144</v>
+        <v>-50.44698499985015</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-27.53964670613164</v>
+        <v>-34.91042302595895</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>-22.23863179644249</v>
+        <v>-28.65446693905649</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>-9.950862335681009</v>
+        <v>-15.87831189101558</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>2.835123549924751</v>
+        <v>-3.817918780040098</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>20.46180145026337</v>
+        <v>11.28851511171345</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-683.680792569453</v>
+        <v>-684.3646845320872</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-679.495645213852</v>
+        <v>-680.1917342257969</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-676.5188568965581</v>
+        <v>-677.7143770871869</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>-197.6364906026361</v>
+        <v>-250.8920729386986</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>-18.54816944301574</v>
+        <v>-33.27129542768515</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>4.81077348397619</v>
+        <v>-2.654462098017794</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-598.1891860325869</v>
+        <v>-599.2944174184606</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-592.3386964131328</v>
+        <v>-593.2870475925262</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-589.0044391391933</v>
+        <v>-590.5927926518324</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-169.0298817990216</v>
+        <v>-215.7599394685524</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>-16.11047855509092</v>
+        <v>-29.23061436412234</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>6.056138099863698</v>
+        <v>-1.330957507490472</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-509.689181837182</v>
+        <v>-511.9192408551017</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-500.8808025305069</v>
+        <v>-502.4424153801666</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-497.7456208113359</v>
+        <v>-499.8452995451673</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-138.1487445496855</v>
+        <v>-178.6024384632859</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>-13.79749848486505</v>
+        <v>-25.27903210514317</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>7.192913100802247</v>
+        <v>0.1000082920383085</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-420.0953935545784</v>
+        <v>-505.4159366943331</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-401.9706993100633</v>
+        <v>-406.5163511944572</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-399.3161425842315</v>
+        <v>-404.606061465316</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>-106.052261926798</v>
+        <v>-145.1549213543884</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>-11.68034800064404</v>
+        <v>-21.48548919867689</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>8.278724666277983</v>
+        <v>1.428133113459982</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-407.6918226578004</v>
+        <v>-410.8054145399913</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-293.7911385540613</v>
+        <v>-301.3060270852932</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-292.1853680845364</v>
+        <v>-301.5040820051429</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-78.0901906466254</v>
+        <v>-107.5128399527524</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>-9.893516835203821</v>
+        <v>-17.98319693158948</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>9.425328684208061</v>
+        <v>2.680427679070932</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-302.5712473043808</v>
+        <v>-308.8100436746357</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-175.2045344816853</v>
+        <v>-183.6402715387321</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-177.1807417313966</v>
+        <v>-293.8072126564185</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-47.98274392586416</v>
+        <v>-68.07959471032284</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>-8.635305927120957</v>
+        <v>-15.08848099838057</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>10.47759709061851</v>
+        <v>3.889797860295526</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-187.6900594188485</v>
+        <v>-195.2695081861075</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-43.29580556605458</v>
+        <v>-51.64621224996569</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-167.2397652554466</v>
+        <v>-174.7871581599524</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>-20.51723776143088</v>
+        <v>-25.7091598409505</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>-7.330881880839658</v>
+        <v>-13.32785570405413</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>11.44993155730883</v>
+        <v>5.105991410007387</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-60.60276035650297</v>
+        <v>-68.53766051287256</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-39.64143304990189</v>
+        <v>-46.01578799401651</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-35.49524171651571</v>
+        <v>-41.50761450077804</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-19.2094078909194</v>
+        <v>-24.06616704372281</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>-6.503753395360356</v>
+        <v>-11.95608542106712</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>12.4648158448099</v>
+        <v>5.683601163759133</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-55.68741268197532</v>
+        <v>-65.33929605446981</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-36.12749721370284</v>
+        <v>-44.17613802936683</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-31.54884224679043</v>
+        <v>-39.24902193709951</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-17.95466119297502</v>
+        <v>-23.1140835949621</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>-5.518590976572124</v>
+        <v>-11.04376478734125</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>13.45118903035877</v>
+        <v>6.268821786694705</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-53.59687376926033</v>
+        <v>-62.9571311520441</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-35.18355521618513</v>
+        <v>-42.9573878295045</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-30.28013016551312</v>
+        <v>-37.72643378284338</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>-17.21785752070959</v>
+        <v>-22.23642790798885</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>-4.445841355788109</v>
+        <v>-10.07577423203565</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>14.29075227742035</v>
+        <v>6.946388537577858</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-52.27663572608972</v>
+        <v>-61.31270184426388</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-34.40824324788009</v>
+        <v>-41.96539859352283</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-29.30979310598523</v>
+        <v>-36.60941386260149</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-16.46886946911265</v>
+        <v>-21.50605862000431</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>-3.527814516370027</v>
+        <v>-9.299183806385944</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>15.05589136301926</v>
+        <v>7.464030003598933</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-50.36346959470714</v>
+        <v>-59.43964489585846</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-33.43542825048498</v>
+        <v>-40.87390961091312</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-28.07987537481981</v>
+        <v>-35.19729043896036</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>-15.43491190589226</v>
+        <v>-20.65934870606603</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>-2.558477637726066</v>
+        <v>-8.462533343406216</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>16.00098570061597</v>
+        <v>7.978268562742853</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-48.44385901518501</v>
+        <v>-57.25345862438932</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-32.29365912492843</v>
+        <v>-39.55736374791677</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>-26.97122355526358</v>
+        <v>-33.68663898250442</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-14.59279193401867</v>
+        <v>-19.75092518024063</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>-1.581676901965964</v>
+        <v>-7.468644437919639</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>16.82972273554991</v>
+        <v>8.521097756761336</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-46.98499886501688</v>
+        <v>-55.4703726035978</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-31.21892957040122</v>
+        <v>-38.42197043544382</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-25.99143095484321</v>
+        <v>-32.44234648535137</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>-13.52080299630807</v>
+        <v>-18.84243400684828</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>-0.5528789954283484</v>
+        <v>-6.59651969767936</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>17.66155040234479</v>
+        <v>9.050561227670652</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-45.84121335395994</v>
+        <v>-53.85762693175023</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-30.12651810802533</v>
+        <v>-37.33526066171318</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>-24.97354401543689</v>
+        <v>-31.29597823541775</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-12.41437984409598</v>
+        <v>-17.92829775809028</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>0.4943021361282949</v>
+        <v>-5.743078393050723</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>18.35690781117137</v>
+        <v>9.562238636649257</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-44.9209830603301</v>
+        <v>-52.74289768869881</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-29.29145172282118</v>
+        <v>-36.51491884051788</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>-24.13944428329212</v>
+        <v>-30.4375761288255</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>-11.48407121742603</v>
+        <v>-17.18035641344012</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>1.332104354096715</v>
+        <v>-5.068259519014005</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>19.03011313266774</v>
+        <v>10.16765575709738</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-43.84175924716909</v>
+        <v>-51.5880863340694</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-28.41456803561644</v>
+        <v>-35.70966198228</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>-23.22651058455073</v>
+        <v>-29.54488596751554</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>-10.51609532220022</v>
+        <v>-16.44431752740485</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>2.199807301196847</v>
+        <v>-4.441654293856636</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>19.69361331160651</v>
+        <v>10.77473092252058</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-42.68097317578633</v>
+        <v>-50.3697594886741</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-27.48476061533607</v>
+        <v>-34.8510961535841</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>-22.17492669246649</v>
+        <v>-28.59442412092502</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-9.825675556180487</v>
+        <v>-15.83658113034265</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>2.880167493041684</v>
+        <v>-3.770184127337157</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>20.51395103016855</v>
+        <v>11.34617223208654</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-41.57991421052699</v>
+        <v>-49.18440812877939</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-26.56522867213585</v>
+        <v>-33.97210424914971</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>-21.17600065166872</v>
+        <v>-27.64407647636473</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-9.05772153846339</v>
+        <v>-15.13071461876022</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>3.702486390407596</v>
+        <v>-3.073178235198692</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>20.8262400850445</v>
+        <v>11.68370398513265</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-41.09976379419469</v>
+        <v>-48.74150347055271</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-26.18947098391435</v>
+        <v>-33.61141877319027</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>-20.74930966570682</v>
+        <v>-27.24256953522197</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>-8.761466297371014</v>
+        <v>-14.83670510330412</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>4.019355475187744</v>
+        <v>-2.761512735571092</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>21.00048596647702</v>
+        <v>11.86716896695252</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-507.1916992548127</v>
+        <v>-508.3169138047691</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-500.4615413318373</v>
+        <v>-501.9109590121996</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-496.9049542283168</v>
+        <v>-498.7517744940056</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>-137.5785428655231</v>
+        <v>-176.6516503879918</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>-13.57996102257091</v>
+        <v>-25.00702459732933</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>7.43104446455202</v>
+        <v>0.1645856095468976</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-412.0646877783753</v>
+        <v>-414.7809967549448</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-401.0854034929229</v>
+        <v>-405.8184165359861</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-398.0759222060803</v>
+        <v>-402.8325517906538</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-104.4831667482088</v>
+        <v>-140.6078135368707</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>-11.42944561037656</v>
+        <v>-21.16398898093648</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>8.494152485400459</v>
+        <v>1.495101608876984</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-309.2247706661117</v>
+        <v>-316.3870091279366</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-292.6433228449887</v>
+        <v>-300.3297581693066</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-290.057654351599</v>
+        <v>-297.7036460475347</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-72.75417206746305</v>
+        <v>-107.2158705610795</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>-9.599715557409095</v>
+        <v>-17.59503489090826</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>9.482222613220642</v>
+        <v>2.75176469668137</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-201.9903220173463</v>
+        <v>-308.6780080400485</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-174.2409379494021</v>
+        <v>-182.1252870341144</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-171.7445670433546</v>
+        <v>-180.1128208639398</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>-47.28839309057484</v>
+        <v>-67.5191221547384</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>-8.401301411044333</v>
+        <v>-14.60673993276123</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>10.53780122081397</v>
+        <v>3.966000226943858</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-187.5471879880857</v>
+        <v>-195.1234827390767</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-41.80755861685319</v>
+        <v>-48.74466551373799</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-40.07801603122621</v>
+        <v>-48.3571971575496</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>-20.20656210211143</v>
+        <v>-25.27476664749959</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>-7.269424482449068</v>
+        <v>-13.26048507708385</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>11.51377998211536</v>
+        <v>5.187638879442168</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-60.47695797627837</v>
+        <v>-68.40663673293261</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-39.55699631056991</v>
+        <v>-45.92462230096496</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-35.39188890537756</v>
+        <v>-41.39792478828024</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-19.15028318359914</v>
+        <v>-24.00067994595282</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>-6.438521703878606</v>
+        <v>-11.88430148486083</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>12.54371736259564</v>
+        <v>5.786879038767103</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-55.50922503777815</v>
+        <v>-65.15653430008625</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-36.01808767080622</v>
+        <v>-44.05853967841016</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-31.40924848059791</v>
+        <v>-39.10219713789378</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-17.88242022869042</v>
+        <v>-23.03405267359103</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>-5.437715163244857</v>
+        <v>-10.95483470418764</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>13.55215878190779</v>
+        <v>6.359226196138586</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-53.31605163837339</v>
+        <v>-62.67645410668003</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-35.03385029702902</v>
+        <v>-42.79752967577411</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-30.07668198827896</v>
+        <v>-37.51542914170371</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-17.12681108710419</v>
+        <v>-22.13553572735856</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>-4.341881485921181</v>
+        <v>-9.961581575028319</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>14.4264277170974</v>
+        <v>6.989156297635375</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-51.73379482250856</v>
+        <v>-60.79833448334391</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-34.26527594527562</v>
+        <v>-41.73001868300321</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-29.17918083095646</v>
+        <v>-36.26831406275341</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-16.34915039894813</v>
+        <v>-21.37333958329456</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>-3.387217205584613</v>
+        <v>-9.144979461947623</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>15.25203950608556</v>
+        <v>7.513637804666252</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-50.28249128051744</v>
+        <v>-59.36106249665027</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-33.37583953970122</v>
+        <v>-40.70767588253726</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-28.01009633539894</v>
+        <v>-35.12817944024057</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-15.26748659370591</v>
+        <v>-20.47362414800373</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>-2.353143886635985</v>
+        <v>-8.285826934600175</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>16.05098064485149</v>
+        <v>8.036757046358183</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-48.35683979035921</v>
+        <v>-57.16913749356461</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-32.23048925261038</v>
+        <v>-39.49352101464419</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>-26.8967589475738</v>
+        <v>-33.61291862318217</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>-14.52981672855475</v>
+        <v>-19.7020249784767</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>-1.530764447946663</v>
+        <v>-7.415928742415351</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>16.88944747586637</v>
+        <v>8.591475243720573</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-46.84414356050452</v>
+        <v>-55.34100143981973</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-31.12692780178707</v>
+        <v>-38.33170912746458</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>-25.87736467210863</v>
+        <v>-32.33388674195004</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>-13.45756721478658</v>
+        <v>-18.7774686441831</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>-0.4827850383401855</v>
+        <v>-6.525343556408743</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>17.73463044347955</v>
+        <v>9.137486042153871</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-45.68471335611704</v>
+        <v>-53.71474994961019</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-30.02700104017086</v>
+        <v>-37.2377259362865</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>-24.84860700319741</v>
+        <v>-31.17755055725532</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>-12.34718202219398</v>
+        <v>-17.85918408962169</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>0.5691177697494219</v>
+        <v>-5.667055599222594</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>18.44919044376628</v>
+        <v>9.659526218497533</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-44.68488695365461</v>
+        <v>-52.51427640952928</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-29.12137450069914</v>
+        <v>-36.35736059930219</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>-23.96280163567571</v>
+        <v>-30.27633170607967</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>-11.38441345217175</v>
+        <v>-17.08053462239726</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>1.446886518507714</v>
+        <v>-4.955381889488448</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>19.15178852203856</v>
+        <v>10.20642590380592</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-43.78805400632245</v>
+        <v>-51.48156799124226</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-28.22279134662307</v>
+        <v>-35.58495285608382</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>-23.10666360598555</v>
+        <v>-29.44188052195211</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>-10.40781830436605</v>
+        <v>-16.33585212252142</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>2.325577900614643</v>
+        <v>-4.320982109809924</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>19.83004467255972</v>
+        <v>10.81926090780154</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-42.61621866321349</v>
+        <v>-50.30178165787102</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-27.43521757652299</v>
+        <v>-34.79782592528669</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>-22.11801325464453</v>
+        <v>-28.54055603321828</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>-9.677877991966426</v>
+        <v>-15.74234275553963</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>2.99939787465414</v>
+        <v>-3.72528274937796</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>20.56118074132387</v>
+        <v>11.39804485792489</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-41.49972068244731</v>
+        <v>-49.11194899676978</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-26.50611122937122</v>
+        <v>-33.91587396737633</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>-21.10683435261235</v>
+        <v>-27.57993494787407</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>-9.013381968699756</v>
+        <v>-15.08677613860563</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>3.750550098293335</v>
+        <v>-3.026061748234106</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>20.85012896119176</v>
+        <v>11.70904032743264</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-41.06707236072429</v>
+        <v>-48.71061021644398</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-26.16203256377667</v>
+        <v>-33.58479673425554</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>-20.71922464200164</v>
+        <v>-27.21377208957654</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>-8.738522923683011</v>
+        <v>-14.81389582070046</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>4.043510645534861</v>
+        <v>-2.737660226061709</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>21.01546342447287</v>
+        <v>11.88280234449846</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-40.85223702820871</v>
+        <v>-48.50556381332358</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-25.97624336280756</v>
+        <v>-33.40364957823284</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>-20.51862891486164</v>
+        <v>-27.02033461892792</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>-8.578760826770665</v>
+        <v>-14.65492852107779</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>4.210404806832599</v>
+        <v>-2.572539196361586</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>21.1258949205334</v>
+        <v>11.99747403640847</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-40.71805372099248</v>
+        <v>-48.37586746348083</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-25.85566645405012</v>
+        <v>-33.28533203310246</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>-20.39100502779554</v>
+        <v>-26.89608784679479</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>-8.471181373102867</v>
+        <v>-14.54775907939334</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>4.321627604461394</v>
+        <v>-2.462216219103372</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>21.20633491537311</v>
+        <v>12.08039423506439</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-306.6432122423874</v>
+        <v>-312.6205353755649</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-291.8769300031143</v>
+        <v>-299.5112577911462</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-288.8331256018237</v>
+        <v>-296.5902684526097</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>-71.49678661199822</v>
+        <v>-102.1158605628033</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>-9.380878180914541</v>
+        <v>-17.32113720963685</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>9.686752012200914</v>
+        <v>2.814957245603858</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-193.1503039857098</v>
+        <v>-201.2436465856609</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-173.1713747475847</v>
+        <v>-181.1077903237675</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-170.4797012673586</v>
+        <v>-178.293462573003</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>-46.8636393356572</v>
+        <v>-67.15589017483005</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>-8.1487481469677</v>
+        <v>-14.28273776508253</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>10.59180390063364</v>
+        <v>4.033150207525643</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-65.70292986876974</v>
+        <v>-75.2122884875325</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-41.10774511053104</v>
+        <v>-47.7520462509096</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-37.88711796447413</v>
+        <v>-44.37533193649459</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>-19.97750142472307</v>
+        <v>-24.9756072605411</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>-7.214377567774129</v>
+        <v>-13.02477862019764</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>11.57081216425278</v>
+        <v>5.259177571082699</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-60.37124076475518</v>
+        <v>-68.29702821249317</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-38.97138092415064</v>
+        <v>-45.84550988326904</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-35.30325120628247</v>
+        <v>-41.30440668795008</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>-19.03577440124154</v>
+        <v>-23.94229237640549</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>-6.380345110521048</v>
+        <v>-11.82074396706445</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>12.61304806894013</v>
+        <v>5.875458732380881</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-55.36571023648754</v>
+        <v>-65.00984156381752</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-35.92478432838863</v>
+        <v>-43.95899703461941</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-31.29331576536378</v>
+        <v>-38.98098710054911</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>-17.81848979057964</v>
+        <v>-22.96381255196871</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>-5.366795885336139</v>
+        <v>-10.87749028385504</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>13.63894855946488</v>
+        <v>6.472887426637696</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-53.10519905074366</v>
+        <v>-62.46569140020449</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-34.91055288938892</v>
+        <v>-42.66693824168848</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-29.91584006358836</v>
+        <v>-37.34950654792311</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>-17.04779281572726</v>
+        <v>-22.04880622181155</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>-4.252774159958331</v>
+        <v>-9.864624412011828</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>14.53947844586885</v>
+        <v>7.028354224620527</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-51.37913612432757</v>
+        <v>-60.45777469173977</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-34.09154779620355</v>
+        <v>-41.54800998050673</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-28.93439151341842</v>
+        <v>-36.02125061174422</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>-16.23232791289292</v>
+        <v>-21.262473935215</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>-3.270548915234762</v>
+        <v>-9.018437414200603</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>15.40792919599752</v>
+        <v>7.55870716972702</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-50.0079162191021</v>
+        <v>-58.71554637204941</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-33.14954105641881</v>
+        <v>-40.42853954958385</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-27.9481784100801</v>
+        <v>-34.80882121895631</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>-15.13152258338752</v>
+        <v>-20.32488267934287</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>-2.191029881684154</v>
+        <v>-8.110821084954305</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>16.09637979157469</v>
+        <v>8.089326105251615</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-48.28101178451629</v>
+        <v>-57.09545898583941</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-32.17401955148651</v>
+        <v>-39.43649354886727</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>-26.83101847887732</v>
+        <v>-33.54778316341271</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>-14.33313432722307</v>
+        <v>-19.64891852424198</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>-1.37914945058187</v>
+        <v>-7.368219407236916</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>16.94305005284519</v>
+        <v>8.653883203276161</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-46.72728633325173</v>
+        <v>-55.23262137560562</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-31.04715586720526</v>
+        <v>-38.25331113696831</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>-25.78050370065168</v>
+        <v>-32.24131215325283</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>-13.36502011012419</v>
+        <v>-18.71951216052041</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>-0.4206091772488885</v>
+        <v>-6.462282457172211</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>17.79924473609751</v>
+        <v>9.213238997281625</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-45.55652341533328</v>
+        <v>-53.59641453694179</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-29.94134117138832</v>
+        <v>-37.15361219880672</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>-24.74353757403134</v>
+        <v>-31.07738031943877</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>-12.28738391264221</v>
+        <v>-17.79781163379021</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>0.6351433112859759</v>
+        <v>-5.600051070071681</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>18.52918372568628</v>
+        <v>9.75416977355494</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-44.50241236254223</v>
+        <v>-52.30715419308735</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-28.98354020367438</v>
+        <v>-36.22841272906909</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>-23.82036440941243</v>
+        <v>-30.14475203558444</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>-11.29864403316504</v>
+        <v>-16.99463752308185</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>1.544292169594173</v>
+        <v>-4.859426618139626</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>19.25440901688716</v>
+        <v>10.27344848813134</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-43.57320979877962</v>
+        <v>-51.24383259058595</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-28.06988831004713</v>
+        <v>-35.44257537292111</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>-22.8978558503325</v>
+        <v>-29.25814900027484</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>-10.31538403468397</v>
+        <v>-16.24327318678169</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>2.43127133668579</v>
+        <v>-4.216949560017745</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>19.96843074494858</v>
+        <v>10.85997978861214</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-42.55843651414933</v>
+        <v>-50.2413419030498</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-27.33317068587703</v>
+        <v>-34.6814572490342</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>-22.06676457842789</v>
+        <v>-28.49187207352853</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>-9.555962019397032</v>
+        <v>-15.62257808823103</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>3.142873081565365</v>
+        <v>-3.616800376573135</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>20.60421849440577</v>
+        <v>11.44503972430758</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-41.42934977222265</v>
+        <v>-49.04784065213133</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-26.45301604434376</v>
+        <v>-33.86519927195384</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>-21.04541872456219</v>
+        <v>-27.52266002510671</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>-8.972827150499789</v>
+        <v>-15.0465671253987</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>3.794301497499699</v>
+        <v>-2.983120978626751</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>20.87263444161178</v>
+        <v>11.73285370717097</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-41.03668853022618</v>
+        <v>-48.68182150413028</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-26.13632872729414</v>
+        <v>-33.55982585398546</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>-20.69115520213058</v>
+        <v>-27.18685152989316</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>-8.716874559269145</v>
+        <v>-14.79236919325146</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>4.066257127472567</v>
+        <v>-2.715187672013371</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>21.02979721730829</v>
+        <v>11.89774511031496</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-40.83444355799003</v>
+        <v>-48.48843287458573</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-25.960446199072</v>
+        <v>-33.38818016933995</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>-20.5018026092326</v>
+        <v>-27.00400278405248</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>-8.564834483152122</v>
+        <v>-14.64106059994781</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>4.224851954093598</v>
+        <v>-2.558220928391993</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>21.13603272999777</v>
+        <v>12.00795127154704</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-40.70604929159993</v>
+        <v>-48.36420933379223</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-25.84472110362998</v>
+        <v>-33.27456515968306</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>-20.37950782847707</v>
+        <v>-26.88485419381049</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>-8.461273441727499</v>
+        <v>-14.53788429411604</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>4.331828967523371</v>
+        <v>-2.452087125743654</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>21.21398785920467</v>
+        <v>12.08825860254874</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-40.61530477862497</v>
+        <v>-48.27581113456011</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-25.76118944739641</v>
+        <v>-33.1922601903306</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>-20.29220390910111</v>
+        <v>-26.79934802409038</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>-8.38491839302716</v>
+        <v>-14.46176048360064</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>4.410225462242204</v>
+        <v>-2.37419261342616</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>21.27432861798464</v>
+        <v>12.15012660237301</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-40.54680180387962</v>
+        <v>-48.2087801493824</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-25.69724742404906</v>
+        <v>-33.12910460337081</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>-20.22586324320098</v>
+        <v>-26.73414679014376</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>-8.325623527931828</v>
+        <v>-14.40261724124569</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>4.470853718240987</v>
+        <v>-2.313891372843746</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>21.32282407236936</v>
+        <v>12.19967935312168</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-63.03214199195451</v>
+        <v>-71.26741391251463</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-40.68060528640534</v>
+        <v>-47.20882601078518</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-37.02078266985429</v>
+        <v>-43.24147979027737</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>-19.79961974836344</v>
+        <v>-24.75350465873521</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>-7.16469897292196</v>
+        <v>-12.74896869384457</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>11.62733791154199</v>
+        <v>5.322534850552191</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-60.28077646340626</v>
+        <v>-68.20357233956368</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-37.85153338406084</v>
+        <v>-45.77600922201498</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-34.90056402801359</v>
+        <v>-41.2234409573427</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>-18.75560631800307</v>
+        <v>-23.88980779257866</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>-6.328037187491416</v>
+        <v>-11.76395284268032</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>12.67459852630309</v>
+        <v>5.952525454748745</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-55.24690932528082</v>
+        <v>-64.88872743640589</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-35.84398749202576</v>
+        <v>-43.87331725279622</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-31.19503595063853</v>
+        <v>-38.87871697206575</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>-17.76138967322479</v>
+        <v>-22.90151702587584</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>-5.303944743544847</v>
+        <v>-10.80941633794458</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>13.71459415288865</v>
+        <v>6.569439948052638</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-52.93937823414152</v>
+        <v>-62.29993076773161</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-34.80671306094337</v>
+        <v>-42.5576508192585</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-29.78454713145445</v>
+        <v>-37.21460521589901</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>-16.97836801398407</v>
+        <v>-21.97320855910627</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>-4.175289327074855</v>
+        <v>-9.780962073515818</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>14.63556571580232</v>
+        <v>7.064452818521991</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-51.12421934211213</v>
+        <v>-60.21102613330249</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-33.95114910303866</v>
+        <v>-41.40183918120362</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-28.74629185476106</v>
+        <v>-35.83168843311783</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>-16.12833703913876</v>
+        <v>-21.16805544269339</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>-3.171711020708991</v>
+        <v>-8.912167167184938</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>15.53568153445792</v>
+        <v>7.599890416553971</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-49.53995253830137</v>
+        <v>-58.29013910357757</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-32.94458100814352</v>
+        <v>-40.21873203178261</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-27.81221125136363</v>
+        <v>-34.5140684626662</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>-15.01825906304527</v>
+        <v>-20.20228262320198</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>-2.058831225382571</v>
+        <v>-7.969527782060446</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>16.23072677569006</v>
+        <v>8.136911260015403</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-48.21416508146012</v>
+        <v>-57.03035757166369</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-32.1231436089414</v>
+        <v>-39.37084950555536</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>-26.77242171152368</v>
+        <v>-33.48968608976413</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>-14.17274372765398</v>
+        <v>-19.48064299454467</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>-1.189396436252188</v>
+        <v>-7.290651705581259</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>16.99150966251125</v>
+        <v>8.709720453805659</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-46.62830519222548</v>
+        <v>-55.14010797083169</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-30.97712412632998</v>
+        <v>-38.1843864616164</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>-25.69691657975028</v>
+        <v>-32.16108889344152</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>-13.12941347033691</v>
+        <v>-18.66738862681929</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>-0.3531346756574383</v>
+        <v>-6.405902991638167</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>17.85691090943432</v>
+        <v>9.280024873683727</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-45.44902319402696</v>
+        <v>-53.49631408261856</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-29.86659489694313</v>
+        <v>-37.0800993239625</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>-24.65357303909243</v>
+        <v>-30.99121208863046</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>-12.23372007691769</v>
+        <v>-17.74283541561753</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>0.6939753308577286</v>
+        <v>-5.540412111421233</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>18.59939357016751</v>
+        <v>9.8360196497209</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-44.35591859276875</v>
+        <v>-52.14383627791872</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-28.86889963758938</v>
+        <v>-36.12034778702574</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>-23.70235017482106</v>
+        <v>-30.02459762655241</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>-11.22381048998272</v>
+        <v>-16.91970229125879</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>1.628305067119131</v>
+        <v>-4.776548317869864</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>19.34247958990517</v>
+        <v>10.3770260214291</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-43.3566647340817</v>
+        <v>-51.06029307999178</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-27.94428263411903</v>
+        <v>-35.32460479259588</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>-22.7334056407782</v>
+        <v>-29.11078484868192</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>-10.23527129100981</v>
+        <v>-16.16304650354245</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>2.521717304139106</v>
+        <v>-4.127786041193724</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>20.08347687687881</v>
+        <v>10.89740190722439</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-42.50645907775549</v>
+        <v>-49.98921968064327</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-27.1553346407863</v>
+        <v>-34.52097735332102</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>-21.92378931398744</v>
+        <v>-28.31011715353537</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>-9.45316048448994</v>
+        <v>-15.52139771845929</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>3.261645107940337</v>
+        <v>-3.502253320464915</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>20.64364983068732</v>
+        <v>11.48787629336229</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-41.36694719342574</v>
+        <v>-48.99059320473477</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-26.40498550650992</v>
+        <v>-33.81922173430311</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>-20.99040657265435</v>
+        <v>-27.47110794909736</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>-8.935547579152033</v>
+        <v>-15.00958818422606</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>3.834349113982669</v>
+        <v>-2.943773469209308</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>20.89388509045119</v>
+        <v>11.75529082978715</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-41.00835300263861</v>
+        <v>-48.65490874981592</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-26.11218409384388</v>
+        <v>-33.53634221779613</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>-20.66488589114967</v>
+        <v>-27.16161245366413</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>-8.696403790410361</v>
+        <v>-14.77200934403862</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>4.087726725106153</v>
+        <v>-2.693966948290024</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>21.04353216550194</v>
+        <v>11.91204665829392</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-40.81750412162683</v>
+        <v>-48.47210443308824</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-25.9453515675195</v>
+        <v>-33.37338951715449</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>-20.4857555194889</v>
+        <v>-26.98841293973762</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>-8.551479261468614</v>
+        <v>-14.62775986752414</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>4.238692454173864</v>
+        <v>-2.544500439608457</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>21.1458318917534</v>
+        <v>12.01807097251782</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-40.69449220208353</v>
+        <v>-48.35297749956462</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-25.83415998270804</v>
+        <v>-33.26417224976311</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>-20.36842727911271</v>
+        <v>-26.8740215807442</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>-8.451691594550093</v>
+        <v>-14.52833379684292</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>4.341688176969239</v>
+        <v>-2.442296200442974</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>21.22142784517522</v>
+        <v>12.09590021136076</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-40.60678072609691</v>
+        <v>-48.26748376004813</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-25.75327313656442</v>
+        <v>-33.18444816110613</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>-20.28396860170568</v>
+        <v>-26.79126441668021</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>-8.377616150932642</v>
+        <v>-14.45447818270726</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>4.417703358431183</v>
+        <v>-2.366757831556117</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>21.28022451979168</v>
+        <v>12.1561588886561</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-40.54018267043365</v>
+        <v>-48.2022904277587</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-25.69103072219591</v>
+        <v>-33.12295772024499</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>-20.21943436988461</v>
+        <v>-26.72781855289402</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>-8.319821309790443</v>
+        <v>-14.39682861973611</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>4.476775330966192</v>
+        <v>-2.307999002304655</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>21.32764479401152</v>
+        <v>12.20459734638004</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-40.48739315132124</v>
+        <v>-48.15045628863204</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-25.64121969067437</v>
+        <v>-33.07366578614422</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>-20.16805019208228</v>
+        <v>-26.67717978621162</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>-8.273102030491948</v>
+        <v>-14.35021121724541</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>4.524387764193485</v>
+        <v>-2.260605159969952</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>21.36693990573624</v>
+        <v>12.24463494226027</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-40.44421731406595</v>
+        <v>-48.10796480003375</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-25.60018610800195</v>
+        <v>-33.03300821827312</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>-20.12588192630325</v>
+        <v>-26.63554826900474</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>-8.234319934198556</v>
+        <v>-14.31150380365215</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>4.563823243432006</v>
+        <v>-2.22132936480363</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>21.40019320816586</v>
+        <v>12.27844929368677</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-1000</v>
+        <v>4.462773264570029</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-334.6188448889586</v>
+        <v>-152.9660123552683</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-49.38599342363263</v>
+        <v>-13.65660467483828</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.86347708356546</v>
+        <v>7.138062102463565</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-923.8061449903805</v>
+        <v>-923.7651056373853</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-923.1770573037704</v>
+        <v>-923.0288157301694</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-922.2937047758739</v>
+        <v>-921.8357267681473</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-312.6869617031966</v>
+        <v>-116.7346837976761</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-45.23383763544304</v>
+        <v>-10.59460589062596</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.943506925067554</v>
+        <v>8.619007008915757</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-845.6643683033482</v>
+        <v>-826.4517880093679</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-844.3521569851279</v>
+        <v>-562.4922594156945</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-842.6753032377269</v>
+        <v>-820.416077338479</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-293.5348619580539</v>
+        <v>-84.3641945374375</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-41.07420071822716</v>
+        <v>-7.377859655443352</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.114517615758141</v>
+        <v>10.05909079799566</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-765.2991093792501</v>
+        <v>-711.1848307001756</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-763.2253695477506</v>
+        <v>-202.6674982764143</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-760.8721924238291</v>
+        <v>-699.5025925742189</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-275.6280430839681</v>
+        <v>-56.26926678741593</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-36.91624953584</v>
+        <v>-3.969078689594671</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>-3.439016011496891</v>
+        <v>11.43182854450183</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-682.3552317829858</v>
+        <v>-569.1486672104907</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-679.4039891784449</v>
+        <v>-130.5725814073105</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-676.5105732468979</v>
+        <v>-549.5896615048269</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-249.8931509107691</v>
+        <v>-32.92007481795234</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-32.77409495222374</v>
+        <v>-1.567842784319873</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.926074450041007</v>
+        <v>12.7805424381399</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-596.359093700372</v>
+        <v>-403.5991229244137</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-592.353845100904</v>
+        <v>-58.65488523427457</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-589.0660979946723</v>
+        <v>-374.2968639441375</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-214.5349219294692</v>
+        <v>-15.51937768556814</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.66983424809013</v>
+        <v>0.6357979948391834</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5487309225695338</v>
+        <v>14.05208627101062</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-506.6499155727188</v>
+        <v>-213.6355719812714</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-501.3102131034337</v>
+        <v>-33.87171127234118</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-497.8012146983776</v>
+        <v>-182.5518066670682</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-175.3610993189192</v>
+        <v>-4.788379365856493</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-24.63952013064313</v>
+        <v>2.504246608371024</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7168542238225224</v>
+        <v>15.28440018870136</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-412.2446866508874</v>
+        <v>-73.93387330785568</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-405.0972742344264</v>
+        <v>-12.82194393400856</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-401.6002563672599</v>
+        <v>-54.8804530931117</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-136.6161369557205</v>
+        <v>-0.7360545239538567</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-20.7463562314495</v>
+        <v>4.128359814764365</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1.895371961718645</v>
+        <v>16.42894569160715</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-311.5111172669019</v>
+        <v>-18.16606452953484</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-298.9569941326451</v>
+        <v>-2.881385236227565</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-295.5677681661616</v>
+        <v>-9.779468900736344</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-99.94340287557746</v>
+        <v>4.314179545745866</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-17.11458909608952</v>
+        <v>5.580739718131979</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>3.016533564016519</v>
+        <v>17.55164279601496</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-199.2467895848943</v>
+        <v>-5.609016868452796</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-180.3734972762373</v>
+        <v>1.373571925167536</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-176.9652995190992</v>
+        <v>-0.8895586827726378</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-66.8960597262126</v>
+        <v>6.66670471088822</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-14.0457250290902</v>
+        <v>7.02481819489714</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>4.125558150241067</v>
+        <v>18.58057275438892</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-71.26741391251463</v>
+        <v>-0.6204065044154327</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-47.20882601078518</v>
+        <v>3.854772590932286</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-43.24147979027737</v>
+        <v>2.471312396528598</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-24.75350465873521</v>
+        <v>7.945661246923535</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-12.74896869384457</v>
+        <v>8.414367365366131</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>5.322534850552191</v>
+        <v>19.56066159065118</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-12.83390322782406</v>
+        <v>5.377199886713552</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-934.0295573160637</v>
+        <v>-928.6652121927689</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-333.689094893033</v>
+        <v>-152.3699643186641</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-47.56972431382435</v>
+        <v>-12.63903245727888</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-8.763045749187924</v>
+        <v>7.215981022666401</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-923.6306844112908</v>
+        <v>-923.5928166948798</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-923.0629866964121</v>
+        <v>-570.1616259238705</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-922.1519689206744</v>
+        <v>-921.6999574201294</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-311.1261955771942</v>
+        <v>-115.9323470986329</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-44.04925182779758</v>
+        <v>-9.37547363350731</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>-6.834341195575527</v>
+        <v>8.702582143073357</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-845.4659982130913</v>
+        <v>-826.2703649336958</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-844.2272149363398</v>
+        <v>-216.1862680591399</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-842.5177530294857</v>
+        <v>-820.2742106369104</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-287.0041646337295</v>
+        <v>-83.19729239215228</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-40.98070347237842</v>
+        <v>-6.141894079382885</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>-4.995272132697637</v>
+        <v>10.14190774104345</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-765.0723554421795</v>
+        <v>-710.9791239027383</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-763.0877097309951</v>
+        <v>-202.5521428447223</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-760.6956450508297</v>
+        <v>-699.3448862558031</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-266.4894139484398</v>
+        <v>-54.59424789335949</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-36.81502645362529</v>
+        <v>-3.884548134237619</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>-3.308035887258395</v>
+        <v>11.5209227465002</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-682.0925886444119</v>
+        <v>-568.9127129393908</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-679.2512935940108</v>
+        <v>-130.452598103908</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-676.3108685399156</v>
+        <v>-549.4129253445581</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-233.6500363223743</v>
+        <v>-31.1176902744748</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-32.66401894921176</v>
+        <v>-1.468419218364567</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.781297132976423</v>
+        <v>12.86879338813954</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-596.0499372660001</v>
+        <v>-403.3246763173206</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-592.1831566733209</v>
+        <v>-58.52995572751677</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-588.8376743981812</v>
+        <v>-374.0815050300974</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-201.5624985348436</v>
+        <v>-13.78272334198099</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-28.54953352228252</v>
+        <v>0.7430362345470058</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.3875470893719644</v>
+        <v>14.14733546069441</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-506.2786033315194</v>
+        <v>-213.2752596745975</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-501.1176892908468</v>
+        <v>-33.73406621167165</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-497.5364356590757</v>
+        <v>-182.3036672910413</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-175.0403317325046</v>
+        <v>-3.224007963744099</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-24.50730524207823</v>
+        <v>2.622151362689574</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8978026653967341</v>
+        <v>15.37870706868009</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-411.7870122104327</v>
+        <v>-73.49175902087153</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-404.8778133588673</v>
+        <v>-12.68603662496468</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-401.2882920054091</v>
+        <v>-54.59024585422203</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-135.9840290408934</v>
+        <v>1.542550656977676</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-20.60011870273638</v>
+        <v>4.234065919093578</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2.100493447909598</v>
+        <v>16.53109342003708</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-310.4356252966149</v>
+        <v>-17.60536448780213</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-298.5967677861964</v>
+        <v>-2.654074273349208</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-294.9627741256697</v>
+        <v>-9.433733547403371</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-97.59946827994671</v>
+        <v>4.405772632687067</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-16.95165736233889</v>
+        <v>5.685325346274778</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>3.251751914510518</v>
+        <v>17.65273205069629</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-197.2972369020597</v>
+        <v>-4.912385865204969</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-179.9315040316112</v>
+        <v>1.62708431445526</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-176.1481503381669</v>
+        <v>-0.4678809518418879</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-60.81422620640952</v>
+        <v>6.757414857152057</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-13.86265473844302</v>
+        <v>7.128303021778713</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>4.399057591909244</v>
+        <v>18.69049483936718</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-70.1376459768029</v>
+        <v>-0.2851681292474273</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-46.8539816471942</v>
+        <v>4.022617286667948</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-42.64926894352325</v>
+        <v>2.701776934431142</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-24.58020187804411</v>
+        <v>8.039455276602864</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-12.54122872231026</v>
+        <v>8.527047467364625</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>5.379159972588022</v>
+        <v>19.67484909363637</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-68.12265554169781</v>
+        <v>2.32997095717476</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-45.47151502485322</v>
+        <v>5.730566738364406</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-41.1524494614016</v>
+        <v>4.601014367076361</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-23.8001222990135</v>
+        <v>9.283802074518499</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-11.71280687676255</v>
+        <v>9.916559172312713</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>6.020374903980755</v>
+        <v>20.61050073437366</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-64.78652954831594</v>
+        <v>3.792748024600789</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-43.79855511646348</v>
+        <v>7.009528096321544</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-38.79091796764936</v>
+        <v>5.847940601303552</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-22.84577318221802</v>
+        <v>10.57034875490306</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-10.74889758165968</v>
+        <v>11.23595103575032</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>6.652785784224774</v>
+        <v>21.48800554092421</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-11.07268410440255</v>
+        <v>5.891495987446381</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-926.4614203861045</v>
+        <v>-925.6751528448643</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-1000</v>
+        <v>-931.2622245717387</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-333.1690220552912</v>
+        <v>-151.9897840828812</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-46.78572003272852</v>
+        <v>-12.08686279102609</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>-8.676674454179938</v>
+        <v>7.284519064907143</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-923.4890730698517</v>
+        <v>-923.4534274375471</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-849.2611241739839</v>
+        <v>-565.4772657185168</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-922.0344673548014</v>
+        <v>-921.5868374205575</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-309.6178507986536</v>
+        <v>-115.4620415499908</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-42.91677073150845</v>
+        <v>-8.75550824002012</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-6.741224824583168</v>
+        <v>8.775664601395576</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-845.3085965574178</v>
+        <v>-826.1246003441449</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-774.7001774771564</v>
+        <v>-206.0924700010073</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-842.3888109085979</v>
+        <v>-820.156613372508</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-284.1232867781434</v>
+        <v>-82.59417108370425</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-39.17305872669943</v>
+        <v>-5.43883449436527</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>-4.894483781714533</v>
+        <v>10.21438361710055</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-764.8959877109344</v>
+        <v>-710.8167585420779</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-762.9731974814435</v>
+        <v>-134.5977103964834</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-760.5532743507716</v>
+        <v>-699.2158323928137</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-256.9801734405971</v>
+        <v>-53.78020689587721</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-35.6751824591652</v>
+        <v>-3.239059989294085</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>-3.198459780326417</v>
+        <v>11.60461063557223</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-681.8931046250141</v>
+        <v>-568.7303305512421</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-679.1258373508357</v>
+        <v>-63.56126867261256</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-676.1525606735215</v>
+        <v>-549.2704228169707</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-230.4014064855461</v>
+        <v>-30.10459266179575</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-32.57020489377648</v>
+        <v>-1.056725355509076</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>-1.661576026832374</v>
+        <v>12.94830850533514</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-595.8217898806562</v>
+        <v>-403.1177857750395</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-592.0448922333777</v>
+        <v>-42.10770081701617</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-588.6602104540013</v>
+        <v>-373.9126753547266</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-191.3490491894612</v>
+        <v>-12.65641912814791</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-28.44794871018794</v>
+        <v>0.8352639159112578</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0.2560105737939947</v>
+        <v>14.22966045554949</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-506.0141778227136</v>
+        <v>-213.0170980763593</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-500.9642746791679</v>
+        <v>-22.36881898197801</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-497.3356044513008</v>
+        <v>-182.1134144087966</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-151.9012703058754</v>
+        <v>-2.503487710168337</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-24.39681312931222</v>
+        <v>2.721925982693357</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>1.043237764173761</v>
+        <v>15.4602926372795</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-411.4755129196266</v>
+        <v>-73.1884797230976</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-404.7062586711595</v>
+        <v>-12.5728148957932</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-401.0584577345472</v>
+        <v>-54.3736087470313</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-121.7620650680014</v>
+        <v>2.558966190664777</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-20.47933530042965</v>
+        <v>4.331646406360532</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>2.262464386179279</v>
+        <v>16.61879752948627</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-309.8320432440098</v>
+        <v>-17.24202253242231</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-298.3386554646876</v>
+        <v>-2.477340556546599</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-294.5784035315036</v>
+        <v>-9.183973643505354</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-96.69876608667428</v>
+        <v>4.950360136674655</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-16.81887728864515</v>
+        <v>5.779099918274286</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>3.433655471662056</v>
+        <v>17.73961467091781</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-196.4824313779505</v>
+        <v>-4.465997852744341</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-179.6282892016406</v>
+        <v>1.827017954558317</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-175.6718490874694</v>
+        <v>-0.1755667078264745</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-59.45539353337229</v>
+        <v>6.836167555249334</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-13.71574829950671</v>
+        <v>7.217042896748544</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>4.605357188137425</v>
+        <v>18.78419100516366</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-69.54679730371822</v>
+        <v>-0.0005896760366830289</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-46.5989580481068</v>
+        <v>4.17393360628914</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-42.27089491279882</v>
+        <v>2.897515411276428</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-24.44010134921011</v>
+        <v>8.120637935383462</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-12.37749555727355</v>
+        <v>8.622852086965835</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>5.43016650306348</v>
+        <v>19.77556264569427</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-67.20604107923417</v>
+        <v>2.608740550241884</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-45.02525003196011</v>
+        <v>5.879849145370143</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-40.47364779538226</v>
+        <v>4.803490504904781</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-23.6013093997292</v>
+        <v>9.374813418352002</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-11.60698175863838</v>
+        <v>10.02041933060445</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>6.080709114084784</v>
+        <v>20.71567585740799</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-64.69878655547647</v>
+        <v>4.123214987810885</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-43.73257301104721</v>
+        <v>7.176111647260779</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-38.71447055977742</v>
+        <v>6.07983698941327</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-22.79550766206779</v>
+        <v>10.6687373319174</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-10.69463251578741</v>
+        <v>11.34906382355645</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>6.725684869895531</v>
+        <v>21.60263544328362</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-62.05274929073132</v>
+        <v>5.217738222897784</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-42.38371794941981</v>
+        <v>8.314381292412863</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-37.00647422190202</v>
+        <v>7.154906440699377</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-21.84719342487066</v>
+        <v>11.9137728779941</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-9.643136882579075</v>
+        <v>12.58069997711079</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>7.200008255242994</v>
+        <v>22.43639629544733</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-59.87042131880444</v>
+        <v>6.332266278193002</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-41.17919212564523</v>
+        <v>9.409162172774836</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-35.55579405572909</v>
+        <v>8.168640726302936</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-20.99174545976029</v>
+        <v>13.08131207079015</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-8.729453563822354</v>
+        <v>13.69649292645846</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>7.672615932139351</v>
+        <v>23.20400096113882</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-10.30193806437177</v>
+        <v>6.232020204786184</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-1000</v>
+        <v>-938.2907150489211</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-925.0731991198461</v>
+        <v>-924.6689756570014</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-925.8348926971647</v>
+        <v>-924.8862404820521</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-332.8256114902132</v>
+        <v>-151.7203550195199</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-46.32291655036137</v>
+        <v>-11.72765326216637</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>-8.601361741995163</v>
+        <v>7.646163007538491</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-923.3716625690118</v>
+        <v>-923.3376447353901</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-846.7364005726512</v>
+        <v>-564.273616616638</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-848.4591940872168</v>
+        <v>-823.9694500718444</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-308.9124964216595</v>
+        <v>-115.1439487419246</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-42.32501681439023</v>
+        <v>-8.364186860693772</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>-6.660575083284668</v>
+        <v>9.054357192585138</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-845.1797607693923</v>
+        <v>-826.0041607489678</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-766.4193173300466</v>
+        <v>-204.6145252309834</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-842.2807502479984</v>
+        <v>-705.3215904147924</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-283.1338941023425</v>
+        <v>-82.21067525462114</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-38.37780094748532</v>
+        <v>-5.010280981431626</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>-4.807834958821505</v>
+        <v>10.33916366569245</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-764.7537424566345</v>
+        <v>-710.684381082254</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-684.2728278627974</v>
+        <v>-132.716904445892</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-760.435308726544</v>
+        <v>-570.287449197005</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-255.4372593220412</v>
+        <v>-53.30515879791193</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-34.52162037831667</v>
+        <v>-2.766924383063659</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>-3.105028752004892</v>
+        <v>11.67790307243821</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-681.7349465053943</v>
+        <v>-568.5839006628439</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-604.5709577778798</v>
+        <v>-61.03850810958902</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-676.0230765537145</v>
+        <v>-419.4223850270841</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-224.7748593154444</v>
+        <v>-29.49425562952903</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-30.82854482189348</v>
+        <v>-0.5330170525564553</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>-1.56042853700441</v>
+        <v>13.02099145879075</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-595.644507137864</v>
+        <v>-402.9545443784349</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-591.9299354812657</v>
+        <v>-37.06454846877257</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-588.517200148621</v>
+        <v>-263.4847088077566</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-189.8678179132271</v>
+        <v>-12.06672782330908</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-27.44500074727133</v>
+        <v>1.136096586209443</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.1460215090946476</v>
+        <v>14.30403287002218</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-505.8135693852711</v>
+        <v>-212.8204508021137</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-500.8383007005412</v>
+        <v>-15.88259623243215</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-497.1765328241453</v>
+        <v>-181.9615562156116</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-149.1036865011284</v>
+        <v>-1.961628299093147</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-24.30268046956063</v>
+        <v>2.807786377193132</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>1.16343766736426</v>
+        <v>15.53178167931356</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-411.2459577155482</v>
+        <v>-72.96387850869134</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-404.5673851626761</v>
+        <v>-8.625079844078551</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-400.8800692448837</v>
+        <v>-54.20392853049461</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-110.1649822040864</v>
+        <v>3.110723920330646</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-20.37738659680354</v>
+        <v>4.420793974747291</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>2.394561248740599</v>
+        <v>16.69516961186798</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-309.4483321898906</v>
+        <v>-16.98212923775764</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-298.142039504106</v>
+        <v>-2.334839734656197</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-294.3066244584986</v>
+        <v>-8.992682055089352</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-75.27970177456338</v>
+        <v>5.484662058505119</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-16.70796643507871</v>
+        <v>5.863386502630643</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>3.579753355884731</v>
+        <v>17.81533409035195</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-196.0070749558197</v>
+        <v>-4.160449936297165</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-179.4037270601437</v>
+        <v>1.985481151840125</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-175.3506510037864</v>
+        <v>0.04236131969122131</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-41.43944798358989</v>
+        <v>6.905378301122018</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-13.59447898047753</v>
+        <v>7.294236598980943</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>4.768121669857347</v>
+        <v>18.86529674085506</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-69.16906567104883</v>
+        <v>0.246094225989929</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-46.40430538952847</v>
+        <v>4.310308432000493</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-42.00248169778883</v>
+        <v>3.067873753611813</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-24.32379706430583</v>
+        <v>8.191803626367482</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-12.24414625475877</v>
+        <v>8.708149731405824</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>5.47642609945721</v>
+        <v>19.86272554310287</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-66.37922039127356</v>
+        <v>2.818320524192294</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-44.71976739643678</v>
+        <v>6.002840866430243</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-39.99250170639868</v>
+        <v>4.96367555331549</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-23.44360691225083</v>
+        <v>9.45380399208717</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-11.42015159717919</v>
+        <v>10.10944955844735</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>6.134820294182592</v>
+        <v>20.80671072956198</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-64.62238361234522</v>
+        <v>4.364047801643457</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-43.67377682987969</v>
+        <v>7.311480666599275</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-38.64712217402155</v>
+        <v>6.259574339642731</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-22.67945819018798</v>
+        <v>10.75351764604061</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-10.59814716070615</v>
+        <v>11.44519841774794</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>6.790151768207192</v>
+        <v>21.69992530541357</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-61.95716237823319</v>
+        <v>5.431055183232225</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-42.31292130004174</v>
+        <v>8.464356058194438</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-36.9238338721945</v>
+        <v>7.344459339588113</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-21.79389957532005</v>
+        <v>12.0050870913111</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-9.585422129555923</v>
+        <v>12.68493774336419</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>7.278616413394908</v>
+        <v>22.5419570459414</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-59.74601115276226</v>
+        <v>6.398758850962793</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-41.09167074105601</v>
+        <v>9.576577423721394</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-35.4510442243355</v>
+        <v>8.384408490068468</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-20.91961354558805</v>
+        <v>13.18004561971866</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-8.649884279788536</v>
+        <v>13.8100411793722</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>7.753252124983004</v>
+        <v>23.31907613012729</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-57.60529364796504</v>
+        <v>7.437298594805929</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-39.80721787994791</v>
+        <v>10.60569361583186</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-33.98426957388501</v>
+        <v>9.359782530985122</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-19.93326740700078</v>
+        <v>14.26872827563261</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>-7.667694155401349</v>
+        <v>14.85474705725495</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>8.256478540183334</v>
+        <v>24.05065779065759</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-56.01929099916364</v>
+        <v>8.453712665565298</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-38.78608686600896</v>
+        <v>11.56597407446365</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-32.87300441908179</v>
+        <v>10.29932792848898</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-19.09758924987723</v>
+        <v>15.28146500203012</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>-6.881597517129118</v>
+        <v>15.84859941580503</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>8.847483295695984</v>
+        <v>24.70253457697436</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-9.844617052633584</v>
+        <v>6.478748079258839</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-927.1603956522702</v>
+        <v>-926.9273288974085</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-924.4017936033878</v>
+        <v>-924.1208763963591</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-924.1875983275816</v>
+        <v>-923.5594821192911</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-332.5772024225054</v>
+        <v>-151.516601492405</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-46.00873144489495</v>
+        <v>-11.47012321974484</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-8.075548901763622</v>
+        <v>7.909737016853114</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-851.2170184392648</v>
+        <v>-830.2186955610035</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-845.8065396405607</v>
+        <v>-563.6585948270501</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-845.1219317444043</v>
+        <v>-822.3139259339279</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-308.4829456984704</v>
+        <v>-114.9104491202715</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-41.94685819705524</v>
+        <v>-8.08852928975119</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-6.444099606411742</v>
+        <v>9.336793159963303</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-845.0717792995608</v>
+        <v>-718.0813091161249</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-765.001157689135</v>
+        <v>-203.9175728650487</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-764.2962941504308</v>
+        <v>-701.9556327586358</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-282.5918407174809</v>
+        <v>-81.93938595450112</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-37.9103816494862</v>
+        <v>-4.714255801329818</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>-4.732301462781707</v>
+        <v>10.64283351295626</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-764.635868498181</v>
+        <v>-589.5891580108922</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-681.6623751573858</v>
+        <v>-131.9177623353016</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-682.2683565413737</v>
+        <v>-553.0261859039097</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-253.4296748976654</v>
+        <v>-52.98460837825662</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-33.92287910391742</v>
+        <v>-2.447882076623498</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>-3.024131492181135</v>
+        <v>11.9841001749297</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-681.6055694651957</v>
+        <v>-448.4346074984325</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-595.4251697790476</v>
+        <v>-60.10899672520479</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-675.9146124315836</v>
+        <v>-384.3479386608552</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-220.6402969333882</v>
+        <v>-29.10739546166852</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-30.02175772125042</v>
+        <v>-0.18779667082643</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>-1.473500695640598</v>
+        <v>13.19424947990121</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-595.5016232200503</v>
+        <v>-402.8139157944498</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-506.1042741525145</v>
+        <v>-35.64710746845102</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-588.3987673998558</v>
+        <v>-210.1658739055086</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-189.1699515444329</v>
+        <v>-11.68954238681301</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-26.26967950698831</v>
+        <v>1.547943980641265</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>-0.05227404579410827</v>
+        <v>14.39953913891309</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-505.6546487126034</v>
+        <v>-212.6642210881951</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-418.2203187759131</v>
+        <v>-14.54944262429068</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-497.0465028926642</v>
+        <v>-84.51707626590216</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-148.1275380791528</v>
+        <v>-1.593718912983843</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-22.78097733982332</v>
+        <v>3.204981779026006</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>1.264946435996668</v>
+        <v>15.59509841656993</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-411.0677520059665</v>
+        <v>-72.78892721282442</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-404.4519810216043</v>
+        <v>-6.253122403974932</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-400.7364145235164</v>
+        <v>-25.51535064671342</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-108.6502529966626</v>
+        <v>3.469733197866437</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-19.79412716368784</v>
+        <v>4.581520229249683</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>2.504965874330006</v>
+        <v>16.76245702468754</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-309.1769224093085</v>
+        <v>-16.784384176103</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-297.9858311451758</v>
+        <v>-0.7628726426326169</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-294.1013996483034</v>
+        <v>-7.770069408237383</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-72.35157841607932</v>
+        <v>5.835126078569909</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-16.61351336200245</v>
+        <v>5.992836018259025</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>3.700435259852187</v>
+        <v>17.88209279254417</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-195.6863652004959</v>
+        <v>-3.934477354067635</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-179.2288015433994</v>
+        <v>2.115076344158278</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-175.1153027619802</v>
+        <v>0.2128992564683349</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-27.97526123397816</v>
+        <v>7.068539530054043</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-13.4921642055228</v>
+        <v>7.362188722587719</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>4.900782874582725</v>
+        <v>18.93640067238412</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-68.90101413489137</v>
+        <v>0.4626753300519726</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-46.24943565009045</v>
+        <v>4.433408813904474</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-41.7993653793176</v>
+        <v>3.216366484299126</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-24.22523526650236</v>
+        <v>8.260301771429395</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-12.13281400597118</v>
+        <v>8.786250919827411</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>5.518632137572322</v>
+        <v>19.93866774075583</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-65.89903531126321</v>
+        <v>2.983288750855865</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-44.49383428912434</v>
+        <v>6.106451132944402</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-39.6688056177331</v>
+        <v>5.094500208590006</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-23.31455581283574</v>
+        <v>9.5234004115276</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-11.27064756063274</v>
+        <v>10.18844978825447</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>6.183709556321395</v>
+        <v>20.88806632513333</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-63.9972494457841</v>
+        <v>4.54959416600733</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-43.42600549638852</v>
+        <v>7.424305359581224</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-38.40859263044815</v>
+        <v>6.404167901920773</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-22.50012397891813</v>
+        <v>10.82756267685891</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-10.38221253779955</v>
+        <v>11.52821715271459</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>6.847695997358899</v>
+        <v>21.78553328285948</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-61.87457266053764</v>
+        <v>5.626962786371136</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-42.25017043068306</v>
+        <v>8.587848632599954</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-36.85149939950625</v>
+        <v>7.495836899353952</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-21.74570098689124</v>
+        <v>12.08431674143537</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-9.533501188078722</v>
+        <v>12.7742599121731</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>7.347710605096846</v>
+        <v>22.63230069262708</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-59.6358960480819</v>
+        <v>6.622436735883486</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-41.01544376249021</v>
+        <v>9.712534344191219</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-35.36132645009186</v>
+        <v>8.553510362651036</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-20.85577206213887</v>
+        <v>13.26509497925444</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-8.580015660708803</v>
+        <v>13.90650764837569</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>7.838356080368798</v>
+        <v>23.41670455444404</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-57.46656019019895</v>
+        <v>7.561183807272256</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-39.71188656670134</v>
+        <v>10.74776216676115</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-33.86887992151467</v>
+        <v>9.550367749057269</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-19.8653990626512</v>
+        <v>14.3603470433794</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>-7.593129707773253</v>
+        <v>14.95826403898108</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>8.348348824207495</v>
+        <v>24.15660653326758</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-55.82292525302699</v>
+        <v>8.509238022655246</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-38.65287511869256</v>
+        <v>11.72392127290285</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-32.71682007384993</v>
+        <v>10.47837095942265</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-19.00005705842436</v>
+        <v>15.3805455453535</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>-6.771526001949861</v>
+        <v>15.9571405485288</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>8.88577616398587</v>
+        <v>24.81805790595982</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-54.26303196438381</v>
+        <v>9.499367788031279</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-37.58847046355773</v>
+        <v>12.63968795527892</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-31.61643557964285</v>
+        <v>11.35027586241297</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-18.09748785011852</v>
+        <v>16.35562405830473</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>-5.93192361944706</v>
+        <v>16.88522622115514</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>9.485065442605075</v>
+        <v>25.45217879438454</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-53.20980183482383</v>
+        <v>10.50354233164142</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-36.85784231683935</v>
+        <v>13.49876569556873</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-30.73766228399046</v>
+        <v>12.27955864893231</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-17.43232637677953</v>
+        <v>17.25495022957402</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>-5.354149265365875</v>
+        <v>17.72940593525982</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>10.07904438066841</v>
+        <v>26.07334090614503</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-847.9065786732302</v>
+        <v>-828.2896786352978</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-845.2864251771348</v>
+        <v>-563.2695600425839</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-844.0663509186752</v>
+        <v>-821.5695782530375</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-308.1863842528908</v>
+        <v>-114.7296652853748</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>-41.67856623884335</v>
+        <v>-7.880884140030512</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-5.982254490316535</v>
+        <v>9.548644503551197</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-768.4847599300883</v>
+        <v>-713.6328462224518</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-764.3211007559671</v>
+        <v>-203.491681510732</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-762.6087011253258</v>
+        <v>-700.8962171172707</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-282.2375677389947</v>
+        <v>-81.73446743701777</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>-37.5937893908598</v>
+        <v>-4.494060957951903</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>-4.44760052656147</v>
+        <v>10.86767103714992</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-687.8154674909688</v>
+        <v>-572.75340889427</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-680.7174682440709</v>
+        <v>-131.4487575494225</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-678.7886449425881</v>
+        <v>-551.3300111846352</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-251.6639230193304</v>
+        <v>-52.74964518325611</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-33.54143447742998</v>
+        <v>-2.213816580102457</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>-2.953194989822379</v>
+        <v>12.2233111875771</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-681.4971850276175</v>
+        <v>-410.5010135328968</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-593.9759455925755</v>
+        <v>-59.5890131942892</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-592.3224205966466</v>
+        <v>-377.0520250060798</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-216.8698257582358</v>
+        <v>-28.83422434380309</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>-29.54964480507076</v>
+        <v>0.06166427949737541</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>-1.397745334207253</v>
+        <v>13.44943872730676</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-595.3832827433693</v>
+        <v>-245.2769990939966</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-503.40278604812</v>
+        <v>-34.96725631068039</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-503.4789200484138</v>
+        <v>-186.8515472749575</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-182.0867410733576</v>
+        <v>-11.42179845933334</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>-25.66381087329206</v>
+        <v>1.839869332797761</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>0.02887200211884838</v>
+        <v>14.67257483508428</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-505.5247266148489</v>
+        <v>-108.7941907151167</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-407.9978281288723</v>
+        <v>-13.89429654086811</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-496.9376327894849</v>
+        <v>-65.53712340889999</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>-147.5902978532615</v>
+        <v>-1.331224232466494</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>-21.96237539742106</v>
+        <v>3.49084701820862</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>1.352154797657964</v>
+        <v>15.77623860269474</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-410.9242246239181</v>
+        <v>-38.12716267251688</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-304.1043576807017</v>
+        <v>-5.351310385773749</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-400.6175115555596</v>
+        <v>-19.4686335202129</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-107.9431497241276</v>
+        <v>3.727148486824014</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>-18.59633692524934</v>
+        <v>4.889063506334793</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>2.599031564363148</v>
+        <v>16.87540377191348</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-308.971928567746</v>
+        <v>-14.12331885850601</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-195.2492270374811</v>
+        <v>0.09938087233057691</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-293.9393590690165</v>
+        <v>-4.063995851164353</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-69.12064971180864</v>
+        <v>6.087624211382223</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>-15.91919344888627</v>
+        <v>6.324956221308396</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>3.802307465159775</v>
+        <v>17.94152927057973</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-195.4513073008052</v>
+        <v>-3.758623304695035</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-179.0875644446733</v>
+        <v>2.32322859157886</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-174.9333146683776</v>
+        <v>0.3510578416836838</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-26.42570818768391</v>
+        <v>7.338563291063632</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>-13.40433058767562</v>
+        <v>7.673253140786087</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>5.011605687239985</v>
+        <v>18.99940276429831</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-68.69812483578744</v>
+        <v>0.6359185121577438</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-46.1224154398269</v>
+        <v>4.540784619617531</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-41.63874764517492</v>
+        <v>3.346776196576777</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>-24.14031984898801</v>
+        <v>8.482850525916193</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>-12.03803869613683</v>
+        <v>8.920921516217678</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>5.56105177152301</v>
+        <v>20.0056069805004</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-65.57583392166552</v>
+        <v>3.117514127264922</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-44.31800624303687</v>
+        <v>6.195288065940076</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-39.43197434512719</v>
+        <v>5.203960883231968</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-23.20641400375022</v>
+        <v>9.64700328815707</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>-11.14749548163314</v>
+        <v>10.26169602738461</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>6.228166140649363</v>
+        <v>20.95937083233365</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-63.35751401604844</v>
+        <v>4.698212658979972</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-43.15938071962874</v>
+        <v>7.520220271267216</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-38.00750146279558</v>
+        <v>6.523755195547396</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-22.35581086251139</v>
+        <v>10.89296217185643</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>-10.21299964900683</v>
+        <v>11.600854547193</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>6.899473966286755</v>
+        <v>21.8616993539955</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-61.80227873584639</v>
+        <v>5.782688572911317</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-42.19404842341647</v>
+        <v>8.691834990754662</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-36.78749270163981</v>
+        <v>7.620342813094486</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-21.66890446837986</v>
+        <v>12.1539118570325</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>-9.486465342756961</v>
+        <v>12.85191489307497</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>7.409067083912699</v>
+        <v>22.71076378140017</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-59.53013951475137</v>
+        <v>6.796779412113669</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-40.94159460165658</v>
+        <v>9.825792650944324</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-35.27591943880153</v>
+        <v>8.692096130584261</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-20.79874563173839</v>
+        <v>13.33935462560789</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>-8.518024350949506</v>
+        <v>13.98978616008802</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>7.912659256597515</v>
+        <v>23.50089149434775</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-57.35125888897884</v>
+        <v>7.758182295993834</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-39.62949719413628</v>
+        <v>10.86550699643617</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>-33.77101252845008</v>
+        <v>9.702453990414842</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>-19.80504931696675</v>
+        <v>14.43981697915255</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>-7.527308141324645</v>
+        <v>15.04787974904585</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>8.440896048115013</v>
+        <v>24.24724934814903</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-55.62852250612999</v>
+        <v>8.681363689908785</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-38.52742445777555</v>
+        <v>11.85314747552285</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>-32.57182472061902</v>
+        <v>10.64832566802322</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-18.91594530047513</v>
+        <v>15.46586537738602</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>-6.677715383841562</v>
+        <v>16.05191489347374</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>8.949417634995603</v>
+        <v>24.91602686242315</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-54.0348997321</v>
+        <v>9.607322500866056</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-37.4502125890929</v>
+        <v>12.7823938452068</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>-31.43898159488152</v>
+        <v>11.54190282463174</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-18.00693006864688</v>
+        <v>16.44754907859108</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>-5.830342732654984</v>
+        <v>16.98617254660627</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>9.525266561349721</v>
+        <v>25.56377726333448</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-53.01242583219679</v>
+        <v>10.55971140092651</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-36.67900950908279</v>
+        <v>13.65747374867433</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>-30.64162047037076</v>
+        <v>12.39640078012885</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-17.29832351334562</v>
+        <v>17.35437980642742</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>-5.203700308520414</v>
+        <v>17.8416365154698</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>10.12538241086825</v>
+        <v>26.11218658115434</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-51.65155812867963</v>
+        <v>11.61644970047894</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-35.75990607609184</v>
+        <v>14.46915783484492</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>-29.60163308763762</v>
+        <v>13.29383608531284</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>-16.57380337110195</v>
+        <v>18.04251505184615</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>-4.484268107671057</v>
+        <v>18.57859579710259</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>10.72575564828907</v>
+        <v>26.58058179037185</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-50.44698499985015</v>
+        <v>12.6692378866941</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-34.91042302595895</v>
+        <v>15.21981400892596</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>-28.65446693905649</v>
+        <v>14.22680826112234</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>-15.87831189101558</v>
+        <v>18.5609436951427</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>-3.817918780040098</v>
+        <v>19.15203720712338</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>11.28851511171345</v>
+        <v>26.83160964676404</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-684.3646845320872</v>
+        <v>-570.7712525681502</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-680.1917342257969</v>
+        <v>-131.1313405076947</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-677.7143770871869</v>
+        <v>-550.5753592845957</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>-250.8920729386986</v>
+        <v>-52.56790768420083</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>-33.27129542768515</v>
+        <v>-2.002462492709803</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>-2.654462098017794</v>
+        <v>12.40780765720197</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-599.2944174184606</v>
+        <v>-405.8079804668399</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-593.2870475925262</v>
+        <v>-59.24564703598038</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-590.5927926518324</v>
+        <v>-375.6688916237645</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-215.7599394685524</v>
+        <v>-28.62812966481395</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>-29.23061436412234</v>
+        <v>0.2527643879749006</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>-1.330957507490472</v>
+        <v>13.64419689012082</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-511.9192408551017</v>
+        <v>-218.3245866464411</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-502.4424153801666</v>
+        <v>-34.5488804216599</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-499.8452995451673</v>
+        <v>-184.3412038287416</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-178.6024384632859</v>
+        <v>-11.21910226238583</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>-25.27903210514317</v>
+        <v>2.057559305172021</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>0.1000082920383085</v>
+        <v>14.8785849521651</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-505.4159366943331</v>
+        <v>-90.40794085141503</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-406.5163511944572</v>
+        <v>-13.48694004227502</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-404.606061465316</v>
+        <v>-57.38968265467537</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>-145.1549213543884</v>
+        <v>-1.131833919996354</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>-21.48548919867689</v>
+        <v>3.704814972069864</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>1.428133113459982</v>
+        <v>15.9946304511338</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-410.8054145399913</v>
+        <v>-29.62058789435008</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-301.3060270852932</v>
+        <v>-4.394374498771786</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-301.5040820051429</v>
+        <v>-13.84169433595893</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-107.5128399527524</v>
+        <v>3.923322010482165</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>-17.98319693158948</v>
+        <v>5.116241952960061</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>2.680427679070932</v>
+        <v>17.10747305007471</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-308.8100436746357</v>
+        <v>-9.090559646726069</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-183.6402715387321</v>
+        <v>0.593590390148752</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-293.8072126564185</v>
+        <v>-2.961721460470496</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-68.07959471032284</v>
+        <v>6.280666708815421</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>-15.08848099838057</v>
+        <v>6.566762047430489</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>3.889797860295526</v>
+        <v>18.11449856924438</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-195.2695081861075</v>
+        <v>-3.616736892303218</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-51.64621224996569</v>
+        <v>2.962953627933907</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-174.7871581599524</v>
+        <v>0.9191215236964099</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>-25.7091598409505</v>
+        <v>7.542689504275819</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>-13.32785570405413</v>
+        <v>7.931334585228106</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>5.105991410007387</v>
+        <v>19.05573327724487</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-68.53766051287256</v>
+        <v>0.7871623025053432</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-46.01578799401651</v>
+        <v>4.638882475155533</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-41.50761450077804</v>
+        <v>3.460368465335658</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-24.06616704372281</v>
+        <v>8.716818205512064</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>-11.95608542106712</v>
+        <v>9.224095879052552</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>5.683601163759133</v>
+        <v>20.06519217568717</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-65.33929605446981</v>
+        <v>3.229494275927893</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-44.17613802936683</v>
+        <v>6.276015785318717</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-39.24902193709951</v>
+        <v>5.297303436795558</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-23.1140835949621</v>
+        <v>9.92018765451404</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>-11.04376478734125</v>
+        <v>10.45530236709502</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>6.268821786694705</v>
+        <v>21.02253682732371</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-62.9571311520441</v>
+        <v>4.820723659649045</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-42.9573878295045</v>
+        <v>7.603066971679358</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-37.72643378284338</v>
+        <v>6.624801685203461</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>-22.23642790798885</v>
+        <v>11.07564847812711</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>-10.07577423203565</v>
+        <v>11.66510821355303</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>6.946388537577858</v>
+        <v>21.92881994692707</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-61.31270184426388</v>
+        <v>5.910323345030651</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-41.96539859352283</v>
+        <v>8.780962807097239</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-36.60941386260149</v>
+        <v>7.729245401708967</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-21.50605862000431</v>
+        <v>12.21567907404877</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>-9.299183806385944</v>
+        <v>12.92023977992802</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>7.464030003598933</v>
+        <v>22.77974097799982</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-59.43964489585846</v>
+        <v>6.937608584759584</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-40.87390961091312</v>
+        <v>9.922038171870113</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-35.19729043896036</v>
+        <v>8.812161328306587</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>-20.65934870606603</v>
+        <v>13.40492856503805</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>-8.462533343406216</v>
+        <v>14.06263140288627</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>7.978268562742853</v>
+        <v>23.57446284706145</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-57.25345862438932</v>
+        <v>7.914651128393388</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-39.55736374791677</v>
+        <v>10.96935801735418</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>-33.68663898250442</v>
+        <v>9.827471103664355</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-19.75092518024063</v>
+        <v>14.50960561658961</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>-7.468644437919639</v>
+        <v>15.12576709605215</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>8.521097756761336</v>
+        <v>24.32594885394922</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-55.4703726035978</v>
+        <v>8.85660387239975</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-38.42197043544382</v>
+        <v>11.96141966123367</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-32.44234648535137</v>
+        <v>10.78607372122578</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>-18.84243400684828</v>
+        <v>15.540340678683</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>-6.59651969767936</v>
+        <v>16.13545454054549</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>9.050561227670652</v>
+        <v>25.00047971107471</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-53.85762693175023</v>
+        <v>9.805422060328754</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-37.33526066171318</v>
+        <v>12.90060434039825</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>-31.29597823541775</v>
+        <v>11.69470330346142</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-17.92829775809028</v>
+        <v>16.5272605178592</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>-5.743078393050723</v>
+        <v>17.07608341053454</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>9.562238636649257</v>
+        <v>25.658756055233</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-52.74289768869881</v>
+        <v>10.77338093064477</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-36.51491884051788</v>
+        <v>13.78724394827369</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>-30.4375761288255</v>
+        <v>12.56721553105134</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>-17.18035641344012</v>
+        <v>17.43997154866878</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>-5.068259519014005</v>
+        <v>17.9387724963982</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>10.16765575709738</v>
+        <v>26.14797799880898</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-51.5880863340694</v>
+        <v>11.76929996368109</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-35.70966198228</v>
+        <v>14.61250585052293</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>-29.54488596751554</v>
+        <v>13.4865143378178</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>-16.44431752740485</v>
+        <v>18.13090292670116</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>-4.441654293856636</v>
+        <v>18.67919321020086</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>10.77473092252058</v>
+        <v>26.61701887911408</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-50.3697594886741</v>
+        <v>12.7250292707483</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-34.8510961535841</v>
+        <v>15.26354780201523</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>-28.59442412092502</v>
+        <v>14.27644527032907</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-15.83658113034265</v>
+        <v>18.59540319765396</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>-3.770184127337157</v>
+        <v>19.18890702270747</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>11.34617223208654</v>
+        <v>26.85176829426374</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-49.18440812877939</v>
+        <v>13.05411012799213</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-33.97210424914971</v>
+        <v>15.53541681851112</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>-27.64407647636473</v>
+        <v>14.57691259311633</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-15.13071461876022</v>
+        <v>18.81971673895797</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>-3.073178235198692</v>
+        <v>19.42591749460038</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>11.68370398513265</v>
+        <v>26.99479168029412</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-48.74150347055271</v>
+        <v>13.2345349846218</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-33.61141877319027</v>
+        <v>15.69397671927135</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>-27.24256953522197</v>
+        <v>14.74669340457272</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>-14.83670510330412</v>
+        <v>18.95815437121654</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>-2.761512735571092</v>
+        <v>19.56992125401958</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>11.86716896695252</v>
+        <v>27.09355935498669</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-508.3169138047691</v>
+        <v>-215.2140143420615</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-501.9109590121996</v>
+        <v>-34.25835619338194</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-498.7517744940056</v>
+        <v>-183.4139136656989</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>-176.6516503879918</v>
+        <v>-11.04332265520397</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>-25.00702459732933</v>
+        <v>2.227939169315924</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>0.1645856095468976</v>
+        <v>15.04115458474764</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-414.7809967549448</v>
+        <v>-76.28619391029983</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-405.8184165359861</v>
+        <v>-13.20242768406867</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-402.8325517906538</v>
+        <v>-55.97680038029245</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-140.6078135368707</v>
+        <v>-0.9737393657153284</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>-21.16398898093648</v>
+        <v>3.872717618416358</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>1.495101608876984</v>
+        <v>16.1654762467477</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-316.3870091279366</v>
+        <v>-22.44353960714957</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-300.3297581693066</v>
+        <v>-3.639750459246845</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-297.7036460475347</v>
+        <v>-11.24649635965085</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-107.2158705610795</v>
+        <v>4.079229017187807</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>-17.59503489090826</v>
+        <v>5.305363552242287</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>2.75176469668137</v>
+        <v>17.28732334317163</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-308.6780080400485</v>
+        <v>-7.662123881850073</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-182.1252870341144</v>
+        <v>0.9239724717218019</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-180.1128208639398</v>
+        <v>-2.134295983832274</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>-67.5191221547384</v>
+        <v>6.434436236486093</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>-14.60673993276123</v>
+        <v>6.752937390012709</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>3.966000226943858</v>
+        <v>18.3041749019961</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-195.1234827390767</v>
+        <v>-1.959518082842067</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-48.74466551373799</v>
+        <v>3.363331912530717</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-48.3571971575496</v>
+        <v>1.697715161158793</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>-25.27476664749959</v>
+        <v>7.703989213323524</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>-13.26048507708385</v>
+        <v>8.127930996971504</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>5.187638879442168</v>
+        <v>19.2542353764145</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-68.40663673293261</v>
+        <v>0.9162329957679639</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-45.92462230096496</v>
+        <v>4.968727813238466</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-41.39792478828024</v>
+        <v>3.557671251326635</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-24.00067994595282</v>
+        <v>8.897907198825189</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>-11.88430148486083</v>
+        <v>9.45631098934626</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>5.786879038767103</v>
+        <v>20.14253757179187</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-65.15653430008625</v>
+        <v>3.324921581296537</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-44.05853967841016</v>
+        <v>6.349122399029274</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-39.10219713789378</v>
+        <v>5.378131122916053</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-23.03405267359103</v>
+        <v>10.14161989649006</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>-10.95483470418764</v>
+        <v>10.72022988116269</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>6.359226196138586</v>
+        <v>21.07900331647195</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-62.67645410668003</v>
+        <v>4.923972691446134</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-42.79752967577411</v>
+        <v>7.675566669665073</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-37.51542914170371</v>
+        <v>6.711651086137061</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-22.13553572735856</v>
+        <v>11.32925908246786</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>-9.961581575028319</v>
+        <v>11.87902490603477</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>6.989156297635375</v>
+        <v>21.98855448077042</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-60.79833448334391</v>
+        <v>6.017790201040095</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-41.73001868300321</v>
+        <v>8.858463876711893</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-36.26831406275341</v>
+        <v>7.822903890587709</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-21.37333958329456</v>
+        <v>12.42785202892187</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>-9.144979461947623</v>
+        <v>12.98096473627059</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>7.513637804666252</v>
+        <v>22.84100147873136</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-59.36106249665027</v>
+        <v>7.054446692052335</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-40.70767588253726</v>
+        <v>10.00514375086846</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-35.12817944024057</v>
+        <v>8.913568495093378</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-20.47362414800373</v>
+        <v>13.46338785274941</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>-8.285826934600175</v>
+        <v>14.12705444256846</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>8.036757046358183</v>
+        <v>23.63947708777927</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-57.16913749356461</v>
+        <v>8.04281874811773</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-39.49352101464419</v>
+        <v>11.05877830920776</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>-33.61291862318217</v>
+        <v>9.933147113476423</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>-19.7020249784767</v>
+        <v>14.57153141033081</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>-7.415928742415351</v>
+        <v>15.19427964523077</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>8.591475243720573</v>
+        <v>24.39511671291383</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-55.34100143981973</v>
+        <v>8.99806111709278</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-38.33170912746458</v>
+        <v>12.0538502291475</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>-32.33388674195004</v>
+        <v>10.90065088161898</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>-18.7774686441831</v>
+        <v>15.60608983985025</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>-6.525343556408743</v>
+        <v>16.20850862540868</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>9.137486042153871</v>
+        <v>25.07426339239254</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-53.71474994961019</v>
+        <v>9.962639876532801</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-37.2377259362865</v>
+        <v>13.00061031461984</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>-31.17755055725532</v>
+        <v>11.82023512837223</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>-17.85918408962169</v>
+        <v>16.59724357618921</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>-5.667055599222594</v>
+        <v>17.15420428557832</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>9.659526218497533</v>
+        <v>25.74086898636057</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-52.51427640952928</v>
+        <v>10.94952636162024</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-36.35736059930219</v>
+        <v>13.8959209163926</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>-30.27633170607967</v>
+        <v>12.70556885647135</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>-17.08053462239726</v>
+        <v>17.51466355138336</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>-4.955381889488448</v>
+        <v>18.02257464741887</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>10.20642590380592</v>
+        <v>26.20030002317039</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-51.48156799124226</v>
+        <v>11.96851091298266</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-35.58495285608382</v>
+        <v>14.7311850923311</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>-29.44188052195211</v>
+        <v>13.64003467127084</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>-16.33585212252142</v>
+        <v>18.20781756526198</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>-4.320982109809924</v>
+        <v>18.76569363801802</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>10.81926090780154</v>
+        <v>26.65070323070131</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-50.30178165787102</v>
+        <v>12.775334802385</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-34.79782592528669</v>
+        <v>15.30358022840622</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>-28.54055603321828</v>
+        <v>14.32153952891847</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>-15.74234275553963</v>
+        <v>18.62734865212755</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>-3.72528274937796</v>
+        <v>19.22297079626976</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>11.39804485792489</v>
+        <v>26.87087907838671</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-49.11194899676978</v>
+        <v>13.07896726292596</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-33.91587396737633</v>
+        <v>15.5568810262192</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>-27.57993494787407</v>
+        <v>14.60010632573676</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>-15.08677613860563</v>
+        <v>18.83814216879731</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>-3.026061748234106</v>
+        <v>19.4451753507422</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>11.70904032743264</v>
+        <v>27.00747017234444</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-48.71061021644398</v>
+        <v>13.24995312469691</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-33.58479673425554</v>
+        <v>15.70781461859031</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>-27.21377208957654</v>
+        <v>14.76134952778328</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>-14.81389582070046</v>
+        <v>18.97048452310194</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>-2.737660226061709</v>
+        <v>19.58267384684142</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>11.88280234449846</v>
+        <v>27.10274878526873</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-48.50556381332358</v>
+        <v>13.36323758073282</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-33.40364957823284</v>
+        <v>15.81079340591732</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>-27.02033461892792</v>
+        <v>14.86969087806795</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>-14.65492852107779</v>
+        <v>19.06342549102902</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>-2.572539196361586</v>
+        <v>19.6784482703121</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>11.99747403640847</v>
+        <v>27.17406538016029</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-48.37586746348083</v>
+        <v>13.44534970519068</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-33.28533203310246</v>
+        <v>15.88679839609546</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>-26.89608784679479</v>
+        <v>14.94889693620344</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>-14.54775907939334</v>
+        <v>19.13329649448482</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>-2.462216219103372</v>
+        <v>19.75007011506547</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>12.08039423506439</v>
+        <v>27.23002887704561</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-312.6205353755649</v>
+        <v>-19.20780653272298</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-299.5112577911462</v>
+        <v>-3.189161736998291</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-296.5902684526097</v>
+        <v>-10.30423107694664</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>-102.1158605628033</v>
+        <v>4.206993793455223</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>-17.32113720963685</v>
+        <v>5.456444759252742</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>2.814957245603858</v>
+        <v>17.43199544164998</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-201.2436465856609</v>
+        <v>-6.51226014257479</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-181.1077903237675</v>
+        <v>1.164755286136785</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-178.293462573003</v>
+        <v>-1.443642886204794</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>-67.15589017483005</v>
+        <v>6.560665608808485</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>-14.28273776508253</v>
+        <v>6.901989933409624</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>4.033150207525643</v>
+        <v>18.45563724602647</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-75.2122884875325</v>
+        <v>-1.109729013725735</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-47.7520462509096</v>
+        <v>3.64400651362073</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-44.37533193649459</v>
+        <v>2.158287294871871</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>-24.9756072605411</v>
+        <v>7.835608281481889</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>-13.02477862019764</v>
+        <v>8.284126073532196</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>5.259177571082699</v>
+        <v>19.42343925231777</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-68.29702821249317</v>
+        <v>1.300849391588258</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-45.84550988326904</v>
+        <v>5.301728953569382</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-41.30440668795008</v>
+        <v>3.957045010523468</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>-23.94229237640549</v>
+        <v>9.05061959440712</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>-11.82074396706445</v>
+        <v>9.643488057251028</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>5.875458732380881</v>
+        <v>20.33324734883907</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-65.00984156381752</v>
+        <v>3.41432711665477</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-43.95899703461941</v>
+        <v>6.516301536142306</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-38.98098710054911</v>
+        <v>5.449011747346298</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>-22.96381255196871</v>
+        <v>10.31447962763193</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>-10.87749028385504</v>
+        <v>10.93305063116143</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>6.472887426637696</v>
+        <v>21.18012422450384</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-62.46569140020449</v>
+        <v>5.012530069691127</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-42.66693824168848</v>
+        <v>7.739708093631917</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-37.34950654792311</v>
+        <v>6.787344094252655</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>-22.04880622181155</v>
+        <v>11.52444005438825</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>-9.864624412011828</v>
+        <v>12.11824196428629</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>7.028354224620527</v>
+        <v>22.04216523908582</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-60.45777469173977</v>
+        <v>6.113387468774071</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-41.54800998050673</v>
+        <v>8.926664420233299</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-36.02125061174422</v>
+        <v>7.903980008134097</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>-21.262473935215</v>
+        <v>12.65062339185802</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>-9.018437414200603</v>
+        <v>13.19864883898629</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>7.55870716972702</v>
+        <v>22.89588450767065</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-58.71554637204941</v>
+        <v>7.15341334943203</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-40.42853954958385</v>
+        <v>10.07785063988147</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-34.80882121895631</v>
+        <v>9.000697994302273</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>-20.32488267934287</v>
+        <v>13.68146512347846</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>-8.110821084954305</v>
+        <v>14.19018158536352</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>8.089326105251615</v>
+        <v>23.69896898505862</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-57.09545898583941</v>
+        <v>8.150302341145977</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-39.43649354886727</v>
+        <v>11.13651097658544</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>-33.54778316341271</v>
+        <v>10.02712332545832</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>-19.64891852424198</v>
+        <v>14.64748342160631</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>-7.368219407236916</v>
+        <v>15.25515873789012</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>8.653883203276161</v>
+        <v>24.45653362525074</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-55.23262137560562</v>
+        <v>9.115358914041543</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-38.25331113696831</v>
+        <v>12.13502949083235</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>-32.24131215325283</v>
+        <v>10.99790062584216</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>-18.71951216052041</v>
+        <v>15.66469378685995</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>-6.462282457172211</v>
+        <v>16.27310178422432</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>9.213238997281625</v>
+        <v>25.13945036581528</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-53.59641453694179</v>
+        <v>10.09134406656067</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-37.15361219880672</v>
+        <v>13.08665075963782</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>-31.07738031943877</v>
+        <v>11.92574991213977</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>-17.79781163379021</v>
+        <v>16.65932862668253</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>-5.600051070071681</v>
+        <v>17.22290535820198</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>9.75416977355494</v>
+        <v>25.81278091765287</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-52.30715419308735</v>
+        <v>11.09171031684273</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-36.22841272906909</v>
+        <v>13.98866228174936</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>-30.14475203558444</v>
+        <v>12.82059094127352</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>-16.99463752308185</v>
+        <v>17.58058871645239</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>-4.859426618139626</v>
+        <v>18.0958385747606</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>10.27344848813134</v>
+        <v>26.27429705700326</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-51.24383259058595</v>
+        <v>12.12648371769536</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-35.44257537292111</v>
+        <v>14.83154556192305</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>-29.25814900027484</v>
+        <v>13.76608475391279</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>-16.24327318678169</v>
+        <v>18.27554402776024</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>-4.216949560017745</v>
+        <v>18.84110910214519</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>10.85997978861214</v>
+        <v>26.6819648617612</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-50.2413419030498</v>
+        <v>12.82099832824159</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-34.6814572490342</v>
+        <v>15.34040556422337</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>-28.49187207352853</v>
+        <v>14.36274419745095</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>-15.62257808823103</v>
+        <v>18.65707159999566</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>-3.616800376573135</v>
+        <v>19.25456730478242</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>11.44503972430758</v>
+        <v>26.88902974403067</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-49.04784065213133</v>
+        <v>13.10234820615849</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-33.86519927195384</v>
+        <v>15.57718398854717</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>-27.52266002510671</v>
+        <v>14.62198186272329</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>-15.0465671253987</v>
+        <v>18.85566326713533</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>-2.983120978626751</v>
+        <v>19.46346095070496</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>11.73285370717097</v>
+        <v>27.0196592454285</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-48.68182150413028</v>
+        <v>13.26469619917644</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-33.55982585398546</v>
+        <v>15.721087346866</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>-27.18685152989316</v>
+        <v>14.77538451782485</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>-14.79236919325146</v>
+        <v>18.98234718460559</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>-2.715187672013371</v>
+        <v>19.59493230586202</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>11.89774511031496</v>
+        <v>27.11165019581107</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-48.48843287458573</v>
+        <v>13.37360404696027</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-33.38818016933995</v>
+        <v>15.82032776840755</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>-27.00400278405248</v>
+        <v>14.87966032344946</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>-14.64106059994781</v>
+        <v>19.07213277857593</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>-2.558220928391993</v>
+        <v>19.68739073453842</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>12.00795127154704</v>
+        <v>27.18093066402204</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-48.36420933379223</v>
+        <v>13.45314529229304</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-33.27456515968306</v>
+        <v>15.89407042282506</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>-26.88485419381049</v>
+        <v>14.95644425708122</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>-14.53788429411604</v>
+        <v>19.1400354995866</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>-2.452087125743654</v>
+        <v>19.7569620111112</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>12.08825860254874</v>
+        <v>27.23553110285254</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-48.27581113456011</v>
+        <v>13.51451721707462</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-33.1922601903306</v>
+        <v>15.95164529043556</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>-26.79934802409038</v>
+        <v>15.01602002361819</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>-14.46176048360064</v>
+        <v>19.19370799364982</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>-2.37419261342616</v>
+        <v>19.81175773208015</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>12.15012660237301</v>
+        <v>27.2799969959133</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-48.2087801493824</v>
+        <v>13.5637272039384</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-33.12910460337081</v>
+        <v>15.99821028983328</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>-26.73414679014376</v>
+        <v>15.06398358500502</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>-14.40261724124569</v>
+        <v>19.23751399798397</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>-2.313891372843746</v>
+        <v>19.85636218861542</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>12.19967935312168</v>
+        <v>27.31711967754005</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-71.26741391251463</v>
+        <v>-0.6204167049809378</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-47.20882601078518</v>
+        <v>3.854767756618201</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-43.24147979027737</v>
+        <v>2.471305487518391</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>-24.75350465873521</v>
+        <v>7.945658606291552</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>-12.74896869384457</v>
+        <v>8.414364161361446</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>5.322534850552191</v>
+        <v>19.56065834128942</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-68.20357233956368</v>
+        <v>1.93302773625712</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-45.77600922201498</v>
+        <v>5.544052613437134</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-41.2234409573427</v>
+        <v>4.333612647031967</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>-23.88980779257866</v>
+        <v>9.177372045815574</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>-11.76395284268032</v>
+        <v>9.793231177970748</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>5.952525454748745</v>
+        <v>20.48541903822505</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-64.88872743640589</v>
+        <v>3.492048101757444</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-43.87331725279622</v>
+        <v>6.797529155861841</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-38.87871697206575</v>
+        <v>5.532523278656845</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>-22.90151702587584</v>
+        <v>10.45426945752193</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>-10.80941633794458</v>
+        <v>11.10018756237359</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>6.569439948052638</v>
+        <v>21.350181797043</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-62.29993076773161</v>
+        <v>5.08957911009925</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-42.5576508192585</v>
+        <v>7.906087459379114</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-37.21460521589901</v>
+        <v>6.854081388198233</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>-21.97320855910627</v>
+        <v>11.67967035456961</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>-9.780962073515818</v>
+        <v>12.30642979225075</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>7.064452818521991</v>
+        <v>22.1579128542826</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-60.21102613330249</v>
+        <v>6.195985311960396</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-41.40183918120362</v>
+        <v>8.987287217804726</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-35.83168843311783</v>
+        <v>7.975060157866417</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>-21.16805544269339</v>
+        <v>12.82436789582468</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>-8.912167167184938</v>
+        <v>13.39745014484182</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>7.599890416553971</v>
+        <v>22.94606666016402</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-58.29013910357757</v>
+        <v>7.238644427129175</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-40.21873203178261</v>
+        <v>10.14216094365233</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-34.5140684626662</v>
+        <v>9.076613650931549</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>-20.20228262320198</v>
+        <v>13.87773021800684</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>-7.969527782060446</v>
+        <v>14.41747476967261</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>8.136911260015403</v>
+        <v>23.7527049421251</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-57.03035757166369</v>
+        <v>8.242126856902066</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-39.37084950555536</v>
+        <v>11.20489861273514</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>-33.48968608976413</v>
+        <v>10.10844915056752</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>-19.48064299454467</v>
+        <v>14.85514912253932</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>-7.290651705581259</v>
+        <v>15.36063534181612</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>8.709720453805659</v>
+        <v>24.51154685004424</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-55.14010797083169</v>
+        <v>9.214673935163027</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-38.1843864616164</v>
+        <v>12.20794456021408</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>-32.16108889344152</v>
+        <v>11.08179169719757</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>-18.66738862681929</v>
+        <v>15.78030315440905</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>-6.405902991638167</v>
+        <v>16.33075047950068</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>9.280024873683727</v>
+        <v>25.1975900139154</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-53.49631408261856</v>
+        <v>10.19922752919663</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-37.0800993239625</v>
+        <v>13.16170014180968</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>-30.99121208863046</v>
+        <v>12.01605810334321</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>-17.74283541561753</v>
+        <v>16.71489756390354</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>-5.540412111421233</v>
+        <v>17.28393924066208</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>9.8360196497209</v>
+        <v>25.8764429128539</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-52.14383627791872</v>
+        <v>11.21572425416781</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-36.12034778702574</v>
+        <v>14.06901687576786</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>-30.02459762655241</v>
+        <v>12.91817901455807</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>-16.91970229125879</v>
+        <v>17.63933792062469</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>-4.776548317869864</v>
+        <v>18.16060260312921</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>10.3770260214291</v>
+        <v>26.33965752976321</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-51.06029307999178</v>
+        <v>12.25572823728639</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-35.32460479259588</v>
+        <v>14.91786176255421</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>-29.11078484868192</v>
+        <v>13.87198724762416</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>-16.16304650354245</v>
+        <v>18.33577711099811</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>-4.127786041193724</v>
+        <v>18.9076213661594</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>10.89740190722439</v>
+        <v>26.71108092854781</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-49.98921968064327</v>
+        <v>12.8626924808001</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-34.52097735332102</v>
+        <v>15.37443035483841</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>-28.31011715353537</v>
+        <v>14.40058809475057</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>-15.52139771845929</v>
+        <v>18.6848183451904</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>-3.502253320464915</v>
+        <v>19.2839806969464</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>11.48787629336229</v>
+        <v>26.90629808254769</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-48.99059320473477</v>
+        <v>13.12439351283796</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-33.81922173430311</v>
+        <v>15.59642677396327</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>-27.47110794909736</v>
+        <v>14.64265951660366</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>-15.00958818422606</v>
+        <v>18.87235166840582</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>-2.943773469209308</v>
+        <v>19.48085344336601</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>11.75529082978715</v>
+        <v>27.03138959817708</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-48.65490874981592</v>
+        <v>13.27881207415836</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-33.53634221779613</v>
+        <v>15.7338323568884</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>-27.16161245366413</v>
+        <v>14.78884104369962</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>-14.77200934403862</v>
+        <v>18.99377116921128</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>-2.693966948290024</v>
+        <v>19.60672773926764</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>11.91204665829392</v>
+        <v>27.12027832436321</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-48.47210443308824</v>
+        <v>13.38361918651339</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-33.37338951715449</v>
+        <v>15.82955606706556</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>-26.98841293973762</v>
+        <v>14.8893003410447</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>-14.62775986752414</v>
+        <v>19.0805765463083</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>-2.544500439608457</v>
+        <v>19.69605783454548</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>12.01807097251782</v>
+        <v>27.18761796398448</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-48.35297749956462</v>
+        <v>13.46072132819669</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-33.26417224976311</v>
+        <v>15.90114671142011</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>-26.8740215807442</v>
+        <v>14.96378345175776</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>-14.52833379684292</v>
+        <v>19.14660189773332</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>-2.442296200442974</v>
+        <v>19.76367478188983</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>12.09590021136076</v>
+        <v>27.2409098847583</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-48.26748376004813</v>
+        <v>13.52050524170224</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-33.18444816110613</v>
+        <v>15.95729291804907</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>-26.79126441668021</v>
+        <v>15.02184741341038</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>-14.45447818270726</v>
+        <v>19.19900249939799</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>-2.366757831556117</v>
+        <v>19.81715422493404</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>12.1561588886561</v>
+        <v>27.28444455039951</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-48.2022904277587</v>
+        <v>13.56861367871448</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-33.12295772024499</v>
+        <v>16.00285272071403</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>-26.72781855289402</v>
+        <v>15.06875526390698</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>-14.39682861973611</v>
+        <v>19.24190006668714</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>-2.307999002304655</v>
+        <v>19.86082264023839</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>12.20459734638004</v>
+        <v>27.32087680192468</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-48.15045628863204</v>
+        <v>13.60841095855118</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-33.07366578614422</v>
+        <v>16.04078294527753</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>-26.67717978621162</v>
+        <v>15.10767551161619</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>-14.35021121724541</v>
+        <v>19.27785836239918</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>-2.260605159969952</v>
+        <v>19.89735422643621</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>12.24463494226027</v>
+        <v>27.35194908710411</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-48.10796480003375</v>
+        <v>13.64204392179984</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-33.03300821827312</v>
+        <v>16.07299998262718</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>-26.63554826900474</v>
+        <v>15.14064484170823</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>-14.31150380365215</v>
+        <v>19.30856680033623</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>-2.22132936480363</v>
+        <v>19.92850266778702</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>12.27844929368677</v>
+        <v>27.37885868666007</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>20.48627404636753</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>21.16883464864329</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="50">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2.110784255191236</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>10.36949047369137</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>21.44736596298344</v>
+        <v>-3.141387797977846</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-134.515673688836</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-45.52020579712703</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.9652790039621</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>3.241540200614673</v>
+        <v>-266.2425868992352</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>12.35257895313757</v>
+        <v>-28.31282799556895</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>21.66970748408069</v>
+        <v>-0.1672257282970736</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-123.8624549249377</v>
+        <v>-923.7407796125137</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-42.74140486952039</v>
+        <v>-923.0668330393489</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.32151089969124</v>
+        <v>-922.0659586658923</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3.732216898419559</v>
+        <v>-234.9345164674881</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>12.7854339090748</v>
+        <v>-24.96556168322442</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>21.89266787186852</v>
+        <v>1.282734340348012</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-114.4510967828764</v>
+        <v>-855.964401383666</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-40.02132105482855</v>
+        <v>-849.8413677652318</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.887690425815396</v>
+        <v>-852.9420774054556</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>4.216448468405439</v>
+        <v>-203.639237482832</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>13.15909561215418</v>
+        <v>-21.62556095451729</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>22.11876388929652</v>
+        <v>2.731523815921824</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-105.1384694722438</v>
+        <v>-788.8354459868348</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-37.79363084678778</v>
+        <v>-769.6977137829281</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.472087811039756</v>
+        <v>-784.4886269456583</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>4.652607535490619</v>
+        <v>-174.0758926220545</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>13.52768421281625</v>
+        <v>-18.51330396542313</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>22.34669385299976</v>
+        <v>4.01346776837042</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-96.97113593489976</v>
+        <v>-728.8118201837716</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-35.63062953237061</v>
+        <v>-514.3493947279125</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.251875542616166</v>
+        <v>-723.5577665465656</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>5.08527211963516</v>
+        <v>-144.5690875594072</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>13.84138436434846</v>
+        <v>-15.97592029726588</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>22.57822563619824</v>
+        <v>5.310252464023533</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-88.87881698562265</v>
+        <v>-669.2110429555771</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-33.9012109045003</v>
+        <v>-253.3177309099503</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.046290677716202</v>
+        <v>-662.2792079245241</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>5.50707700092249</v>
+        <v>-115.8588563944789</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>14.15111643403827</v>
+        <v>-13.44077734238235</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>22.8068968586446</v>
+        <v>6.475550041951878</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-81.84341974339138</v>
+        <v>-616.9874669213916</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.23124899009782</v>
+        <v>-232.3621009502801</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-5.023227246074711</v>
+        <v>-601.3859867165181</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>5.923386806230656</v>
+        <v>-87.14526769954762</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>14.42699943717193</v>
+        <v>-11.42581565071876</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>23.00305886919035</v>
+        <v>7.642150046192372</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-74.86307772948126</v>
+        <v>-565.1070856888705</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-30.80600858412393</v>
+        <v>-211.581712252453</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-4.01187066646424</v>
+        <v>-531.965145589703</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>6.338619316993134</v>
+        <v>-59.11274456898902</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>14.72295210153185</v>
+        <v>-9.409049359383744</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>23.19568110199806</v>
+        <v>8.674935979410481</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-68.8610108259028</v>
+        <v>-520.0122343733615</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-29.3723609814203</v>
+        <v>-196.0400434995747</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.172207504843439</v>
+        <v>-308.6105099501512</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>6.72292090670259</v>
+        <v>-32.04362065590306</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>15.04776339420995</v>
+        <v>-7.738381755990384</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>23.39164430863419</v>
+        <v>9.712747954659918</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-62.89830569607399</v>
+        <v>-475.1163061761596</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-27.94124962167988</v>
+        <v>-180.7247569020979</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.342060373695835</v>
+        <v>-76.01719743864392</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>7.107609323061736</v>
+        <v>-29.67047888522338</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>15.37016645293193</v>
+        <v>-6.067589462223769</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>23.53556588413907</v>
+        <v>10.60834392120691</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-59.26272866629869</v>
+        <v>-436.5221685545105</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-27.19457933361277</v>
+        <v>-169.0441055151619</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.719368066812281</v>
+        <v>-67.52094005656357</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>7.414706586824311</v>
+        <v>-27.3391998386069</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>15.65229721337036</v>
+        <v>-4.806423455331156</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>23.66450753125547</v>
+        <v>11.47270575709157</v>
       </c>
     </row>
     <row r="122">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>20.60387951901427</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="152">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>21.2070526086516</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="158">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>2.346504023362726</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>10.91217835612371</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>21.46761802490955</v>
+        <v>-2.369033001138185</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-127.4069003536566</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-45.37162090012148</v>
+        <v>-936.0249134416409</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-12.5572821193722</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>3.292544074076202</v>
+        <v>-265.8122393166008</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>12.41799356353538</v>
+        <v>-27.53952757961402</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>21.69052367111085</v>
+        <v>-0.1159562998999122</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-119.6266088682341</v>
+        <v>-923.6286260956016</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-42.57609092187965</v>
+        <v>-865.4943246531212</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-11.26077386713457</v>
+        <v>-921.9778522518262</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>3.785904316768965</v>
+        <v>-234.493393142556</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>12.81358587464662</v>
+        <v>-24.16313701779774</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>21.91407487187795</v>
+        <v>1.334308001662471</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-114.3543510005891</v>
+        <v>-855.843130755305</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-39.83587801116064</v>
+        <v>-849.7716524874654</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-9.823343236439467</v>
+        <v>-852.8479352469744</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>4.273063397189533</v>
+        <v>-203.1868787321932</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>13.18822996261936</v>
+        <v>-20.79211515663903</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>22.14079019202542</v>
+        <v>2.783404731833291</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-105.0337332556606</v>
+        <v>-788.7037510810312</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-37.58360337331731</v>
+        <v>-769.6239469001209</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-8.403757892544466</v>
+        <v>-784.3877264868426</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>4.712426175689223</v>
+        <v>-173.6118106855078</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>13.55785945332409</v>
+        <v>-18.29457877227403</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>22.36936990956072</v>
+        <v>4.065659002754737</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-96.85724419567843</v>
+        <v>-728.6681152156104</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-35.39004374474668</v>
+        <v>-514.2786563989722</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-7.179134146465974</v>
+        <v>-723.4492579560267</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>5.14860860115865</v>
+        <v>-144.0927643439591</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>13.87266399782299</v>
+        <v>-15.80068567246559</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>22.60158403618988</v>
+        <v>5.362757123713541</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-88.75435180516746</v>
+        <v>-669.0533821245721</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-33.62183483364695</v>
+        <v>-253.2464716297614</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-5.968641492271656</v>
+        <v>-662.1880280356005</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>5.548264987770493</v>
+        <v>-115.3630857328603</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>14.18356952392095</v>
+        <v>-13.38826211897311</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>22.83097252721534</v>
+        <v>6.528371277515114</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-81.70663507960151</v>
+        <v>-616.8134318938354</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-31.9013575597895</v>
+        <v>-232.2866363600918</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-4.940092053849147</v>
+        <v>-601.2822111734901</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>5.951975544220706</v>
+        <v>-86.53571126089565</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>14.46070124961131</v>
+        <v>-11.37298374502842</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>23.02788928676424</v>
+        <v>7.695291052726041</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-74.71179473653019</v>
+        <v>-564.91362682459</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-30.59086449148248</v>
+        <v>-211.5093916722662</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-3.922571093139294</v>
+        <v>-531.8368153685217</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>6.368216279377124</v>
+        <v>-58.48376057730778</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>14.7579848406274</v>
+        <v>-9.355897574807994</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>23.21930182313467</v>
+        <v>8.728399997354193</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-68.69246917392289</v>
+        <v>-519.7954413676737</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-29.31064223331729</v>
+        <v>-195.9634105666848</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-3.075941534885024</v>
+        <v>-308.5169056505653</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>6.753586790905513</v>
+        <v>-31.51245227306152</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>15.08421704667984</v>
+        <v>-7.684906850554965</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>23.40705177859445</v>
+        <v>9.766538270626599</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-62.70894718224527</v>
+        <v>-474.8710676910576</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-27.87737568573867</v>
+        <v>-180.6513484015563</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-2.237871759991032</v>
+        <v>-75.92276101683946</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>7.139410069394939</v>
+        <v>-29.2074340992386</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>15.40813976199031</v>
+        <v>-6.013788147752905</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>23.55132963204846</v>
+        <v>10.66246386883245</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-59.04787330231738</v>
+        <v>-436.2657617135632</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-27.12677238375069</v>
+        <v>-168.9662737631214</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-1.676260873029511</v>
+        <v>-67.4256591020691</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>7.447713975581523</v>
+        <v>-27.14582835058519</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>15.69189880584688</v>
+        <v>-4.752292396597314</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>23.67524126586249</v>
+        <v>11.52946224517</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-58.15402927139132</v>
+        <v>-397.7696925899193</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-26.72040141240027</v>
+        <v>-157.5179666796745</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.088528981722442</v>
+        <v>-59.07134754289584</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>7.679143107693417</v>
+        <v>-24.99979569134523</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>15.95999184912548</v>
+        <v>-3.517425872376642</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>23.76342686663605</v>
+        <v>12.32802141926725</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-55.16940311256516</v>
+        <v>-364.8316156520713</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-26.25408021378346</v>
+        <v>-148.1980767951554</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.8316804192921965</v>
+        <v>-54.06929711960129</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>7.837914795557319</v>
+        <v>-23.27732016227829</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>16.11692741982334</v>
+        <v>-2.365367654547458</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>23.84892497739813</v>
+        <v>13.12174568129074</v>
       </c>
     </row>
     <row r="242">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>14.08585358563923</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>20.70381607591365</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>21.24236455239279</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="266">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>2.529805035614939</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>11.27006466486404</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>21.48683912989384</v>
+        <v>-1.881083675583399</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-126.0023411216982</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-45.2485844066799</v>
+        <v>-927.6497221191237</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-12.27014230168883</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>3.33890932451828</v>
+        <v>-265.5010974872891</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>12.47648020742221</v>
+        <v>-27.05114112052616</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>21.71026144143512</v>
+        <v>-0.06885661977026719</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-117.1046727058239</v>
+        <v>-923.5311609808601</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-42.44097760528395</v>
+        <v>-854.6062184874517</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-10.93831999446178</v>
+        <v>-921.8997321935486</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>3.834552542345265</v>
+        <v>-234.1620942464136</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>12.83997123961061</v>
+        <v>-23.66140562272611</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>21.93435287876598</v>
+        <v>1.381671722457532</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-108.630007895445</v>
+        <v>-855.738494836115</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-39.68657099555637</v>
+        <v>-776.7076347847449</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-9.64610101913525</v>
+        <v>-852.7648980704884</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>4.324188370226087</v>
+        <v>-202.863050968987</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>13.21549603744793</v>
+        <v>-20.27641602584978</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>22.16163354033914</v>
+        <v>2.831034970199354</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-102.1526514252043</v>
+        <v>-788.5910190477116</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-37.41742627311157</v>
+        <v>-519.5315632956997</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-8.342858784503285</v>
+        <v>-784.2992334900773</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>4.766245511391507</v>
+        <v>-173.2813118661665</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>13.58605635520724</v>
+        <v>-17.76424738059596</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>22.39080536853776</v>
+        <v>4.11355826825771</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-96.76014584332047</v>
+        <v>-728.5461853604684</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-35.20355462775842</v>
+        <v>-258.7413488693033</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-7.114608485815451</v>
+        <v>-723.3546839758491</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>5.205367668462323</v>
+        <v>-143.7553614252245</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>13.90184593027935</v>
+        <v>-15.2550120816719</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>22.62364018406722</v>
+        <v>5.41092795913559</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-88.64921304788984</v>
+        <v>-668.9209305750207</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-33.41051897397501</v>
+        <v>-238.1424915715021</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-5.90011428589358</v>
+        <v>-662.1073987678373</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>5.608241634202267</v>
+        <v>-114.9637925201294</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>14.21379521545913</v>
+        <v>-13.26668045591022</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>22.8536799115166</v>
+        <v>6.576816259422218</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-81.59228031049072</v>
+        <v>-616.6688514292669</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-31.65915430015873</v>
+        <v>-217.5753459855719</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-4.867131652418502</v>
+        <v>-601.1914127409815</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>6.008993380556467</v>
+        <v>-86.08377733439899</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>14.49203445136139</v>
+        <v>-11.27729820673946</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>23.05128060229592</v>
+        <v>7.74401279204745</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-74.58679248721802</v>
+        <v>-564.7549437323502</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-30.30941048052763</v>
+        <v>-202.4835173498996</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-3.844677682535656</v>
+        <v>-531.7266848471319</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>6.395896344078245</v>
+        <v>-58.04885140596247</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>14.79049489254799</v>
+        <v>-9.307166509963272</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>23.24341211005145</v>
+        <v>8.777401139974067</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-68.5550556796607</v>
+        <v>-519.6202003592972</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-28.97800466732937</v>
+        <v>-187.4496743561341</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-2.992532633468564</v>
+        <v>-308.4343049189328</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>6.782221633996958</v>
+        <v>-31.14485881514963</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>15.11797952379768</v>
+        <v>-7.635896293080652</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>23.42180094668257</v>
+        <v>9.815821497988169</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-62.55692001392987</v>
+        <v>-474.6761692666446</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-27.82016918844654</v>
+        <v>-176.2974017471065</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-2.148263754787774</v>
+        <v>-75.83948520242681</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>7.169055880569601</v>
+        <v>-28.83158125503375</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>15.44323721439725</v>
+        <v>-5.964495415002833</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>23.56640988615398</v>
+        <v>10.71203189855498</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-58.87844012665526</v>
+        <v>-436.0472268248863</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-27.06630509980222</v>
+        <v>-168.8966252461169</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-1.579645248432839</v>
+        <v>-67.34169895389421</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>7.478431686450687</v>
+        <v>-26.69498243231239</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>15.72842160896854</v>
+        <v>-4.702714769728365</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>23.6856118261184</v>
+        <v>11.58130236286945</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-58.10911975465172</v>
+        <v>-397.5690399292387</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-26.69349666532611</v>
+        <v>-157.444273149396</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-1.053811311770269</v>
+        <v>-58.97647704255358</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>7.696633943492003</v>
+        <v>-24.95348454928573</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>15.97964814632518</v>
+        <v>-3.46557541293297</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>23.77111440697619</v>
+        <v>12.38231272342357</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-55.06461756300315</v>
+        <v>-364.6061009300223</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-26.2074871942005</v>
+        <v>-148.1238254265032</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-0.7923069703651346</v>
+        <v>-53.96757879308367</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>7.863802905938188</v>
+        <v>-23.22898373046494</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>16.12962323436067</v>
+        <v>-2.311065180565082</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>23.85844702160644</v>
+        <v>13.17868768420416</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-54.50784185945696</v>
+        <v>-331.7921213111395</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-25.90257065940945</v>
+        <v>-138.8992273159793</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.383491757082824</v>
+        <v>-49.11007828276254</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>8.053160980249134</v>
+        <v>-21.51962086721425</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>16.31819815805462</v>
+        <v>-1.161681573238615</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>23.93762011718794</v>
+        <v>13.90999832527746</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-53.23799815851132</v>
+        <v>-303.7440144345048</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-25.65426093370026</v>
+        <v>-131.3339130135714</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.1762187401862354</v>
+        <v>-44.91119384160108</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>8.175395728294221</v>
+        <v>-19.98360558848205</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>16.45241178412633</v>
+        <v>-0.07859728658407755</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>24.00293774116476</v>
+        <v>14.63696472257815</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>20.79010657312883</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>21.27512102502062</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="374">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-55.37057259679919</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="376">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>2.677618438150903</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>11.52874563563396</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>21.50511388093319</v>
+        <v>-1.537180900465789</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-125.3161015412318</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-45.14452487428888</v>
+        <v>-925.9683319299731</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-12.05397726497557</v>
+        <v>-938.8713394167313</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>3.381298959433825</v>
+        <v>-265.2626609419619</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>12.52918132758824</v>
+        <v>-26.70699502958677</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>21.72901080584682</v>
+        <v>-0.02539048835497698</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-116.1573723874076</v>
+        <v>-923.4454347764815</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-42.32786384843779</v>
+        <v>-852.8134182484357</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-10.69001472223703</v>
+        <v>-921.8298441723097</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>3.878903570870466</v>
+        <v>-233.8900725272746</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>12.89168484637562</v>
+        <v>-23.30986847067546</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>21.95359776393243</v>
+        <v>1.425368762169269</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-107.193367544179</v>
+        <v>-855.6470082684018</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-39.56300769500959</v>
+        <v>-773.3536822203747</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-9.356785528690546</v>
+        <v>-852.6909413671091</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>4.370656908414072</v>
+        <v>-202.6165279460094</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>13.24827101525419</v>
+        <v>-19.91721839872342</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>22.18139616628585</v>
+        <v>2.874964970395789</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-99.5410068708362</v>
+        <v>-788.4930963518433</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-37.28169691585286</v>
+        <v>-517.4735739526623</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-8.235037335377466</v>
+        <v>-784.2207972053724</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>4.815005649080297</v>
+        <v>-173.0302766815029</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>13.6124820527805</v>
+        <v>-17.39710585850753</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>22.41110937583781</v>
+        <v>4.157723306758342</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-92.29895027925087</v>
+        <v>-728.4410342452893</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-35.05351961655111</v>
+        <v>-256.5241172667548</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-7.056860026145057</v>
+        <v>-723.2712966403958</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>5.256614221222348</v>
+        <v>-143.5002831500736</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>13.92915460789866</v>
+        <v>-14.87962828481895</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>22.64451075278981</v>
+        <v>5.45533013980433</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-87.01408404166602</v>
+        <v>-668.8076150305227</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-33.24347117054457</v>
+        <v>-235.7433680880325</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-5.83905237992906</v>
+        <v>-662.0354307143756</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>5.662193428584724</v>
+        <v>-114.6263256692309</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>14.24203717334644</v>
+        <v>-12.88274000961939</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>22.87514389258102</v>
+        <v>6.621457712588717</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-81.49482723957352</v>
+        <v>-616.546256347626</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-31.47160921792736</v>
+        <v>-214.9666745918555</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-4.802426693554454</v>
+        <v>-601.1110942897635</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>6.065897199288501</v>
+        <v>-85.68894982471777</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>14.52126409548981</v>
+        <v>-10.88446961727107</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>23.07336666278975</v>
+        <v>7.788895674936796</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-74.4812486016525</v>
+        <v>-564.6217282584638</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-30.09679297639504</v>
+        <v>-199.631047216129</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-3.775952236559245</v>
+        <v>-531.6308226147562</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>6.437785191474718</v>
+        <v>-57.6246310833487</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>14.82077117588327</v>
+        <v>-9.232735549392002</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>23.2661508943022</v>
+        <v>8.822527637145047</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-68.44023473137241</v>
+        <v>-519.4747354622918</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-28.73416567769241</v>
+        <v>-184.3102799781449</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-2.919352124962384</v>
+        <v>-308.3607081343489</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>6.80907577915087</v>
+        <v>-30.87110323731778</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>15.14936644692505</v>
+        <v>-7.581330333139626</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>23.43593739390303</v>
+        <v>9.861193821780276</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-62.43137681757141</v>
+        <v>-474.5164528038725</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-27.76854544802507</v>
+        <v>-172.8157096876948</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-2.070124835278735</v>
+        <v>-75.76533180313112</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>7.196779632342981</v>
+        <v>-28.55279701523506</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>15.47580439521792</v>
+        <v>-5.919114809804061</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>23.58085465263287</v>
+        <v>10.75765228954441</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-58.74039296244522</v>
+        <v>-435.8707658224243</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-27.01194225050974</v>
+        <v>-162.4588743622784</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-1.495961131571711</v>
+        <v>-67.2669818848921</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>7.507112758720503</v>
+        <v>-26.37201982121385</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>15.7622449330196</v>
+        <v>-4.657086021709445</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>23.69563924058178</v>
+        <v>11.62889722062035</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-58.06798567960176</v>
+        <v>-397.4052086901477</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-26.66823256543394</v>
+        <v>-155.6384231414673</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-1.021579525234765</v>
+        <v>-58.89284938710587</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>7.713314076754672</v>
+        <v>-24.77914765238802</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>15.99832271528556</v>
+        <v>-3.417971586475206</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>23.77859255561634</v>
+        <v>12.43202874042031</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-54.97454556155873</v>
+        <v>-364.4247730046426</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-26.16490145634226</v>
+        <v>-148.0571601171365</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.7313878937260236</v>
+        <v>-53.87842904261289</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>7.88815040086588</v>
+        <v>-23.18443700445873</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>16.14184021648311</v>
+        <v>-2.261339518603958</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>23.86767097062973</v>
+        <v>13.23068728208684</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-54.47434611892122</v>
+        <v>-331.6239952801845</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-25.88085102019854</v>
+        <v>-138.8288069325138</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-0.3564701951910707</v>
+        <v>-49.01477036609654</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>8.068014470588601</v>
+        <v>-21.47317760466381</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>16.33468354236082</v>
+        <v>-1.109671580513239</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>23.94459954048824</v>
+        <v>13.96446189241294</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-53.17336205803501</v>
+        <v>-303.557591314974</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-25.61973832168478</v>
+        <v>-131.2593711301385</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-0.1602210150960286</v>
+        <v>-44.80898409248456</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>8.185644458670899</v>
+        <v>-19.93512725425845</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>16.4635225763599</v>
+        <v>-0.02412249046931686</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>24.01146007474839</v>
+        <v>14.69409325348956</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-52.47132125292956</v>
+        <v>-275.6687954675393</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-25.37970269269348</v>
+        <v>-123.5906278837721</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0.06094888862456516</v>
+        <v>-40.63449071499114</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>8.322506252382899</v>
+        <v>-18.40161322747225</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>16.58786914073071</v>
+        <v>1.054104591151664</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>24.08306117124742</v>
+        <v>15.33603864081369</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-51.57844103014637</v>
+        <v>-251.9033987307316</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-25.11938466636244</v>
+        <v>-117.5494581245302</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>0.2328756471419157</v>
+        <v>-37.05228597834278</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>8.429502279617374</v>
+        <v>-17.00649064706734</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>16.70438272616712</v>
+        <v>2.072252146104604</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>24.15152854102886</v>
+        <v>15.97142455613829</v>
       </c>
     </row>
     <row r="482">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-48.65384103667579</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="484">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>2.800091541820864</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>11.72694338671225</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>21.52340857589154</v>
+        <v>-1.278041378155677</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-124.890474798845</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-45.05501725950128</v>
+        <v>-925.144937298788</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-11.88366392228296</v>
+        <v>-926.7303937575098</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>3.4202504750844</v>
+        <v>-265.0724125338165</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>12.57699189900724</v>
+        <v>-26.44770391290441</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>21.7468515965689</v>
+        <v>0.1599949270442964</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-115.6242322281527</v>
+        <v>-923.3692656951398</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-42.23136204309963</v>
+        <v>-851.9576050595379</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-10.49850266020121</v>
+        <v>-858.3058376767822</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>3.91955493011492</v>
+        <v>-233.6771580094003</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>12.94190030366531</v>
+        <v>-23.04598725746354</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>21.97189437506948</v>
+        <v>1.59662972251344</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-106.4976933795959</v>
+        <v>-855.5661292381095</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-39.45854995669853</v>
+        <v>-772.1570584897606</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-9.139268454599341</v>
+        <v>-789.9575588821974</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>4.413135482778576</v>
+        <v>-202.4207548397466</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>13.30110003372001</v>
+        <v>-19.6486096932454</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>22.20016834565988</v>
+        <v>2.915650286186557</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-98.57738941763085</v>
+        <v>-788.4070008476364</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-37.16812540116731</v>
+        <v>-516.5460670454454</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-7.985026706341259</v>
+        <v>-729.2975247097685</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>4.859452588336225</v>
+        <v>-172.8106825791631</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>13.63731453678518</v>
+        <v>-17.12362642228298</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>22.43037809026607</v>
+        <v>4.198615394078122</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-90.82895072134251</v>
+        <v>-728.3491360080012</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-34.92942573431905</v>
+        <v>-255.5568656890522</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-6.857574388029789</v>
+        <v>-667.8985039809436</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>5.303186431338374</v>
+        <v>-143.2959960918041</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>13.95478223360478</v>
+        <v>-14.60112871238543</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>22.66429828657558</v>
+        <v>5.496430756405</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-84.30692338771749</v>
+        <v>-668.709231159437</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-33.10712107077473</v>
+        <v>-234.7334063737995</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-5.784191868858192</v>
+        <v>-607.5325479449348</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>5.711065908268347</v>
+        <v>-114.3414913041708</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>14.26850330640305</v>
+        <v>-12.59906438196812</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>22.89547395590926</v>
+        <v>6.662768637217519</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-78.18616642805222</v>
+        <v>-616.4405857916132</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-31.32084026682974</v>
+        <v>-213.910713097848</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-4.744529247220037</v>
+        <v>-546.0435451544039</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>6.117265814590887</v>
+        <v>-85.36050099265969</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>14.54861548697648</v>
+        <v>-10.59545513111157</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>23.09426451122689</v>
+        <v>7.830418707659934</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-73.9955347076159</v>
+        <v>-564.5078241473848</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-29.92886682612131</v>
+        <v>-198.5254243624255</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-3.714726805714137</v>
+        <v>-315.3057437296772</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>6.491869988980858</v>
+        <v>-57.23418630659209</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>14.84905830991444</v>
+        <v>-8.938212120222161</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>23.28764346076997</v>
+        <v>8.864264599677407</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-68.34242477501752</v>
+        <v>-519.3514690776398</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-28.5455546065734</v>
+        <v>-183.1509054609373</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-2.85446703556905</v>
+        <v>-83.18812623449759</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>6.866124965876498</v>
+        <v>-30.65703808207112</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>15.17864393290182</v>
+        <v>-7.281120169899086</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>23.44950240174846</v>
+        <v>9.90314655782141</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-62.32542519275551</v>
+        <v>-474.3824660265082</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-27.72165176849455</v>
+        <v>-171.5979965442755</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-2.001200191545069</v>
+        <v>-75.25559581985003</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>7.222780425516869</v>
+        <v>-28.33540517460877</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>15.50613141166764</v>
+        <v>-5.87715480651526</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>23.59470734601914</v>
+        <v>10.79982266512089</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-58.62510265558993</v>
+        <v>-435.7244074285916</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-26.9627213302922</v>
+        <v>-160.5586838809596</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-1.422559406414511</v>
+        <v>-67.19992761295177</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>7.533972736446039</v>
+        <v>-26.12604543563902</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>15.79368573123938</v>
+        <v>-4.614908315925138</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>23.70534202479164</v>
+        <v>11.67279630153352</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-57.22670317964658</v>
+        <v>-397.2681597936645</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-26.6444488724115</v>
+        <v>-151.9530772553152</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-0.9915504531459265</v>
+        <v>-58.81840611273164</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>7.729244259529281</v>
+        <v>-24.49770874391226</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>16.01609464634515</v>
+        <v>-3.374064667577238</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>23.78587064876659</v>
+        <v>12.47777798002216</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-54.89603753760476</v>
+        <v>-364.2748622210418</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-26.12577966584906</v>
+        <v>-143.9442540092196</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-0.6766468709720919</v>
+        <v>-53.79945593909618</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>7.911104263022276</v>
+        <v>-22.89993130733161</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>16.15776693858481</v>
+        <v>-2.215581882584806</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>23.87661206027183</v>
+        <v>13.27842042801604</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-54.2971761600373</v>
+        <v>-331.4837656971645</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-25.86028749477175</v>
+        <v>-138.7653521482036</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-0.331100926990574</v>
+        <v>-48.93078838371078</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>8.082248101068565</v>
+        <v>-21.43028601077652</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>16.35043329774802</v>
+        <v>-1.061929422389854</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>23.95140046777811</v>
+        <v>14.01432663472247</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-53.11552182329186</v>
+        <v>-303.4039818955316</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-25.58767891007321</v>
+        <v>-131.1924631437046</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-0.1449235257565771</v>
+        <v>-44.71944008361879</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>8.195556662694104</v>
+        <v>-19.89045669968458</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>16.47424893580957</v>
+        <v>0.02575194495687</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>24.01973416520772</v>
+        <v>14.74625315117652</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-52.30214020910066</v>
+        <v>-275.5252600948076</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-25.3616929741458</v>
+        <v>-123.5163587266916</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>0.08275024397034925</v>
+        <v>-40.5387420081497</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>8.335324467517049</v>
+        <v>-18.35503721486946</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>16.60195311825825</v>
+        <v>1.106274937162359</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>24.08943488649835</v>
+        <v>15.39067538410596</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-51.53355905859771</v>
+        <v>-251.7459358485257</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-25.09249164609258</v>
+        <v>-117.4706771463519</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0.2465835935389363</v>
+        <v>-36.94958083407268</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>8.442515421295653</v>
+        <v>-16.95786971457878</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>16.71421289880629</v>
+        <v>2.126900177969013</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>24.15921462769899</v>
+        <v>16.02874063597676</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-51.10442966114375</v>
+        <v>-228.2111421828796</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-24.89702007394802</v>
+        <v>-111.4478054595</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>0.4826253577081157</v>
+        <v>-33.37946453861503</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>8.578106736395487</v>
+        <v>-15.57686471072276</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>16.83075936369262</v>
+        <v>3.138744271533413</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>24.22438065123523</v>
+        <v>16.55641427905498</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-50.54807469367679</v>
+        <v>-209.4331884092743</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-24.74586492179975</v>
+        <v>-107.192205963987</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>0.6282779437575263</v>
+        <v>-30.48765309005141</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>8.672797030920197</v>
+        <v>-14.32031241934128</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>16.93316202674576</v>
+        <v>4.085255161889349</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>24.28466577638216</v>
+        <v>17.07181870842053</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-115.2711128081883</v>
+        <v>-867.3848632225914</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-42.14776749739345</v>
+        <v>-851.4319874801618</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-10.34498487159141</v>
+        <v>-856.3423028267678</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>3.956993942844815</v>
+        <v>-233.5046413017811</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>12.9875924835341</v>
+        <v>-22.83850007627082</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>21.99427144408618</v>
+        <v>1.807166661558167</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-106.0678528949426</v>
+        <v>-801.9204105990608</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-39.36873270921373</v>
+        <v>-771.4941535570213</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-8.968047857963207</v>
+        <v>-787.8475328816612</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>4.45216423286981</v>
+        <v>-202.2604112754766</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>13.34901932065419</v>
+        <v>-19.43796560399242</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>22.21804006067098</v>
+        <v>3.079953475422406</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-98.03809132746294</v>
+        <v>-745.0256962203281</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-37.07127250942686</v>
+        <v>-515.9894822756964</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-7.792410657635656</v>
+        <v>-727.0210146116968</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>4.900186886347305</v>
+        <v>-172.6334807781813</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>13.66070772299193</v>
+        <v>-16.90974439782643</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>22.44869660512103</v>
+        <v>4.367420297014257</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-90.12362122565031</v>
+        <v>-728.26792188303</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-34.82456724150651</v>
+        <v>-254.9836298335482</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-6.638691087998437</v>
+        <v>-665.4312989622639</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>5.345754256687822</v>
+        <v>-143.0987544884586</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>13.97889448802123</v>
+        <v>-14.38392477814987</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>22.68309332722414</v>
+        <v>5.534619672418893</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-83.32650634450094</v>
+        <v>-668.6227636947492</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-32.99308869916752</v>
+        <v>-234.1426660983604</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-5.676620267054899</v>
+        <v>-604.8449494042902</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>5.755609104541874</v>
+        <v>-114.120117469966</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>14.29337224256191</v>
+        <v>-12.37845147637812</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>22.91476654882095</v>
+        <v>6.701143578372036</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-76.68145500339496</v>
+        <v>-616.3482727861765</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-31.19621199031595</v>
+        <v>-213.3015520938646</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-4.692323670049897</v>
+        <v>-538.9650624974253</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>6.163942082821274</v>
+        <v>-85.07820977209091</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>14.57428153215236</v>
+        <v>-10.37134295784424</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>23.11407700522205</v>
+        <v>7.868981189437859</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-71.18647737354848</v>
+        <v>-564.4089754673178</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-29.79189123153043</v>
+        <v>-197.8968571963943</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-3.659729532310712</v>
+        <v>-312.0565500369037</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>6.540855242857798</v>
+        <v>-56.92145757114046</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>14.87556498169628</v>
+        <v>-8.710506991706465</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>23.30799963590926</v>
+        <v>8.903016154905954</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-66.08733248272912</v>
+        <v>-519.2452747867858</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-28.39404570302014</v>
+        <v>-182.5018706677571</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-2.7964199605695</v>
+        <v>-79.57409396982759</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>6.917616129229705</v>
+        <v>-30.48371201581339</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>15.20603814973841</v>
+        <v>-7.049724841440982</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>23.46253345996355</v>
+        <v>9.942088736928335</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-62.23444802806834</v>
+        <v>-474.2679682318634</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-27.67880731325325</v>
+        <v>-170.9273488510377</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-1.939810504307292</v>
+        <v>-71.19630158267991</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>7.247229633839783</v>
+        <v>-28.15974450382222</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>15.53446384243142</v>
+        <v>-5.798752293640606</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>23.60800733885509</v>
+        <v>10.83895703639523</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-58.52693362832601</v>
+        <v>-435.6004635863512</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-26.9178797235124</v>
+        <v>-159.6729531165269</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-1.357493348754236</v>
+        <v>-64.17202273193068</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>7.559196522230142</v>
+        <v>-25.93064577978066</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>15.82301118973867</v>
+        <v>-4.575767472923616</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>23.71473732512022</v>
+        <v>11.71345440968642</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-56.52985443266606</v>
+        <v>-397.1513106388251</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-26.62200643408026</v>
+        <v>-150.7032913499708</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-0.9634841204055551</v>
+        <v>-58.7432816692227</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>7.744479055483731</v>
+        <v>-24.27856695647231</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>16.03303438759124</v>
+        <v>-3.333399662184434</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>23.7929574500546</v>
+        <v>12.5200613599682</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-54.82681357274873</v>
+        <v>-364.1482320869595</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-26.08967632982199</v>
+        <v>-141.9748535535815</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-0.6271056319630735</v>
+        <v>-53.72885988674505</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>7.932792563615369</v>
+        <v>-22.6518047533265</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>16.18260389770412</v>
+        <v>-2.173291139654614</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>23.88528445796625</v>
+        <v>13.32244034817549</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-54.04610439226416</v>
+        <v>-331.3644835139637</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-25.84078102860466</v>
+        <v>-135.1505191576736</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-0.3072221489781866</v>
+        <v>-48.85605333984339</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>8.095903818890967</v>
+        <v>-21.21085464231799</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>16.36550055559549</v>
+        <v>-1.017901628243342</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>23.95803037987625</v>
+        <v>14.06020533075439</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-53.06336439365538</v>
+        <v>-303.2745669165222</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-25.55780305835403</v>
+        <v>-128.8314118574453</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-0.1302766355693659</v>
+        <v>-44.6401449667938</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>8.205150363100469</v>
+        <v>-19.79009804420703</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>16.4846125320224</v>
+        <v>0.07163907705434963</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>24.02777183474834</v>
+        <v>14.79412525642321</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-52.16427218050178</v>
+        <v>-275.4034591844187</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-25.34453379038605</v>
+        <v>-123.4496785548751</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>0.1033883563631138</v>
+        <v>-40.4544031882502</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>8.347656229601352</v>
+        <v>-18.31202937351566</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>16.61546913964192</v>
+        <v>1.154156098386406</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>24.09565497707669</v>
+        <v>15.44068959493157</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-51.49244877819143</v>
+        <v>-251.6136323290959</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-25.06723810556244</v>
+        <v>-117.4002404784022</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>0.2738069763449019</v>
+        <v>-36.85963965051465</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>8.459190268467106</v>
+        <v>-16.91307475655029</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>16.72372890233661</v>
+        <v>2.176924130400886</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>24.16669138805725</v>
+        <v>16.08106165900011</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-51.0144455453194</v>
+        <v>-228.0867325561545</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-24.88177244165898</v>
+        <v>-111.3732456714265</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>0.5006948565521396</v>
+        <v>-33.28327163117769</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>8.589315467743573</v>
+        <v>-15.53015531429728</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>16.84297319988815</v>
+        <v>3.191075796747671</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>24.23023146859318</v>
+        <v>16.61122511847531</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-50.51459584914913</v>
+        <v>-209.2978871609551</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-24.72415349025268</v>
+        <v>-107.1131042795187</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>0.6401946305378756</v>
+        <v>-30.38444853293634</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>8.680987392870636</v>
+        <v>-14.27154818794518</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>16.94193999016654</v>
+        <v>4.140077349918519</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>24.29164396224926</v>
+        <v>17.12932336595787</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-49.95572575519225</v>
+        <v>-192.2671344365656</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-24.56089442144045</v>
+        <v>-103.1972339499235</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>0.7762992059122487</v>
+        <v>-27.65570933585097</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>8.783197794180014</v>
+        <v>-13.04670196795513</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>17.04500446792068</v>
+        <v>5.067731965775842</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>24.35128598257876</v>
+        <v>17.61491510594517</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-49.56390426742053</v>
+        <v>-191.3875021431705</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-24.39284895252134</v>
+        <v>-102.5839855461246</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>0.9017797444462363</v>
+        <v>-26.91959796639761</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>8.867779458634832</v>
+        <v>-12.60241631296109</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>17.13593996636596</v>
+        <v>5.553399622848779</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>24.41383274185385</v>
+        <v>17.84432918001282</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-97.68189341913697</v>
+        <v>-733.8688628629666</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-36.98740172476289</v>
+        <v>-515.6082897840298</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-7.638130221975824</v>
+        <v>-726.0395421289122</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>4.937698195810665</v>
+        <v>-172.4837346001966</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>13.70083504916667</v>
+        <v>-16.73654708151616</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>22.47690104267033</v>
+        <v>4.542870280207245</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-89.68949657570737</v>
+        <v>-674.4127783223381</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-34.73443857064575</v>
+        <v>-254.5936562250299</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-6.466555139194337</v>
+        <v>-664.406032822104</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>5.384860496860516</v>
+        <v>-142.9373594054481</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>14.00455568173782</v>
+        <v>-14.20839576407601</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>22.70211741002214</v>
+        <v>5.701067839955846</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-82.78092985875308</v>
+        <v>-622.6509024358137</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-32.89588258520919</v>
+        <v>-233.7435674915401</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-5.482889561460145</v>
+        <v>-603.7724788683533</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>5.796426623804754</v>
+        <v>-113.9416727513369</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>14.31679842609656</v>
+        <v>-12.20053789441513</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>22.93310701113599</v>
+        <v>6.860453099039583</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-75.96624204526108</v>
+        <v>-570.9463600515105</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-31.09095017150449</v>
+        <v>-212.8929653685464</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-4.517617554773243</v>
+        <v>-536.7620512893034</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>6.206599472221971</v>
+        <v>-84.85850705149277</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>14.59842849269082</v>
+        <v>-10.19099024163281</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>23.13289495358906</v>
+        <v>7.904918992728612</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-70.18875771594637</v>
+        <v>-526.2271305639069</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-29.6773948744349</v>
+        <v>-197.4783985809574</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-3.609971380234295</v>
+        <v>-310.877817377325</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>6.585495044189241</v>
+        <v>-56.64167177373928</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>14.90047045929054</v>
+        <v>-8.527658807929662</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>23.32731615666847</v>
+        <v>8.939122038667966</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-64.54647611303639</v>
+        <v>-481.5650151600747</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-28.2688791811175</v>
+        <v>-182.0731341970016</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-2.744088485506528</v>
+        <v>-78.33533021116634</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>6.964396843778428</v>
+        <v>-30.33965204172214</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>15.2317427104877</v>
+        <v>-6.864323015457034</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>23.47506470288957</v>
+        <v>9.978364015675206</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-61.40369085930002</v>
+        <v>-443.3551571026777</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-27.54777261752123</v>
+        <v>-170.4879046802288</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-1.884675899171868</v>
+        <v>-69.89212226860316</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>7.270275678861182</v>
+        <v>-28.01397211795274</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>15.56101115654985</v>
+        <v>-5.610736731247969</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>23.62079043300575</v>
+        <v>10.87540303908096</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-58.44202865437298</v>
+        <v>-411.2562966733614</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-26.87680431431981</v>
+        <v>-159.1342631488447</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-1.299295999207055</v>
+        <v>-62.08243237585828</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>7.582943759472426</v>
+        <v>-25.77056988826469</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>15.8504483438156</v>
+        <v>-4.440887929298327</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>23.72384104625478</v>
+        <v>11.75125166260213</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-56.09949125917828</v>
+        <v>-397.0501415898436</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-26.55555954172124</v>
+        <v>-150.0210170966134</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-0.9371756278086223</v>
+        <v>-57.88514141464569</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>7.759067627482573</v>
+        <v>-24.10168139985981</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>16.04920492230302</v>
+        <v>-3.295596301951845</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>23.79986119489786</v>
+        <v>12.55929549092287</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-54.76517717918528</v>
+        <v>-364.0394202506131</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-26.05622225028266</v>
+        <v>-141.0704917393286</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-0.5819898859817285</v>
+        <v>-53.6652574590914</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>7.953327480057756</v>
+        <v>-22.45494128572499</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>16.20600113505721</v>
+        <v>-2.134050509446699</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>23.89370135720719</v>
+        <v>13.36320478060829</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-53.85280242457824</v>
+        <v>-331.2614042621177</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-25.8222440556207</v>
+        <v>-133.8671984039785</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-0.2846934055641728</v>
+        <v>-48.78898406057669</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>8.109019701769547</v>
+        <v>-20.98993925708738</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>16.37993322552621</v>
+        <v>-0.9771302684750773</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>23.96449632590093</v>
+        <v>14.10260222078205</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-53.01601627705464</v>
+        <v>-303.1635964762844</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-25.52987364427728</v>
+        <v>-126.7883364830474</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-0.116235498192627</v>
+        <v>-44.56928188147125</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>8.220583314468506</v>
+        <v>-19.5397876797752</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>16.49463336217381</v>
+        <v>0.1140433630480929</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>24.03558413207833</v>
+        <v>14.83826657135868</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-52.04911451768377</v>
+        <v>-275.2984088070701</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-25.32816023610575</v>
+        <v>-121.4755198145811</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>0.1229631216845398</v>
+        <v>-40.37937446308871</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>8.359531548433793</v>
+        <v>-18.24067029813544</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>16.62845437927825</v>
+        <v>1.198305323543195</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>24.10172751676924</v>
+        <v>15.48669835923395</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-51.4546098939142</v>
+        <v>-251.5004308995541</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-25.04346396093081</v>
+        <v>-116.8357286823349</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>0.3038219651985506</v>
+        <v>-36.78002032495196</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>8.475115555284884</v>
+        <v>-16.87162895906545</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>16.73294712250959</v>
+        <v>2.222941370679747</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>24.17396815426881</v>
+        <v>16.12907339927357</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-50.93600741212103</v>
+        <v>-227.97964737322</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-24.86717192821026</v>
+        <v>-111.3063227322191</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>0.5179091844980683</v>
+        <v>-33.19857343820016</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>8.600134167910605</v>
+        <v>-15.48703069930687</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>16.85473775589799</v>
+        <v>3.239096637080109</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>24.23594893843532</v>
+        <v>16.66138954623161</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-50.48346016158107</v>
+        <v>-209.1823789093785</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-24.70359745735346</v>
+        <v>-107.0424015843367</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>0.6516798911005452</v>
+        <v>-30.29410722808076</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>8.688945270407691</v>
+        <v>-14.22662824783069</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>16.95045730248575</v>
+        <v>4.19025156811105</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>24.29844370439804</v>
+        <v>17.18180634581575</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-49.89792751796366</v>
+        <v>-192.1504432012875</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-24.54776853841238</v>
+        <v>-103.1260107420567</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>0.7915921190617441</v>
+        <v>-27.56458385495222</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>8.793107777805016</v>
+        <v>-12.99985854969145</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>17.05572829477519</v>
+        <v>5.12022550208153</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>24.35668168536008</v>
+        <v>17.63581405004489</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-49.53770225973332</v>
+        <v>-191.3569638079562</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-24.37484524080871</v>
+        <v>-102.5595225805733</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>0.9122639452650994</v>
+        <v>-26.89213309348127</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>8.875707685446148</v>
+        <v>-12.58278518135492</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>17.14384090251735</v>
+        <v>5.574300841430722</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>24.42020539342109</v>
+        <v>17.85619183025733</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-49.09765079468666</v>
+        <v>-191.0573270606263</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-24.2357840711647</v>
+        <v>-102.308783949425</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>1.048274042543155</v>
+        <v>-26.61681617355428</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>8.978984817872547</v>
+        <v>-12.37354749089411</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>17.23712731002557</v>
+        <v>5.794698439441062</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>24.47506329956656</v>
+        <v>17.9924973483997</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-48.80171074179067</v>
+        <v>-190.8884073824427</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-24.05742021463117</v>
+        <v>-102.1593652572339</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>1.176950922408257</v>
+        <v>-26.45736283796169</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>9.063285673693153</v>
+        <v>-12.24227081049421</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>17.3185925645334</v>
+        <v>5.931012795298219</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>24.53833001757584</v>
+        <v>18.08741639899556</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-82.42160825322809</v>
+        <v>-620.580928708427</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-32.81173403577214</v>
+        <v>-233.449403472524</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-5.327840133295845</v>
+        <v>-603.1568123266482</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>5.834010463038548</v>
+        <v>-113.7938641181441</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>14.33891617066885</v>
+        <v>-12.05311724680788</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>22.95057116754823</v>
+        <v>7.009593346241779</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-75.52776113790628</v>
+        <v>-568.7154899113958</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-31.00050827204595</v>
+        <v>-212.5945779304298</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-4.344558053829809</v>
+        <v>-535.2943031042911</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>6.245783459303406</v>
+        <v>-84.68122932977367</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>14.62120053795132</v>
+        <v>-10.04178973443465</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>23.15079887231158</v>
+        <v>8.036861874808052</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-69.63677901693816</v>
+        <v>-523.8123610990829</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-29.57983338419288</v>
+        <v>-197.1560510576122</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-3.537608724725966</v>
+        <v>-310.2215430232698</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>6.626396068538269</v>
+        <v>-56.4236192067064</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>14.930887048477</v>
+        <v>-8.376642292804551</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>23.34567861030817</v>
+        <v>9.069073359555597</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-63.82114385247238</v>
+        <v>-478.9382292602484</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-28.16321144162783</v>
+        <v>-181.7629293148526</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-2.696592273917249</v>
+        <v>-77.65703156912944</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>7.007144111836678</v>
+        <v>-30.21745235837339</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>15.25592446049662</v>
+        <v>-6.71145330657602</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>23.48847238446622</v>
+        <v>10.01226352463338</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-60.38814383284478</v>
+        <v>-440.481490181876</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-27.43280911652426</v>
+        <v>-170.1714943564732</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-1.834801542302555</v>
+        <v>-69.19052768462896</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>7.310024908923807</v>
+        <v>-27.89047251022592</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>15.5859532651672</v>
+        <v>-5.455975566640733</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>23.63308926549802</v>
+        <v>10.90945501717677</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-58.3676468360811</v>
+        <v>-402.9810532731292</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-26.83899580027545</v>
+        <v>-158.7626202371963</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-1.246838119226415</v>
+        <v>-61.14685282705034</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>7.605353102466318</v>
+        <v>-25.63631505158982</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>15.87619151657887</v>
+        <v>-4.270268826626427</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>23.73266796446599</v>
+        <v>11.78650855482376</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-55.80004978662276</v>
+        <v>-371.6997363865049</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-26.4772237681837</v>
+        <v>-149.5758730437362</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-0.9124488241882274</v>
+        <v>-56.54488291986837</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>7.773054406022828</v>
+        <v>-23.95501235702942</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>16.06466275608326</v>
+        <v>-3.173640011755016</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>23.81040858939469</v>
+        <v>12.59583008438541</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-54.70983638716237</v>
+        <v>-346.3054210420239</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-26.02510850695463</v>
+        <v>-140.5237703504949</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-0.5406777058006795</v>
+        <v>-52.15029609795607</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>7.97280774523909</v>
+        <v>-22.29381680963687</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>16.22809257683785</v>
+        <v>-2.089839419925289</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>23.90187506197558</v>
+        <v>13.4010961716443</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-53.69804865740278</v>
+        <v>-331.1711633239045</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-25.80459883992838</v>
+        <v>-133.1729546569052</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-0.263392099108243</v>
+        <v>-48.72143797218958</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>8.121630405089226</v>
+        <v>-20.81181449169706</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>16.39377463722674</v>
+        <v>-0.9392327447434494</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>23.97080495478103</v>
+        <v>14.1419365360612</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-52.97278108630921</v>
+        <v>-303.0670682233687</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-25.50368809752204</v>
+        <v>-125.8646724497873</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-0.09337184562758016</v>
+        <v>-44.50545510120588</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>8.237721336764677</v>
+        <v>-19.34144200066376</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>16.5043299134341</v>
+        <v>0.1533842052707684</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>24.04318139628265</v>
+        <v>14.87913779238857</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-51.95104694114276</v>
+        <v>-275.2065910419712</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-25.31251413504931</v>
+        <v>-120.1571051759248</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>0.1415628238747103</v>
+        <v>-40.31206004690453</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>8.370977904298897</v>
+        <v>-18.01795721330197</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>16.64094269194036</v>
+        <v>1.239183502188328</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>24.10765824840237</v>
+        <v>15.52920926823008</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-51.41963034512671</v>
+        <v>-251.402137190548</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-25.02103019052259</v>
+        <v>-114.7140846755798</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>0.3318757152178782</v>
+        <v>-36.70888851822409</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>8.490345806263299</v>
+        <v>-16.7210869575717</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>16.74188277304961</v>
+        <v>2.265459708831135</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>24.18105368623256</v>
+        <v>16.17333666809769</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-50.86684010984951</v>
+        <v>-227.8862062897642</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-24.85317401813536</v>
+        <v>-111.2282908846844</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>0.5343337350498636</v>
+        <v>-33.12324910235155</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>8.610584944442598</v>
+        <v>-15.44705460910955</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>16.86607991732836</v>
+        <v>3.283367852593733</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>24.24153805026136</v>
+        <v>16.70752899470186</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-50.45440646802263</v>
+        <v>-209.082265227082</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-24.68409785286988</v>
+        <v>-106.9787095473531</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>0.66275914446755</v>
+        <v>-30.21416147732771</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>8.696681457919652</v>
+        <v>-14.18507266700436</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>16.95872661303801</v>
+        <v>4.236399532733618</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>24.30507248060498</v>
+        <v>17.22995840143544</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-49.84580543552996</v>
+        <v>-192.0493983473501</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-24.53514846880778</v>
+        <v>-103.0618815488199</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>0.8062347528037521</v>
+        <v>-27.48399890921597</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>8.802699375442476</v>
+        <v>-12.95661663155329</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>17.06608949952584</v>
+        <v>5.168386702142877</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>24.36196075970721</v>
+        <v>17.65574913165622</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-49.51307149809078</v>
+        <v>-191.328219271019</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-24.35769159857446</v>
+        <v>-102.5363074176586</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>0.9223987806949572</v>
+        <v>-26.86617638293562</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>8.888036252190471</v>
+        <v>-12.56402380970201</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>17.15152276182432</v>
+        <v>5.594238025374021</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>24.42642446269981</v>
+        <v>17.86767482315745</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-49.05656428598611</v>
+        <v>-191.0426774741876</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-24.22432974587837</v>
+        <v>-102.2960452359822</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>1.061435190985645</v>
+        <v>-26.60310061760612</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>8.987828835517096</v>
+        <v>-12.36253973790049</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>17.2466412390923</v>
+        <v>5.806182270633327</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>24.48065063304469</v>
+        <v>18.00017618745535</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-48.7804843634284</v>
+        <v>-190.8791904256704</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-24.04217713370219</v>
+        <v>-102.1510576406915</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>1.195014381150039</v>
+        <v>-26.44858357239038</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>9.074491679800385</v>
+        <v>-12.23483698620507</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>17.32575337767735</v>
+        <v>5.938692063015541</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>24.54417991267173</v>
+        <v>18.09300934991984</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-48.33401756269247</v>
+        <v>-190.7699580286964</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-23.90815972744404</v>
+        <v>-102.051456759571</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>1.334473900232265</v>
+        <v>-26.34396471812651</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>9.16614367506792</v>
+        <v>-12.14466601154914</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>17.42255088015087</v>
+        <v>6.031529870560202</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>24.59964833062973</v>
+        <v>18.16269274464748</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-48.09999447203222</v>
+        <v>-190.6903759503383</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-23.74495307064318</v>
+        <v>-101.9776278573844</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>1.468347288344982</v>
+        <v>-26.26711757375487</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>9.256130494765387</v>
+        <v>-12.07663773520106</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>17.49608659519918</v>
+        <v>6.101216140938131</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>24.65928063375928</v>
+        <v>18.21748312710187</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-69.2742875658996</v>
+        <v>-522.7283843206496</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-29.49540553233399</v>
+        <v>-196.8942486785312</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-3.38178388432403</v>
+        <v>-309.7892034347321</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>6.6640526716327</v>
+        <v>-56.24749579877547</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>14.97688273889555</v>
+        <v>-8.249178331814656</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>23.36316303404984</v>
+        <v>9.197885167705675</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-63.37823287496131</v>
+        <v>-477.8784408234264</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-28.07245449365429</v>
+        <v>-181.5250935946248</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-2.571985181530837</v>
+        <v>-77.21383186245875</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>7.046406103847714</v>
+        <v>-30.11209049466379</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>15.29608921727329</v>
+        <v>-6.582594309782202</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>23.50639742863693</v>
+        <v>10.08921556958071</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-59.82963562793159</v>
+        <v>-439.3213568384211</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-27.33489007748136</v>
+        <v>-169.9189104259482</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-1.78940089303516</v>
+        <v>-68.73600306045815</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>7.35100972355081</v>
+        <v>-27.78409636995989</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>15.60944567658489</v>
+        <v>-5.325695875219037</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>23.64493365936961</v>
+        <v>10.94136408658646</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-58.30177984963208</v>
+        <v>-401.3051658786209</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-26.80404289407741</v>
+        <v>-158.4863949329435</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-1.199234382152548</v>
+        <v>-60.58685704627332</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>7.626545636115114</v>
+        <v>-25.52161106114904</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>15.90040813968728</v>
+        <v>-4.128200016833639</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>23.74123182849827</v>
+        <v>11.81949746717784</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-55.57627900825887</v>
+        <v>-368.6822255050365</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-26.40813946429201</v>
+        <v>-149.2561800749898</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-0.8891513201213688</v>
+        <v>-55.83073978488313</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>7.786479659259459</v>
+        <v>-23.83083314820367</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>16.07945874899486</v>
+        <v>-3.017887833159364</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>23.8212008099032</v>
+        <v>12.62996115981739</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-54.65978762160703</v>
+        <v>-336.9281051913264</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-25.99607436705313</v>
+        <v>-140.1478268457451</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-0.5026630272607062</v>
+        <v>-51.19426718816159</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>7.991320650738702</v>
+        <v>-22.15878058384376</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>16.24899533266539</v>
+        <v>-1.918053672671274</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>23.90981706238921</v>
+        <v>13.43643688533454</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-53.57052801043579</v>
+        <v>-310.710543877013</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-25.78777610102478</v>
+        <v>-132.7219857944241</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-0.2432106728720651</v>
+        <v>-47.34336789225929</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>8.13376754748816</v>
+        <v>-20.66423955106219</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>16.40706408840944</v>
+        <v>-0.8908627247767815</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>23.97696254400072</v>
+        <v>14.17856007984979</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-52.93309589321333</v>
+        <v>-291.5884115181778</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-25.4790721848402</v>
+        <v>-125.3097167127926</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-0.06210920691213107</v>
+        <v>-43.71982662329095</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>8.254075319103409</v>
+        <v>-19.17925742673921</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>16.51371930647462</v>
+        <v>0.1900135435053628</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>24.05057331436666</v>
+        <v>14.91712371303727</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-51.86622160859858</v>
+        <v>-275.1254424048938</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-25.27570900905357</v>
+        <v>-119.4505345416197</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>0.1592658146485805</v>
+        <v>-40.25122257842694</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>8.38202051565661</v>
+        <v>-17.83857868025321</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>16.65296498443973</v>
+        <v>1.277175581059307</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>24.11345260667336</v>
+        <v>15.56864419501327</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-51.38716725600878</v>
+        <v>-251.3157424270868</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-24.99981540082783</v>
+        <v>-113.7704124583656</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>0.3581729109483492</v>
+        <v>-36.64483606275916</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>8.504930150024451</v>
+        <v>-16.52124034119412</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>16.75055000128088</v>
+        <v>2.304901190413622</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>24.18795621592358</v>
+        <v>16.21431514488617</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-50.80525040850282</v>
+        <v>-227.8037380659435</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-24.83973836840854</v>
+        <v>-109.8731177855395</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>0.550027108494896</v>
+        <v>-33.05568805170822</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>8.620688189419806</v>
+        <v>-15.33695852437431</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>16.87702436996495</v>
+        <v>3.32435331746289</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>24.2470035360521</v>
+        <v>16.75015443475375</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-50.42721262124929</v>
+        <v>-208.9944047216426</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-24.66556718266015</v>
+        <v>-106.3978180492852</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>0.6734557611781862</v>
+        <v>-30.14275924576991</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>8.706591900302488</v>
+        <v>-14.14648141382451</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>16.96675972809366</v>
+        <v>4.279032435338879</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>24.31153733716992</v>
+        <v>17.27434418687352</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-49.79848740210515</v>
+        <v>-191.9607893461088</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-24.52300253913178</v>
+        <v>-103.0037418834502</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>0.8202719230539541</v>
+        <v>-27.41206752820318</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>8.811989278306381</v>
+        <v>-12.91653717610293</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>17.07610806857756</v>
+        <v>5.21278047097451</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>24.36712734752133</v>
+        <v>17.67479223253443</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-49.48986097265526</v>
+        <v>-191.3010995294952</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-24.34132316945388</v>
+        <v>-102.51423746189</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>0.932203232619929</v>
+        <v>-26.84159467431592</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>8.899908570353166</v>
+        <v>-12.54606981370908</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>17.15899548492681</v>
+        <v>5.613283074138772</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>24.43249602114953</v>
+        <v>17.87879798720892</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-49.01874610484516</v>
+        <v>-191.0285653957981</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-24.20381325721753</v>
+        <v>-102.2837334968455</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>1.074088288233853</v>
+        <v>-26.5898673085186</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>8.99640895758532</v>
+        <v>-12.35186758121845</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>17.25585749185886</v>
+        <v>5.817306229652321</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>24.48792607272075</v>
+        <v>18.00766988368684</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-48.75514958693517</v>
+        <v>-190.8702238100049</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-24.02758085426093</v>
+        <v>-102.1429608894782</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>1.212223137858211</v>
+        <v>-26.44003531661776</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>9.085307810931781</v>
+        <v>-12.22757863941131</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>17.33536834489972</v>
+        <v>5.946186170821218</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>24.5498964950164</v>
+        <v>18.09849271664492</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-48.30289683394241</v>
+        <v>-190.7636251657288</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-23.88761118252306</v>
+        <v>-102.0456194990553</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>1.345956322582125</v>
+        <v>-26.33786809639178</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>9.174100012744473</v>
+        <v>-12.13932317733303</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>17.43106646800177</v>
+        <v>6.037013481830439</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>24.6064468879816</v>
+        <v>18.1669275658804</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-48.08234654257976</v>
+        <v>-190.6855997689887</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-23.73183073320054</v>
+        <v>-101.9731649003662</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>1.483635627585814</v>
+        <v>-26.26248980949709</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>9.266038258821066</v>
+        <v>-12.07249458420176</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>17.50261603223171</v>
+        <v>6.1054511211479</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>24.6646755307132</v>
+        <v>18.22088048661381</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-47.74537929470775</v>
+        <v>-190.6253078257287</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-23.61827636738357</v>
+        <v>-101.9165290243923</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>1.604275882621591</v>
+        <v>-26.20392633278045</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>9.348099377209127</v>
+        <v>-12.01962462989238</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>17.58952852440088</v>
+        <v>6.159405917528736</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>24.71782167269257</v>
+        <v>18.26483048927086</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-47.49542131528599</v>
+        <v>-190.5769117006294</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-23.47925524064105</v>
+        <v>-101.8706838236952</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>1.710325423332956</v>
+        <v>-26.15673172403986</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>9.424182970760297</v>
+        <v>-11.97644534653255</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>17.66779953454822</v>
+        <v>6.203357252148332</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>24.77267112785101</v>
+        <v>18.30152985043954</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-59.46392721821546</v>
+        <v>-438.5299023865971</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-27.25018137360005</v>
+        <v>-169.7064933051665</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-1.747842790120883</v>
+        <v>-68.41093839818384</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>7.388739325655442</v>
+        <v>-27.69122043310081</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>15.63162359339152</v>
+        <v>-5.21405671785889</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>23.65635092812197</v>
+        <v>11.0395034457472</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-58.24291801540916</v>
+        <v>-400.3082224492197</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-26.7716033304171</v>
+        <v>-158.2706940026827</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-1.155779564770272</v>
+        <v>-60.20385758606783</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>7.646627638425964</v>
+        <v>-25.42213127252622</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>15.92324335627504</v>
+        <v>-4.007515252013727</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>23.74954544964982</v>
+        <v>11.85045157215844</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-55.40088013693218</v>
+        <v>-367.531902551449</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-26.3466181654926</v>
+        <v>-149.0122828712826</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-0.8671505195173097</v>
+        <v>-55.3701823322538</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>7.799379981297243</v>
+        <v>-23.72392741753767</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>16.0936388206663</v>
+        <v>-2.886865039892362</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>23.83162658947067</v>
+        <v>12.66194119873869</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-54.61423788406307</v>
+        <v>-335.1965977336068</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-25.96889803270287</v>
+        <v>-139.8689875961193</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-0.4675292969614628</v>
+        <v>-50.62569707474431</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>8.008943696911551</v>
+        <v>-22.04347592712702</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>16.2688123165901</v>
+        <v>-1.775125968105478</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>23.91753810263505</v>
+        <v>13.46950081877345</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-53.46308855383067</v>
+        <v>-307.5359739672878</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-25.76427652470945</v>
+        <v>-132.3989528377378</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-0.2240543187359521</v>
+        <v>-46.616293990698</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>8.145460044639391</v>
+        <v>-20.53937447949256</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>16.41983731471836</v>
+        <v>-0.734108896957097</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>23.98297502586029</v>
+        <v>14.21277055936087</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-52.8965000478318</v>
+        <v>-280.7676376796448</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-25.45587510904913</v>
+        <v>-124.9293886870595</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-0.03294241247090979</v>
+        <v>-42.74258167441297</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>8.269703275468263</v>
+        <v>-19.04343219471443</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>16.52946477851673</v>
+        <v>0.2941745840096968</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>24.05776897319753</v>
+        <v>14.95254858091613</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-51.79190366493607</v>
+        <v>-259.0087452908142</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-25.23792117045671</v>
+        <v>-118.9936120549077</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>0.176141905476621</v>
+        <v>-39.51215907959277</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>8.392682573002244</v>
+        <v>-17.6900884669339</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>16.66454953766348</v>
+        <v>1.312605930692209</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>24.12077572914098</v>
+        <v>15.60535705072379</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-51.35693268298454</v>
+        <v>-246.140947635201</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-24.97971305291023</v>
+        <v>-113.2070121457948</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>0.3828895268269768</v>
+        <v>-36.52223052446141</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>8.518912987001571</v>
+        <v>-16.35798397817528</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>16.76581698234777</v>
+        <v>2.341619864145809</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>24.19468348760736</v>
+        <v>16.25239598892353</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-50.74994863255785</v>
+        <v>-227.7302506018696</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-24.82682831872379</v>
+        <v>-109.1538476099682</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>0.565041993101457</v>
+        <v>-32.99464227274227</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>8.63046274689442</v>
+        <v>-15.15631142383</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>16.88759382591045</v>
+        <v>3.362440345398217</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>24.25234988710979</v>
+        <v>16.78969040277548</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-50.40168830206099</v>
+        <v>-208.9164859107628</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-24.64792777255446</v>
+        <v>-105.4333945027669</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>0.6837912707674942</v>
+        <v>-30.07847978157207</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>8.719199286917231</v>
+        <v>-13.99566344438877</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>16.97527446859964</v>
+        <v>4.318574986182418</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>24.31784492040738</v>
+        <v>17.31543038944884</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-49.75527806618245</v>
+        <v>-191.8822582040228</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-24.51130178481115</v>
+        <v>-102.9507139224243</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>0.8337442375377011</v>
+        <v>-27.34734414916543</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>8.820992977711743</v>
+        <v>-12.87925259717127</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>17.08580247936434</v>
+        <v>5.253873692283062</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>24.37396002549894</v>
+        <v>17.69300794658123</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-49.46793924113129</v>
+        <v>-191.2754570637927</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-24.32568181970943</v>
+        <v>-102.4932215519199</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>0.943285216841335</v>
+        <v>-26.81827070647656</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>8.911352104010238</v>
+        <v>-12.5288668989602</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>17.16626839223267</v>
+        <v>5.631500597057354</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>24.43842580943107</v>
+        <v>17.88957973072552</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-48.98378471789268</v>
+        <v>-191.0149587399919</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-24.18138814915342</v>
+        <v>-102.2718254007801</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>1.08626520165394</v>
+        <v>-26.57708863281496</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>9.004738052218404</v>
+        <v>-12.34151430789665</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>17.26479127447133</v>
+        <v>5.828088727883022</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>24.49501033573909</v>
+        <v>18.014985759372</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-48.68603886994784</v>
+        <v>-190.8614964043557</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-24.01358689097862</v>
+        <v>-102.1350662315607</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>1.228642536619066</v>
+        <v>-26.43170811419727</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>9.095756162379852</v>
+        <v>-12.22048897334496</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>17.34670772680747</v>
+        <v>5.953502441931725</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>24.55548475230221</v>
+        <v>18.10387003157607</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-48.27385646949111</v>
+        <v>-190.7574269098077</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-23.86811843570069</v>
+        <v>-102.0398998608585</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>1.357032902972079</v>
+        <v>-26.33189787326561</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>9.181834731223127</v>
+        <v>-12.13408193183818</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>17.43933413695467</v>
+        <v>6.042391033474681</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>24.61307452862165</v>
+        <v>18.17109326664484</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-48.0533183214697</v>
+        <v>-190.6809079579967</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-23.71921398440742</v>
+        <v>-101.9687773441218</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>1.498274006943927</v>
+        <v>-26.25794211596187</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>9.275627754457691</v>
+        <v>-12.06841809111452</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>17.5117933836317</v>
+        <v>6.109616976587985</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>24.66995382805239</v>
+        <v>18.22422988104897</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-47.72075865494171</v>
+        <v>-190.6215977364603</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-23.6011282636925</v>
+        <v>-101.9130263051152</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>1.614408413917283</v>
+        <v>-26.20031405881076</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>9.355307197631335</v>
+        <v>-12.01633740586721</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>17.59720893182776</v>
+        <v>6.162755419498722</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>24.72403972095112</v>
+        <v>18.26759924939105</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-47.45435855538416</v>
+        <v>-190.5738830645163</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-23.46780374083829</v>
+        <v>-101.867803929067</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>1.723483010299719</v>
+        <v>-26.15377302746588</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>9.433025152292188</v>
+        <v>-11.97372193714192</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>17.67731138990497</v>
+        <v>6.206126090565552</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>24.77766709633811</v>
+        <v>18.30386829092569</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-47.17840563779521</v>
+        <v>-190.5344194394085</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-23.36494190494724</v>
+        <v>-101.8301653468453</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>1.829202021676766</v>
+        <v>-26.1151664339589</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>9.507062788680956</v>
+        <v>-11.93801324901222</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>17.75640795048254</v>
+        <v>6.242396098789007</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>24.83281128213161</v>
+        <v>18.3347844682599</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-47.01830490266428</v>
+        <v>-190.5010737107639</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-23.24464556620287</v>
+        <v>-101.7982032398139</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>1.927737273452011</v>
+        <v>-26.08246901597578</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>9.58305507423537</v>
+        <v>-11.90752694247695</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>17.82602557100755</v>
+        <v>6.2733130167388</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>24.88348568016636</v>
+        <v>18.36154692766123</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.141387797977846</v>
+        <v>-5.133433381290074</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-266.2425868992352</v>
+        <v>-315.4073588318944</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-28.31282799556895</v>
+        <v>-30.83389314371727</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1672257282970736</v>
+        <v>-2.54243312082593</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-923.7407796125137</v>
+        <v>-923.7692991752938</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-923.0668330393489</v>
+        <v>-923.0843883304615</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-922.0659586658923</v>
+        <v>-922.1860790108019</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-234.9345164674881</v>
+        <v>-292.079345821278</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-24.96556168322442</v>
+        <v>-28.01803150912604</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1.282734340348012</v>
+        <v>-1.286073041724145</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-855.964401383666</v>
+        <v>-856.0545250184884</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-849.8413677652318</v>
+        <v>-851.6937088083215</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-852.9420774054556</v>
+        <v>-853.2182701001303</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-203.639237482832</v>
+        <v>-268.8737458047772</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-21.62556095451729</v>
+        <v>-25.53562532209357</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>2.731523815921824</v>
+        <v>-0.03179167311762357</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-788.8354459868348</v>
+        <v>-789.0005643982227</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-769.6977137829281</v>
+        <v>-775.7595647750256</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-784.4886269456583</v>
+        <v>-784.9303893796753</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-174.0758926220545</v>
+        <v>-249.4562924605659</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-18.51330396542313</v>
+        <v>-23.05700011149379</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4.01346776837042</v>
+        <v>1.180565620978877</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-728.8118201837716</v>
+        <v>-729.3185891440833</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-514.3493947279125</v>
+        <v>-581.5768240741838</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-723.5577665465656</v>
+        <v>-724.7701079079858</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-144.5690875594072</v>
+        <v>-230.3247247307519</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.97592029726588</v>
+        <v>-20.88013713480843</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>5.310252464023533</v>
+        <v>2.420368384897238</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-669.2110429555771</v>
+        <v>-670.098675345602</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-253.3177309099503</v>
+        <v>-383.5995494751382</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-662.2792079245241</v>
+        <v>-665.112694446388</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-115.8588563944789</v>
+        <v>-215.023990842715</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-13.44077734238235</v>
+        <v>-18.70674671345496</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>6.475550041951878</v>
+        <v>3.522729966569617</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-616.9874669213916</v>
+        <v>-618.1648574779782</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-232.3621009502801</v>
+        <v>-324.5854548164494</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-601.3859867165181</v>
+        <v>-612.9175332147172</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-87.14526769954762</v>
+        <v>-201.729629712704</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.42581565071876</v>
+        <v>-16.80363252549021</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>7.642150046192372</v>
+        <v>4.626518237865529</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-565.1070856888705</v>
+        <v>-566.6079250300553</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-211.581712252453</v>
+        <v>-265.5954212847611</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-531.965145589703</v>
+        <v>-561.0744525493753</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-59.11274456898902</v>
+        <v>-193.1052964995336</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-9.409049359383744</v>
+        <v>-14.904016189678</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>8.674935979410481</v>
+        <v>5.613976148492053</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-520.0122343733615</v>
+        <v>-521.9563297159367</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-196.0400434995747</v>
+        <v>-242.9173948935767</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-308.6105099501512</v>
+        <v>-516.0870197828632</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-32.04362065590306</v>
+        <v>-179.2536074919804</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.738381755990384</v>
+        <v>-13.232633919332</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>9.712747954659918</v>
+        <v>6.593819462320406</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-475.1163061761596</v>
+        <v>-477.5777113524031</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-180.7247569020979</v>
+        <v>-220.2506651843818</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-76.01719743864392</v>
+        <v>-471.3323493163657</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-29.67047888522338</v>
+        <v>-165.6354000554587</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-6.067589462223769</v>
+        <v>-11.56469980051586</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>10.60834392120691</v>
+        <v>7.451874649936729</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-436.5221685545105</v>
+        <v>-439.5168118535058</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-169.0441055151619</v>
+        <v>-207.7486653340162</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-67.52094005656357</v>
+        <v>-433.0558203706169</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-27.3391998386069</v>
+        <v>-154.4921724060308</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-4.806423455331156</v>
+        <v>-10.11039236849502</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.47270575709157</v>
+        <v>8.272955335904973</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-2.369033001138185</v>
+        <v>-4.263381591501434</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-936.0249134416409</v>
+        <v>-928.546694787092</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-265.8122393166008</v>
+        <v>-314.8234278478005</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-27.53952757961402</v>
+        <v>-29.84356713190351</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.1159562998999122</v>
+        <v>-2.46525588408196</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-923.6286260956016</v>
+        <v>-923.5977387844613</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-865.4943246531212</v>
+        <v>-861.295242049537</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-921.9778522518262</v>
+        <v>-922.0509151167225</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-234.493393142556</v>
+        <v>-291.2969335566528</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-24.16313701779774</v>
+        <v>-27.60827162403071</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1.334308001662471</v>
+        <v>-1.205055895810882</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-855.843130755305</v>
+        <v>-855.8609346929519</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-849.7716524874654</v>
+        <v>-851.5776088462646</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-852.8479352469744</v>
+        <v>-853.0685386838886</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-203.1868787321932</v>
+        <v>-267.9760186586351</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-20.79211515663903</v>
+        <v>-25.45095463751562</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>2.783404731833291</v>
+        <v>0.05339496072303593</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-788.7037510810312</v>
+        <v>-788.7797756151944</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-769.6239469001209</v>
+        <v>-775.6357767982954</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-784.3877264868426</v>
+        <v>-784.7632664935286</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-173.6118106855078</v>
+        <v>-248.2465272974843</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-18.29457877227403</v>
+        <v>-22.96956777040125</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>4.065659002754737</v>
+        <v>1.270292363390594</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-728.6681152156104</v>
+        <v>-729.0635544843725</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-514.2786563989722</v>
+        <v>-581.4482118965216</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-723.4492579560267</v>
+        <v>-724.5819371822043</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-144.0927643439591</v>
+        <v>-228.6604291713939</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-15.80068567246559</v>
+        <v>-20.78795962048381</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>5.362757123713541</v>
+        <v>2.515053717504133</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-669.0533821245721</v>
+        <v>-669.7994850401335</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-253.2464716297614</v>
+        <v>-383.461781804222</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-662.1880280356005</v>
+        <v>-664.8986418102178</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-115.3630857328603</v>
+        <v>-212.3941524142663</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-13.38826211897311</v>
+        <v>-18.60937831400831</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>6.528371277515114</v>
+        <v>3.622848490181689</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-616.8134318938354</v>
+        <v>-617.8070408117831</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-232.2866363600918</v>
+        <v>-324.4373895807906</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-601.2822111734901</v>
+        <v>-612.6710482759205</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-86.53571126089565</v>
+        <v>-196.310385548862</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-11.37298374502842</v>
+        <v>-16.7005665735158</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>7.695291052726041</v>
+        <v>4.732610743399411</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-564.91362682459</v>
+        <v>-566.169324310321</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-211.5093916722662</v>
+        <v>-265.435706143525</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-531.8368153685217</v>
+        <v>-560.7863937112946</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-58.48376057730778</v>
+        <v>-183.4220439499482</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-9.355897574807994</v>
+        <v>-14.79467389735896</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>8.728399997354193</v>
+        <v>5.726661990898028</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-519.7954413676737</v>
+        <v>-521.4008603572479</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-195.9634105666848</v>
+        <v>-242.7444146031963</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-308.5169056505653</v>
+        <v>-515.7441620683758</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-31.51245227306152</v>
+        <v>-171.2606863881181</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-7.684906850554965</v>
+        <v>-13.11635060525215</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>9.766538270626599</v>
+        <v>6.713811887637761</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-474.8710676910576</v>
+        <v>-476.8769548688023</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-180.6513484015563</v>
+        <v>-220.0624718795914</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-75.92276101683946</v>
+        <v>-470.91468122895</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-29.2074340992386</v>
+        <v>-164.7193048812173</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-6.013788147752905</v>
+        <v>-11.44070775523917</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>10.66246386883245</v>
+        <v>7.579999947238312</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-436.2657617135632</v>
+        <v>-438.7542565449891</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-168.9662737631214</v>
+        <v>-207.5428847418345</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-67.4256591020691</v>
+        <v>-432.5312574271013</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-27.14582835058519</v>
+        <v>-154.3755609242684</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-4.752292396597314</v>
+        <v>-9.977799343197848</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.52946224517</v>
+        <v>8.414362696221257</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-397.7696925899193</v>
+        <v>-400.8016888361082</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-157.5179666796745</v>
+        <v>-195.3130421271607</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-59.07134754289584</v>
+        <v>-394.3218913237241</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-24.99979569134523</v>
+        <v>-143.4227218065494</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-3.517425872376642</v>
+        <v>-8.544377390700728</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>12.32802141926725</v>
+        <v>9.172097631045462</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-364.8316156520713</v>
+        <v>-368.4213100229621</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-148.1980767951554</v>
+        <v>-184.3081421449812</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-54.06929711960129</v>
+        <v>-361.755874123752</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-23.27732016227829</v>
+        <v>-134.5357759129173</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-2.365367654547458</v>
+        <v>-7.308416111839685</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>13.12174568129074</v>
+        <v>9.919518660991852</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-1.881083675583399</v>
+        <v>-3.766128028456993</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-927.6497221191237</v>
+        <v>-925.6931985930801</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-1000</v>
+        <v>-931.1229868240181</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-265.5010974872891</v>
+        <v>-314.4489688143516</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-27.05114112052616</v>
+        <v>-29.30117598683189</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>-0.06885661977026719</v>
+        <v>-2.397317079568134</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-923.5311609808601</v>
+        <v>-923.4588612682562</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-854.6062184874517</v>
+        <v>-854.9633727998719</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-921.8997321935486</v>
+        <v>-921.9382418190894</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-234.1620942464136</v>
+        <v>-290.8347858451708</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-23.66140562272611</v>
+        <v>-26.95321809201593</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>1.381671722457532</v>
+        <v>-1.134023108968989</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-855.738494836115</v>
+        <v>-855.7067906141189</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-776.7076347847449</v>
+        <v>-780.4325626089652</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-852.7648980704884</v>
+        <v>-852.9452221156345</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-202.863050968987</v>
+        <v>-267.4680810348797</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-20.27641602584978</v>
+        <v>-24.63733008401598</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>2.831034970199354</v>
+        <v>0.1277640631160688</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-788.5910190477116</v>
+        <v>-788.6073415494765</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-519.5315632956997</v>
+        <v>-587.417014594288</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-784.2992334900773</v>
+        <v>-784.6275161875947</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-173.2813118661665</v>
+        <v>-247.5855151337439</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-17.76424738059596</v>
+        <v>-22.66162371988023</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>4.11355826825771</v>
+        <v>1.349758198343496</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-728.5461853604684</v>
+        <v>-728.8688947832853</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-258.7413488693033</v>
+        <v>-395.2250499887318</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-723.3546839758491</v>
+        <v>-724.4315099232739</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-143.7553614252245</v>
+        <v>-227.9138421533303</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-15.2550120816719</v>
+        <v>-20.706746286507</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>5.41092795913559</v>
+        <v>2.596936382427134</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-668.9209305750207</v>
+        <v>-669.577363648227</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-238.1424915715021</v>
+        <v>-383.3471902354354</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-662.1073987678373</v>
+        <v>-664.730682717059</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-114.9637925201294</v>
+        <v>-211.403691045842</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-13.26668045591022</v>
+        <v>-18.52539452686687</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>6.576816259422218</v>
+        <v>3.708976490996218</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-616.6688514292669</v>
+        <v>-617.5503094650622</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-217.5753459855719</v>
+        <v>-324.3152795304002</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-601.1914127409815</v>
+        <v>-612.4818577975536</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-86.08377733439899</v>
+        <v>-195.0467712345745</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-11.27729820673946</v>
+        <v>-16.61215095091451</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>7.74401279204745</v>
+        <v>4.823364350900215</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-564.7549437323502</v>
+        <v>-565.8679164668165</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-202.4835173498996</v>
+        <v>-265.3052167626287</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-531.7266848471319</v>
+        <v>-560.5710758382143</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-58.04885140596247</v>
+        <v>-181.6085036489341</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-9.307166509963272</v>
+        <v>-14.70142212217324</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>8.777401139974067</v>
+        <v>5.822470976203236</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-519.6202003592972</v>
+        <v>-521.0400492156556</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-187.4496743561341</v>
+        <v>-242.6045402292131</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-308.4343049189328</v>
+        <v>-515.496074666821</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-31.14485881514963</v>
+        <v>-168.2864755290573</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-7.635896293080652</v>
+        <v>-13.01780471808382</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>9.815821497988169</v>
+        <v>6.815164134400783</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-474.6761692666446</v>
+        <v>-476.4341374454897</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-176.2974017471065</v>
+        <v>-219.9120290840599</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-75.83948520242681</v>
+        <v>-470.6245414833528</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-28.83158125503375</v>
+        <v>-157.8296198638529</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-5.964495415002833</v>
+        <v>-11.33634663474655</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>10.71203189855498</v>
+        <v>7.687451970691988</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-436.0472268248863</v>
+        <v>-438.2355192287105</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-168.8966252461169</v>
+        <v>-207.3804697095482</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-67.34169895389421</v>
+        <v>-432.18561249143</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-26.69498243231239</v>
+        <v>-148.3940360863255</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-4.702714769728365</v>
+        <v>-9.867027034661502</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>11.58130236286945</v>
+        <v>8.531623978325534</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-397.5690399292387</v>
+        <v>-400.1756171183308</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-157.444273149396</v>
+        <v>-195.1305994049087</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-58.97647704255358</v>
+        <v>-393.9485208048105</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-24.95348454928573</v>
+        <v>-143.3154354089734</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-3.46557541293297</v>
+        <v>-8.423268863536851</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>12.38231272342357</v>
+        <v>9.300759201606427</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-364.6061009300223</v>
+        <v>-367.7371479471942</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-148.1238254265032</v>
+        <v>-184.0927959915641</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-53.96757879308367</v>
+        <v>-361.2952748779411</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-23.22898373046494</v>
+        <v>-134.4187062310776</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-2.311065180565082</v>
+        <v>-7.17525519726706</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>13.17868768420416</v>
+        <v>10.06155840854872</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-331.7921213111395</v>
+        <v>-335.3995362572117</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-138.8992273159793</v>
+        <v>-173.0442270829016</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-49.11007828276254</v>
+        <v>-328.8339668346152</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-21.51962086721425</v>
+        <v>-125.7291595488599</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-1.161681573238615</v>
+        <v>-5.946443486854427</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>13.90999832527746</v>
+        <v>10.75376515057958</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-303.7440144345048</v>
+        <v>-307.9346140319171</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-131.3339130135714</v>
+        <v>-163.091096346366</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-44.91119384160108</v>
+        <v>-301.2096416539026</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-19.98360558848205</v>
+        <v>-118.840708421294</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-0.07859728658407755</v>
+        <v>-4.818438091242534</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>14.63696472257815</v>
+        <v>11.44810434880492</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-1.537180900465789</v>
+        <v>-3.4341983844256</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-1000</v>
+        <v>-937.1200767796911</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-925.9683319299731</v>
+        <v>-924.7081167305001</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-938.8713394167313</v>
+        <v>-925.1926435161981</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-265.2626609419619</v>
+        <v>-314.1827631298655</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-26.70699502958677</v>
+        <v>-28.94673755978223</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>-0.02539048835497698</v>
+        <v>-2.25360752975971</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-923.4454347764815</v>
+        <v>-923.3434541845205</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-852.8134182484357</v>
+        <v>-853.6392209601611</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-921.8298441723097</v>
+        <v>-857.6095932393163</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-233.8900725272746</v>
+        <v>-290.5209434842573</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-23.30986847067546</v>
+        <v>-26.54590339638035</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>1.425368762169269</v>
+        <v>-1.071079174942416</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-855.6470082684018</v>
+        <v>-855.5802918951522</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-773.3536822203747</v>
+        <v>-778.0849897506839</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-852.6909413671091</v>
+        <v>-790.875780666702</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-202.6165279460094</v>
+        <v>-267.1307496143881</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-19.91721839872342</v>
+        <v>-24.16243519069256</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>2.874964970395789</v>
+        <v>0.1934269379341255</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-788.4930963518433</v>
+        <v>-788.4678504438194</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-517.4735739526623</v>
+        <v>-584.1618415773738</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-784.2207972053724</v>
+        <v>-736.2862738742908</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-173.0302766815029</v>
+        <v>-247.1755246456898</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-17.39710585850753</v>
+        <v>-22.0979463449321</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>4.157723306758342</v>
+        <v>1.419645515071281</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-728.4410342452893</v>
+        <v>-728.7140202362617</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-256.5241172667548</v>
+        <v>-386.8019909205688</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-723.2712966403958</v>
+        <v>-724.3076902901672</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-143.5002831500736</v>
+        <v>-227.4666372428258</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-14.87962828481895</v>
+        <v>-20.05922042030646</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>5.45533013980433</v>
+        <v>2.668663703491703</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-668.8076150305227</v>
+        <v>-669.4040484527056</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-235.7433680880325</v>
+        <v>-328.8028553575051</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-662.0354307143756</v>
+        <v>-664.5943417407576</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-114.6263256692309</v>
+        <v>-210.8353901633077</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-12.88274000961939</v>
+        <v>-18.3203876794261</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>6.621457712588717</v>
+        <v>3.784095568319126</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-616.546256347626</v>
+        <v>-617.3545704844648</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-214.9666745918555</v>
+        <v>-271.9046130758712</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-601.1110942897635</v>
+        <v>-612.3307292809017</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-85.68894982471777</v>
+        <v>-194.4128295101831</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-10.88446961727107</v>
+        <v>-16.53440552812777</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>7.788895674936796</v>
+        <v>4.902151370833667</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-564.6217282584638</v>
+        <v>-565.6444489702544</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-199.631047216129</v>
+        <v>-258.8301162148357</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-531.6308226147562</v>
+        <v>-560.4022735283785</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-57.6246310833487</v>
+        <v>-180.7785745972581</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-9.232735549392002</v>
+        <v>-14.62066585232471</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>8.822527637145047</v>
+        <v>5.90523469262747</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-519.4747354622918</v>
+        <v>-520.7816022235015</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-184.3102799781449</v>
+        <v>-242.4884017355432</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-308.3607081343489</v>
+        <v>-515.3058551717825</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-30.87110323731778</v>
+        <v>-167.2826960256284</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-7.581330333139626</v>
+        <v>-12.93290170945408</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>9.861193821780276</v>
+        <v>6.902250982147596</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-474.5164528038725</v>
+        <v>-476.1304844231009</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-172.8157096876948</v>
+        <v>-219.7881982240774</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-75.76533180313112</v>
+        <v>-470.4079458272599</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-28.55279701523506</v>
+        <v>-156.4743831392798</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-5.919114809804061</v>
+        <v>-11.24692914632027</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>10.75765228954441</v>
+        <v>7.779252196505677</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-435.8707658224243</v>
+        <v>-437.8716713943433</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-162.4588743622784</v>
+        <v>-207.2480569490653</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-67.2669818848921</v>
+        <v>-431.9359051336419</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-26.37201982121385</v>
+        <v>-145.961564009916</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-4.657086021709445</v>
+        <v>-9.77267995103419</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>11.62889722062035</v>
+        <v>8.630911322125685</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-397.4052086901477</v>
+        <v>-399.7814829895257</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-155.6384231414673</v>
+        <v>-194.9841277280321</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-58.89284938710587</v>
+        <v>-393.6829303174173</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-24.77914765238802</v>
+        <v>-137.8867828348039</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-3.417971586475206</v>
+        <v>-8.321075193870673</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>12.43202874042031</v>
+        <v>9.408610897767522</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-364.4247730046426</v>
+        <v>-367.246809484226</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-148.0571601171365</v>
+        <v>-183.9239748486126</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-53.87842904261289</v>
+        <v>-360.9822425906273</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-23.18443700445873</v>
+        <v>-130.7526928873629</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-2.261339518603958</v>
+        <v>-7.064062372498716</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>13.23068728208684</v>
+        <v>10.17928216457712</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-331.6239952801845</v>
+        <v>-334.8584479732728</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-138.8288069325138</v>
+        <v>-172.8539845967295</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-49.01477036609654</v>
+        <v>-328.4975494241123</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-21.47317760466381</v>
+        <v>-125.6214745071214</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-1.109671580513239</v>
+        <v>-5.824846855468548</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>13.96446189241294</v>
+        <v>10.88296675073435</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-303.557591314974</v>
+        <v>-307.3019796313764</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-131.2593711301385</v>
+        <v>-162.8744721289348</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-44.80898409248456</v>
+        <v>-300.8009181012563</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-19.93512725425845</v>
+        <v>-118.7262606044544</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-0.02412249046931686</v>
+        <v>-4.684705216514518</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>14.69409325348956</v>
+        <v>11.57778606938466</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-275.6687954675393</v>
+        <v>-279.8585983166151</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-123.5906278837721</v>
+        <v>-152.8927165895544</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-40.63449071499114</v>
+        <v>-273.3054355789519</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-18.40161322747225</v>
+        <v>-111.8973037170876</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>1.054104591151664</v>
+        <v>-3.553637691195575</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>15.33603864081369</v>
+        <v>12.22677906517715</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-251.9033987307316</v>
+        <v>-256.6922640325771</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-117.5494581245302</v>
+        <v>-143.6889029673622</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-37.05228597834278</v>
+        <v>-249.9883085035107</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-17.00649064706734</v>
+        <v>-106.6360956218643</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>2.072252146104604</v>
+        <v>-2.51174257919121</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>15.97142455613829</v>
+        <v>12.89594898479752</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-1.278041378155677</v>
+        <v>-3.192504695053936</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-1000</v>
+        <v>-926.8896384139201</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-925.144937298788</v>
+        <v>-924.1676257916766</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-926.7303937575098</v>
+        <v>-923.8934877504289</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-265.0724125338165</v>
+        <v>-313.9810338086818</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-26.44770391290441</v>
+        <v>-28.69194756604098</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0.1599949270442964</v>
+        <v>-1.98481379341113</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-923.3692656951398</v>
+        <v>-860.7297689457679</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-851.9576050595379</v>
+        <v>-852.9586554627415</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-858.3058376767822</v>
+        <v>-855.3704833035873</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-233.6771580094003</v>
+        <v>-290.2899836377544</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-23.04598725746354</v>
+        <v>-26.26141404065554</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>1.59662972251344</v>
+        <v>-0.7858427634380722</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-855.5661292381095</v>
+        <v>-795.8769562990352</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-772.1570584897606</v>
+        <v>-777.1878101134271</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-789.9575588821974</v>
+        <v>-787.7394333509492</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-202.4207548397466</v>
+        <v>-266.8858870322046</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-19.6486096932454</v>
+        <v>-23.84196411280891</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>2.915650286186557</v>
+        <v>0.3631672610655901</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-788.4070008476364</v>
+        <v>-788.3519930391997</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-516.5460670454454</v>
+        <v>-583.1174296950404</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-729.2975247097685</v>
+        <v>-728.4195846513752</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-172.8106825791631</v>
+        <v>-246.8895699867735</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-17.12362642228298</v>
+        <v>-21.73316860343212</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>4.198615394078122</v>
+        <v>1.529772811893805</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-728.3491360080012</v>
+        <v>-728.5869965726657</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-255.5568656890522</v>
+        <v>-385.3783575797941</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-667.8985039809436</v>
+        <v>-669.804795587991</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-143.2959960918041</v>
+        <v>-227.1606567336077</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-14.60112871238543</v>
+        <v>-19.63882161695811</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>5.496430756405</v>
+        <v>2.732175003859927</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-668.709231159437</v>
+        <v>-669.2639392194081</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-234.7334063737995</v>
+        <v>-326.6806190670537</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-607.5325479449348</v>
+        <v>-619.8376723608037</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-114.3414913041708</v>
+        <v>-210.4683891142586</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-12.59906438196812</v>
+        <v>-17.82851470134237</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>6.662768637217519</v>
+        <v>3.850367394698125</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-616.4405857916132</v>
+        <v>-617.1989596720035</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-213.910713097848</v>
+        <v>-268.1324256438898</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-546.0435451544039</v>
+        <v>-576.0950327520972</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-85.36050099265969</v>
+        <v>-194.015088617195</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-10.59545513111157</v>
+        <v>-16.03928975266868</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>7.830418707659934</v>
+        <v>4.971389779137782</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-564.5078241473848</v>
+        <v>-565.4702451004786</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-198.5254243624255</v>
+        <v>-246.1200195135951</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-315.3057437296772</v>
+        <v>-560.2653375797147</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-57.23418630659209</v>
+        <v>-180.2830267128535</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-8.938212120222161</v>
+        <v>-14.50126989231332</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>8.864264599677407</v>
+        <v>5.977667947222951</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-519.3514690776398</v>
+        <v>-520.58477393025</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-183.1509054609373</v>
+        <v>-224.5934118608352</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-83.18812623449759</v>
+        <v>-515.1540199231016</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-30.65703808207112</v>
+        <v>-166.7354569762663</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-7.281120169899086</v>
+        <v>-12.85875880272156</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>9.90314655782141</v>
+        <v>6.978132733038501</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-474.3824660265082</v>
+        <v>-475.9056571334619</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-171.5979965442755</v>
+        <v>-214.6616728163501</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-75.25559581985003</v>
+        <v>-470.2382932083882</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-28.33540517460877</v>
+        <v>-155.7674353368134</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-5.87715480651526</v>
+        <v>-11.16919870780488</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>10.79982266512089</v>
+        <v>7.85886523067284</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-435.7244074285916</v>
+        <v>-437.6114894994531</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-160.5586838809596</v>
+        <v>-207.1374181961362</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-67.19992761295177</v>
+        <v>-431.7446472393324</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-26.12604543563902</v>
+        <v>-145.0484451467932</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-4.614908315925138</v>
+        <v>-9.691062821883333</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>11.67279630153352</v>
+        <v>8.716392266708745</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-397.2681597936645</v>
+        <v>-399.5042629884171</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-151.9530772553152</v>
+        <v>-194.8631741825351</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-58.81840611273164</v>
+        <v>-393.4815881113457</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-24.49770874391226</v>
+        <v>-136.5028269209333</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-3.374064667577238</v>
+        <v>-8.233335471936698</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>12.47777798002216</v>
+        <v>9.500718389123456</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-364.2748622210418</v>
+        <v>-366.9184012343998</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-143.9442540092196</v>
+        <v>-183.7870256187613</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-53.79945593909618</v>
+        <v>-360.7517680007918</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-22.89993130733161</v>
+        <v>-128.2400268875649</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-2.215581882584806</v>
+        <v>-6.969393655744838</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>13.27842042801604</v>
+        <v>10.27891975882975</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-331.4837656971645</v>
+        <v>-334.5046479801899</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-138.7653521482036</v>
+        <v>-172.7021335679222</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-48.93078838371078</v>
+        <v>-328.253221867385</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-21.43028601077652</v>
+        <v>-122.1653554914127</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-1.061929422389854</v>
+        <v>-5.722285644116129</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>14.01432663472247</v>
+        <v>10.99122060598289</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-303.4039818955316</v>
+        <v>-306.8690211851835</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-131.1924631437046</v>
+        <v>-162.7005547512299</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-44.71944008361879</v>
+        <v>-300.515656799302</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-19.89045669968458</v>
+        <v>-117.0605233933051</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.02575194495687</v>
+        <v>-4.573089205286806</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>14.74625315117652</v>
+        <v>11.69597535083772</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-275.5252600948076</v>
+        <v>-279.3847457769783</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-123.5163587266916</v>
+        <v>-152.686284238733</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-40.5387420081497</v>
+        <v>-273.0002314977896</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-18.35503721486946</v>
+        <v>-111.7834941213522</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>1.106274937162359</v>
+        <v>-3.431549664107859</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>15.39067538410596</v>
+        <v>12.32915139212714</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-251.7459358485257</v>
+        <v>-256.0878563591771</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-117.4706771463519</v>
+        <v>-143.4520359108378</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-36.94958083407268</v>
+        <v>-249.62235992581</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-16.95786971457878</v>
+        <v>-106.5114573650556</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>2.126900177969013</v>
+        <v>-2.377433632399834</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>16.02874063597676</v>
+        <v>12.95615368984073</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-228.2111421828796</v>
+        <v>-232.9490676755453</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-111.4478054595</v>
+        <v>-134.2861971347883</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-33.37946453861503</v>
+        <v>-226.4964641266479</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-15.57686471072276</v>
+        <v>-101.2819615064419</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>3.138744271533413</v>
+        <v>-1.337947634530692</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>16.55641427905498</v>
+        <v>13.60710515497267</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-209.4331884092743</v>
+        <v>-214.6135447721665</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-107.192205963987</v>
+        <v>-127.3546910559957</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-30.48765309005141</v>
+        <v>-208.1047827426789</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-14.32031241934128</v>
+        <v>-98.01959940758479</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>4.085255161889349</v>
+        <v>-0.3801439322728317</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>17.07181870842053</v>
+        <v>14.18489557541792</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-867.3848632225914</v>
+        <v>-858.1735302494459</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-851.4319874801618</v>
+        <v>-852.5261078819981</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-856.3423028267678</v>
+        <v>-854.4862363150289</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-233.5046413017811</v>
+        <v>-290.1108585211716</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>-22.83850007627082</v>
+        <v>-26.04829444960021</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1.807166661558167</v>
+        <v>-0.562386964667972</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-801.9204105990608</v>
+        <v>-791.765568535063</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-771.4941535570213</v>
+        <v>-776.6800820681393</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-787.8475328816612</v>
+        <v>-786.4864860758452</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-202.2604112754766</v>
+        <v>-266.6977402086385</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>-19.43796560399242</v>
+        <v>-23.60704817281664</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>3.079953475422406</v>
+        <v>0.6102793808003077</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-745.0256962203281</v>
+        <v>-733.0884200778022</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-515.9894822756964</v>
+        <v>-582.5557794346196</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-727.0210146116968</v>
+        <v>-726.758522812012</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-172.6334807781813</v>
+        <v>-246.6755469943312</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-16.90974439782643</v>
+        <v>-21.47245642837666</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>4.367420297014257</v>
+        <v>1.805047648410024</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-728.26792188303</v>
+        <v>-675.0252507141302</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-254.9836298335482</v>
+        <v>-384.6967328756916</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-665.4312989622639</v>
+        <v>-667.6753383786645</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-143.0987544884586</v>
+        <v>-226.9344230655496</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>-14.38392477814987</v>
+        <v>-19.34720018343483</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>5.534619672418893</v>
+        <v>2.85593750960228</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-668.6227636947492</v>
+        <v>-626.205961644862</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-234.1426660983604</v>
+        <v>-325.828424256587</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-604.8449494042902</v>
+        <v>-616.0038058981257</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-114.120117469966</v>
+        <v>-210.2064109662746</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>-12.37845147637812</v>
+        <v>-17.49932330272272</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>6.701143578372036</v>
+        <v>3.909402554629883</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-616.3482727861765</v>
+        <v>-617.0714074183566</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-213.3015520938646</v>
+        <v>-267.0223385173268</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-538.9650624974253</v>
+        <v>-564.9570932241139</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>-85.07820977209091</v>
+        <v>-193.7358708357308</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>-10.37134295784424</v>
+        <v>-15.66365727990582</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>7.868981189437859</v>
+        <v>5.032864546934109</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-564.4089754673178</v>
+        <v>-565.329513154153</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-197.8968571963943</v>
+        <v>-244.5833372979159</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-312.0565500369037</v>
+        <v>-521.1602229490173</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-56.92145757114046</v>
+        <v>-179.9519638048388</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>-8.710506991706465</v>
+        <v>-14.06706646840029</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>8.903016154905954</v>
+        <v>6.041755193421784</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-519.2452747867858</v>
+        <v>-520.428420990378</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-182.5018706677571</v>
+        <v>-222.2396054627833</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-79.57409396982759</v>
+        <v>-478.7129890208911</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-30.48371201581339</v>
+        <v>-166.3786486788075</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>-7.049724841440982</v>
+        <v>-12.48763832798891</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>9.942088736928335</v>
+        <v>7.045022986924135</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-474.2679682318634</v>
+        <v>-475.7305569540569</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-170.9273488510377</v>
+        <v>-210.1988211131309</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-71.19630158267991</v>
+        <v>-470.1007579413112</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-28.15974450382222</v>
+        <v>-155.3302525772878</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>-5.798752293640606</v>
+        <v>-11.10081287950965</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>10.83895703639523</v>
+        <v>7.928769070521767</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-435.6004635863512</v>
+        <v>-437.4135617290393</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-159.6729531165269</v>
+        <v>-199.1583772355795</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-64.17202273193068</v>
+        <v>-431.5920997242022</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>-25.93064577978066</v>
+        <v>-144.5208322317647</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>-4.575767472923616</v>
+        <v>-9.619548469034305</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>11.71345440968642</v>
+        <v>8.790995971389133</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-397.1513106388251</v>
+        <v>-399.29564569166</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-150.7032913499708</v>
+        <v>-191.5415322115461</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-58.7432816692227</v>
+        <v>-393.3221703727343</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-24.27856695647231</v>
+        <v>-135.8203429459181</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>-3.333399662184434</v>
+        <v>-8.156935125503155</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>12.5200613599682</v>
+        <v>9.580573652787818</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-364.1482320869595</v>
+        <v>-366.6787823376987</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-141.9748535535815</v>
+        <v>-183.6725440902459</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-53.72885988674505</v>
+        <v>-360.5729603418418</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-22.6518047533265</v>
+        <v>-127.3123211201051</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>-2.173291139654614</v>
+        <v>-6.887524031349571</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>13.32244034817549</v>
+        <v>10.3646734709824</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-331.3644835139637</v>
+        <v>-334.2502255701555</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-135.1505191576736</v>
+        <v>-172.5702073361375</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-48.85605333984339</v>
+        <v>-328.0654196358711</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-21.21085464231799</v>
+        <v>-120.7516201338436</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>-1.017901628243342</v>
+        <v>-5.634261013486551</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>14.06020533075439</v>
+        <v>11.08363708223099</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-303.2745669165222</v>
+        <v>-306.5706303872061</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-128.8314118574453</v>
+        <v>-162.5448164431658</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-44.6401449667938</v>
+        <v>-300.3020611094188</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-19.79009804420703</v>
+        <v>-114.4628620311099</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>0.07163907705434963</v>
+        <v>-4.478097022227613</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>14.79412525642321</v>
+        <v>11.79596526157071</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-275.4034591844187</v>
+        <v>-279.0648140863221</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-123.4496785548751</v>
+        <v>-152.5234304069348</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>-40.4544031882502</v>
+        <v>-272.7744666162921</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>-18.31202937351566</v>
+        <v>-110.063061333801</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>1.154156098386406</v>
+        <v>-3.328618700532852</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>15.44068959493157</v>
+        <v>12.43780991457457</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-251.6136323290959</v>
+        <v>-255.7018436877989</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-117.4002404784022</v>
+        <v>-143.2690602547191</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>-36.85963965051465</v>
+        <v>-249.3609807370901</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-16.91307475655029</v>
+        <v>-106.4066117674162</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>2.176924130400886</v>
+        <v>-2.265391740661538</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>16.08106165900011</v>
+        <v>13.07481157651453</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-228.0867325561545</v>
+        <v>-232.5295185558409</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-111.3732456714265</v>
+        <v>-134.0938679242449</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>-33.28327163117769</v>
+        <v>-226.2179126158983</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-15.53015531429728</v>
+        <v>-101.173471722529</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>3.191075796747671</v>
+        <v>-1.215364889065526</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>16.61122511847531</v>
+        <v>13.64713415546726</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-209.2978871609551</v>
+        <v>-214.0862224888241</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-107.1131042795187</v>
+        <v>-127.135472355915</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>-30.38444853293634</v>
+        <v>-207.7746056108222</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-14.27154818794518</v>
+        <v>-97.90113694189843</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>4.140077349918519</v>
+        <v>-0.2452547599482111</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>17.12932336595787</v>
+        <v>14.22674813380066</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-192.2671344365656</v>
+        <v>-197.2456828301249</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-103.1972339499235</v>
+        <v>-120.7242631912734</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>-27.65570933585097</v>
+        <v>-191.0124163451399</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>-13.04670196795513</v>
+        <v>-94.82823274726071</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>5.067731965775842</v>
+        <v>0.7058698065020884</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>17.61491510594517</v>
+        <v>14.79226302539746</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-191.3875021431705</v>
+        <v>-195.6968168522228</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-102.5839855461246</v>
+        <v>-119.8135530574987</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>-26.91959796639761</v>
+        <v>-189.8336871363247</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>-12.60241631296109</v>
+        <v>-94.23037743692085</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>5.553399622848779</v>
+        <v>1.37517759819783</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>17.84432918001282</v>
+        <v>15.06455257545202</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-733.8688628629666</v>
+        <v>-731.1880513000071</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-515.6082897840298</v>
+        <v>-582.1919789741224</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-726.0395421289122</v>
+        <v>-725.8604662213733</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>-172.4837346001966</v>
+        <v>-246.5076076722545</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>-16.73654708151616</v>
+        <v>-21.2741930105973</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>4.542870280207245</v>
+        <v>2.012454354003867</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-674.4127783223381</v>
+        <v>-672.5299354016264</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-254.5936562250299</v>
+        <v>-384.2775735098415</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-664.406032822104</v>
+        <v>-666.4699842998107</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-142.9373594054481</v>
+        <v>-226.7583973453787</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>-14.20839576407601</v>
+        <v>-19.1296963706223</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>5.701067839955846</v>
+        <v>3.08414123713341</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-622.6509024358137</v>
+        <v>-621.1143488386881</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-233.7435674915401</v>
+        <v>-325.3381639291812</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-603.7724788683533</v>
+        <v>-614.6545440260015</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-113.9416727513369</v>
+        <v>-210.0073470134921</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>-12.20053789441513</v>
+        <v>-17.25924235919108</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>6.860453099039583</v>
+        <v>4.1531455698922</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-570.9463600515105</v>
+        <v>-570.3357552670068</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-212.8929653685464</v>
+        <v>-266.4380975917835</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-536.7620512893034</v>
+        <v>-563.3097012824129</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>-84.85850705149277</v>
+        <v>-193.5260127837432</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>-10.19099024163281</v>
+        <v>-15.39678909541617</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>7.904918992728612</v>
+        <v>5.100882572249654</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-526.2271305639069</v>
+        <v>-527.0576644560921</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-197.4783985809574</v>
+        <v>-243.8702614115001</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-310.877817377325</v>
+        <v>-518.627023960917</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-56.64167177373928</v>
+        <v>-179.7107801306072</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>-8.527658807929662</v>
+        <v>-13.7680086850839</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>8.939122038667966</v>
+        <v>6.098985170981046</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-481.5650151600747</v>
+        <v>-486.2370122196031</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-182.0731341970016</v>
+        <v>-221.3412376032112</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-78.33533021116634</v>
+        <v>-474.459860375215</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-30.33965204172214</v>
+        <v>-166.1224961558836</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>-6.864323015457034</v>
+        <v>-12.14932192984653</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>9.978364015675206</v>
+        <v>7.104567829052099</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-443.3551571026777</v>
+        <v>-475.5891976614829</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-170.4879046802288</v>
+        <v>-209.0156976853014</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-69.89212226860316</v>
+        <v>-436.8064261725875</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>-28.01397211795274</v>
+        <v>-155.0296015620166</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>-5.610736731247969</v>
+        <v>-10.75248927375416</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>10.87540303908096</v>
+        <v>7.990789230808821</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-411.2562966733614</v>
+        <v>-437.2564607341247</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-159.1342631488447</v>
+        <v>-197.1728617144142</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-62.08243237585828</v>
+        <v>-400.663464738143</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-25.77056988826469</v>
+        <v>-144.1610436207573</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>-4.440887929298327</v>
+        <v>-9.433506342828295</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>11.75125166260213</v>
+        <v>8.856849422234477</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-397.0501415898436</v>
+        <v>-399.1313233201909</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-150.0210170966134</v>
+        <v>-186.8325904599413</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-57.88514141464569</v>
+        <v>-393.1918932794312</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-24.10168139985981</v>
+        <v>-135.3789664023267</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>-3.295596301951845</v>
+        <v>-8.089624837774018</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>12.55929549092287</v>
+        <v>9.650672449169184</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-364.0394202506131</v>
+        <v>-366.494021679624</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-141.0704917393286</v>
+        <v>-177.0344930915182</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-53.6652574590914</v>
+        <v>-360.4290137046665</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>-22.45494128572499</v>
+        <v>-126.7930158268639</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>-2.134050509446699</v>
+        <v>-6.815807166927341</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>13.36320478060829</v>
+        <v>10.43949450073236</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-331.2614042621177</v>
+        <v>-334.0559558183264</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-133.8671984039785</v>
+        <v>-170.6489088017042</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-48.78898406057669</v>
+        <v>-327.9152459991093</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-20.98993925708738</v>
+        <v>-120.0728335337897</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>-0.9771302684750773</v>
+        <v>-5.55763453476651</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>14.10260222078205</v>
+        <v>11.16373580707606</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-303.1635964762844</v>
+        <v>-306.3489950648125</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-126.7883364830474</v>
+        <v>-162.4171727090706</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-44.56928188147125</v>
+        <v>-300.1344068562262</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>-19.5397876797752</v>
+        <v>-113.5201697205488</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>0.1140433630480929</v>
+        <v>-4.395973597080784</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>14.83826657135868</v>
+        <v>11.88199319614312</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-275.2984088070701</v>
+        <v>-278.8302190853577</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-121.4755198145811</v>
+        <v>-152.3907056961855</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>-40.37937446308871</v>
+        <v>-272.5987492392608</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-18.24067029813544</v>
+        <v>-108.6184290278107</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>1.198305323543195</v>
+        <v>-3.240307614724339</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>15.48669835923395</v>
+        <v>12.53053710857545</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-251.5004308995541</v>
+        <v>-255.429146143385</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-116.8357286823349</v>
+        <v>-143.1222193539577</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-36.78002032495196</v>
+        <v>-249.1622953982234</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>-16.87162895906545</v>
+        <v>-103.9524651567088</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>2.222941370679747</v>
+        <v>-2.170074243444428</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>16.12907339927357</v>
+        <v>13.17515588687365</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-227.97964737322</v>
+        <v>-232.2383577791358</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-111.3063227322191</v>
+        <v>-133.9405865182406</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>-33.19857343820016</v>
+        <v>-226.0084680726382</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-15.48703069930687</v>
+        <v>-101.0808740682802</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>3.239096637080109</v>
+        <v>-1.112061944055704</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>16.66138954623161</v>
+        <v>13.72549527503326</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-209.1823789093785</v>
+        <v>-213.7392084118321</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-107.0424015843367</v>
+        <v>-126.9640781899573</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>-30.29410722808076</v>
+        <v>-207.5339436019697</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>-14.22662824783069</v>
+        <v>-97.80094039554866</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>4.19025156811105</v>
+        <v>-0.1327842695499603</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>17.18180634581575</v>
+        <v>14.26515383469443</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-192.1504432012875</v>
+        <v>-196.8477242553591</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-103.1260107420567</v>
+        <v>-120.5378949558088</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>-27.56458385495222</v>
+        <v>-190.744854577279</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>-12.99985854969145</v>
+        <v>-94.7220542962241</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>5.12022550208153</v>
+        <v>0.8289506245977266</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>17.63581405004489</v>
+        <v>14.83236892421958</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-191.3569638079562</v>
+        <v>-195.6329569304484</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-102.5595225805733</v>
+        <v>-119.7645835064657</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>-26.89213309348127</v>
+        <v>-189.7774957320189</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-12.58278518135492</v>
+        <v>-94.19248392538626</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>5.574300841430722</v>
+        <v>1.415917473948012</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>17.85619183025733</v>
+        <v>15.08604278566025</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-191.0573270606263</v>
+        <v>-195.268014519798</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-102.308783949425</v>
+        <v>-119.4672914194197</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>-26.61681617355428</v>
+        <v>-189.4465951781638</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-12.37354749089411</v>
+        <v>-93.9501563678842</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>5.794698439441062</v>
+        <v>1.672806927306936</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>17.9924973483997</v>
+        <v>15.23713240248522</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-190.8884073824427</v>
+        <v>-195.0749922072447</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-102.1593652572339</v>
+        <v>-119.2987266572291</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>-26.45736283796169</v>
+        <v>-189.2655118417288</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>-12.24227081049421</v>
+        <v>-93.80386522473613</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>5.931012795298219</v>
+        <v>1.825236509644256</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>18.08741639899556</v>
+        <v>15.34019339419392</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-620.580928708427</v>
+        <v>-619.6360095584148</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-233.449403472524</v>
+        <v>-325.00979558271</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-603.1568123266482</v>
+        <v>-613.7711066127854</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>-113.7938641181441</v>
+        <v>-209.8494740390433</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>-12.05311724680788</v>
+        <v>-17.07418253144302</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>7.009593346241779</v>
+        <v>4.346340342385201</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-568.7154899113958</v>
+        <v>-568.4987386105171</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-212.5945779304298</v>
+        <v>-266.0634915647669</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-535.2943031042911</v>
+        <v>-562.1579353721162</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-84.68122932977367</v>
+        <v>-193.3608581763421</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>-10.04178973443465</v>
+        <v>-15.19464317917863</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>8.036861874808052</v>
+        <v>5.312477607781178</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-523.8123610990829</v>
+        <v>-524.0362738953139</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-197.1560510576122</v>
+        <v>-243.4373663723473</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-310.2215430232698</v>
+        <v>-517.4394428789665</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-56.4236192067064</v>
+        <v>-179.5250069236774</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>-8.376642292804551</v>
+        <v>-13.54596783406884</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>9.069073359555597</v>
+        <v>6.268131521390874</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-478.9382292602484</v>
+        <v>-480.1047475973343</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-181.7629293148526</v>
+        <v>-220.8330548142481</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-77.65703156912944</v>
+        <v>-473.0447253629129</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>-30.21745235837339</v>
+        <v>-165.9271251464242</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>-6.71145330657602</v>
+        <v>-11.90388331079245</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>10.01226352463338</v>
+        <v>7.158020163960705</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-440.481490181876</v>
+        <v>-442.7732615685986</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-170.1714943564732</v>
+        <v>-208.4072940297069</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-69.19052768462896</v>
+        <v>-434.8780986200697</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>-27.89047251022592</v>
+        <v>-154.80659313855</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>-5.455975566640733</v>
+        <v>-10.47921807297315</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>10.90945501717677</v>
+        <v>8.046304222559792</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-402.9810532731292</v>
+        <v>-407.6699822883256</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-158.7626202371963</v>
+        <v>-196.3500442177513</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-61.14685282705034</v>
+        <v>-397.1550494925609</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-25.63631505158982</v>
+        <v>-143.9031819296839</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>-4.270268826626427</v>
+        <v>-9.110333810050262</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>11.78650855482376</v>
+        <v>8.915539440040941</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-371.6997363865049</v>
+        <v>-398.9975559065815</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-149.5758730437362</v>
+        <v>-185.6267410742404</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-56.54488291986837</v>
+        <v>-365.3543488983003</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-23.95501235702942</v>
+        <v>-135.0760796574787</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>-3.173640011755016</v>
+        <v>-7.954405286608821</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>12.59583008438541</v>
+        <v>9.712852271144722</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-346.3054210420239</v>
+        <v>-366.3459458998083</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-140.5237703504949</v>
+        <v>-174.9930654360646</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-52.15029609795607</v>
+        <v>-335.1218338051835</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-22.29381680963687</v>
+        <v>-126.4499880106183</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>-2.089839419925289</v>
+        <v>-6.752304403300495</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>13.4010961716443</v>
+        <v>10.50552442135531</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-331.1711633239045</v>
+        <v>-333.9013475267613</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-133.1729546569052</v>
+        <v>-165.6670545962245</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-48.72143797218958</v>
+        <v>-327.7916096689892</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-20.81181449169706</v>
+        <v>-119.6549286513841</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>-0.9392327447434494</v>
+        <v>-5.49014121322689</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>14.1419365360612</v>
+        <v>11.23403046840115</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-303.0670682233687</v>
+        <v>-306.1760011040065</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-125.8646724497873</v>
+        <v>-157.0221430051501</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-44.50545510120588</v>
+        <v>-299.9982811349132</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-19.34144200066376</v>
+        <v>-112.9952596102825</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>0.1533842052707684</v>
+        <v>-4.324053262932839</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>14.87913779238857</v>
+        <v>11.95703260881746</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-275.2065910419712</v>
+        <v>-278.6487213920025</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-120.1571051759248</v>
+        <v>-151.6634661568145</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>-40.31206004690453</v>
+        <v>-272.4569583743415</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>-18.01795721330197</v>
+        <v>-107.930829316421</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>1.239183502188328</v>
+        <v>-3.163453885261428</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>15.52920926823008</v>
+        <v>12.61088053507665</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-251.402137190548</v>
+        <v>-255.2233472813089</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-114.7140846755798</v>
+        <v>-143.0009976240611</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>-36.70888851822409</v>
+        <v>-249.004679554959</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>-16.7210869575717</v>
+        <v>-102.9741414877562</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>2.265459708831135</v>
+        <v>-2.087695702562517</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>16.17333666809769</v>
+        <v>13.26145950961102</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-227.8862062897642</v>
+        <v>-232.0211361634121</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-111.2282908846844</v>
+        <v>-133.8147084163639</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>-33.12324910235155</v>
+        <v>-225.8435906898687</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>-15.44705460910955</v>
+        <v>-100.0211040586855</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>3.283367852593733</v>
+        <v>-1.023462844798074</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>16.70752899470186</v>
+        <v>13.8185349332952</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-209.082265227082</v>
+        <v>-213.488706882962</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-106.9787095473531</v>
+        <v>-126.825317493079</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>-30.21416147732771</v>
+        <v>-207.3485077613435</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>-14.18507266700436</v>
+        <v>-97.41708687285889</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>4.236399532733618</v>
+        <v>-0.03713959549699747</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>17.22995840143544</v>
+        <v>14.3591731807233</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-192.0493983473501</v>
+        <v>-196.5683861083838</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-103.0618815488199</v>
+        <v>-120.3887093957112</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>-27.48399890921597</v>
+        <v>-190.5422728368425</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>-12.95661663155329</v>
+        <v>-94.63123445832871</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>5.168386702142877</v>
+        <v>0.9326277991340138</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>17.65574913165622</v>
+        <v>14.8692581764216</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-191.328219271019</v>
+        <v>-195.5759152256301</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-102.5363074176586</v>
+        <v>-119.7200584048189</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>-26.86617638293562</v>
+        <v>-189.726853724407</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>-12.56402380970201</v>
+        <v>-94.15752407733869</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>5.594238025374021</v>
+        <v>1.453357830513744</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>17.86767482315745</v>
+        <v>15.10636944627075</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-191.0426774741876</v>
+        <v>-195.2411602928846</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-102.2960452359822</v>
+        <v>-119.4442862536548</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>-26.60310061760612</v>
+        <v>-189.4216343461929</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>-12.36253973790049</v>
+        <v>-93.93055455795465</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>5.806182270633327</v>
+        <v>1.693336825046608</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>18.00017618745535</v>
+        <v>15.25041680646334</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-190.8791904256704</v>
+        <v>-195.0586892253691</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-102.1510576406915</v>
+        <v>-119.2841584163187</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>-26.44858357239038</v>
+        <v>-189.2500469565977</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>-12.23483698620507</v>
+        <v>-93.79094020599976</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>5.938692063015541</v>
+        <v>1.83862073228618</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>18.09300934991984</v>
+        <v>15.34973448833581</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-190.7699580286964</v>
+        <v>-194.9397248042112</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-102.051456759571</v>
+        <v>-119.1763905600503</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>-26.34396471812651</v>
+        <v>-189.1364611298381</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>-12.14466601154914</v>
+        <v>-93.69401429906324</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>6.031529870560202</v>
+        <v>1.938600644300821</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>18.16269274464748</v>
+        <v>15.42352416082967</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-190.6903759503383</v>
+        <v>-194.8543243655093</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-101.9776278573844</v>
+        <v>-119.0975243996224</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>-26.26711757375487</v>
+        <v>-189.05417317825</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>-12.07663773520106</v>
+        <v>-93.62168534763414</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>6.101216140938131</v>
+        <v>2.012792863089417</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>18.21748312710187</v>
+        <v>15.48113012340875</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-522.7283843206496</v>
+        <v>-522.8163076818928</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-196.8942486785312</v>
+        <v>-243.1390095634045</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-309.7892034347321</v>
+        <v>-516.6059841834818</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>-56.24749579877547</v>
+        <v>-179.3762318782226</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>-8.249178331814656</v>
+        <v>-13.37270585409471</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>9.197885167705675</v>
+        <v>6.448669457679201</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-477.8784408234264</v>
+        <v>-478.631348536761</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-181.5250935946248</v>
+        <v>-220.4955999888146</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-77.21383186245875</v>
+        <v>-472.0106009325714</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>-30.11209049466379</v>
+        <v>-165.7703380766456</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>-6.582594309782202</v>
+        <v>-11.71536571006894</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>10.08921556958071</v>
+        <v>7.295464813649613</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-439.3213568384211</v>
+        <v>-440.5972397908038</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-169.9189104259482</v>
+        <v>-208.0213336663902</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-68.73600306045815</v>
+        <v>-433.8092162050776</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>-27.78409636995989</v>
+        <v>-154.632692185245</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>-5.325695875219037</v>
+        <v>-10.27306095524015</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>10.94136408658646</v>
+        <v>8.097786417690751</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-401.3051658786209</v>
+        <v>-403.1457555912295</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-158.4863949329435</v>
+        <v>-195.8714637633403</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-60.58685704627332</v>
+        <v>-395.8531056953659</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>-25.52161106114904</v>
+        <v>-143.7067250325092</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>-4.128200016833639</v>
+        <v>-8.873813061975314</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>11.81949746717784</v>
+        <v>8.968277153014279</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-368.6822255050365</v>
+        <v>-371.6032830608171</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-149.2561800749898</v>
+        <v>-185.0101755527671</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-55.83073978488313</v>
+        <v>-363.425043104736</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>-23.83083314820367</v>
+        <v>-134.8517161155239</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>-3.017887833159364</v>
+        <v>-7.679229167727944</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>12.62996115981739</v>
+        <v>9.768499969774815</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-336.9281051913264</v>
+        <v>-342.4278312858114</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-140.1478268457451</v>
+        <v>-174.1543574303784</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-51.19426718816159</v>
+        <v>-331.4437760699548</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>-22.15878058384376</v>
+        <v>-126.2018016201179</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>-1.918053672671274</v>
+        <v>-6.51553875370368</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>13.43643688533454</v>
+        <v>10.56436005225111</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-310.710543877013</v>
+        <v>-333.7745151456641</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-132.7219857944241</v>
+        <v>-164.4377234837484</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-47.34336789225929</v>
+        <v>-304.7133203742857</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>-20.66423955106219</v>
+        <v>-119.3646602794106</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>-0.8908627247767815</v>
+        <v>-5.430099913458124</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>14.17856007984979</v>
+        <v>11.29637063862308</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-291.5884115181778</v>
+        <v>-306.0361171413721</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-125.3097167127926</v>
+        <v>-154.9219939660948</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-43.71982662329095</v>
+        <v>-279.6092628495476</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>-19.17925742673921</v>
+        <v>-112.6494422504039</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>0.1900135435053628</v>
+        <v>-4.260384416907913</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>14.91712371303727</v>
+        <v>12.02323978920361</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-275.1254424048938</v>
+        <v>-278.5029050522657</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-119.4505345416197</v>
+        <v>-146.3771032938111</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>-40.25122257842694</v>
+        <v>-272.3394165812217</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>-17.83857868025321</v>
+        <v>-107.5046374530402</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>1.277175581059307</v>
+        <v>-3.095776698422183</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>15.56864419501327</v>
+        <v>12.68137197569717</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-251.3157424270868</v>
+        <v>-255.060919944077</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-113.7704124583656</v>
+        <v>-138.619214719022</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>-36.64483606275916</v>
+        <v>-248.875690459612</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>-16.52124034119412</v>
+        <v>-102.4017019184768</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>2.304901190413622</v>
+        <v>-2.015570934173819</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>16.21431514488617</v>
+        <v>13.33671837029209</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-227.8037380659435</v>
+        <v>-231.8510674594775</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-109.8731177855395</v>
+        <v>-133.7089345652908</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>-33.05568805170822</v>
+        <v>-225.7094297259563</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>-15.33695852437431</v>
+        <v>-99.32449652371402</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>3.32435331746289</v>
+        <v>-0.946380738370824</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>16.75015443475375</v>
+        <v>13.89912431080073</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-208.9944047216426</v>
+        <v>-213.2969405985961</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-106.3978180492852</v>
+        <v>-126.7099961884033</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>-30.14275924576991</v>
+        <v>-207.199965602712</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>-14.14648141382451</v>
+        <v>-96.44315864630286</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>4.279032435338879</v>
+        <v>0.04549538566856809</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>17.27434418687352</v>
+        <v>14.44575396837105</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-191.9607893461088</v>
+        <v>-196.358453384634</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-103.0037418834502</v>
+        <v>-120.265787791934</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>-27.41206752820318</v>
+        <v>-190.3820164172828</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>-12.91653717610293</v>
+        <v>-94.55239512546505</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>5.21278047097451</v>
+        <v>1.021516482013641</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>17.67479223253443</v>
+        <v>14.90333898095511</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-191.3010995294952</v>
+        <v>-195.5245588688811</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-102.51423746189</v>
+        <v>-119.6793437309228</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>-26.84159467431592</v>
+        <v>-189.6809039817476</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>-12.54606981370908</v>
+        <v>-94.12513790123246</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>5.613283074138772</v>
+        <v>1.487921278048746</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>17.87879798720892</v>
+        <v>15.12563390175161</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-191.0285653957981</v>
+        <v>-195.2159807930327</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-102.2837334968455</v>
+        <v>-119.4225818057962</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>-26.5898673085186</v>
+        <v>-189.3981597807793</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>-12.35186758121845</v>
+        <v>-93.91195361860265</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>5.817306229652321</v>
+        <v>1.712787070799944</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>18.00766988368684</v>
+        <v>15.26317272806175</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-190.8702238100049</v>
+        <v>-195.0431260835851</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-102.1429608894782</v>
+        <v>-119.2702052009732</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>-26.44003531661776</v>
+        <v>-189.235260502223</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>-12.22757863941131</v>
+        <v>-93.77852036008674</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>5.946186170821218</v>
+        <v>1.851469926395817</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>18.09849271664492</v>
+        <v>15.35896916199078</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-190.7636251657288</v>
+        <v>-194.9289067509806</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-102.0456194990553</v>
+        <v>-119.1664673965978</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>-26.33786809639178</v>
+        <v>-189.1260705513222</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>-12.13932317733303</v>
+        <v>-93.68497662503367</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>6.037013481830439</v>
+        <v>1.947889694684087</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>18.1669275658804</v>
+        <v>15.43060454769582</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-190.6855997689887</v>
+        <v>-194.8462496984626</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-101.9731649003662</v>
+        <v>-119.0900061972656</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>-26.26248980949709</v>
+        <v>-189.0463625978191</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>-12.07249458420176</v>
+        <v>-93.61473185523147</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>6.1054511211479</v>
+        <v>2.019908146865282</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>18.22088048661381</v>
+        <v>15.48678056743195</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-190.6253078257287</v>
+        <v>-194.7828680616383</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-101.9165290243923</v>
+        <v>-119.0306417692678</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>-26.20392633278045</v>
+        <v>-188.9848826125041</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>-12.01962462989238</v>
+        <v>-93.55948464882322</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>6.159405917528736</v>
+        <v>2.076339222916516</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>18.26483048927086</v>
+        <v>15.53236140382573</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-190.5769117006294</v>
+        <v>-194.7322733770277</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-101.8706838236952</v>
+        <v>-118.9828254217123</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>-26.15673172403986</v>
+        <v>-188.9355979063195</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>-11.97644534653255</v>
+        <v>-93.51456024472598</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>6.203357252148332</v>
+        <v>2.12209990298616</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>18.30152985043954</v>
+        <v>15.57030711943387</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-438.5299023865971</v>
+        <v>-439.5168119505368</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-169.7064933051665</v>
+        <v>-207.7486653584427</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-68.41093839818384</v>
+        <v>-433.0558204403004</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>-27.69122043310081</v>
+        <v>-154.4921724193204</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>-5.21405671785889</v>
+        <v>-10.11039238372578</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>11.0395034457472</v>
+        <v>8.272955319592999</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-400.3082224492197</v>
+        <v>-401.7297712392082</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-158.2706940026827</v>
+        <v>-195.5490892667343</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-60.20385758606783</v>
+        <v>-394.9035294807862</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>-25.42213127252622</v>
+        <v>-143.550625006852</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>-4.007515252013727</v>
+        <v>-8.691062433314809</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>11.85045157215844</v>
+        <v>9.016005130677048</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-367.531902551449</v>
+        <v>-369.4167600058502</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-149.0122828712826</v>
+        <v>-184.5962470252393</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-55.3701823322538</v>
+        <v>-362.452088233321</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>-23.72392741753767</v>
+        <v>-134.6769214581764</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>-2.886865039892362</v>
+        <v>-7.471883966330363</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>12.66194119873869</v>
+        <v>9.818684568992754</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-335.1965977336068</v>
+        <v>-337.6413814638559</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-139.8689875961193</v>
+        <v>-173.6352696549054</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-50.62569707474431</v>
+        <v>-330.1700938859526</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>-22.04347592712702</v>
+        <v>-126.0115186194227</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>-1.775125968105478</v>
+        <v>-6.277522577971901</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>13.46950081877345</v>
+        <v>10.61721958023901</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-307.5359739672878</v>
+        <v>-311.1155058849448</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-132.3989528377378</v>
+        <v>-163.799036514065</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-46.616293990698</v>
+        <v>-302.7614846537338</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>-20.53937447949256</v>
+        <v>-119.1479857304677</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>-0.734108896957097</v>
+        <v>-5.191256560854166</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>14.21277055936087</v>
+        <v>11.35215157392068</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-280.7676376796448</v>
+        <v>-287.1098162376657</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-124.9293886870595</v>
+        <v>-154.0526698326471</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-42.74258167441297</v>
+        <v>-275.7497754960943</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>-19.04343219471443</v>
+        <v>-112.3892139295915</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>0.2941745840096968</v>
+        <v>-4.125901486026949</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>14.95254858091613</v>
+        <v>12.08222163658546</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-259.0087452908142</v>
+        <v>-278.3824278435301</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-118.9936120549077</v>
+        <v>-145.1125071111008</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>-39.51215907959277</v>
+        <v>-253.4474278991491</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>-17.6900884669339</v>
+        <v>-107.1971948722904</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>1.312605930692209</v>
+        <v>-3.035584147678218</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>15.60535705072379</v>
+        <v>12.7438731848657</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-246.140947635201</v>
+        <v>-254.9284984333366</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-113.2070121457948</v>
+        <v>-136.373987149797</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>-36.52223052446141</v>
+        <v>-232.8991310014331</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>-16.35798397817528</v>
+        <v>-102.0327173894793</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>2.341619864145809</v>
+        <v>-1.95173528017639</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>16.25239598892353</v>
+        <v>13.40310360538964</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-227.7302506018696</v>
+        <v>-231.7132391658242</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-109.1538476099682</v>
+        <v>-130.0975613851227</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>-32.99464227274227</v>
+        <v>-225.5974972021888</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>-15.15631142383</v>
+        <v>-98.87844904641565</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>3.362440345398217</v>
+        <v>-0.8785188494420404</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>16.78969040277548</v>
+        <v>13.96981345105889</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-208.9164859107628</v>
+        <v>-213.1440446970356</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-105.4333945027669</v>
+        <v>-124.8981031217326</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>-30.07847978157207</v>
+        <v>-207.0775099216843</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>-13.99566344438877</v>
+        <v>-95.90672900121911</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>4.318574986182418</v>
+        <v>0.1178255592300415</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>17.31543038944884</v>
+        <v>14.52123334943242</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-191.8822582040228</v>
+        <v>-196.1932487302573</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-102.9507139224243</v>
+        <v>-120.1622302140699</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>-27.34734414916543</v>
+        <v>-190.2511408837338</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>-12.87925259717127</v>
+        <v>-94.48311454569337</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>5.253873692283062</v>
+        <v>1.098828099461297</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>17.69300794658123</v>
+        <v>14.93495051172646</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-191.2754570637927</v>
+        <v>-195.478002130351</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-102.4932215519199</v>
+        <v>-119.6419252668768</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>-26.81827070647656</v>
+        <v>-189.6389639557525</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>-12.5288668989602</v>
+        <v>-94.09502436199473</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>5.631500597057354</v>
+        <v>1.519958332373324</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>17.88957973072552</v>
+        <v>15.1439255541985</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-191.0149587399919</v>
+        <v>-195.1923088872798</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-102.2718254007801</v>
+        <v>-119.402059950148</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>-26.57708863281496</v>
+        <v>-189.37602960783</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>-12.34151430789665</v>
+        <v>-93.89427117573486</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>5.828088727883022</v>
+        <v>1.731249093777351</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>18.014985759372</v>
+        <v>15.27543430321106</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-190.8614964043557</v>
+        <v>-195.0282484657641</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-102.1350662315607</v>
+        <v>-119.2568249203775</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>-26.43170811419727</v>
+        <v>-189.2211042828825</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>-12.22048897334496</v>
+        <v>-93.76657361412305</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>5.953502441931725</v>
+        <v>1.863818813545303</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>18.10387003157607</v>
+        <v>15.36791347324427</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-190.7574269098077</v>
+        <v>-194.9184655940907</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-102.0398998608585</v>
+        <v>-119.1568711441712</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>-26.33189787326561</v>
+        <v>-189.1160326473789</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>-12.13408193183818</v>
+        <v>-93.67621916814885</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>6.042391033474681</v>
+        <v>1.95688555762661</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>18.17109326664484</v>
+        <v>15.43749764353101</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-190.6809079579967</v>
+        <v>-194.8384077087495</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-101.9687773441218</v>
+        <v>-119.0826947969524</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>-26.25794211596187</v>
+        <v>-189.038772266383</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>-12.06841809111452</v>
+        <v>-93.60796014099618</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>6.109616976587985</v>
+        <v>2.026834612255755</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>18.22422988104897</v>
+        <v>15.49230201874831</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-190.6215977364603</v>
+        <v>-194.7767010957095</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-101.9130263051152</v>
+        <v>-119.0248333087842</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>-26.20031405881076</v>
+        <v>-188.9788849285031</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>-12.01633740586721</v>
+        <v>-93.55404722595091</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>6.162755419498722</v>
+        <v>2.081883715388528</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>18.26759924939105</v>
+        <v>15.53691261392484</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-190.5738830645163</v>
+        <v>-194.7272597853538</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-101.867803929067</v>
+        <v>-118.9780673119161</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>-26.15377302746588</v>
+        <v>-188.9307045475297</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>-11.97372193714192</v>
+        <v>-93.51007001836734</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>6.206126090565552</v>
+        <v>2.126667802539338</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>18.30386829092569</v>
+        <v>15.57414233362437</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-190.5344194394085</v>
+        <v>-194.6864939329241</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-101.8301653468453</v>
+        <v>-118.9392509789786</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>-26.1151664339589</v>
+        <v>-188.8908548509309</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>-11.93801324901222</v>
+        <v>-93.47330931297337</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>6.242396098789007</v>
+        <v>2.164025768995741</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>18.3347844682599</v>
+        <v>15.60582502462067</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-190.5010737107639</v>
+        <v>-194.6521310850715</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-101.7982032398139</v>
+        <v>-118.9063604525014</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>-26.08246901597578</v>
+        <v>-188.8571823072162</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>-11.90752694247695</v>
+        <v>-93.44198534752375</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>6.2733130167388</v>
+        <v>2.195806415007644</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>18.36154692766123</v>
+        <v>15.63321411273864</v>
       </c>
     </row>
   </sheetData>

--- a/exports/W_final.xlsx
+++ b/exports/W_final.xlsx
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.133433381290074</v>
+        <v>-5.133511748887813</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-315.4073588318944</v>
+        <v>-315.4070286546969</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-30.83389314371727</v>
+        <v>-30.83412436876669</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.54243312082593</v>
+        <v>-2.542483361649754</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-923.7692991752938</v>
+        <v>-923.7692999215354</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-923.0843883304615</v>
+        <v>-923.0843892162832</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-922.1860790108019</v>
+        <v>-922.1860794961752</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-292.079345821278</v>
+        <v>-292.0789063567782</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-28.01803150912604</v>
+        <v>-28.0182483052988</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.286073041724145</v>
+        <v>-1.286108534307488</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-856.0545250184884</v>
+        <v>-856.0545257526995</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-851.6937088083215</v>
+        <v>-851.6935966940188</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-853.2182701001303</v>
+        <v>-853.2182705658408</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-268.8737458047772</v>
+        <v>-268.8731855573209</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-25.53562532209357</v>
+        <v>-25.53582617373225</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.03179167311762357</v>
+        <v>-0.03181221269021622</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-789.0005643982227</v>
+        <v>-789.000565030179</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-775.7595647750256</v>
+        <v>-775.7590548804727</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-784.9303893796753</v>
+        <v>-784.9303898753797</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-249.4562924605659</v>
+        <v>-249.4556390663883</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-23.05700011149379</v>
+        <v>-23.05718121679132</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.180565620978877</v>
+        <v>1.180556789867662</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-729.3185891440833</v>
+        <v>-729.3185836763561</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-581.5768240741838</v>
+        <v>-581.57003360225</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-724.7701079079858</v>
+        <v>-724.7701084898229</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-230.3247247307519</v>
+        <v>-230.3239666980675</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.88013713480843</v>
+        <v>-20.8803038208501</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2.420368384897238</v>
+        <v>2.420372768566684</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-670.098675345602</v>
+        <v>-670.0986635106427</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-383.5995494751382</v>
+        <v>-383.5863669494776</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-665.112694446388</v>
+        <v>-665.1126951213022</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-215.023990842715</v>
+        <v>-215.0229859961962</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.70674671345496</v>
+        <v>-18.70689696152745</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>3.522729966569617</v>
+        <v>3.522748019595266</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-618.1648574779782</v>
+        <v>-618.1648412044726</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-324.5854548164494</v>
+        <v>-324.5678305486126</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-612.9175332147172</v>
+        <v>-612.9175339744528</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-201.729629712704</v>
+        <v>-201.7275670097186</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-16.80363252549021</v>
+        <v>-16.80375880159858</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>4.626518237865529</v>
+        <v>4.626550029355027</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-566.6079250300553</v>
+        <v>-566.607904568423</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-265.5954212847611</v>
+        <v>-265.5733264942642</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-561.0744525493753</v>
+        <v>-561.0744537006658</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-193.1052964995336</v>
+        <v>-193.1045844778695</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-14.904016189678</v>
+        <v>-14.90412281507285</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>5.613976148492053</v>
+        <v>5.614019736506545</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-521.9563297159367</v>
+        <v>-521.9563157997928</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-242.9173948935767</v>
+        <v>-242.9012025428411</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-516.0870197828632</v>
+        <v>-516.0870213609819</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-179.2536074919804</v>
+        <v>-179.2528636291246</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-13.232633919332</v>
+        <v>-13.23272060254825</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>6.593819462320406</v>
+        <v>6.593875632846146</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-477.5777113524031</v>
+        <v>-477.5776501402963</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-220.2506651843818</v>
+        <v>-220.2403765569297</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-471.3323493163657</v>
+        <v>-471.3323514783956</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-165.6354000554587</v>
+        <v>-165.6346553661299</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-11.56469980051586</v>
+        <v>-11.56476528164046</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>7.451874649936729</v>
+        <v>7.451940300893174</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-439.5168118535058</v>
+        <v>-439.5167198591707</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-207.7486653340162</v>
+        <v>-207.7387392856327</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-433.0558203706169</v>
+        <v>-433.0558234228474</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-154.4921724060308</v>
+        <v>-154.4914234995028</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-10.11039236849502</v>
+        <v>-10.11043441436387</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>8.272955335904973</v>
+        <v>8.273030426848463</v>
       </c>
     </row>
     <row r="122">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-4.263381591501434</v>
+        <v>-4.263445287563379</v>
       </c>
     </row>
     <row r="164">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-928.546694787092</v>
+        <v>-928.5467410870085</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-314.8234278478005</v>
+        <v>-314.8230940310962</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-29.84356713190351</v>
+        <v>-29.84379043954245</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-2.46525588408196</v>
+        <v>-2.465305870359114</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-923.5977387844613</v>
+        <v>-923.5977393778403</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-861.295242049537</v>
+        <v>-861.2949046054649</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-922.0509151167225</v>
+        <v>-922.0509154537568</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-291.2969335566528</v>
+        <v>-291.2964881303859</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-27.60827162403071</v>
+        <v>-27.60846904418179</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>-1.205055895810882</v>
+        <v>-1.205091280531517</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-855.8609346929519</v>
+        <v>-855.860935240043</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-851.5776088462646</v>
+        <v>-851.5774965751874</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-853.0685386838886</v>
+        <v>-853.0685389735692</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-267.9760186586351</v>
+        <v>-267.9754697928892</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-25.45095463751562</v>
+        <v>-25.45115306822041</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0.05339496072303593</v>
+        <v>0.05337435559479503</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-788.7797756151944</v>
+        <v>-788.7797760139651</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-775.6357767982954</v>
+        <v>-775.6352670703258</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-784.7632664935286</v>
+        <v>-784.7632667776919</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-248.2465272974843</v>
+        <v>-248.2459176519625</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-22.96956777040125</v>
+        <v>-22.96974912128634</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1.270292363390594</v>
+        <v>1.270283261417892</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-729.0635544843725</v>
+        <v>-729.0635487197716</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-581.4482118965216</v>
+        <v>-581.4414223292418</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-724.5819371822043</v>
+        <v>-724.581937506077</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-228.6604291713939</v>
+        <v>-228.6597581412591</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-20.78795962048381</v>
+        <v>-20.78812678328637</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>2.515053717504133</v>
+        <v>2.51505758679528</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-669.7994850401335</v>
+        <v>-669.7994728172378</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-383.461781804222</v>
+        <v>-383.4486007009655</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-664.8986418102178</v>
+        <v>-664.8986421650999</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-212.3941524142663</v>
+        <v>-212.3934018065637</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-18.60937831400831</v>
+        <v>-18.60952931296019</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>3.622848490181689</v>
+        <v>3.622865739291496</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-617.8070408117831</v>
+        <v>-617.8070240146079</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-324.4373895807906</v>
+        <v>-324.4197673770828</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-612.6710482759205</v>
+        <v>-612.6710486303992</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-196.310385548862</v>
+        <v>-196.3095110797208</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-16.7005665735158</v>
+        <v>-16.70069392645768</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>4.732610743399411</v>
+        <v>4.732641385702316</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-566.169324310321</v>
+        <v>-566.1693031117163</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-265.435706143525</v>
+        <v>-265.4136142171964</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-560.7863937112946</v>
+        <v>-560.786394336486</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-183.4220439499482</v>
+        <v>-183.4210268886793</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-14.79467389735896</v>
+        <v>-14.79478198847119</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>5.726661990898028</v>
+        <v>5.726704016552266</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-521.4008603572479</v>
+        <v>-521.4008453447452</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-242.7444146031963</v>
+        <v>-242.7282261209633</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-515.7441620683758</v>
+        <v>-515.7441629421387</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-171.2606863881181</v>
+        <v>-171.2592501125944</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-13.11635060525215</v>
+        <v>-13.11643921995207</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>6.713811887637761</v>
+        <v>6.713865999353503</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-476.8769548688023</v>
+        <v>-476.8769171307715</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-220.0624718795914</v>
+        <v>-220.0521883917175</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-470.91468122895</v>
+        <v>-470.9146824102137</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-164.7193048812173</v>
+        <v>-164.7153421178383</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-11.44070775523917</v>
+        <v>-11.44077572819373</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>7.579999947238312</v>
+        <v>7.580062940066457</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-438.7542565449891</v>
+        <v>-438.7542009861479</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-207.5428847418345</v>
+        <v>-207.5329654570129</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-432.5312574271013</v>
+        <v>-432.5312590410885</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-154.3755609242684</v>
+        <v>-154.3748142402206</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-9.977799343197848</v>
+        <v>-9.977844558479109</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>8.414362696221257</v>
+        <v>8.414434653433066</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-400.8016888361082</v>
+        <v>-400.8016281230854</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-195.3130421271607</v>
+        <v>-195.3034731379542</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-394.3218913237241</v>
+        <v>-394.3218795343395</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-143.4227218065494</v>
+        <v>-143.4220023388983</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-8.544377390700728</v>
+        <v>-8.544402812096303</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>9.172097631045462</v>
+        <v>9.172176038505755</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-368.4213100229621</v>
+        <v>-368.4212045504642</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-184.3081421449812</v>
+        <v>-184.2991643592112</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-361.755874123752</v>
+        <v>-361.7558593399357</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-134.5357759129173</v>
+        <v>-134.5350976274735</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-7.308416111839685</v>
+        <v>-7.308423764598393</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>9.919518660991852</v>
+        <v>9.919604706736495</v>
       </c>
     </row>
     <row r="242">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>-3.766128028456993</v>
+        <v>-3.76618601210417</v>
       </c>
     </row>
     <row r="272">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-925.6931985930801</v>
+        <v>-925.6932094642665</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-931.1229868240181</v>
+        <v>-931.1230984203487</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-314.4489688143516</v>
+        <v>-314.448633271901</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-29.30117598683189</v>
+        <v>-29.30139643110013</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>-2.397317079568134</v>
+        <v>-2.397366860084801</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-923.4588612682562</v>
+        <v>-923.4588617543187</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-854.9633727998719</v>
+        <v>-854.9631876767891</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-921.9382418190894</v>
+        <v>-921.9382420467078</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-290.8347858451708</v>
+        <v>-290.8343379626523</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-26.95321809201593</v>
+        <v>-26.95341712785099</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-1.134023108968989</v>
+        <v>-1.13405840710336</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-855.7067906141189</v>
+        <v>-855.7067910334283</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-780.4325626089652</v>
+        <v>-780.4320198299213</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-852.9452221156345</v>
+        <v>-852.945222278075</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-267.4680810348797</v>
+        <v>-267.4675365260639</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-24.63733008401598</v>
+        <v>-24.6375014072023</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>0.1277640631160688</v>
+        <v>0.1277434056833303</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-788.6073415494765</v>
+        <v>-788.6073417940888</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-587.417014594288</v>
+        <v>-587.4099507395279</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-784.6275161875947</v>
+        <v>-784.6275163223474</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-247.5855151337439</v>
+        <v>-247.5849122743428</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-22.66162371988023</v>
+        <v>-22.66176871140766</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1.349758198343496</v>
+        <v>1.349747898832068</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-728.8688947832853</v>
+        <v>-728.8688888298425</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-395.2250499887318</v>
+        <v>-395.2098456013202</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-724.4315099232739</v>
+        <v>-724.4315100697539</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-227.9138421533303</v>
+        <v>-227.9131932964009</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-20.706746286507</v>
+        <v>-20.70691492329983</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>2.596936382427134</v>
+        <v>2.596939847985321</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-669.577363648227</v>
+        <v>-669.5773511897987</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-383.3471902354354</v>
+        <v>-383.334010178252</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-664.730682717059</v>
+        <v>-664.7306828586359</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-211.403691045842</v>
+        <v>-211.4029629153385</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-18.52539452686687</v>
+        <v>-18.52554611260283</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>3.708976490996218</v>
+        <v>3.708993114644169</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-617.5503094650622</v>
+        <v>-617.550292367716</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-324.3152795304002</v>
+        <v>-324.2976588231571</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-612.4818577975536</v>
+        <v>-612.4818578917362</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-195.0467712345745</v>
+        <v>-195.0459847823883</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-16.61215095091451</v>
+        <v>-16.61227913772958</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>4.823364350900215</v>
+        <v>4.823394107519785</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-565.8679164668165</v>
+        <v>-565.8678948754684</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-265.3052167626287</v>
+        <v>-265.2831268804503</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-560.5710758382143</v>
+        <v>-560.5710761402157</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-181.6085036489341</v>
+        <v>-181.6076820668605</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-14.70142212217324</v>
+        <v>-14.70153133722832</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>5.822470976203236</v>
+        <v>5.822511809933688</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-521.0400492156556</v>
+        <v>-521.0400336721436</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-242.6045402292131</v>
+        <v>-242.5883544605409</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-515.496074666821</v>
+        <v>-515.4960751309247</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-168.2864755290573</v>
+        <v>-168.285581862014</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-13.01780471808382</v>
+        <v>-13.01789479829408</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>6.815164134400783</v>
+        <v>6.815216692642772</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-476.4341374454897</v>
+        <v>-476.4340989585917</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-219.9120290840599</v>
+        <v>-219.9017491328031</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-470.6245414833528</v>
+        <v>-470.624542132159</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-157.8296198638529</v>
+        <v>-157.8286469411878</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-11.33634663474655</v>
+        <v>-11.33641647682497</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>7.687451970691988</v>
+        <v>7.687512981636827</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-438.2355192287105</v>
+        <v>-438.2354814833214</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-207.3804697095482</v>
+        <v>-207.370554980248</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-432.18561249143</v>
+        <v>-432.1856133914668</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-148.3940360863255</v>
+        <v>-148.3927648988391</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-9.867027034661502</v>
+        <v>-9.867074597886566</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>8.531623978325534</v>
+        <v>8.531693642704521</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-400.1756171183308</v>
+        <v>-400.1755653495624</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-195.1305994049087</v>
+        <v>-195.1210359474052</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-393.9485208048105</v>
+        <v>-393.9485125203294</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-143.3154354089734</v>
+        <v>-143.3147178753088</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-8.423268863536851</v>
+        <v>-8.423297009679818</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>9.300759201606427</v>
+        <v>9.300834932341921</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-367.7371479471942</v>
+        <v>-367.73706395525</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-184.0927959915641</v>
+        <v>-184.0838246431013</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-361.2952748779411</v>
+        <v>-361.2952650777729</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-134.4187062310776</v>
+        <v>-134.4180301827074</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-7.17525519726706</v>
+        <v>-7.175266042129174</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>10.06155840854872</v>
+        <v>10.06164129713067</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-335.3995362572117</v>
+        <v>-335.3993714642085</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-173.0442270829016</v>
+        <v>-173.035831336424</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-328.8339668346152</v>
+        <v>-328.8339441578471</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-125.7291595488599</v>
+        <v>-125.7285036423002</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-5.946443486854427</v>
+        <v>-5.946435901241734</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>10.75376515057958</v>
+        <v>10.75385241262591</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-307.9346140319171</v>
+        <v>-307.934392165942</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-163.091096346366</v>
+        <v>-163.083614718677</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-301.2096416539026</v>
+        <v>-301.2096135978816</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-118.840708421294</v>
+        <v>-118.840070987441</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-4.818438091242534</v>
+        <v>-4.818421871954517</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>11.44810434880492</v>
+        <v>11.44818067389989</v>
       </c>
     </row>
     <row r="362">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-3.4341983844256</v>
+        <v>-3.434253467789421</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-937.1200767796911</v>
+        <v>-937.1202946750042</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-924.7081167305001</v>
+        <v>-924.7081219999541</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-925.1926435161981</v>
+        <v>-925.1926544680953</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-314.1827631298655</v>
+        <v>-314.1824266128655</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-28.94673755978223</v>
+        <v>-28.94695660213553</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>-2.25360752975971</v>
+        <v>-2.253645189163977</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-923.3434541845205</v>
+        <v>-923.343454591862</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-853.6392209601611</v>
+        <v>-853.6390448839744</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-857.6095932393163</v>
+        <v>-857.6095611551501</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-290.5209434842573</v>
+        <v>-290.5204943179985</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-26.54590339638035</v>
+        <v>-26.54610315993144</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>-1.071079174942416</v>
+        <v>-1.071114402326402</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-855.5802918951522</v>
+        <v>-855.5802922226734</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-778.0849897506839</v>
+        <v>-778.0844713928486</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-790.875780666702</v>
+        <v>-790.8756080783493</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-267.1307496143881</v>
+        <v>-267.1302072993212</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-24.16243519069256</v>
+        <v>-24.16261068642817</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>0.1934269379341255</v>
+        <v>0.1934062379748352</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-788.4678504438194</v>
+        <v>-788.4678505803273</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-584.1618415773738</v>
+        <v>-584.1549987023851</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-736.2862738742908</v>
+        <v>-736.2849783731856</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-247.1755246456898</v>
+        <v>-247.1749248277904</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-22.0979463449321</v>
+        <v>-22.09810121092086</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>1.419645515071281</v>
+        <v>1.419635168388818</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-728.7140202362617</v>
+        <v>-728.7140141540302</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-386.8019909205688</v>
+        <v>-386.7886959598597</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-724.3076902901672</v>
+        <v>-724.3076903085436</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-227.4666372428258</v>
+        <v>-227.4659977471449</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-20.05922042030646</v>
+        <v>-20.05935016683983</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>2.668663703491703</v>
+        <v>2.668666845283858</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-669.4040484527056</v>
+        <v>-669.4040358388079</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-328.8028553575051</v>
+        <v>-328.7849752060104</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-664.5943417407576</v>
+        <v>-664.5943417318417</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-210.8353901633077</v>
+        <v>-210.8346760333857</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-18.3203876794261</v>
+        <v>-18.32048103005265</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>3.784095568319126</v>
+        <v>3.784111694030829</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-617.3545704844648</v>
+        <v>-617.3545531965325</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-271.9046130758712</v>
+        <v>-271.8817591178232</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-612.3307292809017</v>
+        <v>-612.3307291963142</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-194.4128295101831</v>
+        <v>-194.4120703900298</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-16.53440552812777</v>
+        <v>-16.53453539346933</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>4.902151370833667</v>
+        <v>4.902180427806909</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-565.6444489702544</v>
+        <v>-565.6444271409935</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-258.8301162148357</v>
+        <v>-258.8051929016293</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-560.4022735283785</v>
+        <v>-560.4022736152897</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-180.7785745972581</v>
+        <v>-180.7777904096461</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-14.62066585232471</v>
+        <v>-14.62077595157886</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>5.90523469262747</v>
+        <v>5.905274592585933</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-520.7816022235015</v>
+        <v>-520.7815863764696</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-242.4884017355432</v>
+        <v>-242.4722179565416</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-515.3058551717825</v>
+        <v>-515.3058553732285</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-167.2826960256284</v>
+        <v>-167.2818846585791</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-12.93290170945408</v>
+        <v>-12.93299293269667</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>6.902250982147596</v>
+        <v>6.902302334170486</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-476.1304844231009</v>
+        <v>-476.1304455385682</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-219.7881982240774</v>
+        <v>-219.7779208284714</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-470.4079458272599</v>
+        <v>-470.4079461496746</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-156.4743831392798</v>
+        <v>-156.4735666374761</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-11.24692914632027</v>
+        <v>-11.24700043282005</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>7.779252196505677</v>
+        <v>7.779311683267311</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-437.8716713943433</v>
+        <v>-437.8716331104593</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-207.2480569490653</v>
+        <v>-207.2381454594034</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-431.9359051336419</v>
+        <v>-431.9359056195494</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-145.961564009916</v>
+        <v>-145.9607249269771</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-9.77267995103419</v>
+        <v>-9.772729310726405</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>8.630911322125685</v>
+        <v>8.630979249385772</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-399.7814829895257</v>
+        <v>-399.7814353322897</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-194.9841277280321</v>
+        <v>-194.9745681043738</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-393.6829303174173</v>
+        <v>-393.6829240151086</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-137.8867828348039</v>
+        <v>-137.8858459641281</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-8.321075193870673</v>
+        <v>-8.321105392549887</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>9.408610897767522</v>
+        <v>9.408684634302876</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-367.246809484226</v>
+        <v>-367.2467314229944</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-183.9239748486126</v>
+        <v>-183.9150077871195</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-360.9822425906273</v>
+        <v>-360.9822353997401</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-130.7526928873629</v>
+        <v>-130.7514354257326</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-7.064062372498716</v>
+        <v>-7.064075580197764</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>10.17928216457712</v>
+        <v>10.1793627452144</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-334.8584479732728</v>
+        <v>-334.8582982245513</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-172.8539845967295</v>
+        <v>-172.8455940836586</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-328.4975494241123</v>
+        <v>-328.497533316856</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-125.6214745071214</v>
+        <v>-125.620820546555</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-5.824846855468548</v>
+        <v>-5.824842012955848</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>10.88296675073435</v>
+        <v>10.88305131727651</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-307.3019796313764</v>
+        <v>-307.3017953868617</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-162.8744721289348</v>
+        <v>-162.8669970025275</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-300.8009181012563</v>
+        <v>-300.8008991481652</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-118.7262606044544</v>
+        <v>-118.7256256239492</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-4.684705216514518</v>
+        <v>-4.684692212249271</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>11.57778606938466</v>
+        <v>11.57787399604481</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-279.8585983166151</v>
+        <v>-279.858393847516</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-152.8927165895544</v>
+        <v>-152.8862460951689</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-273.3054355789519</v>
+        <v>-273.3054043147454</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-111.8973037170876</v>
+        <v>-111.8967073350337</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>-3.553637691195575</v>
+        <v>-3.553614023879748</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>12.22677906517715</v>
+        <v>12.2268572705577</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-256.6922640325771</v>
+        <v>-256.6919764694143</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-143.6889029673622</v>
+        <v>-143.6839397977075</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-249.9883085035107</v>
+        <v>-249.988270376734</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-106.6360956218643</v>
+        <v>-106.6355406621074</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>-2.51174257919121</v>
+        <v>-2.511709124559453</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>12.89594898479752</v>
+        <v>12.89602768751749</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>-3.192504695053936</v>
+        <v>-3.192558072778004</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-926.8896384139201</v>
+        <v>-926.8896476371535</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-924.1676257916766</v>
+        <v>-924.1676290291962</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-923.8934877504289</v>
+        <v>-923.89349213771</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-313.9810338086818</v>
+        <v>-313.9806966788339</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-28.69194756604098</v>
+        <v>-28.69216580175391</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>-1.98481379341113</v>
+        <v>-1.984850660809472</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-860.7297689457679</v>
+        <v>-860.729720917539</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-852.9586554627415</v>
+        <v>-852.9585464490012</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-855.3704833035873</v>
+        <v>-855.3704897801741</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-290.2899836377544</v>
+        <v>-290.2895337030477</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-26.26141404065554</v>
+        <v>-26.26161420352626</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>-0.7858427634380722</v>
+        <v>-0.7858623878422539</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-795.8769562990352</v>
+        <v>-795.8766733861979</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-777.1878101134271</v>
+        <v>-777.1872964188507</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-787.7394333509492</v>
+        <v>-787.7393958201511</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-266.8858870322046</v>
+        <v>-266.8853460009653</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-23.84196411280891</v>
+        <v>-23.8421417671922</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3631672610655901</v>
+        <v>0.36316233826477</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-788.3519930391997</v>
+        <v>-788.3519930964767</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-583.1174296950404</v>
+        <v>-583.1106172987534</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-728.4195846513752</v>
+        <v>-728.4195169603624</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-246.8895699867735</v>
+        <v>-246.8889718328024</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-21.73316860343212</v>
+        <v>-21.73332822674968</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>1.529772811893805</v>
+        <v>1.529785048487791</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-728.5869965726657</v>
+        <v>-728.5869903980133</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-385.3783575797941</v>
+        <v>-385.3651351079886</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-669.804795587991</v>
+        <v>-669.8045872494672</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-227.1606567336077</v>
+        <v>-227.1600221949741</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-19.63882161695811</v>
+        <v>-19.63896003174603</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>2.732175003859927</v>
+        <v>2.732177881306614</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-669.2639392194081</v>
+        <v>-669.2639264966097</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-326.6806190670537</v>
+        <v>-326.6629251350753</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-619.8376723608037</v>
+        <v>-619.8370614212834</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-210.4683891142586</v>
+        <v>-210.4676817053836</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-17.82851470134237</v>
+        <v>-17.8286227607831</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>3.850367394698125</v>
+        <v>3.850383116345564</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-617.1989596720035</v>
+        <v>-617.198942254264</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-268.1324256438898</v>
+        <v>-268.1102082995903</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-576.0950327520972</v>
+        <v>-576.0892926944277</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-194.015088617195</v>
+        <v>-194.0143419877473</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-16.03928975266868</v>
+        <v>-16.03936947767595</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>4.971389779137782</v>
+        <v>4.971418272041561</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-565.4702451004786</v>
+        <v>-565.4702231144211</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-246.1200195135951</v>
+        <v>-246.1035984508002</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-560.2653375797147</v>
+        <v>-560.2653375150398</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-180.2830267128535</v>
+        <v>-180.2822605880413</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-14.50126989231332</v>
+        <v>-14.50131761161347</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>5.977667947222951</v>
+        <v>5.977707099538744</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-520.58477393025</v>
+        <v>-520.5847578908647</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-224.5934118608352</v>
+        <v>-224.5826310472353</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-515.1540199231016</v>
+        <v>-515.154019944385</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-166.7354569762663</v>
+        <v>-166.734675149598</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-12.85875880272156</v>
+        <v>-12.85885093780685</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>6.978132733038501</v>
+        <v>6.978183126364774</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-475.9056571334619</v>
+        <v>-475.905618008602</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-214.6616728163501</v>
+        <v>-214.6502032092601</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-470.2382932083882</v>
+        <v>-470.2382933139066</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-155.7674353368134</v>
+        <v>-155.7666413966277</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-11.16919870780488</v>
+        <v>-11.1692711378403</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>7.85886523067284</v>
+        <v>7.858923515515047</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-437.6114894994531</v>
+        <v>-437.6114509086472</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-207.1374181961362</v>
+        <v>-207.1275091070592</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-431.7446472393324</v>
+        <v>-431.7446474601904</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-145.0484451467932</v>
+        <v>-145.0476858777385</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-9.691062821883333</v>
+        <v>-9.691113592290085</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>8.716392266708745</v>
+        <v>8.71645884071183</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-399.5042629884171</v>
+        <v>-399.5042176125929</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-194.8631741825351</v>
+        <v>-194.853617344369</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-393.4815881113457</v>
+        <v>-393.4815830569274</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-136.5028269209333</v>
+        <v>-136.5020521990743</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-8.233335471936698</v>
+        <v>-8.23336726220049</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>9.500718389123456</v>
+        <v>9.500790592954177</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-366.9184012343998</v>
+        <v>-366.9183262022855</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-183.7870256187613</v>
+        <v>-183.7780615805259</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-360.7517680007918</v>
+        <v>-360.7517623738079</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-128.2400268875649</v>
+        <v>-128.2392270328901</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-6.969393655744838</v>
+        <v>-6.969408670140758</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>10.27891975882975</v>
+        <v>10.27899859211098</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-334.5046479801899</v>
+        <v>-334.5045056078395</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-172.7021335679222</v>
+        <v>-172.6937466469143</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-328.253221867385</v>
+        <v>-328.2532096076391</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-122.1653554914127</v>
+        <v>-122.1644532984053</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-5.722285644116129</v>
+        <v>-5.722282866472128</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>10.99122060598289</v>
+        <v>10.99130316590056</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-306.8690211851835</v>
+        <v>-306.8688472874385</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-162.7005547512299</v>
+        <v>-162.6931333604536</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-300.515656799302</v>
+        <v>-300.5156428311489</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-117.0605233933051</v>
+        <v>-117.0592550382046</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-4.573089205286806</v>
+        <v>-4.573078578884346</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>11.69597535083772</v>
+        <v>11.69606095430141</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-279.3847457769783</v>
+        <v>-279.3845597850666</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-152.686284238733</v>
+        <v>-152.6798181405954</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-273.0002314977896</v>
+        <v>-273.0002088956289</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-111.7834941213522</v>
+        <v>-111.7828992805176</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>-3.431549664107859</v>
+        <v>-3.431528758418344</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>12.32915139212714</v>
+        <v>12.32923837811142</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-256.0878563591771</v>
+        <v>-256.0876056553329</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-143.4520359108378</v>
+        <v>-143.4470782731767</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-249.62235992581</v>
+        <v>-249.6223335371282</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-106.5114573650556</v>
+        <v>-106.51090419887</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>-2.377433632399834</v>
+        <v>-2.377403415941555</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>12.95615368984073</v>
+        <v>12.95624135810059</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-232.9490676755453</v>
+        <v>-232.948740255171</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-134.2861971347883</v>
+        <v>-134.2826293711044</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-226.4964641266479</v>
+        <v>-226.4963821691164</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-101.2819615064419</v>
+        <v>-101.2814594544821</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>-1.337947634530692</v>
+        <v>-1.337907776166693</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>13.60710515497267</v>
+        <v>13.60718305078543</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-214.6135447721665</v>
+        <v>-214.6132138839431</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-127.3546910559957</v>
+        <v>-127.3511765921166</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-208.1047827426789</v>
+        <v>-208.104678388738</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-98.01959940758479</v>
+        <v>-98.01914506793362</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>-0.3801439322728317</v>
+        <v>-0.380093173857142</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>14.18489557541792</v>
+        <v>14.18497312436412</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E602" t="n">
-        <v>-858.1735302494459</v>
+        <v>-858.1735355218277</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>-852.5261078819981</v>
+        <v>-852.5259974708264</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="E604" t="n">
-        <v>-854.4862363150289</v>
+        <v>-854.486239382722</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="E605" t="n">
-        <v>-290.1108585211716</v>
+        <v>-290.1104080840353</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>-26.04829444960021</v>
+        <v>-26.04849485905746</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>-0.562386964667972</v>
+        <v>-0.5624069221509214</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="E608" t="n">
-        <v>-791.765568535063</v>
+        <v>-791.7655226992212</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="E609" t="n">
-        <v>-776.6800820681393</v>
+        <v>-776.6795701597997</v>
       </c>
     </row>
     <row r="610">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>-786.4864860758452</v>
+        <v>-786.4864903286318</v>
       </c>
     </row>
     <row r="611">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E611" t="n">
-        <v>-266.6977402086385</v>
+        <v>-266.6972000041919</v>
       </c>
     </row>
     <row r="612">
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="E612" t="n">
-        <v>-23.60704817281664</v>
+        <v>-23.60722711151117</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>0.6102793808003077</v>
+        <v>0.6102729819887149</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>-733.0884200778022</v>
+        <v>-733.0883243820014</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="E615" t="n">
-        <v>-582.5557794346196</v>
+        <v>-582.5489777220355</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>-726.758522812012</v>
+        <v>-726.7585292759833</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>-246.6755469943312</v>
+        <v>-246.6749498656459</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-21.47245642837666</v>
+        <v>-21.47261876367847</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>1.805047648410024</v>
+        <v>1.805056821159768</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E620" t="n">
-        <v>-675.0252507141302</v>
+        <v>-675.0249561942755</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="E621" t="n">
-        <v>-384.6967328756916</v>
+        <v>-384.6835311395883</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="E622" t="n">
-        <v>-667.6753383786645</v>
+        <v>-667.6752999364143</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="n">
-        <v>-226.9344230655496</v>
+        <v>-226.9337915189103</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>-19.34720018343483</v>
+        <v>-19.34734329633656</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="E625" t="n">
-        <v>2.85593750960228</v>
+        <v>2.85596337490549</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>-626.205961644862</v>
+        <v>-626.2049027961535</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="E627" t="n">
-        <v>-325.828424256587</v>
+        <v>-325.8107692182853</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>-616.0038058981257</v>
+        <v>-616.0037006940024</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="n">
-        <v>-210.2064109662746</v>
+        <v>-210.2057073807572</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>-17.49932330272272</v>
+        <v>-17.49943886464184</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>3.909402554629883</v>
+        <v>3.909417943047715</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="E632" t="n">
-        <v>-617.0714074183566</v>
+        <v>-617.0713899075573</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="E633" t="n">
-        <v>-267.0223385173268</v>
+        <v>-267.0001956597384</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>-564.9570932241139</v>
+        <v>-564.9568836784304</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>-193.7358708357308</v>
+        <v>-193.7351311139678</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>-15.66365727990582</v>
+        <v>-15.66374854365965</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>1</v>
       </c>
       <c r="E637" t="n">
-        <v>5.032864546934109</v>
+        <v>5.032892577213731</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>-565.329513154153</v>
+        <v>-565.3294910583903</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>-244.5833372979159</v>
+        <v>-244.5670698884905</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>-521.1602229490173</v>
+        <v>-521.1597841201992</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>-179.9519638048388</v>
+        <v>-179.9512068654911</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="E642" t="n">
-        <v>-14.06706646840029</v>
+        <v>-14.06713167927151</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="n">
-        <v>6.041755193421784</v>
+        <v>6.041793736124538</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>-520.428420990378</v>
+        <v>-520.4284048201559</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>-222.2396054627833</v>
+        <v>-222.2291971135801</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>-478.7129890208911</v>
+        <v>-478.7116827843282</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="E647" t="n">
-        <v>-166.3786486788075</v>
+        <v>-166.3778812660566</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>-12.48763832798891</v>
+        <v>-12.48767417828099</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="E649" t="n">
-        <v>7.045022986924135</v>
+        <v>7.045072603371075</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>-475.7305569540569</v>
+        <v>-475.7305176710575</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>-210.1988211131309</v>
+        <v>-210.1886948218594</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>-470.1007579413112</v>
+        <v>-470.1007578941391</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="E653" t="n">
-        <v>-155.3302525772878</v>
+        <v>-155.3294788982595</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>-11.10081287950965</v>
+        <v>-11.10088623317921</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="E655" t="n">
-        <v>7.928769070521767</v>
+        <v>7.928826387771165</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>-437.4135617290393</v>
+        <v>-437.4135229440899</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E657" t="n">
-        <v>-199.1583772355795</v>
+        <v>-199.1483749898277</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>-431.5920997242022</v>
+        <v>-431.5920997634897</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>-144.5208322317647</v>
+        <v>-144.52007823673</v>
       </c>
     </row>
     <row r="660">
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>-9.619548469034305</v>
+        <v>-9.619600371173457</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>8.790995971389133</v>
+        <v>8.791061466910691</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>-399.29564569166</v>
+        <v>-399.2956017344375</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>-191.5415322115461</v>
+        <v>-191.5308749683352</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>-393.3221703727343</v>
+        <v>-393.3221661634087</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>-135.8203429459181</v>
+        <v>-135.8196190378943</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>-8.156935125503155</v>
+        <v>-8.156968179350095</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>9.580573652787818</v>
+        <v>9.580644648592102</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>-366.6787823376987</v>
+        <v>-366.6787090936614</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>-183.6725440902459</v>
+        <v>-183.6636142858897</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>-360.5729603418418</v>
+        <v>-360.5729557384097</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="E671" t="n">
-        <v>-127.3123211201051</v>
+        <v>-127.3116032533266</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>-6.887524031349571</v>
+        <v>-6.887540463748269</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>10.3646734709824</v>
+        <v>10.36475094379458</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>-334.2502255701555</v>
+        <v>-334.2500874463923</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="E675" t="n">
-        <v>-172.5702073361375</v>
+        <v>-172.5618542009805</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="E676" t="n">
-        <v>-328.0654196358711</v>
+        <v>-328.0654098550876</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="E677" t="n">
-        <v>-120.7516201338436</v>
+        <v>-120.7508861242272</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>-5.634261013486551</v>
+        <v>-5.634259836058876</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="E679" t="n">
-        <v>11.08363708223099</v>
+        <v>11.0837181008557</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>-306.5706303872061</v>
+        <v>-306.5704620360329</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="E681" t="n">
-        <v>-162.5448164431658</v>
+        <v>-162.5373967977974</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>-300.3020611094188</v>
+        <v>-300.3020502147115</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="E683" t="n">
-        <v>-114.4628620311099</v>
+        <v>-114.4620790693963</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>-4.478097022227613</v>
+        <v>-4.478088212833544</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="E685" t="n">
-        <v>11.79596526157071</v>
+        <v>11.79604910735647</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="E686" t="n">
-        <v>-279.0648140863221</v>
+        <v>-279.064637660449</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="E687" t="n">
-        <v>-152.5234304069348</v>
+        <v>-152.5169672675791</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="E688" t="n">
-        <v>-272.7744666162921</v>
+        <v>-272.7744492463482</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>-110.063061333801</v>
+        <v>-110.062227759957</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>-3.328618700532852</v>
+        <v>-3.328599872148562</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E691" t="n">
-        <v>12.43780991457457</v>
+        <v>12.43789488140125</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="E692" t="n">
-        <v>-255.7018436877989</v>
+        <v>-255.7016060847477</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>-143.2690602547191</v>
+        <v>-143.2641062111567</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>-249.3609807370901</v>
+        <v>-249.3609610321489</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E695" t="n">
-        <v>-106.4066117674162</v>
+        <v>-106.4060599453332</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>-2.265391740661538</v>
+        <v>-2.265363917226135</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>13.07481157651453</v>
+        <v>13.07489690618452</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="E698" t="n">
-        <v>-232.5295185558409</v>
+        <v>-232.5292114489548</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E699" t="n">
-        <v>-134.0938679242449</v>
+        <v>-134.090305490217</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>-226.2179126158983</v>
+        <v>-226.2178407362596</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>-101.173471722529</v>
+        <v>-101.1729716408913</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="E702" t="n">
-        <v>-1.215364889065526</v>
+        <v>-1.215327811029999</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E703" t="n">
-        <v>13.64713415546726</v>
+        <v>13.64721166963459</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="E704" t="n">
-        <v>-214.0862224888241</v>
+        <v>-214.0859214174713</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E705" t="n">
-        <v>-127.135472355915</v>
+        <v>-127.1319645239705</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>-207.7746056108222</v>
+        <v>-207.7745146514414</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="E707" t="n">
-        <v>-97.90113694189843</v>
+        <v>-97.90068488391589</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>-0.2452547599482111</v>
+        <v>-0.2452072630910606</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="E709" t="n">
-        <v>14.22674813380066</v>
+        <v>14.22682527168458</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>-197.2456828301249</v>
+        <v>-197.2453662784555</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="E711" t="n">
-        <v>-120.7242631912734</v>
+        <v>-120.7207501324096</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>-191.0124163451399</v>
+        <v>-191.0123021375022</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="E713" t="n">
-        <v>-94.82823274726071</v>
+        <v>-94.82782009917597</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>0.7058698065020884</v>
+        <v>0.7059264262324462</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="E715" t="n">
-        <v>14.79226302539746</v>
+        <v>14.79233886473196</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E716" t="n">
-        <v>-195.6968168522228</v>
+        <v>-195.6965555357874</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>-119.8135530574987</v>
+        <v>-119.8100603544202</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>-189.8336871363247</v>
+        <v>-189.8336058329403</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="E719" t="n">
-        <v>-94.23037743692085</v>
+        <v>-94.22997418056157</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>1.37517759819783</v>
+        <v>1.375222667662759</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>15.06455257545202</v>
+        <v>15.0646262180078</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>-731.1880513000071</v>
+        <v>-731.188015271304</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="E723" t="n">
-        <v>-582.1919789741224</v>
+        <v>-582.1851824167636</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>-725.8604662213733</v>
+        <v>-725.8604691858528</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="E725" t="n">
-        <v>-246.5076076722545</v>
+        <v>-246.5070112275411</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E726" t="n">
-        <v>-21.2741930105973</v>
+        <v>-21.27435706217567</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="E727" t="n">
-        <v>2.012454354003867</v>
+        <v>2.012461617781437</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>-672.5299354016264</v>
+        <v>-672.5298472851061</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>-384.2775735098415</v>
+        <v>-384.2643809307368</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>-666.4699842998107</v>
+        <v>-666.4699884784661</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>-226.7583973453787</v>
+        <v>-226.7577677663388</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>-19.1296963706223</v>
+        <v>-19.12984236111206</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="E733" t="n">
-        <v>3.08414123713341</v>
+        <v>3.08416391584835</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>-621.1143488386881</v>
+        <v>-621.1142036525034</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>-325.3381639291812</v>
+        <v>-325.3205242102107</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>-614.6545440260015</v>
+        <v>-614.6545183335837</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>-210.0073470134921</v>
+        <v>-210.0066458442013</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>-17.25924235919108</v>
+        <v>-17.25936234603814</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E739" t="n">
-        <v>4.1531455698922</v>
+        <v>4.153184183332563</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>-570.3357552670068</v>
+        <v>-570.3354726823585</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="E741" t="n">
-        <v>-266.4380975917835</v>
+        <v>-266.4159798827288</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>-563.3097012824129</v>
+        <v>-563.309635204944</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>-193.5260127837432</v>
+        <v>-193.5252773478233</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>-15.39678909541617</v>
+        <v>-15.39688687051298</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E745" t="n">
-        <v>5.100882572249654</v>
+        <v>5.100935766422102</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>-527.0576644560921</v>
+        <v>-527.056987142816</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="E747" t="n">
-        <v>-243.8702614115001</v>
+        <v>-243.8540355880495</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="E748" t="n">
-        <v>-518.627023960917</v>
+        <v>-518.6269017477667</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>-179.7107801306072</v>
+        <v>-179.7100285988466</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>-13.7680086850839</v>
+        <v>-13.76808326227854</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>6.098985170981046</v>
+        <v>6.099023208880777</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>-486.2370122196031</v>
+        <v>-486.2344577537644</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E753" t="n">
-        <v>-221.3412376032112</v>
+        <v>-221.330900173708</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>-474.459860375215</v>
+        <v>-474.4596573842872</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="E755" t="n">
-        <v>-166.1224961558836</v>
+        <v>-166.1217370212912</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>-12.14932192984653</v>
+        <v>-12.14937112417777</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>7.104567829052099</v>
+        <v>7.104616805571995</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>-475.5891976614829</v>
+        <v>-475.5891582679654</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="E759" t="n">
-        <v>-209.0156976853014</v>
+        <v>-209.0056997690699</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="E760" t="n">
-        <v>-436.8064261725875</v>
+        <v>-436.8060401472467</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="E761" t="n">
-        <v>-155.0296015620166</v>
+        <v>-155.0288387043589</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>-10.75248927375416</v>
+        <v>-10.7525095993888</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>7.990789230808821</v>
+        <v>7.990845755469551</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>-437.2564607341247</v>
+        <v>-437.2564218172974</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="E765" t="n">
-        <v>-197.1728617144142</v>
+        <v>-197.1631727728069</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>-400.663464738143</v>
+        <v>-400.6624907385013</v>
       </c>
     </row>
     <row r="767">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="E767" t="n">
-        <v>-144.1610436207573</v>
+        <v>-144.1603042418959</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>-9.433506342828295</v>
+        <v>-9.433500184339044</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="E769" t="n">
-        <v>8.856849422234477</v>
+        <v>8.856914041820103</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>-399.1313233201909</v>
+        <v>-399.13128031533</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>-186.8325904599413</v>
+        <v>-186.823418686855</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>-393.1918932794312</v>
+        <v>-393.1918896735472</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E773" t="n">
-        <v>-135.3789664023267</v>
+        <v>-135.3782630826134</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>-8.089624837774018</v>
+        <v>-8.089658914614233</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>9.650672449169184</v>
+        <v>9.650742472874906</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>-366.494021679624</v>
+        <v>-366.4939495938082</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="E777" t="n">
-        <v>-177.0344930915182</v>
+        <v>-177.0256438462811</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>-360.4290137046665</v>
+        <v>-360.4290098139692</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="E779" t="n">
-        <v>-126.7930158268639</v>
+        <v>-126.792328765018</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>-6.815807166927341</v>
+        <v>-6.815824736409436</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="E781" t="n">
-        <v>10.43949450073236</v>
+        <v>10.43957088981693</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>-334.0559558183264</v>
+        <v>-334.0558204016288</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="E783" t="n">
-        <v>-170.6489088017042</v>
+        <v>-170.6395470911021</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>-327.9152459991093</v>
+        <v>-327.9152379250197</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>-120.0728335337897</v>
+        <v>-120.0721478712878</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>-5.55763453476651</v>
+        <v>-5.557634627167126</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>11.16373580707606</v>
+        <v>11.16381561152377</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>-306.3489950648125</v>
+        <v>-306.3488300873469</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="E789" t="n">
-        <v>-162.4171727090706</v>
+        <v>-162.4097543160464</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>-300.1344068562262</v>
+        <v>-300.134398012582</v>
       </c>
     </row>
     <row r="791">
@@ -13887,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>-113.5201697205488</v>
+        <v>-113.5194710060245</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>-4.395973597080784</v>
+        <v>-4.395966213030584</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="E793" t="n">
-        <v>11.88199319614312</v>
+        <v>11.88207567419381</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>-278.8302190853577</v>
+        <v>-278.8300483531335</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="E795" t="n">
-        <v>-152.3907056961855</v>
+        <v>-152.3842446597698</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>-272.5987492392608</v>
+        <v>-272.5987353118808</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>-108.6184290278107</v>
+        <v>-108.6177700005578</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>-3.240307614724339</v>
+        <v>-3.240290395253842</v>
       </c>
     </row>
     <row r="799">
@@ -14023,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>12.53053710857545</v>
+        <v>12.53062052545329</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>-255.429146143385</v>
+        <v>-255.428915862922</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="E801" t="n">
-        <v>-143.1222193539577</v>
+        <v>-143.1172677997196</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-249.1622953982234</v>
+        <v>-249.1622799197723</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="E803" t="n">
-        <v>-103.9524651567088</v>
+        <v>-103.9518060200706</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="E804" t="n">
-        <v>-2.170074243444428</v>
+        <v>-2.170048247411577</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="E805" t="n">
-        <v>13.17515588687365</v>
+        <v>13.1752394484582</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E806" t="n">
-        <v>-232.2383577791358</v>
+        <v>-232.2380616897952</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="E807" t="n">
-        <v>-133.9405865182406</v>
+        <v>-133.9370277329482</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E808" t="n">
-        <v>-226.0084680726382</v>
+        <v>-226.0084024500849</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="E809" t="n">
-        <v>-101.0808740682802</v>
+        <v>-101.0803754995</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>-1.112061944055704</v>
+        <v>-1.112026955867131</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="E811" t="n">
-        <v>13.72549527503326</v>
+        <v>13.72557911756767</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="E812" t="n">
-        <v>-213.7392084118321</v>
+        <v>-213.7389221195532</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="E813" t="n">
-        <v>-126.9640781899573</v>
+        <v>-126.9605747546575</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="E814" t="n">
-        <v>-207.5339436019697</v>
+        <v>-207.5338605348477</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>-97.80094039554866</v>
+        <v>-97.80049006312126</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="E816" t="n">
-        <v>-0.1327842695499603</v>
+        <v>-0.1327391810115714</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E817" t="n">
-        <v>14.26515383469443</v>
+        <v>14.26523061637778</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E818" t="n">
-        <v>-196.8477242553591</v>
+        <v>-196.847428697361</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>-120.5378949558088</v>
+        <v>-120.5343876288893</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E820" t="n">
-        <v>-190.744854577279</v>
+        <v>-190.7447510272443</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="E821" t="n">
-        <v>-94.7220542962241</v>
+        <v>-94.72164381297551</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="E822" t="n">
-        <v>0.8289506245977266</v>
+        <v>0.8290044451194608</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="E823" t="n">
-        <v>14.83236892421958</v>
+        <v>14.83244438068502</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="E824" t="n">
-        <v>-195.6329569304484</v>
+        <v>-195.6326966017484</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="E825" t="n">
-        <v>-119.7645835064657</v>
+        <v>-119.7610914195577</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="E826" t="n">
-        <v>-189.7774957320189</v>
+        <v>-189.777415216066</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>-94.19248392538626</v>
+        <v>-94.19208105716527</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="E828" t="n">
-        <v>1.415917473948012</v>
+        <v>1.415962100827477</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="E829" t="n">
-        <v>15.08604278566025</v>
+        <v>15.08611629298523</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="E830" t="n">
-        <v>-195.268014519798</v>
+        <v>-195.2677584787581</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="E831" t="n">
-        <v>-119.4672914194197</v>
+        <v>-119.463802272649</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="E832" t="n">
-        <v>-189.4465951781638</v>
+        <v>-189.4465182443216</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>-93.9501563678842</v>
+        <v>-93.94975550999011</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E834" t="n">
-        <v>1.672806927306936</v>
+        <v>1.672849312314194</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>15.23713240248522</v>
+        <v>15.23720509496794</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="E836" t="n">
-        <v>-195.0749922072447</v>
+        <v>-195.0747376262281</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="E837" t="n">
-        <v>-119.2987266572291</v>
+        <v>-119.2952386398039</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="E838" t="n">
-        <v>-189.2655118417288</v>
+        <v>-189.2654362019948</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="E839" t="n">
-        <v>-93.80386522473613</v>
+        <v>-93.8034652269199</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E840" t="n">
-        <v>1.825236509644256</v>
+        <v>1.825277963468489</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>15.34019339419392</v>
+        <v>15.34026565746338</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="E842" t="n">
-        <v>-619.6360095584148</v>
+        <v>-619.6359617005709</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>1</v>
       </c>
       <c r="E843" t="n">
-        <v>-325.00979558271</v>
+        <v>-324.9921636879573</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E844" t="n">
-        <v>-613.7711066127854</v>
+        <v>-613.7711093870505</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>-209.8494740390433</v>
+        <v>-209.8487745104551</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="E846" t="n">
-        <v>-17.07418253144302</v>
+        <v>-17.07430538280492</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>4.346340342385201</v>
+        <v>4.346375826010343</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="E848" t="n">
-        <v>-568.4987386105171</v>
+        <v>-568.4986400100576</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>-266.0634915647669</v>
+        <v>-266.0413857819622</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="E850" t="n">
-        <v>-562.1579353721162</v>
+        <v>-562.1579395663637</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="E851" t="n">
-        <v>-193.3608581763421</v>
+        <v>-193.3601256131758</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="E852" t="n">
-        <v>-15.19464317917863</v>
+        <v>-15.19474504750525</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="E853" t="n">
-        <v>5.312477607781178</v>
+        <v>5.312526323657952</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="E854" t="n">
-        <v>-524.0362738953139</v>
+        <v>-524.036115092934</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>-243.4373663723473</v>
+        <v>-243.4211585132233</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="E856" t="n">
-        <v>-517.4394428789665</v>
+        <v>-517.4394166651934</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E857" t="n">
-        <v>-179.5250069236774</v>
+        <v>-179.5242588882124</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="E858" t="n">
-        <v>-13.54596783406884</v>
+        <v>-13.54604810431909</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E859" t="n">
-        <v>6.268131521390874</v>
+        <v>6.268194612925829</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E860" t="n">
-        <v>-480.1047475973343</v>
+        <v>-480.104438476238</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>-220.8330548142481</v>
+        <v>-220.8227445178452</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="E862" t="n">
-        <v>-473.0447253629129</v>
+        <v>-473.0446580191422</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="E863" t="n">
-        <v>-165.9271251464242</v>
+        <v>-165.9263712763035</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="E864" t="n">
-        <v>-11.90388331079245</v>
+        <v>-11.90394030560649</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="E865" t="n">
-        <v>7.158020163960705</v>
+        <v>7.158068605935318</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>-442.7732615685986</v>
+        <v>-442.7727753921905</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="E867" t="n">
-        <v>-208.4072940297069</v>
+        <v>-208.3973377379139</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="E868" t="n">
-        <v>-434.8780986200697</v>
+        <v>-434.8779686158855</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>-154.80659313855</v>
+        <v>-154.8058368476535</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="E870" t="n">
-        <v>-10.47921807297315</v>
+        <v>-10.47924901398398</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="E871" t="n">
-        <v>8.046304222559792</v>
+        <v>8.046360088317167</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E872" t="n">
-        <v>-407.6699822883256</v>
+        <v>-407.6683957217818</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>-196.3500442177513</v>
+        <v>-196.3404245500676</v>
       </c>
     </row>
     <row r="874">
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="E874" t="n">
-        <v>-397.1550494925609</v>
+        <v>-397.1548416119277</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="n">
-        <v>-143.9031819296839</v>
+        <v>-143.9024509215574</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E876" t="n">
-        <v>-9.110333810050262</v>
+        <v>-9.11034170577582</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="E877" t="n">
-        <v>8.915539440040941</v>
+        <v>8.915603336708729</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="n">
-        <v>-398.9975559065815</v>
+        <v>-398.9975135773666</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="n">
-        <v>-185.6267410742404</v>
+        <v>-185.61770191468</v>
       </c>
     </row>
     <row r="880">
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="E880" t="n">
-        <v>-365.3543488983003</v>
+        <v>-365.3539804720538</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="n">
-        <v>-135.0760796574787</v>
+        <v>-135.0753872941436</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="E882" t="n">
-        <v>-7.954405286608821</v>
+        <v>-7.954390994382098</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>9.712852271144722</v>
+        <v>9.712921498855362</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="E884" t="n">
-        <v>-366.3459458998083</v>
+        <v>-366.345874614478</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>-174.9930654360646</v>
+        <v>-174.9845450541678</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E886" t="n">
-        <v>-335.1218338051835</v>
+        <v>-335.1207955717194</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="E887" t="n">
-        <v>-126.4499880106183</v>
+        <v>-126.4493163155534</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="E888" t="n">
-        <v>-6.752304403300495</v>
+        <v>-6.752322901127772</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>10.50552442135531</v>
+        <v>10.50559993058496</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="E890" t="n">
-        <v>-333.9013475267613</v>
+        <v>-333.9012139589994</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="n">
-        <v>-165.6670545962245</v>
+        <v>-165.6593449646326</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="E892" t="n">
-        <v>-327.7916096689892</v>
+        <v>-327.7916028286929</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="n">
-        <v>-119.6549286513841</v>
+        <v>-119.6542643815065</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>-5.49014121322689</v>
+        <v>-5.490142333265139</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="E895" t="n">
-        <v>11.23403046840115</v>
+        <v>11.23410929621511</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E896" t="n">
-        <v>-306.1760011040065</v>
+        <v>-306.1758383569419</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>-157.0221430051501</v>
+        <v>-157.0151512863042</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="E898" t="n">
-        <v>-299.9982811349132</v>
+        <v>-299.9982737399612</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="n">
-        <v>-112.9952596102825</v>
+        <v>-112.9945922614816</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="E900" t="n">
-        <v>-4.324053262932839</v>
+        <v>-4.324047021352538</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="n">
-        <v>11.95703260881746</v>
+        <v>11.95711399785865</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E902" t="n">
-        <v>-278.6487213920025</v>
+        <v>-278.6485543683996</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>-151.6634661568145</v>
+        <v>-151.6563434411383</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="E904" t="n">
-        <v>-272.4569583743415</v>
+        <v>-272.4569468533189</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="E905" t="n">
-        <v>-107.930829316421</v>
+        <v>-107.930219699563</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="E906" t="n">
-        <v>-3.163453885261428</v>
+        <v>-3.163437941907684</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="E907" t="n">
-        <v>12.61088053507665</v>
+        <v>12.61096273158297</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="E908" t="n">
-        <v>-255.2233472813089</v>
+        <v>-255.2231215754999</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="n">
-        <v>-143.0009976240611</v>
+        <v>-142.9960478775597</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
       <c r="E910" t="n">
-        <v>-249.004679554959</v>
+        <v>-249.0046669476695</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E911" t="n">
-        <v>-102.9741414877562</v>
+        <v>-102.973571832761</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E912" t="n">
-        <v>-2.087695702562517</v>
+        <v>-2.08767113926798</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>13.26145950961102</v>
+        <v>13.26154169614</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>-232.0211361634121</v>
+        <v>-232.0208468252459</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="E915" t="n">
-        <v>-133.8147084163639</v>
+        <v>-133.8111522576326</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="E916" t="n">
-        <v>-225.8435906898687</v>
+        <v>-225.843529263371</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>-100.0211040586855</v>
+        <v>-100.0205416846568</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="E918" t="n">
-        <v>-1.023462844798074</v>
+        <v>-1.023429474287138</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="E919" t="n">
-        <v>13.8185349332952</v>
+        <v>13.81861721715661</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="E920" t="n">
-        <v>-213.488706882962</v>
+        <v>-213.4884291580041</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="E921" t="n">
-        <v>-126.825317493079</v>
+        <v>-126.8218171480884</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="E922" t="n">
-        <v>-207.3485077613435</v>
+        <v>-207.3484297999015</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="E923" t="n">
-        <v>-97.41708687285889</v>
+        <v>-97.41651456715658</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="E924" t="n">
-        <v>-0.03713959549699747</v>
+        <v>-0.03709634483881835</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>14.3591731807233</v>
+        <v>14.35925471135969</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="n">
-        <v>-196.5683861083838</v>
+        <v>-196.5681021579758</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="E927" t="n">
-        <v>-120.3887093957112</v>
+        <v>-120.3852060219653</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="E928" t="n">
-        <v>-190.5422728368425</v>
+        <v>-190.542175981424</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="E929" t="n">
-        <v>-94.63123445832871</v>
+        <v>-94.63082564326317</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="E930" t="n">
-        <v>0.9326277991340138</v>
+        <v>0.9326795171607071</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>14.8692581764216</v>
+        <v>14.86933329981735</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="E932" t="n">
-        <v>-195.5759152256301</v>
+        <v>-195.5756557151838</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>-119.7200584048189</v>
+        <v>-119.7165668437125</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="E934" t="n">
-        <v>-189.726853724407</v>
+        <v>-189.7267738705643</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>-94.15752407733869</v>
+        <v>-94.15712154847719</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="E936" t="n">
-        <v>1.453357830513744</v>
+        <v>1.453402072924439</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="E937" t="n">
-        <v>15.10636944627075</v>
+        <v>15.10644283034364</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E938" t="n">
-        <v>-195.2411602928846</v>
+        <v>-195.2409044847635</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>-119.4442862536548</v>
+        <v>-119.4407972816737</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="E940" t="n">
-        <v>-189.4216343461929</v>
+        <v>-189.4215576158128</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="E941" t="n">
-        <v>-93.93055455795465</v>
+        <v>-93.9301538293476</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="E942" t="n">
-        <v>1.693336825046608</v>
+        <v>1.693379068924433</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="E943" t="n">
-        <v>15.25041680646334</v>
+        <v>15.25048943832604</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="E944" t="n">
-        <v>-195.0586892253691</v>
+        <v>-195.0584347456701</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>-119.2841584163187</v>
+        <v>-119.2806704804661</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>-189.2500469565977</v>
+        <v>-189.24997140842</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>-93.79094020599976</v>
+        <v>-93.790540272725</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="E948" t="n">
-        <v>1.83862073228618</v>
+        <v>1.838662116977077</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="E949" t="n">
-        <v>15.34973448833581</v>
+        <v>15.34980671671122</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="E950" t="n">
-        <v>-194.9397248042112</v>
+        <v>-194.9394709725757</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="E951" t="n">
-        <v>-119.1763905600503</v>
+        <v>-119.1729031576839</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
       <c r="E952" t="n">
-        <v>-189.1364611298381</v>
+        <v>-189.1363861735128</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>-93.69401429906324</v>
+        <v>-93.69361479740236</v>
       </c>
     </row>
     <row r="954">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="E954" t="n">
-        <v>1.938600644300821</v>
+        <v>1.938641569601899</v>
       </c>
     </row>
     <row r="955">
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="E955" t="n">
-        <v>15.42352416082967</v>
+        <v>15.42359614369441</v>
       </c>
     </row>
     <row r="956">
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="E956" t="n">
-        <v>-194.8543243655093</v>
+        <v>-194.8540709060179</v>
       </c>
     </row>
     <row r="957">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="E957" t="n">
-        <v>-119.0975243996224</v>
+        <v>-119.094037313707</v>
       </c>
     </row>
     <row r="958">
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
       <c r="E958" t="n">
-        <v>-189.05417317825</v>
+        <v>-189.0540985670684</v>
       </c>
     </row>
     <row r="959">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>-93.62168534763414</v>
+        <v>-93.6212861105425</v>
       </c>
     </row>
     <row r="960">
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>2.012792863089417</v>
+        <v>2.012833509430547</v>
       </c>
     </row>
     <row r="961">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="E961" t="n">
-        <v>15.48113012340875</v>
+        <v>15.48120194392668</v>
       </c>
     </row>
     <row r="962">
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="E962" t="n">
-        <v>-522.8163076818928</v>
+        <v>-522.8162021003666</v>
       </c>
     </row>
     <row r="963">
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="E963" t="n">
-        <v>-243.1390095634045</v>
+        <v>-243.1228113346747</v>
       </c>
     </row>
     <row r="964">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E964" t="n">
-        <v>-516.6059841834818</v>
+        <v>-516.6059871053621</v>
       </c>
     </row>
     <row r="965">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>-179.3762318782226</v>
+        <v>-179.3754862558907</v>
       </c>
     </row>
     <row r="966">
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E966" t="n">
-        <v>-13.37270585409471</v>
+        <v>-13.37278988623453</v>
       </c>
     </row>
     <row r="967">
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>6.448669457679201</v>
+        <v>6.448728473473034</v>
       </c>
     </row>
     <row r="968">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="E968" t="n">
-        <v>-478.631348536761</v>
+        <v>-478.6312310524045</v>
       </c>
     </row>
     <row r="969">
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="E969" t="n">
-        <v>-220.4955999888146</v>
+        <v>-220.4853033492169</v>
       </c>
     </row>
     <row r="970">
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="E970" t="n">
-        <v>-472.0106009325714</v>
+        <v>-472.0106052175513</v>
       </c>
     </row>
     <row r="971">
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>-165.7703380766456</v>
+        <v>-165.7695913241683</v>
       </c>
     </row>
     <row r="972">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>-11.71536571006894</v>
+        <v>-11.71542772439689</v>
       </c>
     </row>
     <row r="973">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="E973" t="n">
-        <v>7.295464813649613</v>
+        <v>7.295534190904302</v>
       </c>
     </row>
     <row r="974">
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="E974" t="n">
-        <v>-440.5972397908038</v>
+        <v>-440.5970239340976</v>
       </c>
     </row>
     <row r="975">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="E975" t="n">
-        <v>-208.0213336663902</v>
+        <v>-208.0113967586263</v>
       </c>
     </row>
     <row r="976">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="E976" t="n">
-        <v>-433.8092162050776</v>
+        <v>-433.809169012345</v>
       </c>
     </row>
     <row r="977">
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="E977" t="n">
-        <v>-154.632692185245</v>
+        <v>-154.6319402286967</v>
       </c>
     </row>
     <row r="978">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E978" t="n">
-        <v>-10.27306095524015</v>
+        <v>-10.27309852390257</v>
       </c>
     </row>
     <row r="979">
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="E979" t="n">
-        <v>8.097786417690751</v>
+        <v>8.097866009215346</v>
       </c>
     </row>
     <row r="980">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="E980" t="n">
-        <v>-403.1457555912295</v>
+        <v>-403.1454700235919</v>
       </c>
     </row>
     <row r="981">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>-195.8714637633403</v>
+        <v>-195.8618719006352</v>
       </c>
     </row>
     <row r="982">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="E982" t="n">
-        <v>-395.8531056953659</v>
+        <v>-395.8530220029431</v>
       </c>
     </row>
     <row r="983">
@@ -17151,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>-143.7067250325092</v>
+        <v>-143.7059993378304</v>
       </c>
     </row>
     <row r="984">
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="E984" t="n">
-        <v>-8.873813061975314</v>
+        <v>-8.873829295815018</v>
       </c>
     </row>
     <row r="985">
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="E985" t="n">
-        <v>8.968277153014279</v>
+        <v>8.968340444806714</v>
       </c>
     </row>
     <row r="986">
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="E986" t="n">
-        <v>-371.6032830608171</v>
+        <v>-371.6027516008523</v>
       </c>
     </row>
     <row r="987">
@@ -17219,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>-185.0101755527671</v>
+        <v>-185.0011680294912</v>
       </c>
     </row>
     <row r="988">
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="E988" t="n">
-        <v>-363.425043104736</v>
+        <v>-363.424910853526</v>
       </c>
     </row>
     <row r="989">
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="E989" t="n">
-        <v>-134.8517161155239</v>
+        <v>-134.8510303857796</v>
       </c>
     </row>
     <row r="990">
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E990" t="n">
-        <v>-7.679229167727944</v>
+        <v>-7.679225614944677</v>
       </c>
     </row>
     <row r="991">
@@ -17287,7 +17287,7 @@
         <v>1</v>
       </c>
       <c r="E991" t="n">
-        <v>9.768499969774815</v>
+        <v>9.768568535952786</v>
       </c>
     </row>
     <row r="992">
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="E992" t="n">
-        <v>-342.4278312858114</v>
+        <v>-342.4260467367218</v>
       </c>
     </row>
     <row r="993">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="E993" t="n">
-        <v>-174.1543574303784</v>
+        <v>-174.1459113491075</v>
       </c>
     </row>
     <row r="994">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="E994" t="n">
-        <v>-331.4437760699548</v>
+        <v>-331.4435631335369</v>
       </c>
     </row>
     <row r="995">
@@ -17355,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>-126.2018016201179</v>
+        <v>-126.2011388671922</v>
       </c>
     </row>
     <row r="996">
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>-6.51553875370368</v>
+        <v>-6.515513477084909</v>
       </c>
     </row>
     <row r="997">
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="E997" t="n">
-        <v>10.56436005225111</v>
+        <v>10.5644348355687</v>
       </c>
     </row>
     <row r="998">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E998" t="n">
-        <v>-333.7745151456641</v>
+        <v>-333.774382906535</v>
       </c>
     </row>
     <row r="999">
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="E999" t="n">
-        <v>-164.4377234837484</v>
+        <v>-164.4301509075366</v>
       </c>
     </row>
     <row r="1000">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="E1000" t="n">
-        <v>-304.7133203742857</v>
+        <v>-304.7129396229814</v>
       </c>
     </row>
     <row r="1001">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>-119.3646602794106</v>
+        <v>-119.36400762919</v>
       </c>
     </row>
     <row r="1002">
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="E1002" t="n">
-        <v>-5.430099913458124</v>
+        <v>-5.430101879019912</v>
       </c>
     </row>
     <row r="1003">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="E1003" t="n">
-        <v>11.29637063862308</v>
+        <v>11.296448667015</v>
       </c>
     </row>
     <row r="1004">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="E1004" t="n">
-        <v>-306.0361171413721</v>
+        <v>-306.0359559588361</v>
       </c>
     </row>
     <row r="1005">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="E1005" t="n">
-        <v>-154.9219939660948</v>
+        <v>-154.9153478242671</v>
       </c>
     </row>
     <row r="1006">
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="E1006" t="n">
-        <v>-279.6092628495476</v>
+        <v>-279.6081236925445</v>
       </c>
     </row>
     <row r="1007">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="E1007" t="n">
-        <v>-112.6494422504039</v>
+        <v>-112.6487904782441</v>
       </c>
     </row>
     <row r="1008">
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="E1008" t="n">
-        <v>-4.260384416907913</v>
+        <v>-4.260379107726159</v>
       </c>
     </row>
     <row r="1009">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="E1009" t="n">
-        <v>12.02323978920361</v>
+        <v>12.02332029444631</v>
       </c>
     </row>
     <row r="1010">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="E1010" t="n">
-        <v>-278.5029050522657</v>
+        <v>-278.5027406020771</v>
       </c>
     </row>
     <row r="1011">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>-146.3771032938111</v>
+        <v>-146.3718298923307</v>
       </c>
     </row>
     <row r="1012">
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="E1012" t="n">
-        <v>-272.3394165812217</v>
+        <v>-272.339406819917</v>
       </c>
     </row>
     <row r="1013">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="E1013" t="n">
-        <v>-107.5046374530402</v>
+        <v>-107.5040667453282</v>
       </c>
     </row>
     <row r="1014">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="E1014" t="n">
-        <v>-3.095776698422183</v>
+        <v>-3.095761787380018</v>
       </c>
     </row>
     <row r="1015">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>12.68137197569717</v>
+        <v>12.68145319100485</v>
       </c>
     </row>
     <row r="1016">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E1016" t="n">
-        <v>-255.060919944077</v>
+        <v>-255.0606973194461</v>
       </c>
     </row>
     <row r="1017">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="E1017" t="n">
-        <v>-138.619214719022</v>
+        <v>-138.6150974562009</v>
       </c>
     </row>
     <row r="1018">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E1018" t="n">
-        <v>-248.875690459612</v>
+        <v>-248.8756799071888</v>
       </c>
     </row>
     <row r="1019">
@@ -17763,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="E1019" t="n">
-        <v>-102.4017019184768</v>
+        <v>-102.4011641275579</v>
       </c>
     </row>
     <row r="1020">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="E1020" t="n">
-        <v>-2.015570934173819</v>
+        <v>-2.015547518771486</v>
       </c>
     </row>
     <row r="1021">
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="E1021" t="n">
-        <v>13.33671837029209</v>
+        <v>13.33679946249355</v>
       </c>
     </row>
     <row r="1022">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="E1022" t="n">
-        <v>-231.8510674594775</v>
+        <v>-231.8507826074387</v>
       </c>
     </row>
     <row r="1023">
@@ -17831,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>-133.7089345652908</v>
+        <v>-133.7053803713137</v>
       </c>
     </row>
     <row r="1024">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="E1024" t="n">
-        <v>-225.7094297259563</v>
+        <v>-225.7093712738414</v>
       </c>
     </row>
     <row r="1025">
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="E1025" t="n">
-        <v>-99.32449652371402</v>
+        <v>-99.32398465678125</v>
       </c>
     </row>
     <row r="1026">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E1026" t="n">
-        <v>-0.946380738370824</v>
+        <v>-0.9463486503088092</v>
       </c>
     </row>
     <row r="1027">
@@ -17899,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="E1027" t="n">
-        <v>13.89912431080073</v>
+        <v>13.89920536805176</v>
       </c>
     </row>
     <row r="1028">
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="E1028" t="n">
-        <v>-213.2969405985961</v>
+        <v>-213.2966683558252</v>
       </c>
     </row>
     <row r="1029">
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>-126.7099961884033</v>
+        <v>-126.706498112855</v>
       </c>
     </row>
     <row r="1030">
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="E1030" t="n">
-        <v>-207.199965602712</v>
+        <v>-207.1998911666298</v>
       </c>
     </row>
     <row r="1031">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>-96.44315864630286</v>
+        <v>-96.44267538019895</v>
       </c>
     </row>
     <row r="1032">
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="E1032" t="n">
-        <v>0.04549538566856809</v>
+        <v>0.04553719614014812</v>
       </c>
     </row>
     <row r="1033">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="E1033" t="n">
-        <v>14.44575396837105</v>
+        <v>14.44583411657637</v>
       </c>
     </row>
     <row r="1034">
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="E1034" t="n">
-        <v>-196.358453384634</v>
+        <v>-196.3581766350752</v>
       </c>
     </row>
     <row r="1035">
@@ -18035,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="E1035" t="n">
-        <v>-120.265787791934</v>
+        <v>-120.2622872797346</v>
       </c>
     </row>
     <row r="1036">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E1036" t="n">
-        <v>-190.3820164172828</v>
+        <v>-190.3819240882737</v>
       </c>
     </row>
     <row r="1037">
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>-94.55239512546505</v>
+        <v>-94.5519876280039</v>
       </c>
     </row>
     <row r="1038">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="E1038" t="n">
-        <v>1.021516482013641</v>
+        <v>1.021566573531838</v>
       </c>
     </row>
     <row r="1039">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E1039" t="n">
-        <v>14.90333898095511</v>
+        <v>14.9034138124606</v>
       </c>
     </row>
     <row r="1040">
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="E1040" t="n">
-        <v>-195.5245588688811</v>
+        <v>-195.5243000453012</v>
       </c>
     </row>
     <row r="1041">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="E1041" t="n">
-        <v>-119.6793437309228</v>
+        <v>-119.6758526227752</v>
       </c>
     </row>
     <row r="1042">
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E1042" t="n">
-        <v>-189.6809039817476</v>
+        <v>-189.6808246909438</v>
       </c>
     </row>
     <row r="1043">
@@ -18171,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>-94.12513790123246</v>
+        <v>-94.12473567112326</v>
       </c>
     </row>
     <row r="1044">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="E1044" t="n">
-        <v>1.487921278048746</v>
+        <v>1.487965183956584</v>
       </c>
     </row>
     <row r="1045">
@@ -18205,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>15.12563390175161</v>
+        <v>15.12570717311623</v>
       </c>
     </row>
     <row r="1046">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="E1046" t="n">
-        <v>-195.2159807930327</v>
+        <v>-195.2157251941304</v>
       </c>
     </row>
     <row r="1047">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="E1047" t="n">
-        <v>-119.4225818057962</v>
+        <v>-119.4190929924485</v>
       </c>
     </row>
     <row r="1048">
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="E1048" t="n">
-        <v>-189.3981597807793</v>
+        <v>-189.3980832340759</v>
       </c>
     </row>
     <row r="1049">
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="E1049" t="n">
-        <v>-93.91195361860265</v>
+        <v>-93.91155300847115</v>
       </c>
     </row>
     <row r="1050">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="E1050" t="n">
-        <v>1.712787070799944</v>
+        <v>1.712829185697474</v>
       </c>
     </row>
     <row r="1051">
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>15.26317272806175</v>
+        <v>15.26324530326857</v>
       </c>
     </row>
     <row r="1052">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="E1052" t="n">
-        <v>-195.0431260835851</v>
+        <v>-195.0428716976594</v>
       </c>
     </row>
     <row r="1053">
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="n">
-        <v>-119.2702052009732</v>
+        <v>-119.2667173410366</v>
       </c>
     </row>
     <row r="1054">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1054" t="n">
-        <v>-189.235260502223</v>
+        <v>-189.2351850390077</v>
       </c>
     </row>
     <row r="1055">
@@ -18375,7 +18375,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>-93.77852036008674</v>
+        <v>-93.77812048720567</v>
       </c>
     </row>
     <row r="1056">
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="E1056" t="n">
-        <v>1.851469926395817</v>
+        <v>1.851511246496056</v>
       </c>
     </row>
     <row r="1057">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>15.35896916199078</v>
+        <v>15.35904135731881</v>
       </c>
     </row>
     <row r="1058">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="E1058" t="n">
-        <v>-194.9289067509806</v>
+        <v>-194.928652970464</v>
       </c>
     </row>
     <row r="1059">
@@ -18443,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="E1059" t="n">
-        <v>-119.1664673965978</v>
+        <v>-119.1629800372218</v>
       </c>
     </row>
     <row r="1060">
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="E1060" t="n">
-        <v>-189.1260705513222</v>
+        <v>-189.1259956421598</v>
       </c>
     </row>
     <row r="1061">
@@ -18477,7 +18477,7 @@
         <v>1</v>
       </c>
       <c r="E1061" t="n">
-        <v>-93.68497662503367</v>
+        <v>-93.68457715890573</v>
       </c>
     </row>
     <row r="1062">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="E1062" t="n">
-        <v>1.947889694684087</v>
+        <v>1.947930582395424</v>
       </c>
     </row>
     <row r="1063">
@@ -18511,7 +18511,7 @@
         <v>1</v>
       </c>
       <c r="E1063" t="n">
-        <v>15.43060454769582</v>
+        <v>15.43067650934879</v>
       </c>
     </row>
     <row r="1064">
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E1064" t="n">
-        <v>-194.8462496984626</v>
+        <v>-194.8459962703494</v>
       </c>
     </row>
     <row r="1065">
@@ -18545,7 +18545,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>-119.0900061972656</v>
+        <v>-119.0865191384039</v>
       </c>
     </row>
     <row r="1066">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="E1066" t="n">
-        <v>-189.0463625978191</v>
+        <v>-189.0462880159303</v>
       </c>
     </row>
     <row r="1067">
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E1067" t="n">
-        <v>-93.61473185523147</v>
+        <v>-93.61433264108113</v>
       </c>
     </row>
     <row r="1068">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E1068" t="n">
-        <v>2.019908146865282</v>
+        <v>2.019948769115703</v>
       </c>
     </row>
     <row r="1069">
@@ -18613,7 +18613,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>15.48678056743195</v>
+        <v>15.48685237339521</v>
       </c>
     </row>
     <row r="1070">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="E1070" t="n">
-        <v>-194.7828680616383</v>
+        <v>-194.7826148596455</v>
       </c>
     </row>
     <row r="1071">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="E1071" t="n">
-        <v>-119.0306417692678</v>
+        <v>-119.027154907301</v>
       </c>
     </row>
     <row r="1072">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="E1072" t="n">
-        <v>-188.9848826125041</v>
+        <v>-188.9848082426906</v>
       </c>
     </row>
     <row r="1073">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E1073" t="n">
-        <v>-93.55948464882322</v>
+        <v>-93.55908560338473</v>
       </c>
     </row>
     <row r="1074">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="E1074" t="n">
-        <v>2.076339222916516</v>
+        <v>2.076379668537197</v>
       </c>
     </row>
     <row r="1075">
@@ -18715,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="E1075" t="n">
-        <v>15.53236140382573</v>
+        <v>15.53243309995737</v>
       </c>
     </row>
     <row r="1076">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="E1076" t="n">
-        <v>-194.7322733770277</v>
+        <v>-194.7320203302486</v>
       </c>
     </row>
     <row r="1077">
@@ -18749,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="E1077" t="n">
-        <v>-118.9828254217123</v>
+        <v>-118.9793386969518</v>
       </c>
     </row>
     <row r="1078">
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="E1078" t="n">
-        <v>-188.9355979063195</v>
+        <v>-188.9355236831145</v>
       </c>
     </row>
     <row r="1079">
@@ -18783,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>-93.51456024472598</v>
+        <v>-93.51416131873832</v>
       </c>
     </row>
     <row r="1080">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E1080" t="n">
-        <v>2.12209990298616</v>
+        <v>2.122140224126328</v>
       </c>
     </row>
     <row r="1081">
@@ -18817,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>15.57030711943387</v>
+        <v>15.57037873468273</v>
       </c>
     </row>
     <row r="1082">
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="E1082" t="n">
-        <v>-439.5168119505368</v>
+        <v>-439.5167198591707</v>
       </c>
     </row>
     <row r="1083">
@@ -18851,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="E1083" t="n">
-        <v>-207.7486653584427</v>
+        <v>-207.7387392856327</v>
       </c>
     </row>
     <row r="1084">
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="E1084" t="n">
-        <v>-433.0558204403004</v>
+        <v>-433.0558234228474</v>
       </c>
     </row>
     <row r="1085">
@@ -18885,7 +18885,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>-154.4921724193204</v>
+        <v>-154.4914234995028</v>
       </c>
     </row>
     <row r="1086">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>-10.11039238372578</v>
+        <v>-10.11043441436387</v>
       </c>
     </row>
     <row r="1087">
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
       <c r="E1087" t="n">
-        <v>8.272955319592999</v>
+        <v>8.273030426848463</v>
       </c>
     </row>
     <row r="1088">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E1088" t="n">
-        <v>-401.7297712392082</v>
+        <v>-401.7296089475287</v>
       </c>
     </row>
     <row r="1089">
@@ -18953,7 +18953,7 @@
         <v>1</v>
       </c>
       <c r="E1089" t="n">
-        <v>-195.5490892667343</v>
+        <v>-195.5395117425782</v>
       </c>
     </row>
     <row r="1090">
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="E1090" t="n">
-        <v>-394.9035294807862</v>
+        <v>-394.9035102374382</v>
       </c>
     </row>
     <row r="1091">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="E1091" t="n">
-        <v>-143.550625006852</v>
+        <v>-143.5499029314904</v>
       </c>
     </row>
     <row r="1092">
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
       <c r="E1092" t="n">
-        <v>-8.691062433314809</v>
+        <v>-8.691084086412987</v>
       </c>
     </row>
     <row r="1093">
@@ -19021,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>9.016005130677048</v>
+        <v>9.016067910308212</v>
       </c>
     </row>
     <row r="1094">
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E1094" t="n">
-        <v>-369.4167600058502</v>
+        <v>-369.4165422781919</v>
       </c>
     </row>
     <row r="1095">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="E1095" t="n">
-        <v>-184.5962470252393</v>
+        <v>-184.5872587319856</v>
       </c>
     </row>
     <row r="1096">
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="E1096" t="n">
-        <v>-362.452088233321</v>
+        <v>-362.4520111869065</v>
       </c>
     </row>
     <row r="1097">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="E1097" t="n">
-        <v>-134.6769214581764</v>
+        <v>-134.6762401000473</v>
       </c>
     </row>
     <row r="1098">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="E1098" t="n">
-        <v>-7.471883966330363</v>
+        <v>-7.471887105143125</v>
       </c>
     </row>
     <row r="1099">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E1099" t="n">
-        <v>9.818684568992754</v>
+        <v>9.81875257831619</v>
       </c>
     </row>
     <row r="1100">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="E1100" t="n">
-        <v>-337.6413814638559</v>
+        <v>-337.6410317591257</v>
       </c>
     </row>
     <row r="1101">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="E1101" t="n">
-        <v>-173.6352696549054</v>
+        <v>-173.6268516921871</v>
       </c>
     </row>
     <row r="1102">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="E1102" t="n">
-        <v>-330.1700938859526</v>
+        <v>-330.1700089113965</v>
       </c>
     </row>
     <row r="1103">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="E1103" t="n">
-        <v>-126.0115186194227</v>
+        <v>-126.0108616031483</v>
       </c>
     </row>
     <row r="1104">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="E1104" t="n">
-        <v>-6.277522577971901</v>
+        <v>-6.277505727784618</v>
       </c>
     </row>
     <row r="1105">
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="E1105" t="n">
-        <v>10.61721958023901</v>
+        <v>10.61729375634906</v>
       </c>
     </row>
     <row r="1106">
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="E1106" t="n">
-        <v>-311.1155058849448</v>
+        <v>-311.114899293166</v>
       </c>
     </row>
     <row r="1107">
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="E1107" t="n">
-        <v>-163.799036514065</v>
+        <v>-163.7915247227327</v>
       </c>
     </row>
     <row r="1108">
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="E1108" t="n">
-        <v>-302.7614846537338</v>
+        <v>-302.7613500266381</v>
       </c>
     </row>
     <row r="1109">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>-119.1479857304677</v>
+        <v>-119.1473402069324</v>
       </c>
     </row>
     <row r="1110">
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>-5.191256560854166</v>
+        <v>-5.191229034046541</v>
       </c>
     </row>
     <row r="1111">
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="E1111" t="n">
-        <v>11.35215157392068</v>
+        <v>11.3522289381359</v>
       </c>
     </row>
     <row r="1112">
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>-287.1098162376657</v>
+        <v>-287.1077824889886</v>
       </c>
     </row>
     <row r="1113">
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>-154.0526698326471</v>
+        <v>-154.0460725464133</v>
       </c>
     </row>
     <row r="1114">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="E1114" t="n">
-        <v>-275.7497754960943</v>
+        <v>-275.7495572746534</v>
       </c>
     </row>
     <row r="1115">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E1115" t="n">
-        <v>-112.3892139295915</v>
+        <v>-112.3885957129598</v>
       </c>
     </row>
     <row r="1116">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E1116" t="n">
-        <v>-4.125901486026949</v>
+        <v>-4.125859960136259</v>
       </c>
     </row>
     <row r="1117">
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
       <c r="E1117" t="n">
-        <v>12.08222163658546</v>
+        <v>12.08230141290448</v>
       </c>
     </row>
     <row r="1118">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>-278.3824278435301</v>
+        <v>-278.3822652647725</v>
       </c>
     </row>
     <row r="1119">
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E1119" t="n">
-        <v>-145.1125071111008</v>
+        <v>-145.1074202871846</v>
       </c>
     </row>
     <row r="1120">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>-253.4474278991491</v>
+        <v>-253.4470048825466</v>
       </c>
     </row>
     <row r="1121">
@@ -19497,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>-107.1971948722904</v>
+        <v>-107.1966353981643</v>
       </c>
     </row>
     <row r="1122">
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="E1122" t="n">
-        <v>-3.035584147678218</v>
+        <v>-3.035570085715286</v>
       </c>
     </row>
     <row r="1123">
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="E1123" t="n">
-        <v>12.7438731848657</v>
+        <v>12.7439535973037</v>
       </c>
     </row>
     <row r="1124">
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>-254.9284984333366</v>
+        <v>-254.9282779998638</v>
       </c>
     </row>
     <row r="1125">
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="E1125" t="n">
-        <v>-136.373987149797</v>
+        <v>-136.3702884329913</v>
       </c>
     </row>
     <row r="1126">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>-232.8991310014331</v>
+        <v>-232.8979116479561</v>
       </c>
     </row>
     <row r="1127">
@@ -19599,7 +19599,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>-102.0327173894793</v>
+        <v>-102.0321948460143</v>
       </c>
     </row>
     <row r="1128">
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>-1.95173528017639</v>
+        <v>-1.951712801250803</v>
       </c>
     </row>
     <row r="1129">
@@ -19633,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>13.40310360538964</v>
+        <v>13.40318380982424</v>
       </c>
     </row>
     <row r="1130">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>-231.7132391658242</v>
+        <v>-231.7129574723851</v>
       </c>
     </row>
     <row r="1131">
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="E1131" t="n">
-        <v>-130.0975613851227</v>
+        <v>-130.0938202841515</v>
       </c>
     </row>
     <row r="1132">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="E1132" t="n">
-        <v>-225.5974972021888</v>
+        <v>-225.5974409486224</v>
       </c>
     </row>
     <row r="1133">
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="E1133" t="n">
-        <v>-98.87844904641565</v>
+        <v>-98.87796886269938</v>
       </c>
     </row>
     <row r="1134">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E1134" t="n">
-        <v>-0.8785188494420404</v>
+        <v>-0.8784877983953752</v>
       </c>
     </row>
     <row r="1135">
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>13.96981345105889</v>
+        <v>13.96989352251645</v>
       </c>
     </row>
     <row r="1136">
@@ -19752,7 +19752,7 @@
         <v>0</v>
       </c>
       <c r="E1136" t="n">
-        <v>-213.1440446970356</v>
+        <v>-213.1437762100197</v>
       </c>
     </row>
     <row r="1137">
@@ -19769,7 +19769,7 @@
         <v>1</v>
       </c>
       <c r="E1137" t="n">
-        <v>-124.8981031217326</v>
+        <v>-124.8940766444664</v>
       </c>
     </row>
     <row r="1138">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="E1138" t="n">
-        <v>-207.0775099216843</v>
+        <v>-207.0774380397196</v>
       </c>
     </row>
     <row r="1139">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="E1139" t="n">
-        <v>-95.90672900121911</v>
+        <v>-95.90627826646302</v>
       </c>
     </row>
     <row r="1140">
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>0.1178255592300415</v>
+        <v>0.1178662163509974</v>
       </c>
     </row>
     <row r="1141">
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>14.52123334943242</v>
+        <v>14.52131239795576</v>
       </c>
     </row>
     <row r="1142">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>-196.1932487302573</v>
+        <v>-196.1929768068383</v>
       </c>
     </row>
     <row r="1143">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>-120.1622302140699</v>
+        <v>-120.1587318516902</v>
       </c>
     </row>
     <row r="1144">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>-190.2511408837338</v>
+        <v>-190.2510517828476</v>
       </c>
     </row>
     <row r="1145">
@@ -19905,7 +19905,7 @@
         <v>1</v>
       </c>
       <c r="E1145" t="n">
-        <v>-94.48311454569337</v>
+        <v>-94.48270811038789</v>
       </c>
     </row>
     <row r="1146">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>1.098828099461297</v>
+        <v>1.098876902154306</v>
       </c>
     </row>
     <row r="1147">
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="E1147" t="n">
-        <v>14.93495051172646</v>
+        <v>14.93502508572901</v>
       </c>
     </row>
     <row r="1148">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>-195.478002130351</v>
+        <v>-195.4777438900012</v>
       </c>
     </row>
     <row r="1149">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>-119.6419252668768</v>
+        <v>-119.6384345522312</v>
       </c>
     </row>
     <row r="1150">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="E1150" t="n">
-        <v>-189.6389639557525</v>
+        <v>-189.6388851484971</v>
       </c>
     </row>
     <row r="1151">
@@ -20007,7 +20007,7 @@
         <v>1</v>
       </c>
       <c r="E1151" t="n">
-        <v>-94.09502436199473</v>
+        <v>-94.09462239652269</v>
       </c>
     </row>
     <row r="1152">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="E1152" t="n">
-        <v>1.519958332373324</v>
+        <v>1.520001941764476</v>
       </c>
     </row>
     <row r="1153">
@@ -20041,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E1153" t="n">
-        <v>15.1439255541985</v>
+        <v>15.14399872217751</v>
       </c>
     </row>
     <row r="1154">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="E1154" t="n">
-        <v>-195.1923088872798</v>
+        <v>-195.1920534771404</v>
       </c>
     </row>
     <row r="1155">
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>-119.402059950148</v>
+        <v>-119.3985712812942</v>
       </c>
     </row>
     <row r="1156">
@@ -20092,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E1156" t="n">
-        <v>-189.37602960783</v>
+        <v>-189.3759532276107</v>
       </c>
     </row>
     <row r="1157">
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="E1157" t="n">
-        <v>-93.89427117573486</v>
+        <v>-93.89387067449228</v>
       </c>
     </row>
     <row r="1158">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="E1158" t="n">
-        <v>1.731249093777351</v>
+        <v>1.731291090428089</v>
       </c>
     </row>
     <row r="1159">
@@ -20143,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="E1159" t="n">
-        <v>15.27543430321106</v>
+        <v>15.2755068253724</v>
       </c>
     </row>
     <row r="1160">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="E1160" t="n">
-        <v>-195.0282484657641</v>
+        <v>-195.0279941668308</v>
       </c>
     </row>
     <row r="1161">
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="E1161" t="n">
-        <v>-119.2568249203775</v>
+        <v>-119.2533371312348</v>
       </c>
     </row>
     <row r="1162">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="E1162" t="n">
-        <v>-189.2211042828825</v>
+        <v>-189.2210288986822</v>
       </c>
     </row>
     <row r="1163">
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>-93.76657361412305</v>
+        <v>-93.76617379785183</v>
       </c>
     </row>
     <row r="1164">
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>1.863818813545303</v>
+        <v>1.863860073190291</v>
       </c>
     </row>
     <row r="1165">
@@ -20245,7 +20245,7 @@
         <v>1</v>
       </c>
       <c r="E1165" t="n">
-        <v>15.36791347324427</v>
+        <v>15.36798563723755</v>
       </c>
     </row>
     <row r="1166">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="E1166" t="n">
-        <v>-194.9184655940907</v>
+        <v>-194.9182118617605</v>
       </c>
     </row>
     <row r="1167">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>-119.1568711441712</v>
+        <v>-119.1533838254522</v>
       </c>
     </row>
     <row r="1168">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>-189.1160326473789</v>
+        <v>-189.1159577827428</v>
       </c>
     </row>
     <row r="1169">
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="E1169" t="n">
-        <v>-93.67621916814885</v>
+        <v>-93.67581973573763</v>
       </c>
     </row>
     <row r="1170">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="E1170" t="n">
-        <v>1.95688555762661</v>
+        <v>1.956926409703744</v>
       </c>
     </row>
     <row r="1171">
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="E1171" t="n">
-        <v>15.43749764353101</v>
+        <v>15.43756958489846</v>
       </c>
     </row>
     <row r="1172">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="E1172" t="n">
-        <v>-194.8384077087495</v>
+        <v>-194.8381543105229</v>
       </c>
     </row>
     <row r="1173">
@@ -20381,7 +20381,7 @@
         <v>1</v>
       </c>
       <c r="E1173" t="n">
-        <v>-119.0826947969524</v>
+        <v>-119.0792077639164</v>
       </c>
     </row>
     <row r="1174">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="E1174" t="n">
-        <v>-189.038772266383</v>
+        <v>-189.0386977124239</v>
       </c>
     </row>
     <row r="1175">
@@ -20415,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="E1175" t="n">
-        <v>-93.60796014099618</v>
+        <v>-93.60756094879696</v>
       </c>
     </row>
     <row r="1176">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="E1176" t="n">
-        <v>2.026834612255755</v>
+        <v>2.026875211470858</v>
       </c>
     </row>
     <row r="1177">
@@ -20449,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>15.49230201874831</v>
+        <v>15.49237381070599</v>
       </c>
     </row>
     <row r="1178">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="E1178" t="n">
-        <v>-194.7767010957095</v>
+        <v>-194.7764479137297</v>
       </c>
     </row>
     <row r="1179">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>-119.0248333087842</v>
+        <v>-119.0213464644063</v>
       </c>
     </row>
     <row r="1180">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>-188.9788849285031</v>
+        <v>-188.9788105775419</v>
       </c>
     </row>
     <row r="1181">
@@ -20517,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="E1181" t="n">
-        <v>-93.55404722595091</v>
+        <v>-93.55364819573049</v>
       </c>
     </row>
     <row r="1182">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="E1182" t="n">
-        <v>2.081883715388528</v>
+        <v>2.081924145121585</v>
       </c>
     </row>
     <row r="1183">
@@ -20551,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>15.53691261392484</v>
+        <v>15.53698429991407</v>
       </c>
     </row>
     <row r="1184">
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="n">
-        <v>-194.7272597853538</v>
+        <v>-194.7270067527392</v>
       </c>
     </row>
     <row r="1185">
@@ -20585,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="E1185" t="n">
-        <v>-118.9780673119161</v>
+        <v>-118.9745805997627</v>
       </c>
     </row>
     <row r="1186">
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="E1186" t="n">
-        <v>-188.9307045475297</v>
+        <v>-188.930630337747</v>
       </c>
     </row>
     <row r="1187">
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="E1187" t="n">
-        <v>-93.51007001836734</v>
+        <v>-93.50967110343481</v>
       </c>
     </row>
     <row r="1188">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="E1188" t="n">
-        <v>2.126667802539338</v>
+        <v>2.126708112183</v>
       </c>
     </row>
     <row r="1189">
@@ -20653,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="E1189" t="n">
-        <v>15.57414233362437</v>
+        <v>15.57421394125308</v>
       </c>
     </row>
     <row r="1190">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="E1190" t="n">
-        <v>-194.6864939329241</v>
+        <v>-194.6862410085514</v>
       </c>
     </row>
     <row r="1191">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>-118.9392509789786</v>
+        <v>-118.935764363714</v>
       </c>
     </row>
     <row r="1192">
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="E1192" t="n">
-        <v>-188.8908548509309</v>
+        <v>-188.8907807439903</v>
       </c>
     </row>
     <row r="1193">
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="E1193" t="n">
-        <v>-93.47330931297337</v>
+        <v>-93.47291048352457</v>
       </c>
     </row>
     <row r="1194">
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="E1194" t="n">
-        <v>2.164025768995741</v>
+        <v>2.164065989902424</v>
       </c>
     </row>
     <row r="1195">
@@ -20755,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="E1195" t="n">
-        <v>15.60582502462067</v>
+        <v>15.60589657238089</v>
       </c>
     </row>
     <row r="1196">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="E1196" t="n">
-        <v>-194.6521310850715</v>
+        <v>-194.6518782420899</v>
       </c>
     </row>
     <row r="1197">
@@ -20789,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="E1197" t="n">
-        <v>-118.9063604525014</v>
+        <v>-118.9028739107287</v>
       </c>
     </row>
     <row r="1198">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="E1198" t="n">
-        <v>-188.8571823072162</v>
+        <v>-188.8571082779221</v>
       </c>
     </row>
     <row r="1199">
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="E1199" t="n">
-        <v>-93.44198534752375</v>
+        <v>-93.44158658352686</v>
       </c>
     </row>
     <row r="1200">
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="E1200" t="n">
-        <v>2.195806415007644</v>
+        <v>2.195846568157827</v>
       </c>
     </row>
     <row r="1201">
@@ -20857,7 +20857,7 @@
         <v>1</v>
       </c>
       <c r="E1201" t="n">
-        <v>15.63321411273864</v>
+        <v>15.63328561354179</v>
       </c>
     </row>
   </sheetData>
